--- a/backend/app/Dogs.xlsx
+++ b/backend/app/Dogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="174">
   <si>
     <t>Naam</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>Ara</t>
@@ -94,6 +97,9 @@
     <t>Ik vertrouw je niet meteen, maar ik ben gek op mensen die ik ken. We knuffelen samen, snoepen samen en spelen samen!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/ara/</t>
+  </si>
+  <si>
     <t>Bailey</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>Ik ben lief, zachtaardig en energiek. Ik zoek mensen die graag met mij willen trainen en knuffelen!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/bailey-7/</t>
+  </si>
+  <si>
     <t>Bayka</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
   </si>
   <si>
     <t>Ik ben een vriendelijke, blije en energieke hond. Als je actief met je hond bezig wil zijn, ben ik wellicht een leuke match!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/bayka/</t>
   </si>
   <si>
     <t>Bessie</t>
@@ -153,10 +165,13 @@
 </t>
   </si>
   <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/07/IMG_7240-1200x800.jpg</t>
+    <t>https://dierenasielgenk.be/wp-content/uploads/2022/07/IMG_7253-1200x800.jpg</t>
   </si>
   <si>
     <t>Ik volg heel graag mijn neus, maar mijn oren zijn wat moeilijker. Ik zoek een lief, beste maatje!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/bessie/</t>
   </si>
   <si>
     <t>Bibi</t>
@@ -175,6 +190,9 @@
     <t>Wil jij Bibi een thuis bieden in een rustige omgeving? Dan krijg jij er een speels en liefdevol maatje voor het leven bij!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/bibi-een-pientere-speelvogel/</t>
+  </si>
+  <si>
     <t>Biegel</t>
   </si>
   <si>
@@ -195,20 +213,7 @@
     <t>Ik ben een échte speurneus!</t>
   </si>
   <si>
-    <t>Bijoux</t>
-  </si>
-  <si>
-    <t>Na 11,5 jaar gewoond te hebben in een fijn thuis mocht Bijoux helaas niet mee naar het nieuwe thuis van de mensen en is ze afgestaan aan het asiel.
-Dit zachtaardige omaatje is graag bij de mensen en geniet ontzettend van aandacht. Ze moet in het asiel nog wel wennen en is niet graag alleen wat ze laat weten door wat te blaffen.
-Graag zal ze met haar nieuwe baasje knuffelen en op pad gaan. We zoeken een thuis voor haar met een leuk hondenvriendje (bij voorkeur een stabiele reu) die haar ook gezelschap kan geven. Ze kan bij kinderen vanaf 10 jaar en ze vereist een omheinde tuin. 
-Bijoux houdt erg van eten en kent de commando’s ‘zit’ en ‘poot’.
-Bijoux is op leeftijd, maar nog altijd fit en wil graag nog wat gezellige jaren doorbrengen bij lieve baasjes.</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/10/EVIOCLICK_14-10-16-1200x800.jpg</t>
-  </si>
-  <si>
-    <t>Ik ben in de gouden jaren van mijn leven, maar ik ben nog altijd fit en wil graag nog wat gezellige jaren doorbrengen bij lieve baasjes!</t>
+    <t>https://dierenasielgenk.be/honden/biegel/</t>
   </si>
   <si>
     <t>Boelie</t>
@@ -230,6 +235,9 @@
     <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/boelie/</t>
+  </si>
+  <si>
     <t>Dario</t>
   </si>
   <si>
@@ -250,6 +258,9 @@
     <t>Ik ben wat onzeker, maar als je wat geduld hebt leer je me kennen als speelvogel en knuffelaar!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/dario-2/</t>
+  </si>
+  <si>
     <t>Didi</t>
   </si>
   <si>
@@ -265,6 +276,9 @@
   </si>
   <si>
     <t>Ik ben wat bang en onzeker, maar als ik je vertrouw ben ik heel vriendelijk en wil ik graag knuffelen en spelen!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/didi/</t>
   </si>
   <si>
     <t>Henkie</t>
@@ -288,6 +302,9 @@
     <t>Ik heb nog wat extra zorg en aandacht nodig, maar ik ben vrolijk, vriendelijk, speels en ik houd van aandacht!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/henkie-3/</t>
+  </si>
+  <si>
     <t>Imara</t>
   </si>
   <si>
@@ -304,6 +321,9 @@
     <t>Ik heb nog wat zorg en leermomenten nodig, maar ik ben heel erg lief en zachtaardig!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/imara/</t>
+  </si>
+  <si>
     <t>Junior</t>
   </si>
   <si>
@@ -318,6 +338,9 @@
   </si>
   <si>
     <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/junior/</t>
   </si>
   <si>
     <t>Kita</t>
@@ -337,6 +360,9 @@
     <t xml:space="preserve">Ik ben actief, gek op eten en wil de wereld graag ontdekken met een leuk baasje. Mensen die graag hondensport willen beoefenen zijn ideaal! </t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/kita-2/</t>
+  </si>
+  <si>
     <t>Lucky</t>
   </si>
   <si>
@@ -354,6 +380,9 @@
     <t>Ik ben onzeker maar wel erg nieuwsgierig en als ik je vertrouw ben ik een echte knuffelaar en speelvogel!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/lucky-2/</t>
+  </si>
+  <si>
     <t>Max en Sky</t>
   </si>
   <si>
@@ -368,6 +397,9 @@
   </si>
   <si>
     <t>Double trouble, dubbel zoveel plezier en liefde!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/max-en-sky-duoplaatsing/</t>
   </si>
   <si>
     <t>https://dierenasielgenk.be/wp-content/uploads/2022/09/ASIELGENK_WEB-25-1200x800.jpg</t>
@@ -397,6 +429,9 @@
     <t>Adopteer je mij, dan heb je een vriendin voor het leven! Mini muis voor maxi pret!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/mini/</t>
+  </si>
+  <si>
     <t>Molly</t>
   </si>
   <si>
@@ -416,7 +451,13 @@
     <t>Zoek je een trouwe, leergierige metgezel om verder te laten kennismaken met het huiselijke leven? Dan is Molly misschien wel je ideale match!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/molly/</t>
+  </si>
+  <si>
     <t>Poyraz</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/poyraz/</t>
   </si>
   <si>
     <t>Rita</t>
@@ -439,6 +480,9 @@
     <t>Ik ben geen allemansvriend, maar ik ben gek op snoepjes, spelen en knuffelen met bekende mensen!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/rita/</t>
+  </si>
+  <si>
     <t>Rosa</t>
   </si>
   <si>
@@ -453,6 +497,9 @@
   </si>
   <si>
     <t>Ik zou heel graag een warme, fijne thuis vinden met geduldige mensen die me goed verzorgen en aandacht geven!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/rosa-2/</t>
   </si>
   <si>
     <t>Ryna</t>
@@ -472,6 +519,9 @@
     <t>Ik moet nog wennen aan het leven binnen, maar ik ben erg nieuwsgierig en ik vind het heerlijk om te spelen en geaaid te worden!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/ryna/</t>
+  </si>
+  <si>
     <t>Skippy</t>
   </si>
   <si>
@@ -486,6 +536,9 @@
   </si>
   <si>
     <t>Bied jij deze energieke herdershond een actief en liefdevol leven, dan wordt Skippy zeker en vast je beste vriendin!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/skippy/</t>
   </si>
   <si>
     <t>Storm</t>
@@ -503,6 +556,9 @@
   </si>
   <si>
     <t>Ik ben een actieve Husky, ik weet heel goed wat ik wil!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/storm/</t>
   </si>
   <si>
     <t>Thor</t>
@@ -523,6 +579,9 @@
     <t xml:space="preserve">Ik zou heel graag de rest van mijn leven doorbrengen op een plek waar ik graag gezien wordt, voldoende eten krijg en goed verzorgd wordt. </t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/thor/</t>
+  </si>
+  <si>
     <t>Tipsie</t>
   </si>
   <si>
@@ -538,6 +597,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ik ben een hele zachte, lieve dame die ook wel houdt van wat mentale uitdagingen! Wordt jij mijn nieuwe maatje? </t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/tipsie/</t>
   </si>
   <si>
     <t>Vicky</t>
@@ -561,6 +623,9 @@
     <t>Zoek je een energiek, aanhankelijk maatje dat je eerst vanop een veilig plekje kunt laten wennen aan het leven in huis? Dan is Vicky misschien wel de geknipte hond voor jou!</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/vicky/</t>
+  </si>
+  <si>
     <t>Zita</t>
   </si>
   <si>
@@ -579,6 +644,9 @@
     <t>Bent u op zoek naar een vrolijke en gezellige dame om leuke dingen mee te doen, maar ook om lekker mee in de zetel te liggen? Dan is Zita de juiste hond.</t>
   </si>
   <si>
+    <t>https://dierenasielgenk.be/honden/zita/</t>
+  </si>
+  <si>
     <t>Zora</t>
   </si>
   <si>
@@ -594,6 +662,9 @@
   </si>
   <si>
     <t>Ik speel graag, ik werk graag en ik ben leergierig, maar ook zeker aanhankelijkheid ontbreekt niet!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/zora/</t>
   </si>
   <si>
     <t>Zuma</t>
@@ -615,6 +686,9 @@
   </si>
   <si>
     <t>Ik ben op zoek naar een baasje om mee te spelen en te speuren en om samen een mooie band op te bouwen!</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/zuma/</t>
   </si>
 </sst>
 </file>
@@ -952,6 +1026,7 @@
     <col customWidth="1" min="12" max="12" width="51.75"/>
     <col customWidth="1" min="13" max="13" width="32.75"/>
     <col customWidth="1" min="14" max="14" width="40.5"/>
+    <col customWidth="1" min="15" max="15" width="46.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -997,1341 +1072,1403 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" ht="42.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="42.0" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="42.0" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="42.0" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="42.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="42.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="42.0" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="42.0" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="42.0" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="42.0" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="42.0" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="42.0" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="42.0" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="42.0" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="42.0" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="42.0" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L17" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" ht="42.0" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L18" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="42.0" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="L19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" ht="42.0" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="O20" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" ht="42.0" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" ht="42.0" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" ht="42.0" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>107</v>
+        <v>127</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" ht="42.0" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>111</v>
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" ht="42.0" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>115</v>
+        <v>137</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" ht="42.0" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L25" s="5" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>119</v>
+        <v>142</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" ht="42.0" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" ht="42.0" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L27" s="5" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>127</v>
+        <v>152</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" ht="42.0" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L28" s="5" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>131</v>
+        <v>157</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="29" ht="42.0" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" ht="42.0" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L30" s="5" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>139</v>
+        <v>167</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" ht="42.0" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>143</v>
+        <v>172</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" ht="42.0" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" ht="42.0" customHeight="1">
       <c r="A33" s="4"/>
@@ -2474,7 +2611,6 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
     </row>
     <row r="44" ht="42.0" customHeight="1">
       <c r="A44" s="4"/>
@@ -2609,7 +2745,6 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" ht="42.0" customHeight="1">
-      <c r="A55" s="4"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2951,15 +3086,8 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" ht="42.0" customHeight="1">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" ht="42.0" customHeight="1">
       <c r="D87" s="10"/>
@@ -6597,43 +6725,68 @@
       <c r="D995" s="10"/>
       <c r="G995" s="10"/>
     </row>
-    <row r="996" ht="42.0" customHeight="1">
-      <c r="D996" s="10"/>
-      <c r="G996" s="10"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId2" ref="M3"/>
-    <hyperlink r:id="rId3" ref="M4"/>
-    <hyperlink r:id="rId4" ref="M5"/>
-    <hyperlink r:id="rId5" ref="M6"/>
-    <hyperlink r:id="rId6" ref="M7"/>
-    <hyperlink r:id="rId7" ref="M8"/>
-    <hyperlink r:id="rId8" ref="M9"/>
-    <hyperlink r:id="rId9" ref="M10"/>
-    <hyperlink r:id="rId10" ref="M11"/>
-    <hyperlink r:id="rId11" ref="M12"/>
-    <hyperlink r:id="rId12" ref="M13"/>
-    <hyperlink r:id="rId13" ref="M14"/>
-    <hyperlink r:id="rId14" ref="M15"/>
-    <hyperlink r:id="rId15" ref="M16"/>
-    <hyperlink r:id="rId16" ref="M17"/>
-    <hyperlink r:id="rId17" ref="M18"/>
-    <hyperlink r:id="rId18" ref="M19"/>
-    <hyperlink r:id="rId19" ref="M20"/>
-    <hyperlink r:id="rId20" ref="M22"/>
-    <hyperlink r:id="rId21" ref="M23"/>
-    <hyperlink r:id="rId22" ref="M24"/>
-    <hyperlink r:id="rId23" ref="M25"/>
-    <hyperlink r:id="rId24" ref="M26"/>
-    <hyperlink r:id="rId25" ref="M27"/>
-    <hyperlink r:id="rId26" ref="M28"/>
-    <hyperlink r:id="rId27" ref="M29"/>
-    <hyperlink r:id="rId28" ref="M30"/>
-    <hyperlink r:id="rId29" ref="M31"/>
-    <hyperlink r:id="rId30" ref="M32"/>
+    <hyperlink r:id="rId2" ref="O2"/>
+    <hyperlink r:id="rId3" ref="M3"/>
+    <hyperlink r:id="rId4" ref="O3"/>
+    <hyperlink r:id="rId5" ref="M4"/>
+    <hyperlink r:id="rId6" ref="O4"/>
+    <hyperlink r:id="rId7" ref="M5"/>
+    <hyperlink r:id="rId8" ref="O5"/>
+    <hyperlink r:id="rId9" ref="M6"/>
+    <hyperlink r:id="rId10" ref="O6"/>
+    <hyperlink r:id="rId11" ref="M7"/>
+    <hyperlink r:id="rId12" ref="O7"/>
+    <hyperlink r:id="rId13" ref="M8"/>
+    <hyperlink r:id="rId14" ref="O8"/>
+    <hyperlink r:id="rId15" ref="M9"/>
+    <hyperlink r:id="rId16" ref="O9"/>
+    <hyperlink r:id="rId17" ref="M10"/>
+    <hyperlink r:id="rId18" ref="O10"/>
+    <hyperlink r:id="rId19" ref="M11"/>
+    <hyperlink r:id="rId20" ref="O11"/>
+    <hyperlink r:id="rId21" ref="M12"/>
+    <hyperlink r:id="rId22" ref="O12"/>
+    <hyperlink r:id="rId23" ref="M13"/>
+    <hyperlink r:id="rId24" ref="O13"/>
+    <hyperlink r:id="rId25" ref="M14"/>
+    <hyperlink r:id="rId26" ref="O14"/>
+    <hyperlink r:id="rId27" ref="M15"/>
+    <hyperlink r:id="rId28" ref="O15"/>
+    <hyperlink r:id="rId29" ref="M16"/>
+    <hyperlink r:id="rId30" ref="O16"/>
+    <hyperlink r:id="rId31" ref="M17"/>
+    <hyperlink r:id="rId32" ref="O17"/>
+    <hyperlink r:id="rId33" ref="M18"/>
+    <hyperlink r:id="rId34" ref="O18"/>
+    <hyperlink r:id="rId35" ref="M19"/>
+    <hyperlink r:id="rId36" ref="O19"/>
+    <hyperlink r:id="rId37" ref="O20"/>
+    <hyperlink r:id="rId38" ref="M21"/>
+    <hyperlink r:id="rId39" ref="O21"/>
+    <hyperlink r:id="rId40" ref="M22"/>
+    <hyperlink r:id="rId41" ref="O22"/>
+    <hyperlink r:id="rId42" ref="M23"/>
+    <hyperlink r:id="rId43" ref="O23"/>
+    <hyperlink r:id="rId44" ref="M24"/>
+    <hyperlink r:id="rId45" ref="O24"/>
+    <hyperlink r:id="rId46" ref="M25"/>
+    <hyperlink r:id="rId47" ref="O25"/>
+    <hyperlink r:id="rId48" ref="M26"/>
+    <hyperlink r:id="rId49" ref="O26"/>
+    <hyperlink r:id="rId50" ref="M27"/>
+    <hyperlink r:id="rId51" ref="O27"/>
+    <hyperlink r:id="rId52" ref="M28"/>
+    <hyperlink r:id="rId53" ref="O28"/>
+    <hyperlink r:id="rId54" ref="M29"/>
+    <hyperlink r:id="rId55" ref="O29"/>
+    <hyperlink r:id="rId56" ref="M30"/>
+    <hyperlink r:id="rId57" ref="O30"/>
+    <hyperlink r:id="rId58" ref="M31"/>
+    <hyperlink r:id="rId59" ref="O31"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
--- a/backend/app/Dogs.xlsx
+++ b/backend/app/Dogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
   <si>
     <t>Naam</t>
   </si>
@@ -305,6 +305,26 @@
     <t>https://dierenasielgenk.be/honden/henkie-3/</t>
   </si>
   <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>De eigenaar van Herman heeft een tijdje in het ziekenhuis gelegen en heeft besloten afstand te doen van hem.
+Helaas hebben we geen informatie over Herman zijn verleden, maar gelukkig hebben we een hele vriendelijke Herman leren kennen. Bekende en onbekende mensen worden vriendelijk begroet.
+Herman is een hele stabiele hond, die momenten van rust weet af te wisselen met momenten van actief doen.
+We merken dat Herman veel zijn eigen ding heeft gedaan. Hij heeft geen nood om continu bij de mensen te zijn, al kan hij een aai op zijn tijd absoluut waarderen.
+Herman vindt het fijn om te spelen en kan zich hier ook zelf mee bezig houden. Hij is daarnaast een echte fijnproever en is gek op eten.
+De vorige eigenaar gaf aan dat Herman niet goed reageert op andere honden. Het is dan ook noodzakelijk dat we voor hem een thuis vinden zonder honden. Kinderen vanaf ongeveer 12 jaar zou zeker een mogelijkheid zijn. Herman zou als eerste hond kunnen worden geplaatst.</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/wp-content/uploads/2022/12/herman.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ben een vriendelijke, stabiele hond. Word jij mijn nieuwe baas? </t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/herman/</t>
+  </si>
+  <si>
     <t>Imara</t>
   </si>
   <si>
@@ -361,26 +381,6 @@
   </si>
   <si>
     <t>https://dierenasielgenk.be/honden/kita-2/</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Overgekomen vanuit Roemenië is Lucky nu als inbeslagname in ons asiel beland.
-We hopen dat snel het tij van onge-Lucky gaat keren en dat hij in een nieuw thuis veel geluk mag gaan ervaren.
-We hebben Lucky leren kennen als een onzekere hond die wel erg nieuwsgierig is en op onderzoek uit gaat. In eerste instantie zijn nieuwe dingen eng, maar met de juiste begeleiding is hij wel te sturen en durft hij dingen te onderzoeken.
-Hij is graag bij mensen die hij vertrouwt en is dan een knuffelaar. Daarnaast speelt hij graag met mensen en met speeltjes en eet hij graag vleesjes. Aan wat commando’s zal nog gewerkt moeten worden.
-De deuren in zijn nieuwe thuis kunnen het best Lucky-proof zijn doordat hij deze graag open maakt om van de buitenlucht te genieten. Hij is graag buiten en snuffelt er dan op los.
-We zoeken voor Lucky een huis met een tuin waar gewerkt kan worden aan het vertrouwen tussen hem en zijn nieuwe baasje(s) en welke begrijpen dat Lucky niet in alle situaties de meest open en sociale hond is. Oudere kinderen en eventueel een stabiel teefje behoren tot de mogelijkheden.</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/IMG20221104163040-1200x900.jpg</t>
-  </si>
-  <si>
-    <t>Ik ben onzeker maar wel erg nieuwsgierig en als ik je vertrouw ben ik een echte knuffelaar en speelvogel!</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/lucky-2/</t>
   </si>
   <si>
     <t>Max en Sky</t>
@@ -454,12 +454,6 @@
     <t>https://dierenasielgenk.be/honden/molly/</t>
   </si>
   <si>
-    <t>Poyraz</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/poyraz/</t>
-  </si>
-  <si>
     <t>Rita</t>
   </si>
   <si>
@@ -695,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -740,11 +734,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -764,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -789,13 +778,10 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1551,25 +1537,25 @@
         <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>22</v>
@@ -1583,7 +1569,7 @@
       <c r="L12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -1598,19 +1584,19 @@
         <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1619,10 +1605,10 @@
         <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
@@ -1630,7 +1616,7 @@
       <c r="L13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1645,13 +1631,13 @@
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -1660,13 +1646,13 @@
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>32</v>
@@ -1692,31 +1678,31 @@
         <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>19</v>
@@ -1724,7 +1710,7 @@
       <c r="L15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -1923,97 +1909,126 @@
       </c>
     </row>
     <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="O20" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="42.0" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" ht="42.0" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>22</v>
@@ -2022,21 +2037,21 @@
         <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="42.0" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
@@ -2045,10 +2060,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>19</v>
@@ -2069,21 +2084,21 @@
         <v>19</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="42.0" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
@@ -2101,7 +2116,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
@@ -2110,30 +2125,30 @@
         <v>22</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="42.0" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
@@ -2142,51 +2157,51 @@
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" ht="42.0" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>65</v>
@@ -2198,54 +2213,54 @@
         <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" ht="42.0" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>21</v>
@@ -2254,30 +2269,30 @@
         <v>32</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="42.0" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
@@ -2289,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>20</v>
@@ -2298,33 +2313,33 @@
         <v>21</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" ht="42.0" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
@@ -2336,51 +2351,51 @@
         <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" ht="42.0" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2395,4335 +2410,4275 @@
         <v>32</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" ht="42.0" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" ht="42.0" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" ht="42.0" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" ht="42.0" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" ht="42.0" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" ht="42.0" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" ht="42.0" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" ht="42.0" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" ht="42.0" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" ht="42.0" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" ht="42.0" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" ht="42.0" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" ht="42.0" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" ht="42.0" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" ht="42.0" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" ht="42.0" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" ht="42.0" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" ht="42.0" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" ht="42.0" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" ht="42.0" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" ht="42.0" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" ht="42.0" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" ht="42.0" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" ht="42.0" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" ht="42.0" customHeight="1">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" ht="42.0" customHeight="1">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" ht="42.0" customHeight="1">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" ht="42.0" customHeight="1">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" ht="42.0" customHeight="1">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" ht="42.0" customHeight="1">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" ht="42.0" customHeight="1">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" ht="42.0" customHeight="1">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" ht="42.0" customHeight="1">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" ht="42.0" customHeight="1">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" ht="42.0" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" ht="42.0" customHeight="1">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" ht="42.0" customHeight="1">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" ht="42.0" customHeight="1">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" ht="42.0" customHeight="1">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" ht="42.0" customHeight="1">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" ht="42.0" customHeight="1">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" ht="42.0" customHeight="1">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" ht="42.0" customHeight="1">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" ht="42.0" customHeight="1">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" ht="42.0" customHeight="1">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" ht="42.0" customHeight="1">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" ht="42.0" customHeight="1">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" ht="42.0" customHeight="1">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" ht="42.0" customHeight="1">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" ht="42.0" customHeight="1">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" ht="42.0" customHeight="1">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" ht="42.0" customHeight="1">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" ht="42.0" customHeight="1">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" ht="42.0" customHeight="1">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
     </row>
     <row r="85" ht="42.0" customHeight="1">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
     </row>
     <row r="86" ht="42.0" customHeight="1">
-      <c r="D86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="D86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" ht="42.0" customHeight="1">
-      <c r="D87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="D87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" ht="42.0" customHeight="1">
-      <c r="D88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" ht="42.0" customHeight="1">
-      <c r="D89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" ht="42.0" customHeight="1">
-      <c r="D90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="D90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" ht="42.0" customHeight="1">
-      <c r="D91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="D91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" ht="42.0" customHeight="1">
-      <c r="D92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" ht="42.0" customHeight="1">
-      <c r="D93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="D93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" ht="42.0" customHeight="1">
-      <c r="D94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="D94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" ht="42.0" customHeight="1">
-      <c r="D95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="D95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" ht="42.0" customHeight="1">
-      <c r="D96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="D96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" ht="42.0" customHeight="1">
-      <c r="D97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="D97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" ht="42.0" customHeight="1">
-      <c r="D98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" ht="42.0" customHeight="1">
-      <c r="D99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" ht="42.0" customHeight="1">
-      <c r="D100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="D100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" ht="42.0" customHeight="1">
-      <c r="D101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" ht="42.0" customHeight="1">
-      <c r="D102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="D102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" ht="42.0" customHeight="1">
-      <c r="D103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" ht="42.0" customHeight="1">
-      <c r="D104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="D104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" ht="42.0" customHeight="1">
-      <c r="D105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="D105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" ht="42.0" customHeight="1">
-      <c r="D106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="D106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" ht="42.0" customHeight="1">
-      <c r="D107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="D107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" ht="42.0" customHeight="1">
-      <c r="D108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="D108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" ht="42.0" customHeight="1">
-      <c r="D109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="D109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" ht="42.0" customHeight="1">
-      <c r="D110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="D110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" ht="42.0" customHeight="1">
-      <c r="D111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="D111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" ht="42.0" customHeight="1">
-      <c r="D112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="D112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
     <row r="113" ht="42.0" customHeight="1">
-      <c r="D113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="D113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" ht="42.0" customHeight="1">
-      <c r="D114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="D114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" ht="42.0" customHeight="1">
-      <c r="D115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="D115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" ht="42.0" customHeight="1">
-      <c r="D116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" ht="42.0" customHeight="1">
-      <c r="D117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="D117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" ht="42.0" customHeight="1">
-      <c r="D118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="D118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" ht="42.0" customHeight="1">
-      <c r="D119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="D119" s="9"/>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" ht="42.0" customHeight="1">
-      <c r="D120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="D120" s="9"/>
+      <c r="G120" s="9"/>
     </row>
     <row r="121" ht="42.0" customHeight="1">
-      <c r="D121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="D121" s="9"/>
+      <c r="G121" s="9"/>
     </row>
     <row r="122" ht="42.0" customHeight="1">
-      <c r="D122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="D122" s="9"/>
+      <c r="G122" s="9"/>
     </row>
     <row r="123" ht="42.0" customHeight="1">
-      <c r="D123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="D123" s="9"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" ht="42.0" customHeight="1">
-      <c r="D124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="D124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" ht="42.0" customHeight="1">
-      <c r="D125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="D125" s="9"/>
+      <c r="G125" s="9"/>
     </row>
     <row r="126" ht="42.0" customHeight="1">
-      <c r="D126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="D126" s="9"/>
+      <c r="G126" s="9"/>
     </row>
     <row r="127" ht="42.0" customHeight="1">
-      <c r="D127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="G127" s="9"/>
     </row>
     <row r="128" ht="42.0" customHeight="1">
-      <c r="D128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="G128" s="9"/>
     </row>
     <row r="129" ht="42.0" customHeight="1">
-      <c r="D129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="D129" s="9"/>
+      <c r="G129" s="9"/>
     </row>
     <row r="130" ht="42.0" customHeight="1">
-      <c r="D130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="D130" s="9"/>
+      <c r="G130" s="9"/>
     </row>
     <row r="131" ht="42.0" customHeight="1">
-      <c r="D131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="D131" s="9"/>
+      <c r="G131" s="9"/>
     </row>
     <row r="132" ht="42.0" customHeight="1">
-      <c r="D132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="D132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" ht="42.0" customHeight="1">
-      <c r="D133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="D133" s="9"/>
+      <c r="G133" s="9"/>
     </row>
     <row r="134" ht="42.0" customHeight="1">
-      <c r="D134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="D134" s="9"/>
+      <c r="G134" s="9"/>
     </row>
     <row r="135" ht="42.0" customHeight="1">
-      <c r="D135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="D135" s="9"/>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" ht="42.0" customHeight="1">
-      <c r="D136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="D136" s="9"/>
+      <c r="G136" s="9"/>
     </row>
     <row r="137" ht="42.0" customHeight="1">
-      <c r="D137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="D137" s="9"/>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" ht="42.0" customHeight="1">
-      <c r="D138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="D138" s="9"/>
+      <c r="G138" s="9"/>
     </row>
     <row r="139" ht="42.0" customHeight="1">
-      <c r="D139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="D139" s="9"/>
+      <c r="G139" s="9"/>
     </row>
     <row r="140" ht="42.0" customHeight="1">
-      <c r="D140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="D140" s="9"/>
+      <c r="G140" s="9"/>
     </row>
     <row r="141" ht="42.0" customHeight="1">
-      <c r="D141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="D141" s="9"/>
+      <c r="G141" s="9"/>
     </row>
     <row r="142" ht="42.0" customHeight="1">
-      <c r="D142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="D142" s="9"/>
+      <c r="G142" s="9"/>
     </row>
     <row r="143" ht="42.0" customHeight="1">
-      <c r="D143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="D143" s="9"/>
+      <c r="G143" s="9"/>
     </row>
     <row r="144" ht="42.0" customHeight="1">
-      <c r="D144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="D144" s="9"/>
+      <c r="G144" s="9"/>
     </row>
     <row r="145" ht="42.0" customHeight="1">
-      <c r="D145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="D145" s="9"/>
+      <c r="G145" s="9"/>
     </row>
     <row r="146" ht="42.0" customHeight="1">
-      <c r="D146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="D146" s="9"/>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" ht="42.0" customHeight="1">
-      <c r="D147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="D147" s="9"/>
+      <c r="G147" s="9"/>
     </row>
     <row r="148" ht="42.0" customHeight="1">
-      <c r="D148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="D148" s="9"/>
+      <c r="G148" s="9"/>
     </row>
     <row r="149" ht="42.0" customHeight="1">
-      <c r="D149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="D149" s="9"/>
+      <c r="G149" s="9"/>
     </row>
     <row r="150" ht="42.0" customHeight="1">
-      <c r="D150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="D150" s="9"/>
+      <c r="G150" s="9"/>
     </row>
     <row r="151" ht="42.0" customHeight="1">
-      <c r="D151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="D151" s="9"/>
+      <c r="G151" s="9"/>
     </row>
     <row r="152" ht="42.0" customHeight="1">
-      <c r="D152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="D152" s="9"/>
+      <c r="G152" s="9"/>
     </row>
     <row r="153" ht="42.0" customHeight="1">
-      <c r="D153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="D153" s="9"/>
+      <c r="G153" s="9"/>
     </row>
     <row r="154" ht="42.0" customHeight="1">
-      <c r="D154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="D154" s="9"/>
+      <c r="G154" s="9"/>
     </row>
     <row r="155" ht="42.0" customHeight="1">
-      <c r="D155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="D155" s="9"/>
+      <c r="G155" s="9"/>
     </row>
     <row r="156" ht="42.0" customHeight="1">
-      <c r="D156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="D156" s="9"/>
+      <c r="G156" s="9"/>
     </row>
     <row r="157" ht="42.0" customHeight="1">
-      <c r="D157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="D157" s="9"/>
+      <c r="G157" s="9"/>
     </row>
     <row r="158" ht="42.0" customHeight="1">
-      <c r="D158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="D158" s="9"/>
+      <c r="G158" s="9"/>
     </row>
     <row r="159" ht="42.0" customHeight="1">
-      <c r="D159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="D159" s="9"/>
+      <c r="G159" s="9"/>
     </row>
     <row r="160" ht="42.0" customHeight="1">
-      <c r="D160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="D160" s="9"/>
+      <c r="G160" s="9"/>
     </row>
     <row r="161" ht="42.0" customHeight="1">
-      <c r="D161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="D161" s="9"/>
+      <c r="G161" s="9"/>
     </row>
     <row r="162" ht="42.0" customHeight="1">
-      <c r="D162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="D162" s="9"/>
+      <c r="G162" s="9"/>
     </row>
     <row r="163" ht="42.0" customHeight="1">
-      <c r="D163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="D163" s="9"/>
+      <c r="G163" s="9"/>
     </row>
     <row r="164" ht="42.0" customHeight="1">
-      <c r="D164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="D164" s="9"/>
+      <c r="G164" s="9"/>
     </row>
     <row r="165" ht="42.0" customHeight="1">
-      <c r="D165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="D165" s="9"/>
+      <c r="G165" s="9"/>
     </row>
     <row r="166" ht="42.0" customHeight="1">
-      <c r="D166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="D166" s="9"/>
+      <c r="G166" s="9"/>
     </row>
     <row r="167" ht="42.0" customHeight="1">
-      <c r="D167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="D167" s="9"/>
+      <c r="G167" s="9"/>
     </row>
     <row r="168" ht="42.0" customHeight="1">
-      <c r="D168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="D168" s="9"/>
+      <c r="G168" s="9"/>
     </row>
     <row r="169" ht="42.0" customHeight="1">
-      <c r="D169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="D169" s="9"/>
+      <c r="G169" s="9"/>
     </row>
     <row r="170" ht="42.0" customHeight="1">
-      <c r="D170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="D170" s="9"/>
+      <c r="G170" s="9"/>
     </row>
     <row r="171" ht="42.0" customHeight="1">
-      <c r="D171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="D171" s="9"/>
+      <c r="G171" s="9"/>
     </row>
     <row r="172" ht="42.0" customHeight="1">
-      <c r="D172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="D172" s="9"/>
+      <c r="G172" s="9"/>
     </row>
     <row r="173" ht="42.0" customHeight="1">
-      <c r="D173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="D173" s="9"/>
+      <c r="G173" s="9"/>
     </row>
     <row r="174" ht="42.0" customHeight="1">
-      <c r="D174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="D174" s="9"/>
+      <c r="G174" s="9"/>
     </row>
     <row r="175" ht="42.0" customHeight="1">
-      <c r="D175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="D175" s="9"/>
+      <c r="G175" s="9"/>
     </row>
     <row r="176" ht="42.0" customHeight="1">
-      <c r="D176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="D176" s="9"/>
+      <c r="G176" s="9"/>
     </row>
     <row r="177" ht="42.0" customHeight="1">
-      <c r="D177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="D177" s="9"/>
+      <c r="G177" s="9"/>
     </row>
     <row r="178" ht="42.0" customHeight="1">
-      <c r="D178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="D178" s="9"/>
+      <c r="G178" s="9"/>
     </row>
     <row r="179" ht="42.0" customHeight="1">
-      <c r="D179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="D179" s="9"/>
+      <c r="G179" s="9"/>
     </row>
     <row r="180" ht="42.0" customHeight="1">
-      <c r="D180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="D180" s="9"/>
+      <c r="G180" s="9"/>
     </row>
     <row r="181" ht="42.0" customHeight="1">
-      <c r="D181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="D181" s="9"/>
+      <c r="G181" s="9"/>
     </row>
     <row r="182" ht="42.0" customHeight="1">
-      <c r="D182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="D182" s="9"/>
+      <c r="G182" s="9"/>
     </row>
     <row r="183" ht="42.0" customHeight="1">
-      <c r="D183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="D183" s="9"/>
+      <c r="G183" s="9"/>
     </row>
     <row r="184" ht="42.0" customHeight="1">
-      <c r="D184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="D184" s="9"/>
+      <c r="G184" s="9"/>
     </row>
     <row r="185" ht="42.0" customHeight="1">
-      <c r="D185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="D185" s="9"/>
+      <c r="G185" s="9"/>
     </row>
     <row r="186" ht="42.0" customHeight="1">
-      <c r="D186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="D186" s="9"/>
+      <c r="G186" s="9"/>
     </row>
     <row r="187" ht="42.0" customHeight="1">
-      <c r="D187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="D187" s="9"/>
+      <c r="G187" s="9"/>
     </row>
     <row r="188" ht="42.0" customHeight="1">
-      <c r="D188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="D188" s="9"/>
+      <c r="G188" s="9"/>
     </row>
     <row r="189" ht="42.0" customHeight="1">
-      <c r="D189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="D189" s="9"/>
+      <c r="G189" s="9"/>
     </row>
     <row r="190" ht="42.0" customHeight="1">
-      <c r="D190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="D190" s="9"/>
+      <c r="G190" s="9"/>
     </row>
     <row r="191" ht="42.0" customHeight="1">
-      <c r="D191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="D191" s="9"/>
+      <c r="G191" s="9"/>
     </row>
     <row r="192" ht="42.0" customHeight="1">
-      <c r="D192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="D192" s="9"/>
+      <c r="G192" s="9"/>
     </row>
     <row r="193" ht="42.0" customHeight="1">
-      <c r="D193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="D193" s="9"/>
+      <c r="G193" s="9"/>
     </row>
     <row r="194" ht="42.0" customHeight="1">
-      <c r="D194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="D194" s="9"/>
+      <c r="G194" s="9"/>
     </row>
     <row r="195" ht="42.0" customHeight="1">
-      <c r="D195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="D195" s="9"/>
+      <c r="G195" s="9"/>
     </row>
     <row r="196" ht="42.0" customHeight="1">
-      <c r="D196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="D196" s="9"/>
+      <c r="G196" s="9"/>
     </row>
     <row r="197" ht="42.0" customHeight="1">
-      <c r="D197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="D197" s="9"/>
+      <c r="G197" s="9"/>
     </row>
     <row r="198" ht="42.0" customHeight="1">
-      <c r="D198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="D198" s="9"/>
+      <c r="G198" s="9"/>
     </row>
     <row r="199" ht="42.0" customHeight="1">
-      <c r="D199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="D199" s="9"/>
+      <c r="G199" s="9"/>
     </row>
     <row r="200" ht="42.0" customHeight="1">
-      <c r="D200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="D200" s="9"/>
+      <c r="G200" s="9"/>
     </row>
     <row r="201" ht="42.0" customHeight="1">
-      <c r="D201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="D201" s="9"/>
+      <c r="G201" s="9"/>
     </row>
     <row r="202" ht="42.0" customHeight="1">
-      <c r="D202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="D202" s="9"/>
+      <c r="G202" s="9"/>
     </row>
     <row r="203" ht="42.0" customHeight="1">
-      <c r="D203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="D203" s="9"/>
+      <c r="G203" s="9"/>
     </row>
     <row r="204" ht="42.0" customHeight="1">
-      <c r="D204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="D204" s="9"/>
+      <c r="G204" s="9"/>
     </row>
     <row r="205" ht="42.0" customHeight="1">
-      <c r="D205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="D205" s="9"/>
+      <c r="G205" s="9"/>
     </row>
     <row r="206" ht="42.0" customHeight="1">
-      <c r="D206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="D206" s="9"/>
+      <c r="G206" s="9"/>
     </row>
     <row r="207" ht="42.0" customHeight="1">
-      <c r="D207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="D207" s="9"/>
+      <c r="G207" s="9"/>
     </row>
     <row r="208" ht="42.0" customHeight="1">
-      <c r="D208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="D208" s="9"/>
+      <c r="G208" s="9"/>
     </row>
     <row r="209" ht="42.0" customHeight="1">
-      <c r="D209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="D209" s="9"/>
+      <c r="G209" s="9"/>
     </row>
     <row r="210" ht="42.0" customHeight="1">
-      <c r="D210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="D210" s="9"/>
+      <c r="G210" s="9"/>
     </row>
     <row r="211" ht="42.0" customHeight="1">
-      <c r="D211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="D211" s="9"/>
+      <c r="G211" s="9"/>
     </row>
     <row r="212" ht="42.0" customHeight="1">
-      <c r="D212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="D212" s="9"/>
+      <c r="G212" s="9"/>
     </row>
     <row r="213" ht="42.0" customHeight="1">
-      <c r="D213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="D213" s="9"/>
+      <c r="G213" s="9"/>
     </row>
     <row r="214" ht="42.0" customHeight="1">
-      <c r="D214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="D214" s="9"/>
+      <c r="G214" s="9"/>
     </row>
     <row r="215" ht="42.0" customHeight="1">
-      <c r="D215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="D215" s="9"/>
+      <c r="G215" s="9"/>
     </row>
     <row r="216" ht="42.0" customHeight="1">
-      <c r="D216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="D216" s="9"/>
+      <c r="G216" s="9"/>
     </row>
     <row r="217" ht="42.0" customHeight="1">
-      <c r="D217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="D217" s="9"/>
+      <c r="G217" s="9"/>
     </row>
     <row r="218" ht="42.0" customHeight="1">
-      <c r="D218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="D218" s="9"/>
+      <c r="G218" s="9"/>
     </row>
     <row r="219" ht="42.0" customHeight="1">
-      <c r="D219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="D219" s="9"/>
+      <c r="G219" s="9"/>
     </row>
     <row r="220" ht="42.0" customHeight="1">
-      <c r="D220" s="10"/>
-      <c r="G220" s="10"/>
+      <c r="D220" s="9"/>
+      <c r="G220" s="9"/>
     </row>
     <row r="221" ht="42.0" customHeight="1">
-      <c r="D221" s="10"/>
-      <c r="G221" s="10"/>
+      <c r="D221" s="9"/>
+      <c r="G221" s="9"/>
     </row>
     <row r="222" ht="42.0" customHeight="1">
-      <c r="D222" s="10"/>
-      <c r="G222" s="10"/>
+      <c r="D222" s="9"/>
+      <c r="G222" s="9"/>
     </row>
     <row r="223" ht="42.0" customHeight="1">
-      <c r="D223" s="10"/>
-      <c r="G223" s="10"/>
+      <c r="D223" s="9"/>
+      <c r="G223" s="9"/>
     </row>
     <row r="224" ht="42.0" customHeight="1">
-      <c r="D224" s="10"/>
-      <c r="G224" s="10"/>
+      <c r="D224" s="9"/>
+      <c r="G224" s="9"/>
     </row>
     <row r="225" ht="42.0" customHeight="1">
-      <c r="D225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="D225" s="9"/>
+      <c r="G225" s="9"/>
     </row>
     <row r="226" ht="42.0" customHeight="1">
-      <c r="D226" s="10"/>
-      <c r="G226" s="10"/>
+      <c r="D226" s="9"/>
+      <c r="G226" s="9"/>
     </row>
     <row r="227" ht="42.0" customHeight="1">
-      <c r="D227" s="10"/>
-      <c r="G227" s="10"/>
+      <c r="D227" s="9"/>
+      <c r="G227" s="9"/>
     </row>
     <row r="228" ht="42.0" customHeight="1">
-      <c r="D228" s="10"/>
-      <c r="G228" s="10"/>
+      <c r="D228" s="9"/>
+      <c r="G228" s="9"/>
     </row>
     <row r="229" ht="42.0" customHeight="1">
-      <c r="D229" s="10"/>
-      <c r="G229" s="10"/>
+      <c r="D229" s="9"/>
+      <c r="G229" s="9"/>
     </row>
     <row r="230" ht="42.0" customHeight="1">
-      <c r="D230" s="10"/>
-      <c r="G230" s="10"/>
+      <c r="D230" s="9"/>
+      <c r="G230" s="9"/>
     </row>
     <row r="231" ht="42.0" customHeight="1">
-      <c r="D231" s="10"/>
-      <c r="G231" s="10"/>
+      <c r="D231" s="9"/>
+      <c r="G231" s="9"/>
     </row>
     <row r="232" ht="42.0" customHeight="1">
-      <c r="D232" s="10"/>
-      <c r="G232" s="10"/>
+      <c r="D232" s="9"/>
+      <c r="G232" s="9"/>
     </row>
     <row r="233" ht="42.0" customHeight="1">
-      <c r="D233" s="10"/>
-      <c r="G233" s="10"/>
+      <c r="D233" s="9"/>
+      <c r="G233" s="9"/>
     </row>
     <row r="234" ht="42.0" customHeight="1">
-      <c r="D234" s="10"/>
-      <c r="G234" s="10"/>
+      <c r="D234" s="9"/>
+      <c r="G234" s="9"/>
     </row>
     <row r="235" ht="42.0" customHeight="1">
-      <c r="D235" s="10"/>
-      <c r="G235" s="10"/>
+      <c r="D235" s="9"/>
+      <c r="G235" s="9"/>
     </row>
     <row r="236" ht="42.0" customHeight="1">
-      <c r="D236" s="10"/>
-      <c r="G236" s="10"/>
+      <c r="D236" s="9"/>
+      <c r="G236" s="9"/>
     </row>
     <row r="237" ht="42.0" customHeight="1">
-      <c r="D237" s="10"/>
-      <c r="G237" s="10"/>
+      <c r="D237" s="9"/>
+      <c r="G237" s="9"/>
     </row>
     <row r="238" ht="42.0" customHeight="1">
-      <c r="D238" s="10"/>
-      <c r="G238" s="10"/>
+      <c r="D238" s="9"/>
+      <c r="G238" s="9"/>
     </row>
     <row r="239" ht="42.0" customHeight="1">
-      <c r="D239" s="10"/>
-      <c r="G239" s="10"/>
+      <c r="D239" s="9"/>
+      <c r="G239" s="9"/>
     </row>
     <row r="240" ht="42.0" customHeight="1">
-      <c r="D240" s="10"/>
-      <c r="G240" s="10"/>
+      <c r="D240" s="9"/>
+      <c r="G240" s="9"/>
     </row>
     <row r="241" ht="42.0" customHeight="1">
-      <c r="D241" s="10"/>
-      <c r="G241" s="10"/>
+      <c r="D241" s="9"/>
+      <c r="G241" s="9"/>
     </row>
     <row r="242" ht="42.0" customHeight="1">
-      <c r="D242" s="10"/>
-      <c r="G242" s="10"/>
+      <c r="D242" s="9"/>
+      <c r="G242" s="9"/>
     </row>
     <row r="243" ht="42.0" customHeight="1">
-      <c r="D243" s="10"/>
-      <c r="G243" s="10"/>
+      <c r="D243" s="9"/>
+      <c r="G243" s="9"/>
     </row>
     <row r="244" ht="42.0" customHeight="1">
-      <c r="D244" s="10"/>
-      <c r="G244" s="10"/>
+      <c r="D244" s="9"/>
+      <c r="G244" s="9"/>
     </row>
     <row r="245" ht="42.0" customHeight="1">
-      <c r="D245" s="10"/>
-      <c r="G245" s="10"/>
+      <c r="D245" s="9"/>
+      <c r="G245" s="9"/>
     </row>
     <row r="246" ht="42.0" customHeight="1">
-      <c r="D246" s="10"/>
-      <c r="G246" s="10"/>
+      <c r="D246" s="9"/>
+      <c r="G246" s="9"/>
     </row>
     <row r="247" ht="42.0" customHeight="1">
-      <c r="D247" s="10"/>
-      <c r="G247" s="10"/>
+      <c r="D247" s="9"/>
+      <c r="G247" s="9"/>
     </row>
     <row r="248" ht="42.0" customHeight="1">
-      <c r="D248" s="10"/>
-      <c r="G248" s="10"/>
+      <c r="D248" s="9"/>
+      <c r="G248" s="9"/>
     </row>
     <row r="249" ht="42.0" customHeight="1">
-      <c r="D249" s="10"/>
-      <c r="G249" s="10"/>
+      <c r="D249" s="9"/>
+      <c r="G249" s="9"/>
     </row>
     <row r="250" ht="42.0" customHeight="1">
-      <c r="D250" s="10"/>
-      <c r="G250" s="10"/>
+      <c r="D250" s="9"/>
+      <c r="G250" s="9"/>
     </row>
     <row r="251" ht="42.0" customHeight="1">
-      <c r="D251" s="10"/>
-      <c r="G251" s="10"/>
+      <c r="D251" s="9"/>
+      <c r="G251" s="9"/>
     </row>
     <row r="252" ht="42.0" customHeight="1">
-      <c r="D252" s="10"/>
-      <c r="G252" s="10"/>
+      <c r="D252" s="9"/>
+      <c r="G252" s="9"/>
     </row>
     <row r="253" ht="42.0" customHeight="1">
-      <c r="D253" s="10"/>
-      <c r="G253" s="10"/>
+      <c r="D253" s="9"/>
+      <c r="G253" s="9"/>
     </row>
     <row r="254" ht="42.0" customHeight="1">
-      <c r="D254" s="10"/>
-      <c r="G254" s="10"/>
+      <c r="D254" s="9"/>
+      <c r="G254" s="9"/>
     </row>
     <row r="255" ht="42.0" customHeight="1">
-      <c r="D255" s="10"/>
-      <c r="G255" s="10"/>
+      <c r="D255" s="9"/>
+      <c r="G255" s="9"/>
     </row>
     <row r="256" ht="42.0" customHeight="1">
-      <c r="D256" s="10"/>
-      <c r="G256" s="10"/>
+      <c r="D256" s="9"/>
+      <c r="G256" s="9"/>
     </row>
     <row r="257" ht="42.0" customHeight="1">
-      <c r="D257" s="10"/>
-      <c r="G257" s="10"/>
+      <c r="D257" s="9"/>
+      <c r="G257" s="9"/>
     </row>
     <row r="258" ht="42.0" customHeight="1">
-      <c r="D258" s="10"/>
-      <c r="G258" s="10"/>
+      <c r="D258" s="9"/>
+      <c r="G258" s="9"/>
     </row>
     <row r="259" ht="42.0" customHeight="1">
-      <c r="D259" s="10"/>
-      <c r="G259" s="10"/>
+      <c r="D259" s="9"/>
+      <c r="G259" s="9"/>
     </row>
     <row r="260" ht="42.0" customHeight="1">
-      <c r="D260" s="10"/>
-      <c r="G260" s="10"/>
+      <c r="D260" s="9"/>
+      <c r="G260" s="9"/>
     </row>
     <row r="261" ht="42.0" customHeight="1">
-      <c r="D261" s="10"/>
-      <c r="G261" s="10"/>
+      <c r="D261" s="9"/>
+      <c r="G261" s="9"/>
     </row>
     <row r="262" ht="42.0" customHeight="1">
-      <c r="D262" s="10"/>
-      <c r="G262" s="10"/>
+      <c r="D262" s="9"/>
+      <c r="G262" s="9"/>
     </row>
     <row r="263" ht="42.0" customHeight="1">
-      <c r="D263" s="10"/>
-      <c r="G263" s="10"/>
+      <c r="D263" s="9"/>
+      <c r="G263" s="9"/>
     </row>
     <row r="264" ht="42.0" customHeight="1">
-      <c r="D264" s="10"/>
-      <c r="G264" s="10"/>
+      <c r="D264" s="9"/>
+      <c r="G264" s="9"/>
     </row>
     <row r="265" ht="42.0" customHeight="1">
-      <c r="D265" s="10"/>
-      <c r="G265" s="10"/>
+      <c r="D265" s="9"/>
+      <c r="G265" s="9"/>
     </row>
     <row r="266" ht="42.0" customHeight="1">
-      <c r="D266" s="10"/>
-      <c r="G266" s="10"/>
+      <c r="D266" s="9"/>
+      <c r="G266" s="9"/>
     </row>
     <row r="267" ht="42.0" customHeight="1">
-      <c r="D267" s="10"/>
-      <c r="G267" s="10"/>
+      <c r="D267" s="9"/>
+      <c r="G267" s="9"/>
     </row>
     <row r="268" ht="42.0" customHeight="1">
-      <c r="D268" s="10"/>
-      <c r="G268" s="10"/>
+      <c r="D268" s="9"/>
+      <c r="G268" s="9"/>
     </row>
     <row r="269" ht="42.0" customHeight="1">
-      <c r="D269" s="10"/>
-      <c r="G269" s="10"/>
+      <c r="D269" s="9"/>
+      <c r="G269" s="9"/>
     </row>
     <row r="270" ht="42.0" customHeight="1">
-      <c r="D270" s="10"/>
-      <c r="G270" s="10"/>
+      <c r="D270" s="9"/>
+      <c r="G270" s="9"/>
     </row>
     <row r="271" ht="42.0" customHeight="1">
-      <c r="D271" s="10"/>
-      <c r="G271" s="10"/>
+      <c r="D271" s="9"/>
+      <c r="G271" s="9"/>
     </row>
     <row r="272" ht="42.0" customHeight="1">
-      <c r="D272" s="10"/>
-      <c r="G272" s="10"/>
+      <c r="D272" s="9"/>
+      <c r="G272" s="9"/>
     </row>
     <row r="273" ht="42.0" customHeight="1">
-      <c r="D273" s="10"/>
-      <c r="G273" s="10"/>
+      <c r="D273" s="9"/>
+      <c r="G273" s="9"/>
     </row>
     <row r="274" ht="42.0" customHeight="1">
-      <c r="D274" s="10"/>
-      <c r="G274" s="10"/>
+      <c r="D274" s="9"/>
+      <c r="G274" s="9"/>
     </row>
     <row r="275" ht="42.0" customHeight="1">
-      <c r="D275" s="10"/>
-      <c r="G275" s="10"/>
+      <c r="D275" s="9"/>
+      <c r="G275" s="9"/>
     </row>
     <row r="276" ht="42.0" customHeight="1">
-      <c r="D276" s="10"/>
-      <c r="G276" s="10"/>
+      <c r="D276" s="9"/>
+      <c r="G276" s="9"/>
     </row>
     <row r="277" ht="42.0" customHeight="1">
-      <c r="D277" s="10"/>
-      <c r="G277" s="10"/>
+      <c r="D277" s="9"/>
+      <c r="G277" s="9"/>
     </row>
     <row r="278" ht="42.0" customHeight="1">
-      <c r="D278" s="10"/>
-      <c r="G278" s="10"/>
+      <c r="D278" s="9"/>
+      <c r="G278" s="9"/>
     </row>
     <row r="279" ht="42.0" customHeight="1">
-      <c r="D279" s="10"/>
-      <c r="G279" s="10"/>
+      <c r="D279" s="9"/>
+      <c r="G279" s="9"/>
     </row>
     <row r="280" ht="42.0" customHeight="1">
-      <c r="D280" s="10"/>
-      <c r="G280" s="10"/>
+      <c r="D280" s="9"/>
+      <c r="G280" s="9"/>
     </row>
     <row r="281" ht="42.0" customHeight="1">
-      <c r="D281" s="10"/>
-      <c r="G281" s="10"/>
+      <c r="D281" s="9"/>
+      <c r="G281" s="9"/>
     </row>
     <row r="282" ht="42.0" customHeight="1">
-      <c r="D282" s="10"/>
-      <c r="G282" s="10"/>
+      <c r="D282" s="9"/>
+      <c r="G282" s="9"/>
     </row>
     <row r="283" ht="42.0" customHeight="1">
-      <c r="D283" s="10"/>
-      <c r="G283" s="10"/>
+      <c r="D283" s="9"/>
+      <c r="G283" s="9"/>
     </row>
     <row r="284" ht="42.0" customHeight="1">
-      <c r="D284" s="10"/>
-      <c r="G284" s="10"/>
+      <c r="D284" s="9"/>
+      <c r="G284" s="9"/>
     </row>
     <row r="285" ht="42.0" customHeight="1">
-      <c r="D285" s="10"/>
-      <c r="G285" s="10"/>
+      <c r="D285" s="9"/>
+      <c r="G285" s="9"/>
     </row>
     <row r="286" ht="42.0" customHeight="1">
-      <c r="D286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="D286" s="9"/>
+      <c r="G286" s="9"/>
     </row>
     <row r="287" ht="42.0" customHeight="1">
-      <c r="D287" s="10"/>
-      <c r="G287" s="10"/>
+      <c r="D287" s="9"/>
+      <c r="G287" s="9"/>
     </row>
     <row r="288" ht="42.0" customHeight="1">
-      <c r="D288" s="10"/>
-      <c r="G288" s="10"/>
+      <c r="D288" s="9"/>
+      <c r="G288" s="9"/>
     </row>
     <row r="289" ht="42.0" customHeight="1">
-      <c r="D289" s="10"/>
-      <c r="G289" s="10"/>
+      <c r="D289" s="9"/>
+      <c r="G289" s="9"/>
     </row>
     <row r="290" ht="42.0" customHeight="1">
-      <c r="D290" s="10"/>
-      <c r="G290" s="10"/>
+      <c r="D290" s="9"/>
+      <c r="G290" s="9"/>
     </row>
     <row r="291" ht="42.0" customHeight="1">
-      <c r="D291" s="10"/>
-      <c r="G291" s="10"/>
+      <c r="D291" s="9"/>
+      <c r="G291" s="9"/>
     </row>
     <row r="292" ht="42.0" customHeight="1">
-      <c r="D292" s="10"/>
-      <c r="G292" s="10"/>
+      <c r="D292" s="9"/>
+      <c r="G292" s="9"/>
     </row>
     <row r="293" ht="42.0" customHeight="1">
-      <c r="D293" s="10"/>
-      <c r="G293" s="10"/>
+      <c r="D293" s="9"/>
+      <c r="G293" s="9"/>
     </row>
     <row r="294" ht="42.0" customHeight="1">
-      <c r="D294" s="10"/>
-      <c r="G294" s="10"/>
+      <c r="D294" s="9"/>
+      <c r="G294" s="9"/>
     </row>
     <row r="295" ht="42.0" customHeight="1">
-      <c r="D295" s="10"/>
-      <c r="G295" s="10"/>
+      <c r="D295" s="9"/>
+      <c r="G295" s="9"/>
     </row>
     <row r="296" ht="42.0" customHeight="1">
-      <c r="D296" s="10"/>
-      <c r="G296" s="10"/>
+      <c r="D296" s="9"/>
+      <c r="G296" s="9"/>
     </row>
     <row r="297" ht="42.0" customHeight="1">
-      <c r="D297" s="10"/>
-      <c r="G297" s="10"/>
+      <c r="D297" s="9"/>
+      <c r="G297" s="9"/>
     </row>
     <row r="298" ht="42.0" customHeight="1">
-      <c r="D298" s="10"/>
-      <c r="G298" s="10"/>
+      <c r="D298" s="9"/>
+      <c r="G298" s="9"/>
     </row>
     <row r="299" ht="42.0" customHeight="1">
-      <c r="D299" s="10"/>
-      <c r="G299" s="10"/>
+      <c r="D299" s="9"/>
+      <c r="G299" s="9"/>
     </row>
     <row r="300" ht="42.0" customHeight="1">
-      <c r="D300" s="10"/>
-      <c r="G300" s="10"/>
+      <c r="D300" s="9"/>
+      <c r="G300" s="9"/>
     </row>
     <row r="301" ht="42.0" customHeight="1">
-      <c r="D301" s="10"/>
-      <c r="G301" s="10"/>
+      <c r="D301" s="9"/>
+      <c r="G301" s="9"/>
     </row>
     <row r="302" ht="42.0" customHeight="1">
-      <c r="D302" s="10"/>
-      <c r="G302" s="10"/>
+      <c r="D302" s="9"/>
+      <c r="G302" s="9"/>
     </row>
     <row r="303" ht="42.0" customHeight="1">
-      <c r="D303" s="10"/>
-      <c r="G303" s="10"/>
+      <c r="D303" s="9"/>
+      <c r="G303" s="9"/>
     </row>
     <row r="304" ht="42.0" customHeight="1">
-      <c r="D304" s="10"/>
-      <c r="G304" s="10"/>
+      <c r="D304" s="9"/>
+      <c r="G304" s="9"/>
     </row>
     <row r="305" ht="42.0" customHeight="1">
-      <c r="D305" s="10"/>
-      <c r="G305" s="10"/>
+      <c r="D305" s="9"/>
+      <c r="G305" s="9"/>
     </row>
     <row r="306" ht="42.0" customHeight="1">
-      <c r="D306" s="10"/>
-      <c r="G306" s="10"/>
+      <c r="D306" s="9"/>
+      <c r="G306" s="9"/>
     </row>
     <row r="307" ht="42.0" customHeight="1">
-      <c r="D307" s="10"/>
-      <c r="G307" s="10"/>
+      <c r="D307" s="9"/>
+      <c r="G307" s="9"/>
     </row>
     <row r="308" ht="42.0" customHeight="1">
-      <c r="D308" s="10"/>
-      <c r="G308" s="10"/>
+      <c r="D308" s="9"/>
+      <c r="G308" s="9"/>
     </row>
     <row r="309" ht="42.0" customHeight="1">
-      <c r="D309" s="10"/>
-      <c r="G309" s="10"/>
+      <c r="D309" s="9"/>
+      <c r="G309" s="9"/>
     </row>
     <row r="310" ht="42.0" customHeight="1">
-      <c r="D310" s="10"/>
-      <c r="G310" s="10"/>
+      <c r="D310" s="9"/>
+      <c r="G310" s="9"/>
     </row>
     <row r="311" ht="42.0" customHeight="1">
-      <c r="D311" s="10"/>
-      <c r="G311" s="10"/>
+      <c r="D311" s="9"/>
+      <c r="G311" s="9"/>
     </row>
     <row r="312" ht="42.0" customHeight="1">
-      <c r="D312" s="10"/>
-      <c r="G312" s="10"/>
+      <c r="D312" s="9"/>
+      <c r="G312" s="9"/>
     </row>
     <row r="313" ht="42.0" customHeight="1">
-      <c r="D313" s="10"/>
-      <c r="G313" s="10"/>
+      <c r="D313" s="9"/>
+      <c r="G313" s="9"/>
     </row>
     <row r="314" ht="42.0" customHeight="1">
-      <c r="D314" s="10"/>
-      <c r="G314" s="10"/>
+      <c r="D314" s="9"/>
+      <c r="G314" s="9"/>
     </row>
     <row r="315" ht="42.0" customHeight="1">
-      <c r="D315" s="10"/>
-      <c r="G315" s="10"/>
+      <c r="D315" s="9"/>
+      <c r="G315" s="9"/>
     </row>
     <row r="316" ht="42.0" customHeight="1">
-      <c r="D316" s="10"/>
-      <c r="G316" s="10"/>
+      <c r="D316" s="9"/>
+      <c r="G316" s="9"/>
     </row>
     <row r="317" ht="42.0" customHeight="1">
-      <c r="D317" s="10"/>
-      <c r="G317" s="10"/>
+      <c r="D317" s="9"/>
+      <c r="G317" s="9"/>
     </row>
     <row r="318" ht="42.0" customHeight="1">
-      <c r="D318" s="10"/>
-      <c r="G318" s="10"/>
+      <c r="D318" s="9"/>
+      <c r="G318" s="9"/>
     </row>
     <row r="319" ht="42.0" customHeight="1">
-      <c r="D319" s="10"/>
-      <c r="G319" s="10"/>
+      <c r="D319" s="9"/>
+      <c r="G319" s="9"/>
     </row>
     <row r="320" ht="42.0" customHeight="1">
-      <c r="D320" s="10"/>
-      <c r="G320" s="10"/>
+      <c r="D320" s="9"/>
+      <c r="G320" s="9"/>
     </row>
     <row r="321" ht="42.0" customHeight="1">
-      <c r="D321" s="10"/>
-      <c r="G321" s="10"/>
+      <c r="D321" s="9"/>
+      <c r="G321" s="9"/>
     </row>
     <row r="322" ht="42.0" customHeight="1">
-      <c r="D322" s="10"/>
-      <c r="G322" s="10"/>
+      <c r="D322" s="9"/>
+      <c r="G322" s="9"/>
     </row>
     <row r="323" ht="42.0" customHeight="1">
-      <c r="D323" s="10"/>
-      <c r="G323" s="10"/>
+      <c r="D323" s="9"/>
+      <c r="G323" s="9"/>
     </row>
     <row r="324" ht="42.0" customHeight="1">
-      <c r="D324" s="10"/>
-      <c r="G324" s="10"/>
+      <c r="D324" s="9"/>
+      <c r="G324" s="9"/>
     </row>
     <row r="325" ht="42.0" customHeight="1">
-      <c r="D325" s="10"/>
-      <c r="G325" s="10"/>
+      <c r="D325" s="9"/>
+      <c r="G325" s="9"/>
     </row>
     <row r="326" ht="42.0" customHeight="1">
-      <c r="D326" s="10"/>
-      <c r="G326" s="10"/>
+      <c r="D326" s="9"/>
+      <c r="G326" s="9"/>
     </row>
     <row r="327" ht="42.0" customHeight="1">
-      <c r="D327" s="10"/>
-      <c r="G327" s="10"/>
+      <c r="D327" s="9"/>
+      <c r="G327" s="9"/>
     </row>
     <row r="328" ht="42.0" customHeight="1">
-      <c r="D328" s="10"/>
-      <c r="G328" s="10"/>
+      <c r="D328" s="9"/>
+      <c r="G328" s="9"/>
     </row>
     <row r="329" ht="42.0" customHeight="1">
-      <c r="D329" s="10"/>
-      <c r="G329" s="10"/>
+      <c r="D329" s="9"/>
+      <c r="G329" s="9"/>
     </row>
     <row r="330" ht="42.0" customHeight="1">
-      <c r="D330" s="10"/>
-      <c r="G330" s="10"/>
+      <c r="D330" s="9"/>
+      <c r="G330" s="9"/>
     </row>
     <row r="331" ht="42.0" customHeight="1">
-      <c r="D331" s="10"/>
-      <c r="G331" s="10"/>
+      <c r="D331" s="9"/>
+      <c r="G331" s="9"/>
     </row>
     <row r="332" ht="42.0" customHeight="1">
-      <c r="D332" s="10"/>
-      <c r="G332" s="10"/>
+      <c r="D332" s="9"/>
+      <c r="G332" s="9"/>
     </row>
     <row r="333" ht="42.0" customHeight="1">
-      <c r="D333" s="10"/>
-      <c r="G333" s="10"/>
+      <c r="D333" s="9"/>
+      <c r="G333" s="9"/>
     </row>
     <row r="334" ht="42.0" customHeight="1">
-      <c r="D334" s="10"/>
-      <c r="G334" s="10"/>
+      <c r="D334" s="9"/>
+      <c r="G334" s="9"/>
     </row>
     <row r="335" ht="42.0" customHeight="1">
-      <c r="D335" s="10"/>
-      <c r="G335" s="10"/>
+      <c r="D335" s="9"/>
+      <c r="G335" s="9"/>
     </row>
     <row r="336" ht="42.0" customHeight="1">
-      <c r="D336" s="10"/>
-      <c r="G336" s="10"/>
+      <c r="D336" s="9"/>
+      <c r="G336" s="9"/>
     </row>
     <row r="337" ht="42.0" customHeight="1">
-      <c r="D337" s="10"/>
-      <c r="G337" s="10"/>
+      <c r="D337" s="9"/>
+      <c r="G337" s="9"/>
     </row>
     <row r="338" ht="42.0" customHeight="1">
-      <c r="D338" s="10"/>
-      <c r="G338" s="10"/>
+      <c r="D338" s="9"/>
+      <c r="G338" s="9"/>
     </row>
     <row r="339" ht="42.0" customHeight="1">
-      <c r="D339" s="10"/>
-      <c r="G339" s="10"/>
+      <c r="D339" s="9"/>
+      <c r="G339" s="9"/>
     </row>
     <row r="340" ht="42.0" customHeight="1">
-      <c r="D340" s="10"/>
-      <c r="G340" s="10"/>
+      <c r="D340" s="9"/>
+      <c r="G340" s="9"/>
     </row>
     <row r="341" ht="42.0" customHeight="1">
-      <c r="D341" s="10"/>
-      <c r="G341" s="10"/>
+      <c r="D341" s="9"/>
+      <c r="G341" s="9"/>
     </row>
     <row r="342" ht="42.0" customHeight="1">
-      <c r="D342" s="10"/>
-      <c r="G342" s="10"/>
+      <c r="D342" s="9"/>
+      <c r="G342" s="9"/>
     </row>
     <row r="343" ht="42.0" customHeight="1">
-      <c r="D343" s="10"/>
-      <c r="G343" s="10"/>
+      <c r="D343" s="9"/>
+      <c r="G343" s="9"/>
     </row>
     <row r="344" ht="42.0" customHeight="1">
-      <c r="D344" s="10"/>
-      <c r="G344" s="10"/>
+      <c r="D344" s="9"/>
+      <c r="G344" s="9"/>
     </row>
     <row r="345" ht="42.0" customHeight="1">
-      <c r="D345" s="10"/>
-      <c r="G345" s="10"/>
+      <c r="D345" s="9"/>
+      <c r="G345" s="9"/>
     </row>
     <row r="346" ht="42.0" customHeight="1">
-      <c r="D346" s="10"/>
-      <c r="G346" s="10"/>
+      <c r="D346" s="9"/>
+      <c r="G346" s="9"/>
     </row>
     <row r="347" ht="42.0" customHeight="1">
-      <c r="D347" s="10"/>
-      <c r="G347" s="10"/>
+      <c r="D347" s="9"/>
+      <c r="G347" s="9"/>
     </row>
     <row r="348" ht="42.0" customHeight="1">
-      <c r="D348" s="10"/>
-      <c r="G348" s="10"/>
+      <c r="D348" s="9"/>
+      <c r="G348" s="9"/>
     </row>
     <row r="349" ht="42.0" customHeight="1">
-      <c r="D349" s="10"/>
-      <c r="G349" s="10"/>
+      <c r="D349" s="9"/>
+      <c r="G349" s="9"/>
     </row>
     <row r="350" ht="42.0" customHeight="1">
-      <c r="D350" s="10"/>
-      <c r="G350" s="10"/>
+      <c r="D350" s="9"/>
+      <c r="G350" s="9"/>
     </row>
     <row r="351" ht="42.0" customHeight="1">
-      <c r="D351" s="10"/>
-      <c r="G351" s="10"/>
+      <c r="D351" s="9"/>
+      <c r="G351" s="9"/>
     </row>
     <row r="352" ht="42.0" customHeight="1">
-      <c r="D352" s="10"/>
-      <c r="G352" s="10"/>
+      <c r="D352" s="9"/>
+      <c r="G352" s="9"/>
     </row>
     <row r="353" ht="42.0" customHeight="1">
-      <c r="D353" s="10"/>
-      <c r="G353" s="10"/>
+      <c r="D353" s="9"/>
+      <c r="G353" s="9"/>
     </row>
     <row r="354" ht="42.0" customHeight="1">
-      <c r="D354" s="10"/>
-      <c r="G354" s="10"/>
+      <c r="D354" s="9"/>
+      <c r="G354" s="9"/>
     </row>
     <row r="355" ht="42.0" customHeight="1">
-      <c r="D355" s="10"/>
-      <c r="G355" s="10"/>
+      <c r="D355" s="9"/>
+      <c r="G355" s="9"/>
     </row>
     <row r="356" ht="42.0" customHeight="1">
-      <c r="D356" s="10"/>
-      <c r="G356" s="10"/>
+      <c r="D356" s="9"/>
+      <c r="G356" s="9"/>
     </row>
     <row r="357" ht="42.0" customHeight="1">
-      <c r="D357" s="10"/>
-      <c r="G357" s="10"/>
+      <c r="D357" s="9"/>
+      <c r="G357" s="9"/>
     </row>
     <row r="358" ht="42.0" customHeight="1">
-      <c r="D358" s="10"/>
-      <c r="G358" s="10"/>
+      <c r="D358" s="9"/>
+      <c r="G358" s="9"/>
     </row>
     <row r="359" ht="42.0" customHeight="1">
-      <c r="D359" s="10"/>
-      <c r="G359" s="10"/>
+      <c r="D359" s="9"/>
+      <c r="G359" s="9"/>
     </row>
     <row r="360" ht="42.0" customHeight="1">
-      <c r="D360" s="10"/>
-      <c r="G360" s="10"/>
+      <c r="D360" s="9"/>
+      <c r="G360" s="9"/>
     </row>
     <row r="361" ht="42.0" customHeight="1">
-      <c r="D361" s="10"/>
-      <c r="G361" s="10"/>
+      <c r="D361" s="9"/>
+      <c r="G361" s="9"/>
     </row>
     <row r="362" ht="42.0" customHeight="1">
-      <c r="D362" s="10"/>
-      <c r="G362" s="10"/>
+      <c r="D362" s="9"/>
+      <c r="G362" s="9"/>
     </row>
     <row r="363" ht="42.0" customHeight="1">
-      <c r="D363" s="10"/>
-      <c r="G363" s="10"/>
+      <c r="D363" s="9"/>
+      <c r="G363" s="9"/>
     </row>
     <row r="364" ht="42.0" customHeight="1">
-      <c r="D364" s="10"/>
-      <c r="G364" s="10"/>
+      <c r="D364" s="9"/>
+      <c r="G364" s="9"/>
     </row>
     <row r="365" ht="42.0" customHeight="1">
-      <c r="D365" s="10"/>
-      <c r="G365" s="10"/>
+      <c r="D365" s="9"/>
+      <c r="G365" s="9"/>
     </row>
     <row r="366" ht="42.0" customHeight="1">
-      <c r="D366" s="10"/>
-      <c r="G366" s="10"/>
+      <c r="D366" s="9"/>
+      <c r="G366" s="9"/>
     </row>
     <row r="367" ht="42.0" customHeight="1">
-      <c r="D367" s="10"/>
-      <c r="G367" s="10"/>
+      <c r="D367" s="9"/>
+      <c r="G367" s="9"/>
     </row>
     <row r="368" ht="42.0" customHeight="1">
-      <c r="D368" s="10"/>
-      <c r="G368" s="10"/>
+      <c r="D368" s="9"/>
+      <c r="G368" s="9"/>
     </row>
     <row r="369" ht="42.0" customHeight="1">
-      <c r="D369" s="10"/>
-      <c r="G369" s="10"/>
+      <c r="D369" s="9"/>
+      <c r="G369" s="9"/>
     </row>
     <row r="370" ht="42.0" customHeight="1">
-      <c r="D370" s="10"/>
-      <c r="G370" s="10"/>
+      <c r="D370" s="9"/>
+      <c r="G370" s="9"/>
     </row>
     <row r="371" ht="42.0" customHeight="1">
-      <c r="D371" s="10"/>
-      <c r="G371" s="10"/>
+      <c r="D371" s="9"/>
+      <c r="G371" s="9"/>
     </row>
     <row r="372" ht="42.0" customHeight="1">
-      <c r="D372" s="10"/>
-      <c r="G372" s="10"/>
+      <c r="D372" s="9"/>
+      <c r="G372" s="9"/>
     </row>
     <row r="373" ht="42.0" customHeight="1">
-      <c r="D373" s="10"/>
-      <c r="G373" s="10"/>
+      <c r="D373" s="9"/>
+      <c r="G373" s="9"/>
     </row>
     <row r="374" ht="42.0" customHeight="1">
-      <c r="D374" s="10"/>
-      <c r="G374" s="10"/>
+      <c r="D374" s="9"/>
+      <c r="G374" s="9"/>
     </row>
     <row r="375" ht="42.0" customHeight="1">
-      <c r="D375" s="10"/>
-      <c r="G375" s="10"/>
+      <c r="D375" s="9"/>
+      <c r="G375" s="9"/>
     </row>
     <row r="376" ht="42.0" customHeight="1">
-      <c r="D376" s="10"/>
-      <c r="G376" s="10"/>
+      <c r="D376" s="9"/>
+      <c r="G376" s="9"/>
     </row>
     <row r="377" ht="42.0" customHeight="1">
-      <c r="D377" s="10"/>
-      <c r="G377" s="10"/>
+      <c r="D377" s="9"/>
+      <c r="G377" s="9"/>
     </row>
     <row r="378" ht="42.0" customHeight="1">
-      <c r="D378" s="10"/>
-      <c r="G378" s="10"/>
+      <c r="D378" s="9"/>
+      <c r="G378" s="9"/>
     </row>
     <row r="379" ht="42.0" customHeight="1">
-      <c r="D379" s="10"/>
-      <c r="G379" s="10"/>
+      <c r="D379" s="9"/>
+      <c r="G379" s="9"/>
     </row>
     <row r="380" ht="42.0" customHeight="1">
-      <c r="D380" s="10"/>
-      <c r="G380" s="10"/>
+      <c r="D380" s="9"/>
+      <c r="G380" s="9"/>
     </row>
     <row r="381" ht="42.0" customHeight="1">
-      <c r="D381" s="10"/>
-      <c r="G381" s="10"/>
+      <c r="D381" s="9"/>
+      <c r="G381" s="9"/>
     </row>
     <row r="382" ht="42.0" customHeight="1">
-      <c r="D382" s="10"/>
-      <c r="G382" s="10"/>
+      <c r="D382" s="9"/>
+      <c r="G382" s="9"/>
     </row>
     <row r="383" ht="42.0" customHeight="1">
-      <c r="D383" s="10"/>
-      <c r="G383" s="10"/>
+      <c r="D383" s="9"/>
+      <c r="G383" s="9"/>
     </row>
     <row r="384" ht="42.0" customHeight="1">
-      <c r="D384" s="10"/>
-      <c r="G384" s="10"/>
+      <c r="D384" s="9"/>
+      <c r="G384" s="9"/>
     </row>
     <row r="385" ht="42.0" customHeight="1">
-      <c r="D385" s="10"/>
-      <c r="G385" s="10"/>
+      <c r="D385" s="9"/>
+      <c r="G385" s="9"/>
     </row>
     <row r="386" ht="42.0" customHeight="1">
-      <c r="D386" s="10"/>
-      <c r="G386" s="10"/>
+      <c r="D386" s="9"/>
+      <c r="G386" s="9"/>
     </row>
     <row r="387" ht="42.0" customHeight="1">
-      <c r="D387" s="10"/>
-      <c r="G387" s="10"/>
+      <c r="D387" s="9"/>
+      <c r="G387" s="9"/>
     </row>
     <row r="388" ht="42.0" customHeight="1">
-      <c r="D388" s="10"/>
-      <c r="G388" s="10"/>
+      <c r="D388" s="9"/>
+      <c r="G388" s="9"/>
     </row>
     <row r="389" ht="42.0" customHeight="1">
-      <c r="D389" s="10"/>
-      <c r="G389" s="10"/>
+      <c r="D389" s="9"/>
+      <c r="G389" s="9"/>
     </row>
     <row r="390" ht="42.0" customHeight="1">
-      <c r="D390" s="10"/>
-      <c r="G390" s="10"/>
+      <c r="D390" s="9"/>
+      <c r="G390" s="9"/>
     </row>
     <row r="391" ht="42.0" customHeight="1">
-      <c r="D391" s="10"/>
-      <c r="G391" s="10"/>
+      <c r="D391" s="9"/>
+      <c r="G391" s="9"/>
     </row>
     <row r="392" ht="42.0" customHeight="1">
-      <c r="D392" s="10"/>
-      <c r="G392" s="10"/>
+      <c r="D392" s="9"/>
+      <c r="G392" s="9"/>
     </row>
     <row r="393" ht="42.0" customHeight="1">
-      <c r="D393" s="10"/>
-      <c r="G393" s="10"/>
+      <c r="D393" s="9"/>
+      <c r="G393" s="9"/>
     </row>
     <row r="394" ht="42.0" customHeight="1">
-      <c r="D394" s="10"/>
-      <c r="G394" s="10"/>
+      <c r="D394" s="9"/>
+      <c r="G394" s="9"/>
     </row>
     <row r="395" ht="42.0" customHeight="1">
-      <c r="D395" s="10"/>
-      <c r="G395" s="10"/>
+      <c r="D395" s="9"/>
+      <c r="G395" s="9"/>
     </row>
     <row r="396" ht="42.0" customHeight="1">
-      <c r="D396" s="10"/>
-      <c r="G396" s="10"/>
+      <c r="D396" s="9"/>
+      <c r="G396" s="9"/>
     </row>
     <row r="397" ht="42.0" customHeight="1">
-      <c r="D397" s="10"/>
-      <c r="G397" s="10"/>
+      <c r="D397" s="9"/>
+      <c r="G397" s="9"/>
     </row>
     <row r="398" ht="42.0" customHeight="1">
-      <c r="D398" s="10"/>
-      <c r="G398" s="10"/>
+      <c r="D398" s="9"/>
+      <c r="G398" s="9"/>
     </row>
     <row r="399" ht="42.0" customHeight="1">
-      <c r="D399" s="10"/>
-      <c r="G399" s="10"/>
+      <c r="D399" s="9"/>
+      <c r="G399" s="9"/>
     </row>
     <row r="400" ht="42.0" customHeight="1">
-      <c r="D400" s="10"/>
-      <c r="G400" s="10"/>
+      <c r="D400" s="9"/>
+      <c r="G400" s="9"/>
     </row>
     <row r="401" ht="42.0" customHeight="1">
-      <c r="D401" s="10"/>
-      <c r="G401" s="10"/>
+      <c r="D401" s="9"/>
+      <c r="G401" s="9"/>
     </row>
     <row r="402" ht="42.0" customHeight="1">
-      <c r="D402" s="10"/>
-      <c r="G402" s="10"/>
+      <c r="D402" s="9"/>
+      <c r="G402" s="9"/>
     </row>
     <row r="403" ht="42.0" customHeight="1">
-      <c r="D403" s="10"/>
-      <c r="G403" s="10"/>
+      <c r="D403" s="9"/>
+      <c r="G403" s="9"/>
     </row>
     <row r="404" ht="42.0" customHeight="1">
-      <c r="D404" s="10"/>
-      <c r="G404" s="10"/>
+      <c r="D404" s="9"/>
+      <c r="G404" s="9"/>
     </row>
     <row r="405" ht="42.0" customHeight="1">
-      <c r="D405" s="10"/>
-      <c r="G405" s="10"/>
+      <c r="D405" s="9"/>
+      <c r="G405" s="9"/>
     </row>
     <row r="406" ht="42.0" customHeight="1">
-      <c r="D406" s="10"/>
-      <c r="G406" s="10"/>
+      <c r="D406" s="9"/>
+      <c r="G406" s="9"/>
     </row>
     <row r="407" ht="42.0" customHeight="1">
-      <c r="D407" s="10"/>
-      <c r="G407" s="10"/>
+      <c r="D407" s="9"/>
+      <c r="G407" s="9"/>
     </row>
     <row r="408" ht="42.0" customHeight="1">
-      <c r="D408" s="10"/>
-      <c r="G408" s="10"/>
+      <c r="D408" s="9"/>
+      <c r="G408" s="9"/>
     </row>
     <row r="409" ht="42.0" customHeight="1">
-      <c r="D409" s="10"/>
-      <c r="G409" s="10"/>
+      <c r="D409" s="9"/>
+      <c r="G409" s="9"/>
     </row>
     <row r="410" ht="42.0" customHeight="1">
-      <c r="D410" s="10"/>
-      <c r="G410" s="10"/>
+      <c r="D410" s="9"/>
+      <c r="G410" s="9"/>
     </row>
     <row r="411" ht="42.0" customHeight="1">
-      <c r="D411" s="10"/>
-      <c r="G411" s="10"/>
+      <c r="D411" s="9"/>
+      <c r="G411" s="9"/>
     </row>
     <row r="412" ht="42.0" customHeight="1">
-      <c r="D412" s="10"/>
-      <c r="G412" s="10"/>
+      <c r="D412" s="9"/>
+      <c r="G412" s="9"/>
     </row>
     <row r="413" ht="42.0" customHeight="1">
-      <c r="D413" s="10"/>
-      <c r="G413" s="10"/>
+      <c r="D413" s="9"/>
+      <c r="G413" s="9"/>
     </row>
     <row r="414" ht="42.0" customHeight="1">
-      <c r="D414" s="10"/>
-      <c r="G414" s="10"/>
+      <c r="D414" s="9"/>
+      <c r="G414" s="9"/>
     </row>
     <row r="415" ht="42.0" customHeight="1">
-      <c r="D415" s="10"/>
-      <c r="G415" s="10"/>
+      <c r="D415" s="9"/>
+      <c r="G415" s="9"/>
     </row>
     <row r="416" ht="42.0" customHeight="1">
-      <c r="D416" s="10"/>
-      <c r="G416" s="10"/>
+      <c r="D416" s="9"/>
+      <c r="G416" s="9"/>
     </row>
     <row r="417" ht="42.0" customHeight="1">
-      <c r="D417" s="10"/>
-      <c r="G417" s="10"/>
+      <c r="D417" s="9"/>
+      <c r="G417" s="9"/>
     </row>
     <row r="418" ht="42.0" customHeight="1">
-      <c r="D418" s="10"/>
-      <c r="G418" s="10"/>
+      <c r="D418" s="9"/>
+      <c r="G418" s="9"/>
     </row>
     <row r="419" ht="42.0" customHeight="1">
-      <c r="D419" s="10"/>
-      <c r="G419" s="10"/>
+      <c r="D419" s="9"/>
+      <c r="G419" s="9"/>
     </row>
     <row r="420" ht="42.0" customHeight="1">
-      <c r="D420" s="10"/>
-      <c r="G420" s="10"/>
+      <c r="D420" s="9"/>
+      <c r="G420" s="9"/>
     </row>
     <row r="421" ht="42.0" customHeight="1">
-      <c r="D421" s="10"/>
-      <c r="G421" s="10"/>
+      <c r="D421" s="9"/>
+      <c r="G421" s="9"/>
     </row>
     <row r="422" ht="42.0" customHeight="1">
-      <c r="D422" s="10"/>
-      <c r="G422" s="10"/>
+      <c r="D422" s="9"/>
+      <c r="G422" s="9"/>
     </row>
     <row r="423" ht="42.0" customHeight="1">
-      <c r="D423" s="10"/>
-      <c r="G423" s="10"/>
+      <c r="D423" s="9"/>
+      <c r="G423" s="9"/>
     </row>
     <row r="424" ht="42.0" customHeight="1">
-      <c r="D424" s="10"/>
-      <c r="G424" s="10"/>
+      <c r="D424" s="9"/>
+      <c r="G424" s="9"/>
     </row>
     <row r="425" ht="42.0" customHeight="1">
-      <c r="D425" s="10"/>
-      <c r="G425" s="10"/>
+      <c r="D425" s="9"/>
+      <c r="G425" s="9"/>
     </row>
     <row r="426" ht="42.0" customHeight="1">
-      <c r="D426" s="10"/>
-      <c r="G426" s="10"/>
+      <c r="D426" s="9"/>
+      <c r="G426" s="9"/>
     </row>
     <row r="427" ht="42.0" customHeight="1">
-      <c r="D427" s="10"/>
-      <c r="G427" s="10"/>
+      <c r="D427" s="9"/>
+      <c r="G427" s="9"/>
     </row>
     <row r="428" ht="42.0" customHeight="1">
-      <c r="D428" s="10"/>
-      <c r="G428" s="10"/>
+      <c r="D428" s="9"/>
+      <c r="G428" s="9"/>
     </row>
     <row r="429" ht="42.0" customHeight="1">
-      <c r="D429" s="10"/>
-      <c r="G429" s="10"/>
+      <c r="D429" s="9"/>
+      <c r="G429" s="9"/>
     </row>
     <row r="430" ht="42.0" customHeight="1">
-      <c r="D430" s="10"/>
-      <c r="G430" s="10"/>
+      <c r="D430" s="9"/>
+      <c r="G430" s="9"/>
     </row>
     <row r="431" ht="42.0" customHeight="1">
-      <c r="D431" s="10"/>
-      <c r="G431" s="10"/>
+      <c r="D431" s="9"/>
+      <c r="G431" s="9"/>
     </row>
     <row r="432" ht="42.0" customHeight="1">
-      <c r="D432" s="10"/>
-      <c r="G432" s="10"/>
+      <c r="D432" s="9"/>
+      <c r="G432" s="9"/>
     </row>
     <row r="433" ht="42.0" customHeight="1">
-      <c r="D433" s="10"/>
-      <c r="G433" s="10"/>
+      <c r="D433" s="9"/>
+      <c r="G433" s="9"/>
     </row>
     <row r="434" ht="42.0" customHeight="1">
-      <c r="D434" s="10"/>
-      <c r="G434" s="10"/>
+      <c r="D434" s="9"/>
+      <c r="G434" s="9"/>
     </row>
     <row r="435" ht="42.0" customHeight="1">
-      <c r="D435" s="10"/>
-      <c r="G435" s="10"/>
+      <c r="D435" s="9"/>
+      <c r="G435" s="9"/>
     </row>
     <row r="436" ht="42.0" customHeight="1">
-      <c r="D436" s="10"/>
-      <c r="G436" s="10"/>
+      <c r="D436" s="9"/>
+      <c r="G436" s="9"/>
     </row>
     <row r="437" ht="42.0" customHeight="1">
-      <c r="D437" s="10"/>
-      <c r="G437" s="10"/>
+      <c r="D437" s="9"/>
+      <c r="G437" s="9"/>
     </row>
     <row r="438" ht="42.0" customHeight="1">
-      <c r="D438" s="10"/>
-      <c r="G438" s="10"/>
+      <c r="D438" s="9"/>
+      <c r="G438" s="9"/>
     </row>
     <row r="439" ht="42.0" customHeight="1">
-      <c r="D439" s="10"/>
-      <c r="G439" s="10"/>
+      <c r="D439" s="9"/>
+      <c r="G439" s="9"/>
     </row>
     <row r="440" ht="42.0" customHeight="1">
-      <c r="D440" s="10"/>
-      <c r="G440" s="10"/>
+      <c r="D440" s="9"/>
+      <c r="G440" s="9"/>
     </row>
     <row r="441" ht="42.0" customHeight="1">
-      <c r="D441" s="10"/>
-      <c r="G441" s="10"/>
+      <c r="D441" s="9"/>
+      <c r="G441" s="9"/>
     </row>
     <row r="442" ht="42.0" customHeight="1">
-      <c r="D442" s="10"/>
-      <c r="G442" s="10"/>
+      <c r="D442" s="9"/>
+      <c r="G442" s="9"/>
     </row>
     <row r="443" ht="42.0" customHeight="1">
-      <c r="D443" s="10"/>
-      <c r="G443" s="10"/>
+      <c r="D443" s="9"/>
+      <c r="G443" s="9"/>
     </row>
     <row r="444" ht="42.0" customHeight="1">
-      <c r="D444" s="10"/>
-      <c r="G444" s="10"/>
+      <c r="D444" s="9"/>
+      <c r="G444" s="9"/>
     </row>
     <row r="445" ht="42.0" customHeight="1">
-      <c r="D445" s="10"/>
-      <c r="G445" s="10"/>
+      <c r="D445" s="9"/>
+      <c r="G445" s="9"/>
     </row>
     <row r="446" ht="42.0" customHeight="1">
-      <c r="D446" s="10"/>
-      <c r="G446" s="10"/>
+      <c r="D446" s="9"/>
+      <c r="G446" s="9"/>
     </row>
     <row r="447" ht="42.0" customHeight="1">
-      <c r="D447" s="10"/>
-      <c r="G447" s="10"/>
+      <c r="D447" s="9"/>
+      <c r="G447" s="9"/>
     </row>
     <row r="448" ht="42.0" customHeight="1">
-      <c r="D448" s="10"/>
-      <c r="G448" s="10"/>
+      <c r="D448" s="9"/>
+      <c r="G448" s="9"/>
     </row>
     <row r="449" ht="42.0" customHeight="1">
-      <c r="D449" s="10"/>
-      <c r="G449" s="10"/>
+      <c r="D449" s="9"/>
+      <c r="G449" s="9"/>
     </row>
     <row r="450" ht="42.0" customHeight="1">
-      <c r="D450" s="10"/>
-      <c r="G450" s="10"/>
+      <c r="D450" s="9"/>
+      <c r="G450" s="9"/>
     </row>
     <row r="451" ht="42.0" customHeight="1">
-      <c r="D451" s="10"/>
-      <c r="G451" s="10"/>
+      <c r="D451" s="9"/>
+      <c r="G451" s="9"/>
     </row>
     <row r="452" ht="42.0" customHeight="1">
-      <c r="D452" s="10"/>
-      <c r="G452" s="10"/>
+      <c r="D452" s="9"/>
+      <c r="G452" s="9"/>
     </row>
     <row r="453" ht="42.0" customHeight="1">
-      <c r="D453" s="10"/>
-      <c r="G453" s="10"/>
+      <c r="D453" s="9"/>
+      <c r="G453" s="9"/>
     </row>
     <row r="454" ht="42.0" customHeight="1">
-      <c r="D454" s="10"/>
-      <c r="G454" s="10"/>
+      <c r="D454" s="9"/>
+      <c r="G454" s="9"/>
     </row>
     <row r="455" ht="42.0" customHeight="1">
-      <c r="D455" s="10"/>
-      <c r="G455" s="10"/>
+      <c r="D455" s="9"/>
+      <c r="G455" s="9"/>
     </row>
     <row r="456" ht="42.0" customHeight="1">
-      <c r="D456" s="10"/>
-      <c r="G456" s="10"/>
+      <c r="D456" s="9"/>
+      <c r="G456" s="9"/>
     </row>
     <row r="457" ht="42.0" customHeight="1">
-      <c r="D457" s="10"/>
-      <c r="G457" s="10"/>
+      <c r="D457" s="9"/>
+      <c r="G457" s="9"/>
     </row>
     <row r="458" ht="42.0" customHeight="1">
-      <c r="D458" s="10"/>
-      <c r="G458" s="10"/>
+      <c r="D458" s="9"/>
+      <c r="G458" s="9"/>
     </row>
     <row r="459" ht="42.0" customHeight="1">
-      <c r="D459" s="10"/>
-      <c r="G459" s="10"/>
+      <c r="D459" s="9"/>
+      <c r="G459" s="9"/>
     </row>
     <row r="460" ht="42.0" customHeight="1">
-      <c r="D460" s="10"/>
-      <c r="G460" s="10"/>
+      <c r="D460" s="9"/>
+      <c r="G460" s="9"/>
     </row>
     <row r="461" ht="42.0" customHeight="1">
-      <c r="D461" s="10"/>
-      <c r="G461" s="10"/>
+      <c r="D461" s="9"/>
+      <c r="G461" s="9"/>
     </row>
     <row r="462" ht="42.0" customHeight="1">
-      <c r="D462" s="10"/>
-      <c r="G462" s="10"/>
+      <c r="D462" s="9"/>
+      <c r="G462" s="9"/>
     </row>
     <row r="463" ht="42.0" customHeight="1">
-      <c r="D463" s="10"/>
-      <c r="G463" s="10"/>
+      <c r="D463" s="9"/>
+      <c r="G463" s="9"/>
     </row>
     <row r="464" ht="42.0" customHeight="1">
-      <c r="D464" s="10"/>
-      <c r="G464" s="10"/>
+      <c r="D464" s="9"/>
+      <c r="G464" s="9"/>
     </row>
     <row r="465" ht="42.0" customHeight="1">
-      <c r="D465" s="10"/>
-      <c r="G465" s="10"/>
+      <c r="D465" s="9"/>
+      <c r="G465" s="9"/>
     </row>
     <row r="466" ht="42.0" customHeight="1">
-      <c r="D466" s="10"/>
-      <c r="G466" s="10"/>
+      <c r="D466" s="9"/>
+      <c r="G466" s="9"/>
     </row>
     <row r="467" ht="42.0" customHeight="1">
-      <c r="D467" s="10"/>
-      <c r="G467" s="10"/>
+      <c r="D467" s="9"/>
+      <c r="G467" s="9"/>
     </row>
     <row r="468" ht="42.0" customHeight="1">
-      <c r="D468" s="10"/>
-      <c r="G468" s="10"/>
+      <c r="D468" s="9"/>
+      <c r="G468" s="9"/>
     </row>
     <row r="469" ht="42.0" customHeight="1">
-      <c r="D469" s="10"/>
-      <c r="G469" s="10"/>
+      <c r="D469" s="9"/>
+      <c r="G469" s="9"/>
     </row>
     <row r="470" ht="42.0" customHeight="1">
-      <c r="D470" s="10"/>
-      <c r="G470" s="10"/>
+      <c r="D470" s="9"/>
+      <c r="G470" s="9"/>
     </row>
     <row r="471" ht="42.0" customHeight="1">
-      <c r="D471" s="10"/>
-      <c r="G471" s="10"/>
+      <c r="D471" s="9"/>
+      <c r="G471" s="9"/>
     </row>
     <row r="472" ht="42.0" customHeight="1">
-      <c r="D472" s="10"/>
-      <c r="G472" s="10"/>
+      <c r="D472" s="9"/>
+      <c r="G472" s="9"/>
     </row>
     <row r="473" ht="42.0" customHeight="1">
-      <c r="D473" s="10"/>
-      <c r="G473" s="10"/>
+      <c r="D473" s="9"/>
+      <c r="G473" s="9"/>
     </row>
     <row r="474" ht="42.0" customHeight="1">
-      <c r="D474" s="10"/>
-      <c r="G474" s="10"/>
+      <c r="D474" s="9"/>
+      <c r="G474" s="9"/>
     </row>
     <row r="475" ht="42.0" customHeight="1">
-      <c r="D475" s="10"/>
-      <c r="G475" s="10"/>
+      <c r="D475" s="9"/>
+      <c r="G475" s="9"/>
     </row>
     <row r="476" ht="42.0" customHeight="1">
-      <c r="D476" s="10"/>
-      <c r="G476" s="10"/>
+      <c r="D476" s="9"/>
+      <c r="G476" s="9"/>
     </row>
     <row r="477" ht="42.0" customHeight="1">
-      <c r="D477" s="10"/>
-      <c r="G477" s="10"/>
+      <c r="D477" s="9"/>
+      <c r="G477" s="9"/>
     </row>
     <row r="478" ht="42.0" customHeight="1">
-      <c r="D478" s="10"/>
-      <c r="G478" s="10"/>
+      <c r="D478" s="9"/>
+      <c r="G478" s="9"/>
     </row>
     <row r="479" ht="42.0" customHeight="1">
-      <c r="D479" s="10"/>
-      <c r="G479" s="10"/>
+      <c r="D479" s="9"/>
+      <c r="G479" s="9"/>
     </row>
     <row r="480" ht="42.0" customHeight="1">
-      <c r="D480" s="10"/>
-      <c r="G480" s="10"/>
+      <c r="D480" s="9"/>
+      <c r="G480" s="9"/>
     </row>
     <row r="481" ht="42.0" customHeight="1">
-      <c r="D481" s="10"/>
-      <c r="G481" s="10"/>
+      <c r="D481" s="9"/>
+      <c r="G481" s="9"/>
     </row>
     <row r="482" ht="42.0" customHeight="1">
-      <c r="D482" s="10"/>
-      <c r="G482" s="10"/>
+      <c r="D482" s="9"/>
+      <c r="G482" s="9"/>
     </row>
     <row r="483" ht="42.0" customHeight="1">
-      <c r="D483" s="10"/>
-      <c r="G483" s="10"/>
+      <c r="D483" s="9"/>
+      <c r="G483" s="9"/>
     </row>
     <row r="484" ht="42.0" customHeight="1">
-      <c r="D484" s="10"/>
-      <c r="G484" s="10"/>
+      <c r="D484" s="9"/>
+      <c r="G484" s="9"/>
     </row>
     <row r="485" ht="42.0" customHeight="1">
-      <c r="D485" s="10"/>
-      <c r="G485" s="10"/>
+      <c r="D485" s="9"/>
+      <c r="G485" s="9"/>
     </row>
     <row r="486" ht="42.0" customHeight="1">
-      <c r="D486" s="10"/>
-      <c r="G486" s="10"/>
+      <c r="D486" s="9"/>
+      <c r="G486" s="9"/>
     </row>
     <row r="487" ht="42.0" customHeight="1">
-      <c r="D487" s="10"/>
-      <c r="G487" s="10"/>
+      <c r="D487" s="9"/>
+      <c r="G487" s="9"/>
     </row>
     <row r="488" ht="42.0" customHeight="1">
-      <c r="D488" s="10"/>
-      <c r="G488" s="10"/>
+      <c r="D488" s="9"/>
+      <c r="G488" s="9"/>
     </row>
     <row r="489" ht="42.0" customHeight="1">
-      <c r="D489" s="10"/>
-      <c r="G489" s="10"/>
+      <c r="D489" s="9"/>
+      <c r="G489" s="9"/>
     </row>
     <row r="490" ht="42.0" customHeight="1">
-      <c r="D490" s="10"/>
-      <c r="G490" s="10"/>
+      <c r="D490" s="9"/>
+      <c r="G490" s="9"/>
     </row>
     <row r="491" ht="42.0" customHeight="1">
-      <c r="D491" s="10"/>
-      <c r="G491" s="10"/>
+      <c r="D491" s="9"/>
+      <c r="G491" s="9"/>
     </row>
     <row r="492" ht="42.0" customHeight="1">
-      <c r="D492" s="10"/>
-      <c r="G492" s="10"/>
+      <c r="D492" s="9"/>
+      <c r="G492" s="9"/>
     </row>
     <row r="493" ht="42.0" customHeight="1">
-      <c r="D493" s="10"/>
-      <c r="G493" s="10"/>
+      <c r="D493" s="9"/>
+      <c r="G493" s="9"/>
     </row>
     <row r="494" ht="42.0" customHeight="1">
-      <c r="D494" s="10"/>
-      <c r="G494" s="10"/>
+      <c r="D494" s="9"/>
+      <c r="G494" s="9"/>
     </row>
     <row r="495" ht="42.0" customHeight="1">
-      <c r="D495" s="10"/>
-      <c r="G495" s="10"/>
+      <c r="D495" s="9"/>
+      <c r="G495" s="9"/>
     </row>
     <row r="496" ht="42.0" customHeight="1">
-      <c r="D496" s="10"/>
-      <c r="G496" s="10"/>
+      <c r="D496" s="9"/>
+      <c r="G496" s="9"/>
     </row>
     <row r="497" ht="42.0" customHeight="1">
-      <c r="D497" s="10"/>
-      <c r="G497" s="10"/>
+      <c r="D497" s="9"/>
+      <c r="G497" s="9"/>
     </row>
     <row r="498" ht="42.0" customHeight="1">
-      <c r="D498" s="10"/>
-      <c r="G498" s="10"/>
+      <c r="D498" s="9"/>
+      <c r="G498" s="9"/>
     </row>
     <row r="499" ht="42.0" customHeight="1">
-      <c r="D499" s="10"/>
-      <c r="G499" s="10"/>
+      <c r="D499" s="9"/>
+      <c r="G499" s="9"/>
     </row>
     <row r="500" ht="42.0" customHeight="1">
-      <c r="D500" s="10"/>
-      <c r="G500" s="10"/>
+      <c r="D500" s="9"/>
+      <c r="G500" s="9"/>
     </row>
     <row r="501" ht="42.0" customHeight="1">
-      <c r="D501" s="10"/>
-      <c r="G501" s="10"/>
+      <c r="D501" s="9"/>
+      <c r="G501" s="9"/>
     </row>
     <row r="502" ht="42.0" customHeight="1">
-      <c r="D502" s="10"/>
-      <c r="G502" s="10"/>
+      <c r="D502" s="9"/>
+      <c r="G502" s="9"/>
     </row>
     <row r="503" ht="42.0" customHeight="1">
-      <c r="D503" s="10"/>
-      <c r="G503" s="10"/>
+      <c r="D503" s="9"/>
+      <c r="G503" s="9"/>
     </row>
     <row r="504" ht="42.0" customHeight="1">
-      <c r="D504" s="10"/>
-      <c r="G504" s="10"/>
+      <c r="D504" s="9"/>
+      <c r="G504" s="9"/>
     </row>
     <row r="505" ht="42.0" customHeight="1">
-      <c r="D505" s="10"/>
-      <c r="G505" s="10"/>
+      <c r="D505" s="9"/>
+      <c r="G505" s="9"/>
     </row>
     <row r="506" ht="42.0" customHeight="1">
-      <c r="D506" s="10"/>
-      <c r="G506" s="10"/>
+      <c r="D506" s="9"/>
+      <c r="G506" s="9"/>
     </row>
     <row r="507" ht="42.0" customHeight="1">
-      <c r="D507" s="10"/>
-      <c r="G507" s="10"/>
+      <c r="D507" s="9"/>
+      <c r="G507" s="9"/>
     </row>
     <row r="508" ht="42.0" customHeight="1">
-      <c r="D508" s="10"/>
-      <c r="G508" s="10"/>
+      <c r="D508" s="9"/>
+      <c r="G508" s="9"/>
     </row>
     <row r="509" ht="42.0" customHeight="1">
-      <c r="D509" s="10"/>
-      <c r="G509" s="10"/>
+      <c r="D509" s="9"/>
+      <c r="G509" s="9"/>
     </row>
     <row r="510" ht="42.0" customHeight="1">
-      <c r="D510" s="10"/>
-      <c r="G510" s="10"/>
+      <c r="D510" s="9"/>
+      <c r="G510" s="9"/>
     </row>
     <row r="511" ht="42.0" customHeight="1">
-      <c r="D511" s="10"/>
-      <c r="G511" s="10"/>
+      <c r="D511" s="9"/>
+      <c r="G511" s="9"/>
     </row>
     <row r="512" ht="42.0" customHeight="1">
-      <c r="D512" s="10"/>
-      <c r="G512" s="10"/>
+      <c r="D512" s="9"/>
+      <c r="G512" s="9"/>
     </row>
     <row r="513" ht="42.0" customHeight="1">
-      <c r="D513" s="10"/>
-      <c r="G513" s="10"/>
+      <c r="D513" s="9"/>
+      <c r="G513" s="9"/>
     </row>
     <row r="514" ht="42.0" customHeight="1">
-      <c r="D514" s="10"/>
-      <c r="G514" s="10"/>
+      <c r="D514" s="9"/>
+      <c r="G514" s="9"/>
     </row>
     <row r="515" ht="42.0" customHeight="1">
-      <c r="D515" s="10"/>
-      <c r="G515" s="10"/>
+      <c r="D515" s="9"/>
+      <c r="G515" s="9"/>
     </row>
     <row r="516" ht="42.0" customHeight="1">
-      <c r="D516" s="10"/>
-      <c r="G516" s="10"/>
+      <c r="D516" s="9"/>
+      <c r="G516" s="9"/>
     </row>
     <row r="517" ht="42.0" customHeight="1">
-      <c r="D517" s="10"/>
-      <c r="G517" s="10"/>
+      <c r="D517" s="9"/>
+      <c r="G517" s="9"/>
     </row>
     <row r="518" ht="42.0" customHeight="1">
-      <c r="D518" s="10"/>
-      <c r="G518" s="10"/>
+      <c r="D518" s="9"/>
+      <c r="G518" s="9"/>
     </row>
     <row r="519" ht="42.0" customHeight="1">
-      <c r="D519" s="10"/>
-      <c r="G519" s="10"/>
+      <c r="D519" s="9"/>
+      <c r="G519" s="9"/>
     </row>
     <row r="520" ht="42.0" customHeight="1">
-      <c r="D520" s="10"/>
-      <c r="G520" s="10"/>
+      <c r="D520" s="9"/>
+      <c r="G520" s="9"/>
     </row>
     <row r="521" ht="42.0" customHeight="1">
-      <c r="D521" s="10"/>
-      <c r="G521" s="10"/>
+      <c r="D521" s="9"/>
+      <c r="G521" s="9"/>
     </row>
     <row r="522" ht="42.0" customHeight="1">
-      <c r="D522" s="10"/>
-      <c r="G522" s="10"/>
+      <c r="D522" s="9"/>
+      <c r="G522" s="9"/>
     </row>
     <row r="523" ht="42.0" customHeight="1">
-      <c r="D523" s="10"/>
-      <c r="G523" s="10"/>
+      <c r="D523" s="9"/>
+      <c r="G523" s="9"/>
     </row>
     <row r="524" ht="42.0" customHeight="1">
-      <c r="D524" s="10"/>
-      <c r="G524" s="10"/>
+      <c r="D524" s="9"/>
+      <c r="G524" s="9"/>
     </row>
     <row r="525" ht="42.0" customHeight="1">
-      <c r="D525" s="10"/>
-      <c r="G525" s="10"/>
+      <c r="D525" s="9"/>
+      <c r="G525" s="9"/>
     </row>
     <row r="526" ht="42.0" customHeight="1">
-      <c r="D526" s="10"/>
-      <c r="G526" s="10"/>
+      <c r="D526" s="9"/>
+      <c r="G526" s="9"/>
     </row>
     <row r="527" ht="42.0" customHeight="1">
-      <c r="D527" s="10"/>
-      <c r="G527" s="10"/>
+      <c r="D527" s="9"/>
+      <c r="G527" s="9"/>
     </row>
     <row r="528" ht="42.0" customHeight="1">
-      <c r="D528" s="10"/>
-      <c r="G528" s="10"/>
+      <c r="D528" s="9"/>
+      <c r="G528" s="9"/>
     </row>
     <row r="529" ht="42.0" customHeight="1">
-      <c r="D529" s="10"/>
-      <c r="G529" s="10"/>
+      <c r="D529" s="9"/>
+      <c r="G529" s="9"/>
     </row>
     <row r="530" ht="42.0" customHeight="1">
-      <c r="D530" s="10"/>
-      <c r="G530" s="10"/>
+      <c r="D530" s="9"/>
+      <c r="G530" s="9"/>
     </row>
     <row r="531" ht="42.0" customHeight="1">
-      <c r="D531" s="10"/>
-      <c r="G531" s="10"/>
+      <c r="D531" s="9"/>
+      <c r="G531" s="9"/>
     </row>
     <row r="532" ht="42.0" customHeight="1">
-      <c r="D532" s="10"/>
-      <c r="G532" s="10"/>
+      <c r="D532" s="9"/>
+      <c r="G532" s="9"/>
     </row>
     <row r="533" ht="42.0" customHeight="1">
-      <c r="D533" s="10"/>
-      <c r="G533" s="10"/>
+      <c r="D533" s="9"/>
+      <c r="G533" s="9"/>
     </row>
     <row r="534" ht="42.0" customHeight="1">
-      <c r="D534" s="10"/>
-      <c r="G534" s="10"/>
+      <c r="D534" s="9"/>
+      <c r="G534" s="9"/>
     </row>
     <row r="535" ht="42.0" customHeight="1">
-      <c r="D535" s="10"/>
-      <c r="G535" s="10"/>
+      <c r="D535" s="9"/>
+      <c r="G535" s="9"/>
     </row>
     <row r="536" ht="42.0" customHeight="1">
-      <c r="D536" s="10"/>
-      <c r="G536" s="10"/>
+      <c r="D536" s="9"/>
+      <c r="G536" s="9"/>
     </row>
     <row r="537" ht="42.0" customHeight="1">
-      <c r="D537" s="10"/>
-      <c r="G537" s="10"/>
+      <c r="D537" s="9"/>
+      <c r="G537" s="9"/>
     </row>
     <row r="538" ht="42.0" customHeight="1">
-      <c r="D538" s="10"/>
-      <c r="G538" s="10"/>
+      <c r="D538" s="9"/>
+      <c r="G538" s="9"/>
     </row>
     <row r="539" ht="42.0" customHeight="1">
-      <c r="D539" s="10"/>
-      <c r="G539" s="10"/>
+      <c r="D539" s="9"/>
+      <c r="G539" s="9"/>
     </row>
     <row r="540" ht="42.0" customHeight="1">
-      <c r="D540" s="10"/>
-      <c r="G540" s="10"/>
+      <c r="D540" s="9"/>
+      <c r="G540" s="9"/>
     </row>
     <row r="541" ht="42.0" customHeight="1">
-      <c r="D541" s="10"/>
-      <c r="G541" s="10"/>
+      <c r="D541" s="9"/>
+      <c r="G541" s="9"/>
     </row>
     <row r="542" ht="42.0" customHeight="1">
-      <c r="D542" s="10"/>
-      <c r="G542" s="10"/>
+      <c r="D542" s="9"/>
+      <c r="G542" s="9"/>
     </row>
     <row r="543" ht="42.0" customHeight="1">
-      <c r="D543" s="10"/>
-      <c r="G543" s="10"/>
+      <c r="D543" s="9"/>
+      <c r="G543" s="9"/>
     </row>
     <row r="544" ht="42.0" customHeight="1">
-      <c r="D544" s="10"/>
-      <c r="G544" s="10"/>
+      <c r="D544" s="9"/>
+      <c r="G544" s="9"/>
     </row>
     <row r="545" ht="42.0" customHeight="1">
-      <c r="D545" s="10"/>
-      <c r="G545" s="10"/>
+      <c r="D545" s="9"/>
+      <c r="G545" s="9"/>
     </row>
     <row r="546" ht="42.0" customHeight="1">
-      <c r="D546" s="10"/>
-      <c r="G546" s="10"/>
+      <c r="D546" s="9"/>
+      <c r="G546" s="9"/>
     </row>
     <row r="547" ht="42.0" customHeight="1">
-      <c r="D547" s="10"/>
-      <c r="G547" s="10"/>
+      <c r="D547" s="9"/>
+      <c r="G547" s="9"/>
     </row>
     <row r="548" ht="42.0" customHeight="1">
-      <c r="D548" s="10"/>
-      <c r="G548" s="10"/>
+      <c r="D548" s="9"/>
+      <c r="G548" s="9"/>
     </row>
     <row r="549" ht="42.0" customHeight="1">
-      <c r="D549" s="10"/>
-      <c r="G549" s="10"/>
+      <c r="D549" s="9"/>
+      <c r="G549" s="9"/>
     </row>
     <row r="550" ht="42.0" customHeight="1">
-      <c r="D550" s="10"/>
-      <c r="G550" s="10"/>
+      <c r="D550" s="9"/>
+      <c r="G550" s="9"/>
     </row>
     <row r="551" ht="42.0" customHeight="1">
-      <c r="D551" s="10"/>
-      <c r="G551" s="10"/>
+      <c r="D551" s="9"/>
+      <c r="G551" s="9"/>
     </row>
     <row r="552" ht="42.0" customHeight="1">
-      <c r="D552" s="10"/>
-      <c r="G552" s="10"/>
+      <c r="D552" s="9"/>
+      <c r="G552" s="9"/>
     </row>
     <row r="553" ht="42.0" customHeight="1">
-      <c r="D553" s="10"/>
-      <c r="G553" s="10"/>
+      <c r="D553" s="9"/>
+      <c r="G553" s="9"/>
     </row>
     <row r="554" ht="42.0" customHeight="1">
-      <c r="D554" s="10"/>
-      <c r="G554" s="10"/>
+      <c r="D554" s="9"/>
+      <c r="G554" s="9"/>
     </row>
     <row r="555" ht="42.0" customHeight="1">
-      <c r="D555" s="10"/>
-      <c r="G555" s="10"/>
+      <c r="D555" s="9"/>
+      <c r="G555" s="9"/>
     </row>
     <row r="556" ht="42.0" customHeight="1">
-      <c r="D556" s="10"/>
-      <c r="G556" s="10"/>
+      <c r="D556" s="9"/>
+      <c r="G556" s="9"/>
     </row>
     <row r="557" ht="42.0" customHeight="1">
-      <c r="D557" s="10"/>
-      <c r="G557" s="10"/>
+      <c r="D557" s="9"/>
+      <c r="G557" s="9"/>
     </row>
     <row r="558" ht="42.0" customHeight="1">
-      <c r="D558" s="10"/>
-      <c r="G558" s="10"/>
+      <c r="D558" s="9"/>
+      <c r="G558" s="9"/>
     </row>
     <row r="559" ht="42.0" customHeight="1">
-      <c r="D559" s="10"/>
-      <c r="G559" s="10"/>
+      <c r="D559" s="9"/>
+      <c r="G559" s="9"/>
     </row>
     <row r="560" ht="42.0" customHeight="1">
-      <c r="D560" s="10"/>
-      <c r="G560" s="10"/>
+      <c r="D560" s="9"/>
+      <c r="G560" s="9"/>
     </row>
     <row r="561" ht="42.0" customHeight="1">
-      <c r="D561" s="10"/>
-      <c r="G561" s="10"/>
+      <c r="D561" s="9"/>
+      <c r="G561" s="9"/>
     </row>
     <row r="562" ht="42.0" customHeight="1">
-      <c r="D562" s="10"/>
-      <c r="G562" s="10"/>
+      <c r="D562" s="9"/>
+      <c r="G562" s="9"/>
     </row>
     <row r="563" ht="42.0" customHeight="1">
-      <c r="D563" s="10"/>
-      <c r="G563" s="10"/>
+      <c r="D563" s="9"/>
+      <c r="G563" s="9"/>
     </row>
     <row r="564" ht="42.0" customHeight="1">
-      <c r="D564" s="10"/>
-      <c r="G564" s="10"/>
+      <c r="D564" s="9"/>
+      <c r="G564" s="9"/>
     </row>
     <row r="565" ht="42.0" customHeight="1">
-      <c r="D565" s="10"/>
-      <c r="G565" s="10"/>
+      <c r="D565" s="9"/>
+      <c r="G565" s="9"/>
     </row>
     <row r="566" ht="42.0" customHeight="1">
-      <c r="D566" s="10"/>
-      <c r="G566" s="10"/>
+      <c r="D566" s="9"/>
+      <c r="G566" s="9"/>
     </row>
     <row r="567" ht="42.0" customHeight="1">
-      <c r="D567" s="10"/>
-      <c r="G567" s="10"/>
+      <c r="D567" s="9"/>
+      <c r="G567" s="9"/>
     </row>
     <row r="568" ht="42.0" customHeight="1">
-      <c r="D568" s="10"/>
-      <c r="G568" s="10"/>
+      <c r="D568" s="9"/>
+      <c r="G568" s="9"/>
     </row>
     <row r="569" ht="42.0" customHeight="1">
-      <c r="D569" s="10"/>
-      <c r="G569" s="10"/>
+      <c r="D569" s="9"/>
+      <c r="G569" s="9"/>
     </row>
     <row r="570" ht="42.0" customHeight="1">
-      <c r="D570" s="10"/>
-      <c r="G570" s="10"/>
+      <c r="D570" s="9"/>
+      <c r="G570" s="9"/>
     </row>
     <row r="571" ht="42.0" customHeight="1">
-      <c r="D571" s="10"/>
-      <c r="G571" s="10"/>
+      <c r="D571" s="9"/>
+      <c r="G571" s="9"/>
     </row>
     <row r="572" ht="42.0" customHeight="1">
-      <c r="D572" s="10"/>
-      <c r="G572" s="10"/>
+      <c r="D572" s="9"/>
+      <c r="G572" s="9"/>
     </row>
     <row r="573" ht="42.0" customHeight="1">
-      <c r="D573" s="10"/>
-      <c r="G573" s="10"/>
+      <c r="D573" s="9"/>
+      <c r="G573" s="9"/>
     </row>
     <row r="574" ht="42.0" customHeight="1">
-      <c r="D574" s="10"/>
-      <c r="G574" s="10"/>
+      <c r="D574" s="9"/>
+      <c r="G574" s="9"/>
     </row>
     <row r="575" ht="42.0" customHeight="1">
-      <c r="D575" s="10"/>
-      <c r="G575" s="10"/>
+      <c r="D575" s="9"/>
+      <c r="G575" s="9"/>
     </row>
     <row r="576" ht="42.0" customHeight="1">
-      <c r="D576" s="10"/>
-      <c r="G576" s="10"/>
+      <c r="D576" s="9"/>
+      <c r="G576" s="9"/>
     </row>
     <row r="577" ht="42.0" customHeight="1">
-      <c r="D577" s="10"/>
-      <c r="G577" s="10"/>
+      <c r="D577" s="9"/>
+      <c r="G577" s="9"/>
     </row>
     <row r="578" ht="42.0" customHeight="1">
-      <c r="D578" s="10"/>
-      <c r="G578" s="10"/>
+      <c r="D578" s="9"/>
+      <c r="G578" s="9"/>
     </row>
     <row r="579" ht="42.0" customHeight="1">
-      <c r="D579" s="10"/>
-      <c r="G579" s="10"/>
+      <c r="D579" s="9"/>
+      <c r="G579" s="9"/>
     </row>
     <row r="580" ht="42.0" customHeight="1">
-      <c r="D580" s="10"/>
-      <c r="G580" s="10"/>
+      <c r="D580" s="9"/>
+      <c r="G580" s="9"/>
     </row>
     <row r="581" ht="42.0" customHeight="1">
-      <c r="D581" s="10"/>
-      <c r="G581" s="10"/>
+      <c r="D581" s="9"/>
+      <c r="G581" s="9"/>
     </row>
     <row r="582" ht="42.0" customHeight="1">
-      <c r="D582" s="10"/>
-      <c r="G582" s="10"/>
+      <c r="D582" s="9"/>
+      <c r="G582" s="9"/>
     </row>
     <row r="583" ht="42.0" customHeight="1">
-      <c r="D583" s="10"/>
-      <c r="G583" s="10"/>
+      <c r="D583" s="9"/>
+      <c r="G583" s="9"/>
     </row>
     <row r="584" ht="42.0" customHeight="1">
-      <c r="D584" s="10"/>
-      <c r="G584" s="10"/>
+      <c r="D584" s="9"/>
+      <c r="G584" s="9"/>
     </row>
     <row r="585" ht="42.0" customHeight="1">
-      <c r="D585" s="10"/>
-      <c r="G585" s="10"/>
+      <c r="D585" s="9"/>
+      <c r="G585" s="9"/>
     </row>
     <row r="586" ht="42.0" customHeight="1">
-      <c r="D586" s="10"/>
-      <c r="G586" s="10"/>
+      <c r="D586" s="9"/>
+      <c r="G586" s="9"/>
     </row>
     <row r="587" ht="42.0" customHeight="1">
-      <c r="D587" s="10"/>
-      <c r="G587" s="10"/>
+      <c r="D587" s="9"/>
+      <c r="G587" s="9"/>
     </row>
     <row r="588" ht="42.0" customHeight="1">
-      <c r="D588" s="10"/>
-      <c r="G588" s="10"/>
+      <c r="D588" s="9"/>
+      <c r="G588" s="9"/>
     </row>
     <row r="589" ht="42.0" customHeight="1">
-      <c r="D589" s="10"/>
-      <c r="G589" s="10"/>
+      <c r="D589" s="9"/>
+      <c r="G589" s="9"/>
     </row>
     <row r="590" ht="42.0" customHeight="1">
-      <c r="D590" s="10"/>
-      <c r="G590" s="10"/>
+      <c r="D590" s="9"/>
+      <c r="G590" s="9"/>
     </row>
     <row r="591" ht="42.0" customHeight="1">
-      <c r="D591" s="10"/>
-      <c r="G591" s="10"/>
+      <c r="D591" s="9"/>
+      <c r="G591" s="9"/>
     </row>
     <row r="592" ht="42.0" customHeight="1">
-      <c r="D592" s="10"/>
-      <c r="G592" s="10"/>
+      <c r="D592" s="9"/>
+      <c r="G592" s="9"/>
     </row>
     <row r="593" ht="42.0" customHeight="1">
-      <c r="D593" s="10"/>
-      <c r="G593" s="10"/>
+      <c r="D593" s="9"/>
+      <c r="G593" s="9"/>
     </row>
     <row r="594" ht="42.0" customHeight="1">
-      <c r="D594" s="10"/>
-      <c r="G594" s="10"/>
+      <c r="D594" s="9"/>
+      <c r="G594" s="9"/>
     </row>
     <row r="595" ht="42.0" customHeight="1">
-      <c r="D595" s="10"/>
-      <c r="G595" s="10"/>
+      <c r="D595" s="9"/>
+      <c r="G595" s="9"/>
     </row>
     <row r="596" ht="42.0" customHeight="1">
-      <c r="D596" s="10"/>
-      <c r="G596" s="10"/>
+      <c r="D596" s="9"/>
+      <c r="G596" s="9"/>
     </row>
     <row r="597" ht="42.0" customHeight="1">
-      <c r="D597" s="10"/>
-      <c r="G597" s="10"/>
+      <c r="D597" s="9"/>
+      <c r="G597" s="9"/>
     </row>
     <row r="598" ht="42.0" customHeight="1">
-      <c r="D598" s="10"/>
-      <c r="G598" s="10"/>
+      <c r="D598" s="9"/>
+      <c r="G598" s="9"/>
     </row>
     <row r="599" ht="42.0" customHeight="1">
-      <c r="D599" s="10"/>
-      <c r="G599" s="10"/>
+      <c r="D599" s="9"/>
+      <c r="G599" s="9"/>
     </row>
     <row r="600" ht="42.0" customHeight="1">
-      <c r="D600" s="10"/>
-      <c r="G600" s="10"/>
+      <c r="D600" s="9"/>
+      <c r="G600" s="9"/>
     </row>
     <row r="601" ht="42.0" customHeight="1">
-      <c r="D601" s="10"/>
-      <c r="G601" s="10"/>
+      <c r="D601" s="9"/>
+      <c r="G601" s="9"/>
     </row>
     <row r="602" ht="42.0" customHeight="1">
-      <c r="D602" s="10"/>
-      <c r="G602" s="10"/>
+      <c r="D602" s="9"/>
+      <c r="G602" s="9"/>
     </row>
     <row r="603" ht="42.0" customHeight="1">
-      <c r="D603" s="10"/>
-      <c r="G603" s="10"/>
+      <c r="D603" s="9"/>
+      <c r="G603" s="9"/>
     </row>
     <row r="604" ht="42.0" customHeight="1">
-      <c r="D604" s="10"/>
-      <c r="G604" s="10"/>
+      <c r="D604" s="9"/>
+      <c r="G604" s="9"/>
     </row>
     <row r="605" ht="42.0" customHeight="1">
-      <c r="D605" s="10"/>
-      <c r="G605" s="10"/>
+      <c r="D605" s="9"/>
+      <c r="G605" s="9"/>
     </row>
     <row r="606" ht="42.0" customHeight="1">
-      <c r="D606" s="10"/>
-      <c r="G606" s="10"/>
+      <c r="D606" s="9"/>
+      <c r="G606" s="9"/>
     </row>
     <row r="607" ht="42.0" customHeight="1">
-      <c r="D607" s="10"/>
-      <c r="G607" s="10"/>
+      <c r="D607" s="9"/>
+      <c r="G607" s="9"/>
     </row>
     <row r="608" ht="42.0" customHeight="1">
-      <c r="D608" s="10"/>
-      <c r="G608" s="10"/>
+      <c r="D608" s="9"/>
+      <c r="G608" s="9"/>
     </row>
     <row r="609" ht="42.0" customHeight="1">
-      <c r="D609" s="10"/>
-      <c r="G609" s="10"/>
+      <c r="D609" s="9"/>
+      <c r="G609" s="9"/>
     </row>
     <row r="610" ht="42.0" customHeight="1">
-      <c r="D610" s="10"/>
-      <c r="G610" s="10"/>
+      <c r="D610" s="9"/>
+      <c r="G610" s="9"/>
     </row>
     <row r="611" ht="42.0" customHeight="1">
-      <c r="D611" s="10"/>
-      <c r="G611" s="10"/>
+      <c r="D611" s="9"/>
+      <c r="G611" s="9"/>
     </row>
     <row r="612" ht="42.0" customHeight="1">
-      <c r="D612" s="10"/>
-      <c r="G612" s="10"/>
+      <c r="D612" s="9"/>
+      <c r="G612" s="9"/>
     </row>
     <row r="613" ht="42.0" customHeight="1">
-      <c r="D613" s="10"/>
-      <c r="G613" s="10"/>
+      <c r="D613" s="9"/>
+      <c r="G613" s="9"/>
     </row>
     <row r="614" ht="42.0" customHeight="1">
-      <c r="D614" s="10"/>
-      <c r="G614" s="10"/>
+      <c r="D614" s="9"/>
+      <c r="G614" s="9"/>
     </row>
     <row r="615" ht="42.0" customHeight="1">
-      <c r="D615" s="10"/>
-      <c r="G615" s="10"/>
+      <c r="D615" s="9"/>
+      <c r="G615" s="9"/>
     </row>
     <row r="616" ht="42.0" customHeight="1">
-      <c r="D616" s="10"/>
-      <c r="G616" s="10"/>
+      <c r="D616" s="9"/>
+      <c r="G616" s="9"/>
     </row>
     <row r="617" ht="42.0" customHeight="1">
-      <c r="D617" s="10"/>
-      <c r="G617" s="10"/>
+      <c r="D617" s="9"/>
+      <c r="G617" s="9"/>
     </row>
     <row r="618" ht="42.0" customHeight="1">
-      <c r="D618" s="10"/>
-      <c r="G618" s="10"/>
+      <c r="D618" s="9"/>
+      <c r="G618" s="9"/>
     </row>
     <row r="619" ht="42.0" customHeight="1">
-      <c r="D619" s="10"/>
-      <c r="G619" s="10"/>
+      <c r="D619" s="9"/>
+      <c r="G619" s="9"/>
     </row>
     <row r="620" ht="42.0" customHeight="1">
-      <c r="D620" s="10"/>
-      <c r="G620" s="10"/>
+      <c r="D620" s="9"/>
+      <c r="G620" s="9"/>
     </row>
     <row r="621" ht="42.0" customHeight="1">
-      <c r="D621" s="10"/>
-      <c r="G621" s="10"/>
+      <c r="D621" s="9"/>
+      <c r="G621" s="9"/>
     </row>
     <row r="622" ht="42.0" customHeight="1">
-      <c r="D622" s="10"/>
-      <c r="G622" s="10"/>
+      <c r="D622" s="9"/>
+      <c r="G622" s="9"/>
     </row>
     <row r="623" ht="42.0" customHeight="1">
-      <c r="D623" s="10"/>
-      <c r="G623" s="10"/>
+      <c r="D623" s="9"/>
+      <c r="G623" s="9"/>
     </row>
     <row r="624" ht="42.0" customHeight="1">
-      <c r="D624" s="10"/>
-      <c r="G624" s="10"/>
+      <c r="D624" s="9"/>
+      <c r="G624" s="9"/>
     </row>
     <row r="625" ht="42.0" customHeight="1">
-      <c r="D625" s="10"/>
-      <c r="G625" s="10"/>
+      <c r="D625" s="9"/>
+      <c r="G625" s="9"/>
     </row>
     <row r="626" ht="42.0" customHeight="1">
-      <c r="D626" s="10"/>
-      <c r="G626" s="10"/>
+      <c r="D626" s="9"/>
+      <c r="G626" s="9"/>
     </row>
     <row r="627" ht="42.0" customHeight="1">
-      <c r="D627" s="10"/>
-      <c r="G627" s="10"/>
+      <c r="D627" s="9"/>
+      <c r="G627" s="9"/>
     </row>
     <row r="628" ht="42.0" customHeight="1">
-      <c r="D628" s="10"/>
-      <c r="G628" s="10"/>
+      <c r="D628" s="9"/>
+      <c r="G628" s="9"/>
     </row>
     <row r="629" ht="42.0" customHeight="1">
-      <c r="D629" s="10"/>
-      <c r="G629" s="10"/>
+      <c r="D629" s="9"/>
+      <c r="G629" s="9"/>
     </row>
     <row r="630" ht="42.0" customHeight="1">
-      <c r="D630" s="10"/>
-      <c r="G630" s="10"/>
+      <c r="D630" s="9"/>
+      <c r="G630" s="9"/>
     </row>
     <row r="631" ht="42.0" customHeight="1">
-      <c r="D631" s="10"/>
-      <c r="G631" s="10"/>
+      <c r="D631" s="9"/>
+      <c r="G631" s="9"/>
     </row>
     <row r="632" ht="42.0" customHeight="1">
-      <c r="D632" s="10"/>
-      <c r="G632" s="10"/>
+      <c r="D632" s="9"/>
+      <c r="G632" s="9"/>
     </row>
     <row r="633" ht="42.0" customHeight="1">
-      <c r="D633" s="10"/>
-      <c r="G633" s="10"/>
+      <c r="D633" s="9"/>
+      <c r="G633" s="9"/>
     </row>
     <row r="634" ht="42.0" customHeight="1">
-      <c r="D634" s="10"/>
-      <c r="G634" s="10"/>
+      <c r="D634" s="9"/>
+      <c r="G634" s="9"/>
     </row>
     <row r="635" ht="42.0" customHeight="1">
-      <c r="D635" s="10"/>
-      <c r="G635" s="10"/>
+      <c r="D635" s="9"/>
+      <c r="G635" s="9"/>
     </row>
     <row r="636" ht="42.0" customHeight="1">
-      <c r="D636" s="10"/>
-      <c r="G636" s="10"/>
+      <c r="D636" s="9"/>
+      <c r="G636" s="9"/>
     </row>
     <row r="637" ht="42.0" customHeight="1">
-      <c r="D637" s="10"/>
-      <c r="G637" s="10"/>
+      <c r="D637" s="9"/>
+      <c r="G637" s="9"/>
     </row>
     <row r="638" ht="42.0" customHeight="1">
-      <c r="D638" s="10"/>
-      <c r="G638" s="10"/>
+      <c r="D638" s="9"/>
+      <c r="G638" s="9"/>
     </row>
     <row r="639" ht="42.0" customHeight="1">
-      <c r="D639" s="10"/>
-      <c r="G639" s="10"/>
+      <c r="D639" s="9"/>
+      <c r="G639" s="9"/>
     </row>
     <row r="640" ht="42.0" customHeight="1">
-      <c r="D640" s="10"/>
-      <c r="G640" s="10"/>
+      <c r="D640" s="9"/>
+      <c r="G640" s="9"/>
     </row>
     <row r="641" ht="42.0" customHeight="1">
-      <c r="D641" s="10"/>
-      <c r="G641" s="10"/>
+      <c r="D641" s="9"/>
+      <c r="G641" s="9"/>
     </row>
     <row r="642" ht="42.0" customHeight="1">
-      <c r="D642" s="10"/>
-      <c r="G642" s="10"/>
+      <c r="D642" s="9"/>
+      <c r="G642" s="9"/>
     </row>
     <row r="643" ht="42.0" customHeight="1">
-      <c r="D643" s="10"/>
-      <c r="G643" s="10"/>
+      <c r="D643" s="9"/>
+      <c r="G643" s="9"/>
     </row>
     <row r="644" ht="42.0" customHeight="1">
-      <c r="D644" s="10"/>
-      <c r="G644" s="10"/>
+      <c r="D644" s="9"/>
+      <c r="G644" s="9"/>
     </row>
     <row r="645" ht="42.0" customHeight="1">
-      <c r="D645" s="10"/>
-      <c r="G645" s="10"/>
+      <c r="D645" s="9"/>
+      <c r="G645" s="9"/>
     </row>
     <row r="646" ht="42.0" customHeight="1">
-      <c r="D646" s="10"/>
-      <c r="G646" s="10"/>
+      <c r="D646" s="9"/>
+      <c r="G646" s="9"/>
     </row>
     <row r="647" ht="42.0" customHeight="1">
-      <c r="D647" s="10"/>
-      <c r="G647" s="10"/>
+      <c r="D647" s="9"/>
+      <c r="G647" s="9"/>
     </row>
     <row r="648" ht="42.0" customHeight="1">
-      <c r="D648" s="10"/>
-      <c r="G648" s="10"/>
+      <c r="D648" s="9"/>
+      <c r="G648" s="9"/>
     </row>
     <row r="649" ht="42.0" customHeight="1">
-      <c r="D649" s="10"/>
-      <c r="G649" s="10"/>
+      <c r="D649" s="9"/>
+      <c r="G649" s="9"/>
     </row>
     <row r="650" ht="42.0" customHeight="1">
-      <c r="D650" s="10"/>
-      <c r="G650" s="10"/>
+      <c r="D650" s="9"/>
+      <c r="G650" s="9"/>
     </row>
     <row r="651" ht="42.0" customHeight="1">
-      <c r="D651" s="10"/>
-      <c r="G651" s="10"/>
+      <c r="D651" s="9"/>
+      <c r="G651" s="9"/>
     </row>
     <row r="652" ht="42.0" customHeight="1">
-      <c r="D652" s="10"/>
-      <c r="G652" s="10"/>
+      <c r="D652" s="9"/>
+      <c r="G652" s="9"/>
     </row>
     <row r="653" ht="42.0" customHeight="1">
-      <c r="D653" s="10"/>
-      <c r="G653" s="10"/>
+      <c r="D653" s="9"/>
+      <c r="G653" s="9"/>
     </row>
     <row r="654" ht="42.0" customHeight="1">
-      <c r="D654" s="10"/>
-      <c r="G654" s="10"/>
+      <c r="D654" s="9"/>
+      <c r="G654" s="9"/>
     </row>
     <row r="655" ht="42.0" customHeight="1">
-      <c r="D655" s="10"/>
-      <c r="G655" s="10"/>
+      <c r="D655" s="9"/>
+      <c r="G655" s="9"/>
     </row>
     <row r="656" ht="42.0" customHeight="1">
-      <c r="D656" s="10"/>
-      <c r="G656" s="10"/>
+      <c r="D656" s="9"/>
+      <c r="G656" s="9"/>
     </row>
     <row r="657" ht="42.0" customHeight="1">
-      <c r="D657" s="10"/>
-      <c r="G657" s="10"/>
+      <c r="D657" s="9"/>
+      <c r="G657" s="9"/>
     </row>
     <row r="658" ht="42.0" customHeight="1">
-      <c r="D658" s="10"/>
-      <c r="G658" s="10"/>
+      <c r="D658" s="9"/>
+      <c r="G658" s="9"/>
     </row>
     <row r="659" ht="42.0" customHeight="1">
-      <c r="D659" s="10"/>
-      <c r="G659" s="10"/>
+      <c r="D659" s="9"/>
+      <c r="G659" s="9"/>
     </row>
     <row r="660" ht="42.0" customHeight="1">
-      <c r="D660" s="10"/>
-      <c r="G660" s="10"/>
+      <c r="D660" s="9"/>
+      <c r="G660" s="9"/>
     </row>
     <row r="661" ht="42.0" customHeight="1">
-      <c r="D661" s="10"/>
-      <c r="G661" s="10"/>
+      <c r="D661" s="9"/>
+      <c r="G661" s="9"/>
     </row>
     <row r="662" ht="42.0" customHeight="1">
-      <c r="D662" s="10"/>
-      <c r="G662" s="10"/>
+      <c r="D662" s="9"/>
+      <c r="G662" s="9"/>
     </row>
     <row r="663" ht="42.0" customHeight="1">
-      <c r="D663" s="10"/>
-      <c r="G663" s="10"/>
+      <c r="D663" s="9"/>
+      <c r="G663" s="9"/>
     </row>
     <row r="664" ht="42.0" customHeight="1">
-      <c r="D664" s="10"/>
-      <c r="G664" s="10"/>
+      <c r="D664" s="9"/>
+      <c r="G664" s="9"/>
     </row>
     <row r="665" ht="42.0" customHeight="1">
-      <c r="D665" s="10"/>
-      <c r="G665" s="10"/>
+      <c r="D665" s="9"/>
+      <c r="G665" s="9"/>
     </row>
     <row r="666" ht="42.0" customHeight="1">
-      <c r="D666" s="10"/>
-      <c r="G666" s="10"/>
+      <c r="D666" s="9"/>
+      <c r="G666" s="9"/>
     </row>
     <row r="667" ht="42.0" customHeight="1">
-      <c r="D667" s="10"/>
-      <c r="G667" s="10"/>
+      <c r="D667" s="9"/>
+      <c r="G667" s="9"/>
     </row>
     <row r="668" ht="42.0" customHeight="1">
-      <c r="D668" s="10"/>
-      <c r="G668" s="10"/>
+      <c r="D668" s="9"/>
+      <c r="G668" s="9"/>
     </row>
     <row r="669" ht="42.0" customHeight="1">
-      <c r="D669" s="10"/>
-      <c r="G669" s="10"/>
+      <c r="D669" s="9"/>
+      <c r="G669" s="9"/>
     </row>
     <row r="670" ht="42.0" customHeight="1">
-      <c r="D670" s="10"/>
-      <c r="G670" s="10"/>
+      <c r="D670" s="9"/>
+      <c r="G670" s="9"/>
     </row>
     <row r="671" ht="42.0" customHeight="1">
-      <c r="D671" s="10"/>
-      <c r="G671" s="10"/>
+      <c r="D671" s="9"/>
+      <c r="G671" s="9"/>
     </row>
     <row r="672" ht="42.0" customHeight="1">
-      <c r="D672" s="10"/>
-      <c r="G672" s="10"/>
+      <c r="D672" s="9"/>
+      <c r="G672" s="9"/>
     </row>
     <row r="673" ht="42.0" customHeight="1">
-      <c r="D673" s="10"/>
-      <c r="G673" s="10"/>
+      <c r="D673" s="9"/>
+      <c r="G673" s="9"/>
     </row>
     <row r="674" ht="42.0" customHeight="1">
-      <c r="D674" s="10"/>
-      <c r="G674" s="10"/>
+      <c r="D674" s="9"/>
+      <c r="G674" s="9"/>
     </row>
     <row r="675" ht="42.0" customHeight="1">
-      <c r="D675" s="10"/>
-      <c r="G675" s="10"/>
+      <c r="D675" s="9"/>
+      <c r="G675" s="9"/>
     </row>
     <row r="676" ht="42.0" customHeight="1">
-      <c r="D676" s="10"/>
-      <c r="G676" s="10"/>
+      <c r="D676" s="9"/>
+      <c r="G676" s="9"/>
     </row>
     <row r="677" ht="42.0" customHeight="1">
-      <c r="D677" s="10"/>
-      <c r="G677" s="10"/>
+      <c r="D677" s="9"/>
+      <c r="G677" s="9"/>
     </row>
     <row r="678" ht="42.0" customHeight="1">
-      <c r="D678" s="10"/>
-      <c r="G678" s="10"/>
+      <c r="D678" s="9"/>
+      <c r="G678" s="9"/>
     </row>
     <row r="679" ht="42.0" customHeight="1">
-      <c r="D679" s="10"/>
-      <c r="G679" s="10"/>
+      <c r="D679" s="9"/>
+      <c r="G679" s="9"/>
     </row>
     <row r="680" ht="42.0" customHeight="1">
-      <c r="D680" s="10"/>
-      <c r="G680" s="10"/>
+      <c r="D680" s="9"/>
+      <c r="G680" s="9"/>
     </row>
     <row r="681" ht="42.0" customHeight="1">
-      <c r="D681" s="10"/>
-      <c r="G681" s="10"/>
+      <c r="D681" s="9"/>
+      <c r="G681" s="9"/>
     </row>
     <row r="682" ht="42.0" customHeight="1">
-      <c r="D682" s="10"/>
-      <c r="G682" s="10"/>
+      <c r="D682" s="9"/>
+      <c r="G682" s="9"/>
     </row>
     <row r="683" ht="42.0" customHeight="1">
-      <c r="D683" s="10"/>
-      <c r="G683" s="10"/>
+      <c r="D683" s="9"/>
+      <c r="G683" s="9"/>
     </row>
     <row r="684" ht="42.0" customHeight="1">
-      <c r="D684" s="10"/>
-      <c r="G684" s="10"/>
+      <c r="D684" s="9"/>
+      <c r="G684" s="9"/>
     </row>
     <row r="685" ht="42.0" customHeight="1">
-      <c r="D685" s="10"/>
-      <c r="G685" s="10"/>
+      <c r="D685" s="9"/>
+      <c r="G685" s="9"/>
     </row>
     <row r="686" ht="42.0" customHeight="1">
-      <c r="D686" s="10"/>
-      <c r="G686" s="10"/>
+      <c r="D686" s="9"/>
+      <c r="G686" s="9"/>
     </row>
     <row r="687" ht="42.0" customHeight="1">
-      <c r="D687" s="10"/>
-      <c r="G687" s="10"/>
+      <c r="D687" s="9"/>
+      <c r="G687" s="9"/>
     </row>
     <row r="688" ht="42.0" customHeight="1">
-      <c r="D688" s="10"/>
-      <c r="G688" s="10"/>
+      <c r="D688" s="9"/>
+      <c r="G688" s="9"/>
     </row>
     <row r="689" ht="42.0" customHeight="1">
-      <c r="D689" s="10"/>
-      <c r="G689" s="10"/>
+      <c r="D689" s="9"/>
+      <c r="G689" s="9"/>
     </row>
     <row r="690" ht="42.0" customHeight="1">
-      <c r="D690" s="10"/>
-      <c r="G690" s="10"/>
+      <c r="D690" s="9"/>
+      <c r="G690" s="9"/>
     </row>
     <row r="691" ht="42.0" customHeight="1">
-      <c r="D691" s="10"/>
-      <c r="G691" s="10"/>
+      <c r="D691" s="9"/>
+      <c r="G691" s="9"/>
     </row>
     <row r="692" ht="42.0" customHeight="1">
-      <c r="D692" s="10"/>
-      <c r="G692" s="10"/>
+      <c r="D692" s="9"/>
+      <c r="G692" s="9"/>
     </row>
     <row r="693" ht="42.0" customHeight="1">
-      <c r="D693" s="10"/>
-      <c r="G693" s="10"/>
+      <c r="D693" s="9"/>
+      <c r="G693" s="9"/>
     </row>
     <row r="694" ht="42.0" customHeight="1">
-      <c r="D694" s="10"/>
-      <c r="G694" s="10"/>
+      <c r="D694" s="9"/>
+      <c r="G694" s="9"/>
     </row>
     <row r="695" ht="42.0" customHeight="1">
-      <c r="D695" s="10"/>
-      <c r="G695" s="10"/>
+      <c r="D695" s="9"/>
+      <c r="G695" s="9"/>
     </row>
     <row r="696" ht="42.0" customHeight="1">
-      <c r="D696" s="10"/>
-      <c r="G696" s="10"/>
+      <c r="D696" s="9"/>
+      <c r="G696" s="9"/>
     </row>
     <row r="697" ht="42.0" customHeight="1">
-      <c r="D697" s="10"/>
-      <c r="G697" s="10"/>
+      <c r="D697" s="9"/>
+      <c r="G697" s="9"/>
     </row>
     <row r="698" ht="42.0" customHeight="1">
-      <c r="D698" s="10"/>
-      <c r="G698" s="10"/>
+      <c r="D698" s="9"/>
+      <c r="G698" s="9"/>
     </row>
     <row r="699" ht="42.0" customHeight="1">
-      <c r="D699" s="10"/>
-      <c r="G699" s="10"/>
+      <c r="D699" s="9"/>
+      <c r="G699" s="9"/>
     </row>
     <row r="700" ht="42.0" customHeight="1">
-      <c r="D700" s="10"/>
-      <c r="G700" s="10"/>
+      <c r="D700" s="9"/>
+      <c r="G700" s="9"/>
     </row>
     <row r="701" ht="42.0" customHeight="1">
-      <c r="D701" s="10"/>
-      <c r="G701" s="10"/>
+      <c r="D701" s="9"/>
+      <c r="G701" s="9"/>
     </row>
     <row r="702" ht="42.0" customHeight="1">
-      <c r="D702" s="10"/>
-      <c r="G702" s="10"/>
+      <c r="D702" s="9"/>
+      <c r="G702" s="9"/>
     </row>
     <row r="703" ht="42.0" customHeight="1">
-      <c r="D703" s="10"/>
-      <c r="G703" s="10"/>
+      <c r="D703" s="9"/>
+      <c r="G703" s="9"/>
     </row>
     <row r="704" ht="42.0" customHeight="1">
-      <c r="D704" s="10"/>
-      <c r="G704" s="10"/>
+      <c r="D704" s="9"/>
+      <c r="G704" s="9"/>
     </row>
     <row r="705" ht="42.0" customHeight="1">
-      <c r="D705" s="10"/>
-      <c r="G705" s="10"/>
+      <c r="D705" s="9"/>
+      <c r="G705" s="9"/>
     </row>
     <row r="706" ht="42.0" customHeight="1">
-      <c r="D706" s="10"/>
-      <c r="G706" s="10"/>
+      <c r="D706" s="9"/>
+      <c r="G706" s="9"/>
     </row>
     <row r="707" ht="42.0" customHeight="1">
-      <c r="D707" s="10"/>
-      <c r="G707" s="10"/>
+      <c r="D707" s="9"/>
+      <c r="G707" s="9"/>
     </row>
     <row r="708" ht="42.0" customHeight="1">
-      <c r="D708" s="10"/>
-      <c r="G708" s="10"/>
+      <c r="D708" s="9"/>
+      <c r="G708" s="9"/>
     </row>
     <row r="709" ht="42.0" customHeight="1">
-      <c r="D709" s="10"/>
-      <c r="G709" s="10"/>
+      <c r="D709" s="9"/>
+      <c r="G709" s="9"/>
     </row>
     <row r="710" ht="42.0" customHeight="1">
-      <c r="D710" s="10"/>
-      <c r="G710" s="10"/>
+      <c r="D710" s="9"/>
+      <c r="G710" s="9"/>
     </row>
     <row r="711" ht="42.0" customHeight="1">
-      <c r="D711" s="10"/>
-      <c r="G711" s="10"/>
+      <c r="D711" s="9"/>
+      <c r="G711" s="9"/>
     </row>
     <row r="712" ht="42.0" customHeight="1">
-      <c r="D712" s="10"/>
-      <c r="G712" s="10"/>
+      <c r="D712" s="9"/>
+      <c r="G712" s="9"/>
     </row>
     <row r="713" ht="42.0" customHeight="1">
-      <c r="D713" s="10"/>
-      <c r="G713" s="10"/>
+      <c r="D713" s="9"/>
+      <c r="G713" s="9"/>
     </row>
     <row r="714" ht="42.0" customHeight="1">
-      <c r="D714" s="10"/>
-      <c r="G714" s="10"/>
+      <c r="D714" s="9"/>
+      <c r="G714" s="9"/>
     </row>
     <row r="715" ht="42.0" customHeight="1">
-      <c r="D715" s="10"/>
-      <c r="G715" s="10"/>
+      <c r="D715" s="9"/>
+      <c r="G715" s="9"/>
     </row>
     <row r="716" ht="42.0" customHeight="1">
-      <c r="D716" s="10"/>
-      <c r="G716" s="10"/>
+      <c r="D716" s="9"/>
+      <c r="G716" s="9"/>
     </row>
     <row r="717" ht="42.0" customHeight="1">
-      <c r="D717" s="10"/>
-      <c r="G717" s="10"/>
+      <c r="D717" s="9"/>
+      <c r="G717" s="9"/>
     </row>
     <row r="718" ht="42.0" customHeight="1">
-      <c r="D718" s="10"/>
-      <c r="G718" s="10"/>
+      <c r="D718" s="9"/>
+      <c r="G718" s="9"/>
     </row>
     <row r="719" ht="42.0" customHeight="1">
-      <c r="D719" s="10"/>
-      <c r="G719" s="10"/>
+      <c r="D719" s="9"/>
+      <c r="G719" s="9"/>
     </row>
     <row r="720" ht="42.0" customHeight="1">
-      <c r="D720" s="10"/>
-      <c r="G720" s="10"/>
+      <c r="D720" s="9"/>
+      <c r="G720" s="9"/>
     </row>
     <row r="721" ht="42.0" customHeight="1">
-      <c r="D721" s="10"/>
-      <c r="G721" s="10"/>
+      <c r="D721" s="9"/>
+      <c r="G721" s="9"/>
     </row>
     <row r="722" ht="42.0" customHeight="1">
-      <c r="D722" s="10"/>
-      <c r="G722" s="10"/>
+      <c r="D722" s="9"/>
+      <c r="G722" s="9"/>
     </row>
     <row r="723" ht="42.0" customHeight="1">
-      <c r="D723" s="10"/>
-      <c r="G723" s="10"/>
+      <c r="D723" s="9"/>
+      <c r="G723" s="9"/>
     </row>
     <row r="724" ht="42.0" customHeight="1">
-      <c r="D724" s="10"/>
-      <c r="G724" s="10"/>
+      <c r="D724" s="9"/>
+      <c r="G724" s="9"/>
     </row>
     <row r="725" ht="42.0" customHeight="1">
-      <c r="D725" s="10"/>
-      <c r="G725" s="10"/>
+      <c r="D725" s="9"/>
+      <c r="G725" s="9"/>
     </row>
     <row r="726" ht="42.0" customHeight="1">
-      <c r="D726" s="10"/>
-      <c r="G726" s="10"/>
+      <c r="D726" s="9"/>
+      <c r="G726" s="9"/>
     </row>
     <row r="727" ht="42.0" customHeight="1">
-      <c r="D727" s="10"/>
-      <c r="G727" s="10"/>
+      <c r="D727" s="9"/>
+      <c r="G727" s="9"/>
     </row>
     <row r="728" ht="42.0" customHeight="1">
-      <c r="D728" s="10"/>
-      <c r="G728" s="10"/>
+      <c r="D728" s="9"/>
+      <c r="G728" s="9"/>
     </row>
     <row r="729" ht="42.0" customHeight="1">
-      <c r="D729" s="10"/>
-      <c r="G729" s="10"/>
+      <c r="D729" s="9"/>
+      <c r="G729" s="9"/>
     </row>
     <row r="730" ht="42.0" customHeight="1">
-      <c r="D730" s="10"/>
-      <c r="G730" s="10"/>
+      <c r="D730" s="9"/>
+      <c r="G730" s="9"/>
     </row>
     <row r="731" ht="42.0" customHeight="1">
-      <c r="D731" s="10"/>
-      <c r="G731" s="10"/>
+      <c r="D731" s="9"/>
+      <c r="G731" s="9"/>
     </row>
     <row r="732" ht="42.0" customHeight="1">
-      <c r="D732" s="10"/>
-      <c r="G732" s="10"/>
+      <c r="D732" s="9"/>
+      <c r="G732" s="9"/>
     </row>
     <row r="733" ht="42.0" customHeight="1">
-      <c r="D733" s="10"/>
-      <c r="G733" s="10"/>
+      <c r="D733" s="9"/>
+      <c r="G733" s="9"/>
     </row>
     <row r="734" ht="42.0" customHeight="1">
-      <c r="D734" s="10"/>
-      <c r="G734" s="10"/>
+      <c r="D734" s="9"/>
+      <c r="G734" s="9"/>
     </row>
     <row r="735" ht="42.0" customHeight="1">
-      <c r="D735" s="10"/>
-      <c r="G735" s="10"/>
+      <c r="D735" s="9"/>
+      <c r="G735" s="9"/>
     </row>
     <row r="736" ht="42.0" customHeight="1">
-      <c r="D736" s="10"/>
-      <c r="G736" s="10"/>
+      <c r="D736" s="9"/>
+      <c r="G736" s="9"/>
     </row>
     <row r="737" ht="42.0" customHeight="1">
-      <c r="D737" s="10"/>
-      <c r="G737" s="10"/>
+      <c r="D737" s="9"/>
+      <c r="G737" s="9"/>
     </row>
     <row r="738" ht="42.0" customHeight="1">
-      <c r="D738" s="10"/>
-      <c r="G738" s="10"/>
+      <c r="D738" s="9"/>
+      <c r="G738" s="9"/>
     </row>
     <row r="739" ht="42.0" customHeight="1">
-      <c r="D739" s="10"/>
-      <c r="G739" s="10"/>
+      <c r="D739" s="9"/>
+      <c r="G739" s="9"/>
     </row>
     <row r="740" ht="42.0" customHeight="1">
-      <c r="D740" s="10"/>
-      <c r="G740" s="10"/>
+      <c r="D740" s="9"/>
+      <c r="G740" s="9"/>
     </row>
     <row r="741" ht="42.0" customHeight="1">
-      <c r="D741" s="10"/>
-      <c r="G741" s="10"/>
+      <c r="D741" s="9"/>
+      <c r="G741" s="9"/>
     </row>
     <row r="742" ht="42.0" customHeight="1">
-      <c r="D742" s="10"/>
-      <c r="G742" s="10"/>
+      <c r="D742" s="9"/>
+      <c r="G742" s="9"/>
     </row>
     <row r="743" ht="42.0" customHeight="1">
-      <c r="D743" s="10"/>
-      <c r="G743" s="10"/>
+      <c r="D743" s="9"/>
+      <c r="G743" s="9"/>
     </row>
     <row r="744" ht="42.0" customHeight="1">
-      <c r="D744" s="10"/>
-      <c r="G744" s="10"/>
+      <c r="D744" s="9"/>
+      <c r="G744" s="9"/>
     </row>
     <row r="745" ht="42.0" customHeight="1">
-      <c r="D745" s="10"/>
-      <c r="G745" s="10"/>
+      <c r="D745" s="9"/>
+      <c r="G745" s="9"/>
     </row>
     <row r="746" ht="42.0" customHeight="1">
-      <c r="D746" s="10"/>
-      <c r="G746" s="10"/>
+      <c r="D746" s="9"/>
+      <c r="G746" s="9"/>
     </row>
     <row r="747" ht="42.0" customHeight="1">
-      <c r="D747" s="10"/>
-      <c r="G747" s="10"/>
+      <c r="D747" s="9"/>
+      <c r="G747" s="9"/>
     </row>
     <row r="748" ht="42.0" customHeight="1">
-      <c r="D748" s="10"/>
-      <c r="G748" s="10"/>
+      <c r="D748" s="9"/>
+      <c r="G748" s="9"/>
     </row>
     <row r="749" ht="42.0" customHeight="1">
-      <c r="D749" s="10"/>
-      <c r="G749" s="10"/>
+      <c r="D749" s="9"/>
+      <c r="G749" s="9"/>
     </row>
     <row r="750" ht="42.0" customHeight="1">
-      <c r="D750" s="10"/>
-      <c r="G750" s="10"/>
+      <c r="D750" s="9"/>
+      <c r="G750" s="9"/>
     </row>
     <row r="751" ht="42.0" customHeight="1">
-      <c r="D751" s="10"/>
-      <c r="G751" s="10"/>
+      <c r="D751" s="9"/>
+      <c r="G751" s="9"/>
     </row>
     <row r="752" ht="42.0" customHeight="1">
-      <c r="D752" s="10"/>
-      <c r="G752" s="10"/>
+      <c r="D752" s="9"/>
+      <c r="G752" s="9"/>
     </row>
     <row r="753" ht="42.0" customHeight="1">
-      <c r="D753" s="10"/>
-      <c r="G753" s="10"/>
+      <c r="D753" s="9"/>
+      <c r="G753" s="9"/>
     </row>
     <row r="754" ht="42.0" customHeight="1">
-      <c r="D754" s="10"/>
-      <c r="G754" s="10"/>
+      <c r="D754" s="9"/>
+      <c r="G754" s="9"/>
     </row>
     <row r="755" ht="42.0" customHeight="1">
-      <c r="D755" s="10"/>
-      <c r="G755" s="10"/>
+      <c r="D755" s="9"/>
+      <c r="G755" s="9"/>
     </row>
     <row r="756" ht="42.0" customHeight="1">
-      <c r="D756" s="10"/>
-      <c r="G756" s="10"/>
+      <c r="D756" s="9"/>
+      <c r="G756" s="9"/>
     </row>
     <row r="757" ht="42.0" customHeight="1">
-      <c r="D757" s="10"/>
-      <c r="G757" s="10"/>
+      <c r="D757" s="9"/>
+      <c r="G757" s="9"/>
     </row>
     <row r="758" ht="42.0" customHeight="1">
-      <c r="D758" s="10"/>
-      <c r="G758" s="10"/>
+      <c r="D758" s="9"/>
+      <c r="G758" s="9"/>
     </row>
     <row r="759" ht="42.0" customHeight="1">
-      <c r="D759" s="10"/>
-      <c r="G759" s="10"/>
+      <c r="D759" s="9"/>
+      <c r="G759" s="9"/>
     </row>
     <row r="760" ht="42.0" customHeight="1">
-      <c r="D760" s="10"/>
-      <c r="G760" s="10"/>
+      <c r="D760" s="9"/>
+      <c r="G760" s="9"/>
     </row>
     <row r="761" ht="42.0" customHeight="1">
-      <c r="D761" s="10"/>
-      <c r="G761" s="10"/>
+      <c r="D761" s="9"/>
+      <c r="G761" s="9"/>
     </row>
     <row r="762" ht="42.0" customHeight="1">
-      <c r="D762" s="10"/>
-      <c r="G762" s="10"/>
+      <c r="D762" s="9"/>
+      <c r="G762" s="9"/>
     </row>
     <row r="763" ht="42.0" customHeight="1">
-      <c r="D763" s="10"/>
-      <c r="G763" s="10"/>
+      <c r="D763" s="9"/>
+      <c r="G763" s="9"/>
     </row>
     <row r="764" ht="42.0" customHeight="1">
-      <c r="D764" s="10"/>
-      <c r="G764" s="10"/>
+      <c r="D764" s="9"/>
+      <c r="G764" s="9"/>
     </row>
     <row r="765" ht="42.0" customHeight="1">
-      <c r="D765" s="10"/>
-      <c r="G765" s="10"/>
+      <c r="D765" s="9"/>
+      <c r="G765" s="9"/>
     </row>
     <row r="766" ht="42.0" customHeight="1">
-      <c r="D766" s="10"/>
-      <c r="G766" s="10"/>
+      <c r="D766" s="9"/>
+      <c r="G766" s="9"/>
     </row>
     <row r="767" ht="42.0" customHeight="1">
-      <c r="D767" s="10"/>
-      <c r="G767" s="10"/>
+      <c r="D767" s="9"/>
+      <c r="G767" s="9"/>
     </row>
     <row r="768" ht="42.0" customHeight="1">
-      <c r="D768" s="10"/>
-      <c r="G768" s="10"/>
+      <c r="D768" s="9"/>
+      <c r="G768" s="9"/>
     </row>
     <row r="769" ht="42.0" customHeight="1">
-      <c r="D769" s="10"/>
-      <c r="G769" s="10"/>
+      <c r="D769" s="9"/>
+      <c r="G769" s="9"/>
     </row>
     <row r="770" ht="42.0" customHeight="1">
-      <c r="D770" s="10"/>
-      <c r="G770" s="10"/>
+      <c r="D770" s="9"/>
+      <c r="G770" s="9"/>
     </row>
     <row r="771" ht="42.0" customHeight="1">
-      <c r="D771" s="10"/>
-      <c r="G771" s="10"/>
+      <c r="D771" s="9"/>
+      <c r="G771" s="9"/>
     </row>
     <row r="772" ht="42.0" customHeight="1">
-      <c r="D772" s="10"/>
-      <c r="G772" s="10"/>
+      <c r="D772" s="9"/>
+      <c r="G772" s="9"/>
     </row>
     <row r="773" ht="42.0" customHeight="1">
-      <c r="D773" s="10"/>
-      <c r="G773" s="10"/>
+      <c r="D773" s="9"/>
+      <c r="G773" s="9"/>
     </row>
     <row r="774" ht="42.0" customHeight="1">
-      <c r="D774" s="10"/>
-      <c r="G774" s="10"/>
+      <c r="D774" s="9"/>
+      <c r="G774" s="9"/>
     </row>
     <row r="775" ht="42.0" customHeight="1">
-      <c r="D775" s="10"/>
-      <c r="G775" s="10"/>
+      <c r="D775" s="9"/>
+      <c r="G775" s="9"/>
     </row>
     <row r="776" ht="42.0" customHeight="1">
-      <c r="D776" s="10"/>
-      <c r="G776" s="10"/>
+      <c r="D776" s="9"/>
+      <c r="G776" s="9"/>
     </row>
     <row r="777" ht="42.0" customHeight="1">
-      <c r="D777" s="10"/>
-      <c r="G777" s="10"/>
+      <c r="D777" s="9"/>
+      <c r="G777" s="9"/>
     </row>
     <row r="778" ht="42.0" customHeight="1">
-      <c r="D778" s="10"/>
-      <c r="G778" s="10"/>
+      <c r="D778" s="9"/>
+      <c r="G778" s="9"/>
     </row>
     <row r="779" ht="42.0" customHeight="1">
-      <c r="D779" s="10"/>
-      <c r="G779" s="10"/>
+      <c r="D779" s="9"/>
+      <c r="G779" s="9"/>
     </row>
     <row r="780" ht="42.0" customHeight="1">
-      <c r="D780" s="10"/>
-      <c r="G780" s="10"/>
+      <c r="D780" s="9"/>
+      <c r="G780" s="9"/>
     </row>
     <row r="781" ht="42.0" customHeight="1">
-      <c r="D781" s="10"/>
-      <c r="G781" s="10"/>
+      <c r="D781" s="9"/>
+      <c r="G781" s="9"/>
     </row>
     <row r="782" ht="42.0" customHeight="1">
-      <c r="D782" s="10"/>
-      <c r="G782" s="10"/>
+      <c r="D782" s="9"/>
+      <c r="G782" s="9"/>
     </row>
     <row r="783" ht="42.0" customHeight="1">
-      <c r="D783" s="10"/>
-      <c r="G783" s="10"/>
+      <c r="D783" s="9"/>
+      <c r="G783" s="9"/>
     </row>
     <row r="784" ht="42.0" customHeight="1">
-      <c r="D784" s="10"/>
-      <c r="G784" s="10"/>
+      <c r="D784" s="9"/>
+      <c r="G784" s="9"/>
     </row>
     <row r="785" ht="42.0" customHeight="1">
-      <c r="D785" s="10"/>
-      <c r="G785" s="10"/>
+      <c r="D785" s="9"/>
+      <c r="G785" s="9"/>
     </row>
     <row r="786" ht="42.0" customHeight="1">
-      <c r="D786" s="10"/>
-      <c r="G786" s="10"/>
+      <c r="D786" s="9"/>
+      <c r="G786" s="9"/>
     </row>
     <row r="787" ht="42.0" customHeight="1">
-      <c r="D787" s="10"/>
-      <c r="G787" s="10"/>
+      <c r="D787" s="9"/>
+      <c r="G787" s="9"/>
     </row>
     <row r="788" ht="42.0" customHeight="1">
-      <c r="D788" s="10"/>
-      <c r="G788" s="10"/>
+      <c r="D788" s="9"/>
+      <c r="G788" s="9"/>
     </row>
     <row r="789" ht="42.0" customHeight="1">
-      <c r="D789" s="10"/>
-      <c r="G789" s="10"/>
+      <c r="D789" s="9"/>
+      <c r="G789" s="9"/>
     </row>
     <row r="790" ht="42.0" customHeight="1">
-      <c r="D790" s="10"/>
-      <c r="G790" s="10"/>
+      <c r="D790" s="9"/>
+      <c r="G790" s="9"/>
     </row>
     <row r="791" ht="42.0" customHeight="1">
-      <c r="D791" s="10"/>
-      <c r="G791" s="10"/>
+      <c r="D791" s="9"/>
+      <c r="G791" s="9"/>
     </row>
     <row r="792" ht="42.0" customHeight="1">
-      <c r="D792" s="10"/>
-      <c r="G792" s="10"/>
+      <c r="D792" s="9"/>
+      <c r="G792" s="9"/>
     </row>
     <row r="793" ht="42.0" customHeight="1">
-      <c r="D793" s="10"/>
-      <c r="G793" s="10"/>
+      <c r="D793" s="9"/>
+      <c r="G793" s="9"/>
     </row>
     <row r="794" ht="42.0" customHeight="1">
-      <c r="D794" s="10"/>
-      <c r="G794" s="10"/>
+      <c r="D794" s="9"/>
+      <c r="G794" s="9"/>
     </row>
     <row r="795" ht="42.0" customHeight="1">
-      <c r="D795" s="10"/>
-      <c r="G795" s="10"/>
+      <c r="D795" s="9"/>
+      <c r="G795" s="9"/>
     </row>
     <row r="796" ht="42.0" customHeight="1">
-      <c r="D796" s="10"/>
-      <c r="G796" s="10"/>
+      <c r="D796" s="9"/>
+      <c r="G796" s="9"/>
     </row>
     <row r="797" ht="42.0" customHeight="1">
-      <c r="D797" s="10"/>
-      <c r="G797" s="10"/>
+      <c r="D797" s="9"/>
+      <c r="G797" s="9"/>
     </row>
     <row r="798" ht="42.0" customHeight="1">
-      <c r="D798" s="10"/>
-      <c r="G798" s="10"/>
+      <c r="D798" s="9"/>
+      <c r="G798" s="9"/>
     </row>
     <row r="799" ht="42.0" customHeight="1">
-      <c r="D799" s="10"/>
-      <c r="G799" s="10"/>
+      <c r="D799" s="9"/>
+      <c r="G799" s="9"/>
     </row>
     <row r="800" ht="42.0" customHeight="1">
-      <c r="D800" s="10"/>
-      <c r="G800" s="10"/>
+      <c r="D800" s="9"/>
+      <c r="G800" s="9"/>
     </row>
     <row r="801" ht="42.0" customHeight="1">
-      <c r="D801" s="10"/>
-      <c r="G801" s="10"/>
+      <c r="D801" s="9"/>
+      <c r="G801" s="9"/>
     </row>
     <row r="802" ht="42.0" customHeight="1">
-      <c r="D802" s="10"/>
-      <c r="G802" s="10"/>
+      <c r="D802" s="9"/>
+      <c r="G802" s="9"/>
     </row>
     <row r="803" ht="42.0" customHeight="1">
-      <c r="D803" s="10"/>
-      <c r="G803" s="10"/>
+      <c r="D803" s="9"/>
+      <c r="G803" s="9"/>
     </row>
     <row r="804" ht="42.0" customHeight="1">
-      <c r="D804" s="10"/>
-      <c r="G804" s="10"/>
+      <c r="D804" s="9"/>
+      <c r="G804" s="9"/>
     </row>
     <row r="805" ht="42.0" customHeight="1">
-      <c r="D805" s="10"/>
-      <c r="G805" s="10"/>
+      <c r="D805" s="9"/>
+      <c r="G805" s="9"/>
     </row>
     <row r="806" ht="42.0" customHeight="1">
-      <c r="D806" s="10"/>
-      <c r="G806" s="10"/>
+      <c r="D806" s="9"/>
+      <c r="G806" s="9"/>
     </row>
     <row r="807" ht="42.0" customHeight="1">
-      <c r="D807" s="10"/>
-      <c r="G807" s="10"/>
+      <c r="D807" s="9"/>
+      <c r="G807" s="9"/>
     </row>
     <row r="808" ht="42.0" customHeight="1">
-      <c r="D808" s="10"/>
-      <c r="G808" s="10"/>
+      <c r="D808" s="9"/>
+      <c r="G808" s="9"/>
     </row>
     <row r="809" ht="42.0" customHeight="1">
-      <c r="D809" s="10"/>
-      <c r="G809" s="10"/>
+      <c r="D809" s="9"/>
+      <c r="G809" s="9"/>
     </row>
     <row r="810" ht="42.0" customHeight="1">
-      <c r="D810" s="10"/>
-      <c r="G810" s="10"/>
+      <c r="D810" s="9"/>
+      <c r="G810" s="9"/>
     </row>
     <row r="811" ht="42.0" customHeight="1">
-      <c r="D811" s="10"/>
-      <c r="G811" s="10"/>
+      <c r="D811" s="9"/>
+      <c r="G811" s="9"/>
     </row>
     <row r="812" ht="42.0" customHeight="1">
-      <c r="D812" s="10"/>
-      <c r="G812" s="10"/>
+      <c r="D812" s="9"/>
+      <c r="G812" s="9"/>
     </row>
     <row r="813" ht="42.0" customHeight="1">
-      <c r="D813" s="10"/>
-      <c r="G813" s="10"/>
+      <c r="D813" s="9"/>
+      <c r="G813" s="9"/>
     </row>
     <row r="814" ht="42.0" customHeight="1">
-      <c r="D814" s="10"/>
-      <c r="G814" s="10"/>
+      <c r="D814" s="9"/>
+      <c r="G814" s="9"/>
     </row>
     <row r="815" ht="42.0" customHeight="1">
-      <c r="D815" s="10"/>
-      <c r="G815" s="10"/>
+      <c r="D815" s="9"/>
+      <c r="G815" s="9"/>
     </row>
     <row r="816" ht="42.0" customHeight="1">
-      <c r="D816" s="10"/>
-      <c r="G816" s="10"/>
+      <c r="D816" s="9"/>
+      <c r="G816" s="9"/>
     </row>
     <row r="817" ht="42.0" customHeight="1">
-      <c r="D817" s="10"/>
-      <c r="G817" s="10"/>
+      <c r="D817" s="9"/>
+      <c r="G817" s="9"/>
     </row>
     <row r="818" ht="42.0" customHeight="1">
-      <c r="D818" s="10"/>
-      <c r="G818" s="10"/>
+      <c r="D818" s="9"/>
+      <c r="G818" s="9"/>
     </row>
     <row r="819" ht="42.0" customHeight="1">
-      <c r="D819" s="10"/>
-      <c r="G819" s="10"/>
+      <c r="D819" s="9"/>
+      <c r="G819" s="9"/>
     </row>
     <row r="820" ht="42.0" customHeight="1">
-      <c r="D820" s="10"/>
-      <c r="G820" s="10"/>
+      <c r="D820" s="9"/>
+      <c r="G820" s="9"/>
     </row>
     <row r="821" ht="42.0" customHeight="1">
-      <c r="D821" s="10"/>
-      <c r="G821" s="10"/>
+      <c r="D821" s="9"/>
+      <c r="G821" s="9"/>
     </row>
     <row r="822" ht="42.0" customHeight="1">
-      <c r="D822" s="10"/>
-      <c r="G822" s="10"/>
+      <c r="D822" s="9"/>
+      <c r="G822" s="9"/>
     </row>
     <row r="823" ht="42.0" customHeight="1">
-      <c r="D823" s="10"/>
-      <c r="G823" s="10"/>
+      <c r="D823" s="9"/>
+      <c r="G823" s="9"/>
     </row>
     <row r="824" ht="42.0" customHeight="1">
-      <c r="D824" s="10"/>
-      <c r="G824" s="10"/>
+      <c r="D824" s="9"/>
+      <c r="G824" s="9"/>
     </row>
     <row r="825" ht="42.0" customHeight="1">
-      <c r="D825" s="10"/>
-      <c r="G825" s="10"/>
+      <c r="D825" s="9"/>
+      <c r="G825" s="9"/>
     </row>
     <row r="826" ht="42.0" customHeight="1">
-      <c r="D826" s="10"/>
-      <c r="G826" s="10"/>
+      <c r="D826" s="9"/>
+      <c r="G826" s="9"/>
     </row>
     <row r="827" ht="42.0" customHeight="1">
-      <c r="D827" s="10"/>
-      <c r="G827" s="10"/>
+      <c r="D827" s="9"/>
+      <c r="G827" s="9"/>
     </row>
     <row r="828" ht="42.0" customHeight="1">
-      <c r="D828" s="10"/>
-      <c r="G828" s="10"/>
+      <c r="D828" s="9"/>
+      <c r="G828" s="9"/>
     </row>
     <row r="829" ht="42.0" customHeight="1">
-      <c r="D829" s="10"/>
-      <c r="G829" s="10"/>
+      <c r="D829" s="9"/>
+      <c r="G829" s="9"/>
     </row>
     <row r="830" ht="42.0" customHeight="1">
-      <c r="D830" s="10"/>
-      <c r="G830" s="10"/>
+      <c r="D830" s="9"/>
+      <c r="G830" s="9"/>
     </row>
     <row r="831" ht="42.0" customHeight="1">
-      <c r="D831" s="10"/>
-      <c r="G831" s="10"/>
+      <c r="D831" s="9"/>
+      <c r="G831" s="9"/>
     </row>
     <row r="832" ht="42.0" customHeight="1">
-      <c r="D832" s="10"/>
-      <c r="G832" s="10"/>
+      <c r="D832" s="9"/>
+      <c r="G832" s="9"/>
     </row>
     <row r="833" ht="42.0" customHeight="1">
-      <c r="D833" s="10"/>
-      <c r="G833" s="10"/>
+      <c r="D833" s="9"/>
+      <c r="G833" s="9"/>
     </row>
     <row r="834" ht="42.0" customHeight="1">
-      <c r="D834" s="10"/>
-      <c r="G834" s="10"/>
+      <c r="D834" s="9"/>
+      <c r="G834" s="9"/>
     </row>
     <row r="835" ht="42.0" customHeight="1">
-      <c r="D835" s="10"/>
-      <c r="G835" s="10"/>
+      <c r="D835" s="9"/>
+      <c r="G835" s="9"/>
     </row>
     <row r="836" ht="42.0" customHeight="1">
-      <c r="D836" s="10"/>
-      <c r="G836" s="10"/>
+      <c r="D836" s="9"/>
+      <c r="G836" s="9"/>
     </row>
     <row r="837" ht="42.0" customHeight="1">
-      <c r="D837" s="10"/>
-      <c r="G837" s="10"/>
+      <c r="D837" s="9"/>
+      <c r="G837" s="9"/>
     </row>
     <row r="838" ht="42.0" customHeight="1">
-      <c r="D838" s="10"/>
-      <c r="G838" s="10"/>
+      <c r="D838" s="9"/>
+      <c r="G838" s="9"/>
     </row>
     <row r="839" ht="42.0" customHeight="1">
-      <c r="D839" s="10"/>
-      <c r="G839" s="10"/>
+      <c r="D839" s="9"/>
+      <c r="G839" s="9"/>
     </row>
     <row r="840" ht="42.0" customHeight="1">
-      <c r="D840" s="10"/>
-      <c r="G840" s="10"/>
+      <c r="D840" s="9"/>
+      <c r="G840" s="9"/>
     </row>
     <row r="841" ht="42.0" customHeight="1">
-      <c r="D841" s="10"/>
-      <c r="G841" s="10"/>
+      <c r="D841" s="9"/>
+      <c r="G841" s="9"/>
     </row>
     <row r="842" ht="42.0" customHeight="1">
-      <c r="D842" s="10"/>
-      <c r="G842" s="10"/>
+      <c r="D842" s="9"/>
+      <c r="G842" s="9"/>
     </row>
     <row r="843" ht="42.0" customHeight="1">
-      <c r="D843" s="10"/>
-      <c r="G843" s="10"/>
+      <c r="D843" s="9"/>
+      <c r="G843" s="9"/>
     </row>
     <row r="844" ht="42.0" customHeight="1">
-      <c r="D844" s="10"/>
-      <c r="G844" s="10"/>
+      <c r="D844" s="9"/>
+      <c r="G844" s="9"/>
     </row>
     <row r="845" ht="42.0" customHeight="1">
-      <c r="D845" s="10"/>
-      <c r="G845" s="10"/>
+      <c r="D845" s="9"/>
+      <c r="G845" s="9"/>
     </row>
     <row r="846" ht="42.0" customHeight="1">
-      <c r="D846" s="10"/>
-      <c r="G846" s="10"/>
+      <c r="D846" s="9"/>
+      <c r="G846" s="9"/>
     </row>
     <row r="847" ht="42.0" customHeight="1">
-      <c r="D847" s="10"/>
-      <c r="G847" s="10"/>
+      <c r="D847" s="9"/>
+      <c r="G847" s="9"/>
     </row>
     <row r="848" ht="42.0" customHeight="1">
-      <c r="D848" s="10"/>
-      <c r="G848" s="10"/>
+      <c r="D848" s="9"/>
+      <c r="G848" s="9"/>
     </row>
     <row r="849" ht="42.0" customHeight="1">
-      <c r="D849" s="10"/>
-      <c r="G849" s="10"/>
+      <c r="D849" s="9"/>
+      <c r="G849" s="9"/>
     </row>
     <row r="850" ht="42.0" customHeight="1">
-      <c r="D850" s="10"/>
-      <c r="G850" s="10"/>
+      <c r="D850" s="9"/>
+      <c r="G850" s="9"/>
     </row>
     <row r="851" ht="42.0" customHeight="1">
-      <c r="D851" s="10"/>
-      <c r="G851" s="10"/>
+      <c r="D851" s="9"/>
+      <c r="G851" s="9"/>
     </row>
     <row r="852" ht="42.0" customHeight="1">
-      <c r="D852" s="10"/>
-      <c r="G852" s="10"/>
+      <c r="D852" s="9"/>
+      <c r="G852" s="9"/>
     </row>
     <row r="853" ht="42.0" customHeight="1">
-      <c r="D853" s="10"/>
-      <c r="G853" s="10"/>
+      <c r="D853" s="9"/>
+      <c r="G853" s="9"/>
     </row>
     <row r="854" ht="42.0" customHeight="1">
-      <c r="D854" s="10"/>
-      <c r="G854" s="10"/>
+      <c r="D854" s="9"/>
+      <c r="G854" s="9"/>
     </row>
     <row r="855" ht="42.0" customHeight="1">
-      <c r="D855" s="10"/>
-      <c r="G855" s="10"/>
+      <c r="D855" s="9"/>
+      <c r="G855" s="9"/>
     </row>
     <row r="856" ht="42.0" customHeight="1">
-      <c r="D856" s="10"/>
-      <c r="G856" s="10"/>
+      <c r="D856" s="9"/>
+      <c r="G856" s="9"/>
     </row>
     <row r="857" ht="42.0" customHeight="1">
-      <c r="D857" s="10"/>
-      <c r="G857" s="10"/>
+      <c r="D857" s="9"/>
+      <c r="G857" s="9"/>
     </row>
     <row r="858" ht="42.0" customHeight="1">
-      <c r="D858" s="10"/>
-      <c r="G858" s="10"/>
+      <c r="D858" s="9"/>
+      <c r="G858" s="9"/>
     </row>
     <row r="859" ht="42.0" customHeight="1">
-      <c r="D859" s="10"/>
-      <c r="G859" s="10"/>
+      <c r="D859" s="9"/>
+      <c r="G859" s="9"/>
     </row>
     <row r="860" ht="42.0" customHeight="1">
-      <c r="D860" s="10"/>
-      <c r="G860" s="10"/>
+      <c r="D860" s="9"/>
+      <c r="G860" s="9"/>
     </row>
     <row r="861" ht="42.0" customHeight="1">
-      <c r="D861" s="10"/>
-      <c r="G861" s="10"/>
+      <c r="D861" s="9"/>
+      <c r="G861" s="9"/>
     </row>
     <row r="862" ht="42.0" customHeight="1">
-      <c r="D862" s="10"/>
-      <c r="G862" s="10"/>
+      <c r="D862" s="9"/>
+      <c r="G862" s="9"/>
     </row>
     <row r="863" ht="42.0" customHeight="1">
-      <c r="D863" s="10"/>
-      <c r="G863" s="10"/>
+      <c r="D863" s="9"/>
+      <c r="G863" s="9"/>
     </row>
     <row r="864" ht="42.0" customHeight="1">
-      <c r="D864" s="10"/>
-      <c r="G864" s="10"/>
+      <c r="D864" s="9"/>
+      <c r="G864" s="9"/>
     </row>
     <row r="865" ht="42.0" customHeight="1">
-      <c r="D865" s="10"/>
-      <c r="G865" s="10"/>
+      <c r="D865" s="9"/>
+      <c r="G865" s="9"/>
     </row>
     <row r="866" ht="42.0" customHeight="1">
-      <c r="D866" s="10"/>
-      <c r="G866" s="10"/>
+      <c r="D866" s="9"/>
+      <c r="G866" s="9"/>
     </row>
     <row r="867" ht="42.0" customHeight="1">
-      <c r="D867" s="10"/>
-      <c r="G867" s="10"/>
+      <c r="D867" s="9"/>
+      <c r="G867" s="9"/>
     </row>
     <row r="868" ht="42.0" customHeight="1">
-      <c r="D868" s="10"/>
-      <c r="G868" s="10"/>
+      <c r="D868" s="9"/>
+      <c r="G868" s="9"/>
     </row>
     <row r="869" ht="42.0" customHeight="1">
-      <c r="D869" s="10"/>
-      <c r="G869" s="10"/>
+      <c r="D869" s="9"/>
+      <c r="G869" s="9"/>
     </row>
     <row r="870" ht="42.0" customHeight="1">
-      <c r="D870" s="10"/>
-      <c r="G870" s="10"/>
+      <c r="D870" s="9"/>
+      <c r="G870" s="9"/>
     </row>
     <row r="871" ht="42.0" customHeight="1">
-      <c r="D871" s="10"/>
-      <c r="G871" s="10"/>
+      <c r="D871" s="9"/>
+      <c r="G871" s="9"/>
     </row>
     <row r="872" ht="42.0" customHeight="1">
-      <c r="D872" s="10"/>
-      <c r="G872" s="10"/>
+      <c r="D872" s="9"/>
+      <c r="G872" s="9"/>
     </row>
     <row r="873" ht="42.0" customHeight="1">
-      <c r="D873" s="10"/>
-      <c r="G873" s="10"/>
+      <c r="D873" s="9"/>
+      <c r="G873" s="9"/>
     </row>
     <row r="874" ht="42.0" customHeight="1">
-      <c r="D874" s="10"/>
-      <c r="G874" s="10"/>
+      <c r="D874" s="9"/>
+      <c r="G874" s="9"/>
     </row>
     <row r="875" ht="42.0" customHeight="1">
-      <c r="D875" s="10"/>
-      <c r="G875" s="10"/>
+      <c r="D875" s="9"/>
+      <c r="G875" s="9"/>
     </row>
     <row r="876" ht="42.0" customHeight="1">
-      <c r="D876" s="10"/>
-      <c r="G876" s="10"/>
+      <c r="D876" s="9"/>
+      <c r="G876" s="9"/>
     </row>
     <row r="877" ht="42.0" customHeight="1">
-      <c r="D877" s="10"/>
-      <c r="G877" s="10"/>
+      <c r="D877" s="9"/>
+      <c r="G877" s="9"/>
     </row>
     <row r="878" ht="42.0" customHeight="1">
-      <c r="D878" s="10"/>
-      <c r="G878" s="10"/>
+      <c r="D878" s="9"/>
+      <c r="G878" s="9"/>
     </row>
     <row r="879" ht="42.0" customHeight="1">
-      <c r="D879" s="10"/>
-      <c r="G879" s="10"/>
+      <c r="D879" s="9"/>
+      <c r="G879" s="9"/>
     </row>
     <row r="880" ht="42.0" customHeight="1">
-      <c r="D880" s="10"/>
-      <c r="G880" s="10"/>
+      <c r="D880" s="9"/>
+      <c r="G880" s="9"/>
     </row>
     <row r="881" ht="42.0" customHeight="1">
-      <c r="D881" s="10"/>
-      <c r="G881" s="10"/>
+      <c r="D881" s="9"/>
+      <c r="G881" s="9"/>
     </row>
     <row r="882" ht="42.0" customHeight="1">
-      <c r="D882" s="10"/>
-      <c r="G882" s="10"/>
+      <c r="D882" s="9"/>
+      <c r="G882" s="9"/>
     </row>
     <row r="883" ht="42.0" customHeight="1">
-      <c r="D883" s="10"/>
-      <c r="G883" s="10"/>
+      <c r="D883" s="9"/>
+      <c r="G883" s="9"/>
     </row>
     <row r="884" ht="42.0" customHeight="1">
-      <c r="D884" s="10"/>
-      <c r="G884" s="10"/>
+      <c r="D884" s="9"/>
+      <c r="G884" s="9"/>
     </row>
     <row r="885" ht="42.0" customHeight="1">
-      <c r="D885" s="10"/>
-      <c r="G885" s="10"/>
+      <c r="D885" s="9"/>
+      <c r="G885" s="9"/>
     </row>
     <row r="886" ht="42.0" customHeight="1">
-      <c r="D886" s="10"/>
-      <c r="G886" s="10"/>
+      <c r="D886" s="9"/>
+      <c r="G886" s="9"/>
     </row>
     <row r="887" ht="42.0" customHeight="1">
-      <c r="D887" s="10"/>
-      <c r="G887" s="10"/>
+      <c r="D887" s="9"/>
+      <c r="G887" s="9"/>
     </row>
     <row r="888" ht="42.0" customHeight="1">
-      <c r="D888" s="10"/>
-      <c r="G888" s="10"/>
+      <c r="D888" s="9"/>
+      <c r="G888" s="9"/>
     </row>
     <row r="889" ht="42.0" customHeight="1">
-      <c r="D889" s="10"/>
-      <c r="G889" s="10"/>
+      <c r="D889" s="9"/>
+      <c r="G889" s="9"/>
     </row>
     <row r="890" ht="42.0" customHeight="1">
-      <c r="D890" s="10"/>
-      <c r="G890" s="10"/>
+      <c r="D890" s="9"/>
+      <c r="G890" s="9"/>
     </row>
     <row r="891" ht="42.0" customHeight="1">
-      <c r="D891" s="10"/>
-      <c r="G891" s="10"/>
+      <c r="D891" s="9"/>
+      <c r="G891" s="9"/>
     </row>
     <row r="892" ht="42.0" customHeight="1">
-      <c r="D892" s="10"/>
-      <c r="G892" s="10"/>
+      <c r="D892" s="9"/>
+      <c r="G892" s="9"/>
     </row>
     <row r="893" ht="42.0" customHeight="1">
-      <c r="D893" s="10"/>
-      <c r="G893" s="10"/>
+      <c r="D893" s="9"/>
+      <c r="G893" s="9"/>
     </row>
     <row r="894" ht="42.0" customHeight="1">
-      <c r="D894" s="10"/>
-      <c r="G894" s="10"/>
+      <c r="D894" s="9"/>
+      <c r="G894" s="9"/>
     </row>
     <row r="895" ht="42.0" customHeight="1">
-      <c r="D895" s="10"/>
-      <c r="G895" s="10"/>
+      <c r="D895" s="9"/>
+      <c r="G895" s="9"/>
     </row>
     <row r="896" ht="42.0" customHeight="1">
-      <c r="D896" s="10"/>
-      <c r="G896" s="10"/>
+      <c r="D896" s="9"/>
+      <c r="G896" s="9"/>
     </row>
     <row r="897" ht="42.0" customHeight="1">
-      <c r="D897" s="10"/>
-      <c r="G897" s="10"/>
+      <c r="D897" s="9"/>
+      <c r="G897" s="9"/>
     </row>
     <row r="898" ht="42.0" customHeight="1">
-      <c r="D898" s="10"/>
-      <c r="G898" s="10"/>
+      <c r="D898" s="9"/>
+      <c r="G898" s="9"/>
     </row>
     <row r="899" ht="42.0" customHeight="1">
-      <c r="D899" s="10"/>
-      <c r="G899" s="10"/>
+      <c r="D899" s="9"/>
+      <c r="G899" s="9"/>
     </row>
     <row r="900" ht="42.0" customHeight="1">
-      <c r="D900" s="10"/>
-      <c r="G900" s="10"/>
+      <c r="D900" s="9"/>
+      <c r="G900" s="9"/>
     </row>
     <row r="901" ht="42.0" customHeight="1">
-      <c r="D901" s="10"/>
-      <c r="G901" s="10"/>
+      <c r="D901" s="9"/>
+      <c r="G901" s="9"/>
     </row>
     <row r="902" ht="42.0" customHeight="1">
-      <c r="D902" s="10"/>
-      <c r="G902" s="10"/>
+      <c r="D902" s="9"/>
+      <c r="G902" s="9"/>
     </row>
     <row r="903" ht="42.0" customHeight="1">
-      <c r="D903" s="10"/>
-      <c r="G903" s="10"/>
+      <c r="D903" s="9"/>
+      <c r="G903" s="9"/>
     </row>
     <row r="904" ht="42.0" customHeight="1">
-      <c r="D904" s="10"/>
-      <c r="G904" s="10"/>
+      <c r="D904" s="9"/>
+      <c r="G904" s="9"/>
     </row>
     <row r="905" ht="42.0" customHeight="1">
-      <c r="D905" s="10"/>
-      <c r="G905" s="10"/>
+      <c r="D905" s="9"/>
+      <c r="G905" s="9"/>
     </row>
     <row r="906" ht="42.0" customHeight="1">
-      <c r="D906" s="10"/>
-      <c r="G906" s="10"/>
+      <c r="D906" s="9"/>
+      <c r="G906" s="9"/>
     </row>
     <row r="907" ht="42.0" customHeight="1">
-      <c r="D907" s="10"/>
-      <c r="G907" s="10"/>
+      <c r="D907" s="9"/>
+      <c r="G907" s="9"/>
     </row>
     <row r="908" ht="42.0" customHeight="1">
-      <c r="D908" s="10"/>
-      <c r="G908" s="10"/>
+      <c r="D908" s="9"/>
+      <c r="G908" s="9"/>
     </row>
     <row r="909" ht="42.0" customHeight="1">
-      <c r="D909" s="10"/>
-      <c r="G909" s="10"/>
+      <c r="D909" s="9"/>
+      <c r="G909" s="9"/>
     </row>
     <row r="910" ht="42.0" customHeight="1">
-      <c r="D910" s="10"/>
-      <c r="G910" s="10"/>
+      <c r="D910" s="9"/>
+      <c r="G910" s="9"/>
     </row>
     <row r="911" ht="42.0" customHeight="1">
-      <c r="D911" s="10"/>
-      <c r="G911" s="10"/>
+      <c r="D911" s="9"/>
+      <c r="G911" s="9"/>
     </row>
     <row r="912" ht="42.0" customHeight="1">
-      <c r="D912" s="10"/>
-      <c r="G912" s="10"/>
+      <c r="D912" s="9"/>
+      <c r="G912" s="9"/>
     </row>
     <row r="913" ht="42.0" customHeight="1">
-      <c r="D913" s="10"/>
-      <c r="G913" s="10"/>
+      <c r="D913" s="9"/>
+      <c r="G913" s="9"/>
     </row>
     <row r="914" ht="42.0" customHeight="1">
-      <c r="D914" s="10"/>
-      <c r="G914" s="10"/>
+      <c r="D914" s="9"/>
+      <c r="G914" s="9"/>
     </row>
     <row r="915" ht="42.0" customHeight="1">
-      <c r="D915" s="10"/>
-      <c r="G915" s="10"/>
+      <c r="D915" s="9"/>
+      <c r="G915" s="9"/>
     </row>
     <row r="916" ht="42.0" customHeight="1">
-      <c r="D916" s="10"/>
-      <c r="G916" s="10"/>
+      <c r="D916" s="9"/>
+      <c r="G916" s="9"/>
     </row>
     <row r="917" ht="42.0" customHeight="1">
-      <c r="D917" s="10"/>
-      <c r="G917" s="10"/>
+      <c r="D917" s="9"/>
+      <c r="G917" s="9"/>
     </row>
     <row r="918" ht="42.0" customHeight="1">
-      <c r="D918" s="10"/>
-      <c r="G918" s="10"/>
+      <c r="D918" s="9"/>
+      <c r="G918" s="9"/>
     </row>
     <row r="919" ht="42.0" customHeight="1">
-      <c r="D919" s="10"/>
-      <c r="G919" s="10"/>
+      <c r="D919" s="9"/>
+      <c r="G919" s="9"/>
     </row>
     <row r="920" ht="42.0" customHeight="1">
-      <c r="D920" s="10"/>
-      <c r="G920" s="10"/>
+      <c r="D920" s="9"/>
+      <c r="G920" s="9"/>
     </row>
     <row r="921" ht="42.0" customHeight="1">
-      <c r="D921" s="10"/>
-      <c r="G921" s="10"/>
+      <c r="D921" s="9"/>
+      <c r="G921" s="9"/>
     </row>
     <row r="922" ht="42.0" customHeight="1">
-      <c r="D922" s="10"/>
-      <c r="G922" s="10"/>
+      <c r="D922" s="9"/>
+      <c r="G922" s="9"/>
     </row>
     <row r="923" ht="42.0" customHeight="1">
-      <c r="D923" s="10"/>
-      <c r="G923" s="10"/>
+      <c r="D923" s="9"/>
+      <c r="G923" s="9"/>
     </row>
     <row r="924" ht="42.0" customHeight="1">
-      <c r="D924" s="10"/>
-      <c r="G924" s="10"/>
+      <c r="D924" s="9"/>
+      <c r="G924" s="9"/>
     </row>
     <row r="925" ht="42.0" customHeight="1">
-      <c r="D925" s="10"/>
-      <c r="G925" s="10"/>
+      <c r="D925" s="9"/>
+      <c r="G925" s="9"/>
     </row>
     <row r="926" ht="42.0" customHeight="1">
-      <c r="D926" s="10"/>
-      <c r="G926" s="10"/>
+      <c r="D926" s="9"/>
+      <c r="G926" s="9"/>
     </row>
     <row r="927" ht="42.0" customHeight="1">
-      <c r="D927" s="10"/>
-      <c r="G927" s="10"/>
+      <c r="D927" s="9"/>
+      <c r="G927" s="9"/>
     </row>
     <row r="928" ht="42.0" customHeight="1">
-      <c r="D928" s="10"/>
-      <c r="G928" s="10"/>
+      <c r="D928" s="9"/>
+      <c r="G928" s="9"/>
     </row>
     <row r="929" ht="42.0" customHeight="1">
-      <c r="D929" s="10"/>
-      <c r="G929" s="10"/>
+      <c r="D929" s="9"/>
+      <c r="G929" s="9"/>
     </row>
     <row r="930" ht="42.0" customHeight="1">
-      <c r="D930" s="10"/>
-      <c r="G930" s="10"/>
+      <c r="D930" s="9"/>
+      <c r="G930" s="9"/>
     </row>
     <row r="931" ht="42.0" customHeight="1">
-      <c r="D931" s="10"/>
-      <c r="G931" s="10"/>
+      <c r="D931" s="9"/>
+      <c r="G931" s="9"/>
     </row>
     <row r="932" ht="42.0" customHeight="1">
-      <c r="D932" s="10"/>
-      <c r="G932" s="10"/>
+      <c r="D932" s="9"/>
+      <c r="G932" s="9"/>
     </row>
     <row r="933" ht="42.0" customHeight="1">
-      <c r="D933" s="10"/>
-      <c r="G933" s="10"/>
+      <c r="D933" s="9"/>
+      <c r="G933" s="9"/>
     </row>
     <row r="934" ht="42.0" customHeight="1">
-      <c r="D934" s="10"/>
-      <c r="G934" s="10"/>
+      <c r="D934" s="9"/>
+      <c r="G934" s="9"/>
     </row>
     <row r="935" ht="42.0" customHeight="1">
-      <c r="D935" s="10"/>
-      <c r="G935" s="10"/>
+      <c r="D935" s="9"/>
+      <c r="G935" s="9"/>
     </row>
     <row r="936" ht="42.0" customHeight="1">
-      <c r="D936" s="10"/>
-      <c r="G936" s="10"/>
+      <c r="D936" s="9"/>
+      <c r="G936" s="9"/>
     </row>
     <row r="937" ht="42.0" customHeight="1">
-      <c r="D937" s="10"/>
-      <c r="G937" s="10"/>
+      <c r="D937" s="9"/>
+      <c r="G937" s="9"/>
     </row>
     <row r="938" ht="42.0" customHeight="1">
-      <c r="D938" s="10"/>
-      <c r="G938" s="10"/>
+      <c r="D938" s="9"/>
+      <c r="G938" s="9"/>
     </row>
     <row r="939" ht="42.0" customHeight="1">
-      <c r="D939" s="10"/>
-      <c r="G939" s="10"/>
+      <c r="D939" s="9"/>
+      <c r="G939" s="9"/>
     </row>
     <row r="940" ht="42.0" customHeight="1">
-      <c r="D940" s="10"/>
-      <c r="G940" s="10"/>
+      <c r="D940" s="9"/>
+      <c r="G940" s="9"/>
     </row>
     <row r="941" ht="42.0" customHeight="1">
-      <c r="D941" s="10"/>
-      <c r="G941" s="10"/>
+      <c r="D941" s="9"/>
+      <c r="G941" s="9"/>
     </row>
     <row r="942" ht="42.0" customHeight="1">
-      <c r="D942" s="10"/>
-      <c r="G942" s="10"/>
+      <c r="D942" s="9"/>
+      <c r="G942" s="9"/>
     </row>
     <row r="943" ht="42.0" customHeight="1">
-      <c r="D943" s="10"/>
-      <c r="G943" s="10"/>
+      <c r="D943" s="9"/>
+      <c r="G943" s="9"/>
     </row>
     <row r="944" ht="42.0" customHeight="1">
-      <c r="D944" s="10"/>
-      <c r="G944" s="10"/>
+      <c r="D944" s="9"/>
+      <c r="G944" s="9"/>
     </row>
     <row r="945" ht="42.0" customHeight="1">
-      <c r="D945" s="10"/>
-      <c r="G945" s="10"/>
+      <c r="D945" s="9"/>
+      <c r="G945" s="9"/>
     </row>
     <row r="946" ht="42.0" customHeight="1">
-      <c r="D946" s="10"/>
-      <c r="G946" s="10"/>
+      <c r="D946" s="9"/>
+      <c r="G946" s="9"/>
     </row>
     <row r="947" ht="42.0" customHeight="1">
-      <c r="D947" s="10"/>
-      <c r="G947" s="10"/>
+      <c r="D947" s="9"/>
+      <c r="G947" s="9"/>
     </row>
     <row r="948" ht="42.0" customHeight="1">
-      <c r="D948" s="10"/>
-      <c r="G948" s="10"/>
+      <c r="D948" s="9"/>
+      <c r="G948" s="9"/>
     </row>
     <row r="949" ht="42.0" customHeight="1">
-      <c r="D949" s="10"/>
-      <c r="G949" s="10"/>
+      <c r="D949" s="9"/>
+      <c r="G949" s="9"/>
     </row>
     <row r="950" ht="42.0" customHeight="1">
-      <c r="D950" s="10"/>
-      <c r="G950" s="10"/>
+      <c r="D950" s="9"/>
+      <c r="G950" s="9"/>
     </row>
     <row r="951" ht="42.0" customHeight="1">
-      <c r="D951" s="10"/>
-      <c r="G951" s="10"/>
+      <c r="D951" s="9"/>
+      <c r="G951" s="9"/>
     </row>
     <row r="952" ht="42.0" customHeight="1">
-      <c r="D952" s="10"/>
-      <c r="G952" s="10"/>
+      <c r="D952" s="9"/>
+      <c r="G952" s="9"/>
     </row>
     <row r="953" ht="42.0" customHeight="1">
-      <c r="D953" s="10"/>
-      <c r="G953" s="10"/>
+      <c r="D953" s="9"/>
+      <c r="G953" s="9"/>
     </row>
     <row r="954" ht="42.0" customHeight="1">
-      <c r="D954" s="10"/>
-      <c r="G954" s="10"/>
+      <c r="D954" s="9"/>
+      <c r="G954" s="9"/>
     </row>
     <row r="955" ht="42.0" customHeight="1">
-      <c r="D955" s="10"/>
-      <c r="G955" s="10"/>
+      <c r="D955" s="9"/>
+      <c r="G955" s="9"/>
     </row>
     <row r="956" ht="42.0" customHeight="1">
-      <c r="D956" s="10"/>
-      <c r="G956" s="10"/>
+      <c r="D956" s="9"/>
+      <c r="G956" s="9"/>
     </row>
     <row r="957" ht="42.0" customHeight="1">
-      <c r="D957" s="10"/>
-      <c r="G957" s="10"/>
+      <c r="D957" s="9"/>
+      <c r="G957" s="9"/>
     </row>
     <row r="958" ht="42.0" customHeight="1">
-      <c r="D958" s="10"/>
-      <c r="G958" s="10"/>
+      <c r="D958" s="9"/>
+      <c r="G958" s="9"/>
     </row>
     <row r="959" ht="42.0" customHeight="1">
-      <c r="D959" s="10"/>
-      <c r="G959" s="10"/>
+      <c r="D959" s="9"/>
+      <c r="G959" s="9"/>
     </row>
     <row r="960" ht="42.0" customHeight="1">
-      <c r="D960" s="10"/>
-      <c r="G960" s="10"/>
+      <c r="D960" s="9"/>
+      <c r="G960" s="9"/>
     </row>
     <row r="961" ht="42.0" customHeight="1">
-      <c r="D961" s="10"/>
-      <c r="G961" s="10"/>
+      <c r="D961" s="9"/>
+      <c r="G961" s="9"/>
     </row>
     <row r="962" ht="42.0" customHeight="1">
-      <c r="D962" s="10"/>
-      <c r="G962" s="10"/>
+      <c r="D962" s="9"/>
+      <c r="G962" s="9"/>
     </row>
     <row r="963" ht="42.0" customHeight="1">
-      <c r="D963" s="10"/>
-      <c r="G963" s="10"/>
+      <c r="D963" s="9"/>
+      <c r="G963" s="9"/>
     </row>
     <row r="964" ht="42.0" customHeight="1">
-      <c r="D964" s="10"/>
-      <c r="G964" s="10"/>
+      <c r="D964" s="9"/>
+      <c r="G964" s="9"/>
     </row>
     <row r="965" ht="42.0" customHeight="1">
-      <c r="D965" s="10"/>
-      <c r="G965" s="10"/>
+      <c r="D965" s="9"/>
+      <c r="G965" s="9"/>
     </row>
     <row r="966" ht="42.0" customHeight="1">
-      <c r="D966" s="10"/>
-      <c r="G966" s="10"/>
+      <c r="D966" s="9"/>
+      <c r="G966" s="9"/>
     </row>
     <row r="967" ht="42.0" customHeight="1">
-      <c r="D967" s="10"/>
-      <c r="G967" s="10"/>
+      <c r="D967" s="9"/>
+      <c r="G967" s="9"/>
     </row>
     <row r="968" ht="42.0" customHeight="1">
-      <c r="D968" s="10"/>
-      <c r="G968" s="10"/>
+      <c r="D968" s="9"/>
+      <c r="G968" s="9"/>
     </row>
     <row r="969" ht="42.0" customHeight="1">
-      <c r="D969" s="10"/>
-      <c r="G969" s="10"/>
+      <c r="D969" s="9"/>
+      <c r="G969" s="9"/>
     </row>
     <row r="970" ht="42.0" customHeight="1">
-      <c r="D970" s="10"/>
-      <c r="G970" s="10"/>
+      <c r="D970" s="9"/>
+      <c r="G970" s="9"/>
     </row>
     <row r="971" ht="42.0" customHeight="1">
-      <c r="D971" s="10"/>
-      <c r="G971" s="10"/>
+      <c r="D971" s="9"/>
+      <c r="G971" s="9"/>
     </row>
     <row r="972" ht="42.0" customHeight="1">
-      <c r="D972" s="10"/>
-      <c r="G972" s="10"/>
+      <c r="D972" s="9"/>
+      <c r="G972" s="9"/>
     </row>
     <row r="973" ht="42.0" customHeight="1">
-      <c r="D973" s="10"/>
-      <c r="G973" s="10"/>
+      <c r="D973" s="9"/>
+      <c r="G973" s="9"/>
     </row>
     <row r="974" ht="42.0" customHeight="1">
-      <c r="D974" s="10"/>
-      <c r="G974" s="10"/>
+      <c r="D974" s="9"/>
+      <c r="G974" s="9"/>
     </row>
     <row r="975" ht="42.0" customHeight="1">
-      <c r="D975" s="10"/>
-      <c r="G975" s="10"/>
+      <c r="D975" s="9"/>
+      <c r="G975" s="9"/>
     </row>
     <row r="976" ht="42.0" customHeight="1">
-      <c r="D976" s="10"/>
-      <c r="G976" s="10"/>
+      <c r="D976" s="9"/>
+      <c r="G976" s="9"/>
     </row>
     <row r="977" ht="42.0" customHeight="1">
-      <c r="D977" s="10"/>
-      <c r="G977" s="10"/>
+      <c r="D977" s="9"/>
+      <c r="G977" s="9"/>
     </row>
     <row r="978" ht="42.0" customHeight="1">
-      <c r="D978" s="10"/>
-      <c r="G978" s="10"/>
+      <c r="D978" s="9"/>
+      <c r="G978" s="9"/>
     </row>
     <row r="979" ht="42.0" customHeight="1">
-      <c r="D979" s="10"/>
-      <c r="G979" s="10"/>
+      <c r="D979" s="9"/>
+      <c r="G979" s="9"/>
     </row>
     <row r="980" ht="42.0" customHeight="1">
-      <c r="D980" s="10"/>
-      <c r="G980" s="10"/>
+      <c r="D980" s="9"/>
+      <c r="G980" s="9"/>
     </row>
     <row r="981" ht="42.0" customHeight="1">
-      <c r="D981" s="10"/>
-      <c r="G981" s="10"/>
+      <c r="D981" s="9"/>
+      <c r="G981" s="9"/>
     </row>
     <row r="982" ht="42.0" customHeight="1">
-      <c r="D982" s="10"/>
-      <c r="G982" s="10"/>
+      <c r="D982" s="9"/>
+      <c r="G982" s="9"/>
     </row>
     <row r="983" ht="42.0" customHeight="1">
-      <c r="D983" s="10"/>
-      <c r="G983" s="10"/>
+      <c r="D983" s="9"/>
+      <c r="G983" s="9"/>
     </row>
     <row r="984" ht="42.0" customHeight="1">
-      <c r="D984" s="10"/>
-      <c r="G984" s="10"/>
+      <c r="D984" s="9"/>
+      <c r="G984" s="9"/>
     </row>
     <row r="985" ht="42.0" customHeight="1">
-      <c r="D985" s="10"/>
-      <c r="G985" s="10"/>
+      <c r="D985" s="9"/>
+      <c r="G985" s="9"/>
     </row>
     <row r="986" ht="42.0" customHeight="1">
-      <c r="D986" s="10"/>
-      <c r="G986" s="10"/>
+      <c r="D986" s="9"/>
+      <c r="G986" s="9"/>
     </row>
     <row r="987" ht="42.0" customHeight="1">
-      <c r="D987" s="10"/>
-      <c r="G987" s="10"/>
+      <c r="D987" s="9"/>
+      <c r="G987" s="9"/>
     </row>
     <row r="988" ht="42.0" customHeight="1">
-      <c r="D988" s="10"/>
-      <c r="G988" s="10"/>
+      <c r="D988" s="9"/>
+      <c r="G988" s="9"/>
     </row>
     <row r="989" ht="42.0" customHeight="1">
-      <c r="D989" s="10"/>
-      <c r="G989" s="10"/>
+      <c r="D989" s="9"/>
+      <c r="G989" s="9"/>
     </row>
     <row r="990" ht="42.0" customHeight="1">
-      <c r="D990" s="10"/>
-      <c r="G990" s="10"/>
+      <c r="D990" s="9"/>
+      <c r="G990" s="9"/>
     </row>
     <row r="991" ht="42.0" customHeight="1">
-      <c r="D991" s="10"/>
-      <c r="G991" s="10"/>
+      <c r="D991" s="9"/>
+      <c r="G991" s="9"/>
     </row>
     <row r="992" ht="42.0" customHeight="1">
-      <c r="D992" s="10"/>
-      <c r="G992" s="10"/>
+      <c r="D992" s="9"/>
+      <c r="G992" s="9"/>
     </row>
     <row r="993" ht="42.0" customHeight="1">
-      <c r="D993" s="10"/>
-      <c r="G993" s="10"/>
-    </row>
-    <row r="994" ht="42.0" customHeight="1">
-      <c r="D994" s="10"/>
-      <c r="G994" s="10"/>
-    </row>
-    <row r="995" ht="42.0" customHeight="1">
-      <c r="D995" s="10"/>
-      <c r="G995" s="10"/>
+      <c r="D993" s="9"/>
+      <c r="G993" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6763,30 +6718,29 @@
     <hyperlink r:id="rId34" ref="O18"/>
     <hyperlink r:id="rId35" ref="M19"/>
     <hyperlink r:id="rId36" ref="O19"/>
-    <hyperlink r:id="rId37" ref="O20"/>
-    <hyperlink r:id="rId38" ref="M21"/>
-    <hyperlink r:id="rId39" ref="O21"/>
-    <hyperlink r:id="rId40" ref="M22"/>
-    <hyperlink r:id="rId41" ref="O22"/>
-    <hyperlink r:id="rId42" ref="M23"/>
-    <hyperlink r:id="rId43" ref="O23"/>
-    <hyperlink r:id="rId44" ref="M24"/>
-    <hyperlink r:id="rId45" ref="O24"/>
-    <hyperlink r:id="rId46" ref="M25"/>
-    <hyperlink r:id="rId47" ref="O25"/>
-    <hyperlink r:id="rId48" ref="M26"/>
-    <hyperlink r:id="rId49" ref="O26"/>
-    <hyperlink r:id="rId50" ref="M27"/>
-    <hyperlink r:id="rId51" ref="O27"/>
-    <hyperlink r:id="rId52" ref="M28"/>
-    <hyperlink r:id="rId53" ref="O28"/>
-    <hyperlink r:id="rId54" ref="M29"/>
-    <hyperlink r:id="rId55" ref="O29"/>
-    <hyperlink r:id="rId56" ref="M30"/>
-    <hyperlink r:id="rId57" ref="O30"/>
-    <hyperlink r:id="rId58" ref="M31"/>
-    <hyperlink r:id="rId59" ref="O31"/>
+    <hyperlink r:id="rId37" ref="M20"/>
+    <hyperlink r:id="rId38" ref="O20"/>
+    <hyperlink r:id="rId39" ref="M21"/>
+    <hyperlink r:id="rId40" ref="O21"/>
+    <hyperlink r:id="rId41" ref="M22"/>
+    <hyperlink r:id="rId42" ref="O22"/>
+    <hyperlink r:id="rId43" ref="M23"/>
+    <hyperlink r:id="rId44" ref="O23"/>
+    <hyperlink r:id="rId45" ref="M24"/>
+    <hyperlink r:id="rId46" ref="O24"/>
+    <hyperlink r:id="rId47" ref="M25"/>
+    <hyperlink r:id="rId48" ref="O25"/>
+    <hyperlink r:id="rId49" ref="M26"/>
+    <hyperlink r:id="rId50" ref="O26"/>
+    <hyperlink r:id="rId51" ref="M27"/>
+    <hyperlink r:id="rId52" ref="O27"/>
+    <hyperlink r:id="rId53" ref="M28"/>
+    <hyperlink r:id="rId54" ref="O28"/>
+    <hyperlink r:id="rId55" ref="M29"/>
+    <hyperlink r:id="rId56" ref="O29"/>
+    <hyperlink r:id="rId57" ref="M30"/>
+    <hyperlink r:id="rId58" ref="O30"/>
   </hyperlinks>
-  <drawing r:id="rId60"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>
--- a/backend/app/Dogs.xlsx
+++ b/backend/app/Dogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="173">
   <si>
     <t>Naam</t>
   </si>
@@ -305,6 +305,26 @@
     <t>https://dierenasielgenk.be/honden/henkie-3/</t>
   </si>
   <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>De eigenaar van Herman heeft een tijdje in het ziekenhuis gelegen en heeft besloten afstand te doen van hem.
+Helaas hebben we geen informatie over Herman zijn verleden, maar gelukkig hebben we een hele vriendelijke Herman leren kennen. Bekende en onbekende mensen worden vriendelijk begroet.
+Herman is een hele stabiele hond, die momenten van rust weet af te wisselen met momenten van actief doen.
+We merken dat Herman veel zijn eigen ding heeft gedaan. Hij heeft geen nood om continu bij de mensen te zijn, al kan hij een aai op zijn tijd absoluut waarderen.
+Herman vindt het fijn om te spelen en kan zich hier ook zelf mee bezig houden. Hij is daarnaast een echte fijnproever en is gek op eten.
+De vorige eigenaar gaf aan dat Herman niet goed reageert op andere honden. Het is dan ook noodzakelijk dat we voor hem een thuis vinden zonder honden. Kinderen vanaf ongeveer 12 jaar zou zeker een mogelijkheid zijn. Herman zou als eerste hond kunnen worden geplaatst.</t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/wp-content/uploads/2022/12/herman.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ben een vriendelijke, stabiele hond. Word jij mijn nieuwe baas? </t>
+  </si>
+  <si>
+    <t>https://dierenasielgenk.be/honden/herman/</t>
+  </si>
+  <si>
     <t>Imara</t>
   </si>
   <si>
@@ -363,27 +383,7 @@
     <t>https://dierenasielgenk.be/honden/kita-2/</t>
   </si>
   <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Overgekomen vanuit Roemenië is Lucky nu als inbeslagname in ons asiel beland.
-We hopen dat snel het tij van onge-Lucky gaat keren en dat hij in een nieuw thuis veel geluk mag gaan ervaren.
-We hebben Lucky leren kennen als een onzekere hond die wel erg nieuwsgierig is en op onderzoek uit gaat. In eerste instantie zijn nieuwe dingen eng, maar met de juiste begeleiding is hij wel te sturen en durft hij dingen te onderzoeken.
-Hij is graag bij mensen die hij vertrouwt en is dan een knuffelaar. Daarnaast speelt hij graag met mensen en met speeltjes en eet hij graag vleesjes. Aan wat commando’s zal nog gewerkt moeten worden.
-De deuren in zijn nieuwe thuis kunnen het best Lucky-proof zijn doordat hij deze graag open maakt om van de buitenlucht te genieten. Hij is graag buiten en snuffelt er dan op los.
-We zoeken voor Lucky een huis met een tuin waar gewerkt kan worden aan het vertrouwen tussen hem en zijn nieuwe baasje(s) en welke begrijpen dat Lucky niet in alle situaties de meest open en sociale hond is. Oudere kinderen en eventueel een stabiel teefje behoren tot de mogelijkheden.</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/IMG20221104163040-1200x900.jpg</t>
-  </si>
-  <si>
-    <t>Ik ben onzeker maar wel erg nieuwsgierig en als ik je vertrouw ben ik een echte knuffelaar en speelvogel!</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/lucky-2/</t>
-  </si>
-  <si>
-    <t>Max en Sky</t>
+    <t>Sky</t>
   </si>
   <si>
     <t>Sky en Max zijn een duo die heel graag samen herplaatst worden. Met name Max heeft heel veel nood aan Sky. Sky is een teefje van november 2013, Max is een reutje van november 2016.
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>https://dierenasielgenk.be/honden/max-en-sky-duoplaatsing/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max </t>
   </si>
   <si>
     <t>https://dierenasielgenk.be/wp-content/uploads/2022/09/ASIELGENK_WEB-25-1200x800.jpg</t>
@@ -454,12 +457,6 @@
     <t>https://dierenasielgenk.be/honden/molly/</t>
   </si>
   <si>
-    <t>Poyraz</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/poyraz/</t>
-  </si>
-  <si>
     <t>Rita</t>
   </si>
   <si>
@@ -695,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -740,11 +737,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -764,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -789,13 +781,10 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1551,25 +1540,25 @@
         <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>22</v>
@@ -1583,7 +1572,7 @@
       <c r="L12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -1598,19 +1587,19 @@
         <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1619,10 +1608,10 @@
         <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
@@ -1630,7 +1619,7 @@
       <c r="L13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1645,13 +1634,13 @@
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -1660,13 +1649,13 @@
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>32</v>
@@ -1692,31 +1681,31 @@
         <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>19</v>
@@ -1724,7 +1713,7 @@
       <c r="L15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -1783,7 +1772,7 @@
     </row>
     <row r="17" ht="42.0" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>53</v>
@@ -1819,7 +1808,7 @@
         <v>102</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>104</v>
@@ -1830,7 +1819,7 @@
     </row>
     <row r="18" ht="42.0" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -1863,21 +1852,21 @@
         <v>19</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="42.0" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -1910,110 +1899,139 @@
         <v>19</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="O20" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" ht="42.0" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="42.0" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>22</v>
@@ -2022,21 +2040,21 @@
         <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="42.0" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
@@ -2045,10 +2063,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>19</v>
@@ -2069,21 +2087,21 @@
         <v>19</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="42.0" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
@@ -2101,7 +2119,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
@@ -2110,30 +2128,30 @@
         <v>22</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" ht="42.0" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
@@ -2142,51 +2160,51 @@
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" ht="42.0" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>65</v>
@@ -2198,54 +2216,54 @@
         <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" ht="42.0" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>21</v>
@@ -2254,30 +2272,30 @@
         <v>32</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" ht="42.0" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
@@ -2289,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>20</v>
@@ -2298,33 +2316,33 @@
         <v>21</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" ht="42.0" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
@@ -2336,51 +2354,51 @@
         <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" ht="42.0" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2395,4335 +2413,4275 @@
         <v>32</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" ht="42.0" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" ht="42.0" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" ht="42.0" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" ht="42.0" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" ht="42.0" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" ht="42.0" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" ht="42.0" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" ht="42.0" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" ht="42.0" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" ht="42.0" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" ht="42.0" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" ht="42.0" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" ht="42.0" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" ht="42.0" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" ht="42.0" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" ht="42.0" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" ht="42.0" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" ht="42.0" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" ht="42.0" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" ht="42.0" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" ht="42.0" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" ht="42.0" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" ht="42.0" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" ht="42.0" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" ht="42.0" customHeight="1">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" ht="42.0" customHeight="1">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" ht="42.0" customHeight="1">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" ht="42.0" customHeight="1">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" ht="42.0" customHeight="1">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" ht="42.0" customHeight="1">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" ht="42.0" customHeight="1">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" ht="42.0" customHeight="1">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" ht="42.0" customHeight="1">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" ht="42.0" customHeight="1">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" ht="42.0" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" ht="42.0" customHeight="1">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" ht="42.0" customHeight="1">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" ht="42.0" customHeight="1">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" ht="42.0" customHeight="1">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" ht="42.0" customHeight="1">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" ht="42.0" customHeight="1">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" ht="42.0" customHeight="1">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" ht="42.0" customHeight="1">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" ht="42.0" customHeight="1">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" ht="42.0" customHeight="1">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" ht="42.0" customHeight="1">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" ht="42.0" customHeight="1">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" ht="42.0" customHeight="1">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" ht="42.0" customHeight="1">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" ht="42.0" customHeight="1">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" ht="42.0" customHeight="1">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" ht="42.0" customHeight="1">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" ht="42.0" customHeight="1">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" ht="42.0" customHeight="1">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
     </row>
     <row r="85" ht="42.0" customHeight="1">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
     </row>
     <row r="86" ht="42.0" customHeight="1">
-      <c r="D86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="D86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" ht="42.0" customHeight="1">
-      <c r="D87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="D87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" ht="42.0" customHeight="1">
-      <c r="D88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" ht="42.0" customHeight="1">
-      <c r="D89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" ht="42.0" customHeight="1">
-      <c r="D90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="D90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" ht="42.0" customHeight="1">
-      <c r="D91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="D91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" ht="42.0" customHeight="1">
-      <c r="D92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" ht="42.0" customHeight="1">
-      <c r="D93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="D93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" ht="42.0" customHeight="1">
-      <c r="D94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="D94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" ht="42.0" customHeight="1">
-      <c r="D95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="D95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" ht="42.0" customHeight="1">
-      <c r="D96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="D96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" ht="42.0" customHeight="1">
-      <c r="D97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="D97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" ht="42.0" customHeight="1">
-      <c r="D98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" ht="42.0" customHeight="1">
-      <c r="D99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" ht="42.0" customHeight="1">
-      <c r="D100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="D100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" ht="42.0" customHeight="1">
-      <c r="D101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" ht="42.0" customHeight="1">
-      <c r="D102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="D102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" ht="42.0" customHeight="1">
-      <c r="D103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" ht="42.0" customHeight="1">
-      <c r="D104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="D104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" ht="42.0" customHeight="1">
-      <c r="D105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="D105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" ht="42.0" customHeight="1">
-      <c r="D106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="D106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" ht="42.0" customHeight="1">
-      <c r="D107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="D107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" ht="42.0" customHeight="1">
-      <c r="D108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="D108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" ht="42.0" customHeight="1">
-      <c r="D109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="D109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" ht="42.0" customHeight="1">
-      <c r="D110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="D110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" ht="42.0" customHeight="1">
-      <c r="D111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="D111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" ht="42.0" customHeight="1">
-      <c r="D112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="D112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
     <row r="113" ht="42.0" customHeight="1">
-      <c r="D113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="D113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" ht="42.0" customHeight="1">
-      <c r="D114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="D114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" ht="42.0" customHeight="1">
-      <c r="D115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="D115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" ht="42.0" customHeight="1">
-      <c r="D116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" ht="42.0" customHeight="1">
-      <c r="D117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="D117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" ht="42.0" customHeight="1">
-      <c r="D118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="D118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" ht="42.0" customHeight="1">
-      <c r="D119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="D119" s="9"/>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" ht="42.0" customHeight="1">
-      <c r="D120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="D120" s="9"/>
+      <c r="G120" s="9"/>
     </row>
     <row r="121" ht="42.0" customHeight="1">
-      <c r="D121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="D121" s="9"/>
+      <c r="G121" s="9"/>
     </row>
     <row r="122" ht="42.0" customHeight="1">
-      <c r="D122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="D122" s="9"/>
+      <c r="G122" s="9"/>
     </row>
     <row r="123" ht="42.0" customHeight="1">
-      <c r="D123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="D123" s="9"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" ht="42.0" customHeight="1">
-      <c r="D124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="D124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" ht="42.0" customHeight="1">
-      <c r="D125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="D125" s="9"/>
+      <c r="G125" s="9"/>
     </row>
     <row r="126" ht="42.0" customHeight="1">
-      <c r="D126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="D126" s="9"/>
+      <c r="G126" s="9"/>
     </row>
     <row r="127" ht="42.0" customHeight="1">
-      <c r="D127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="G127" s="9"/>
     </row>
     <row r="128" ht="42.0" customHeight="1">
-      <c r="D128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="G128" s="9"/>
     </row>
     <row r="129" ht="42.0" customHeight="1">
-      <c r="D129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="D129" s="9"/>
+      <c r="G129" s="9"/>
     </row>
     <row r="130" ht="42.0" customHeight="1">
-      <c r="D130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="D130" s="9"/>
+      <c r="G130" s="9"/>
     </row>
     <row r="131" ht="42.0" customHeight="1">
-      <c r="D131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="D131" s="9"/>
+      <c r="G131" s="9"/>
     </row>
     <row r="132" ht="42.0" customHeight="1">
-      <c r="D132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="D132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" ht="42.0" customHeight="1">
-      <c r="D133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="D133" s="9"/>
+      <c r="G133" s="9"/>
     </row>
     <row r="134" ht="42.0" customHeight="1">
-      <c r="D134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="D134" s="9"/>
+      <c r="G134" s="9"/>
     </row>
     <row r="135" ht="42.0" customHeight="1">
-      <c r="D135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="D135" s="9"/>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" ht="42.0" customHeight="1">
-      <c r="D136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="D136" s="9"/>
+      <c r="G136" s="9"/>
     </row>
     <row r="137" ht="42.0" customHeight="1">
-      <c r="D137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="D137" s="9"/>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" ht="42.0" customHeight="1">
-      <c r="D138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="D138" s="9"/>
+      <c r="G138" s="9"/>
     </row>
     <row r="139" ht="42.0" customHeight="1">
-      <c r="D139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="D139" s="9"/>
+      <c r="G139" s="9"/>
     </row>
     <row r="140" ht="42.0" customHeight="1">
-      <c r="D140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="D140" s="9"/>
+      <c r="G140" s="9"/>
     </row>
     <row r="141" ht="42.0" customHeight="1">
-      <c r="D141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="D141" s="9"/>
+      <c r="G141" s="9"/>
     </row>
     <row r="142" ht="42.0" customHeight="1">
-      <c r="D142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="D142" s="9"/>
+      <c r="G142" s="9"/>
     </row>
     <row r="143" ht="42.0" customHeight="1">
-      <c r="D143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="D143" s="9"/>
+      <c r="G143" s="9"/>
     </row>
     <row r="144" ht="42.0" customHeight="1">
-      <c r="D144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="D144" s="9"/>
+      <c r="G144" s="9"/>
     </row>
     <row r="145" ht="42.0" customHeight="1">
-      <c r="D145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="D145" s="9"/>
+      <c r="G145" s="9"/>
     </row>
     <row r="146" ht="42.0" customHeight="1">
-      <c r="D146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="D146" s="9"/>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" ht="42.0" customHeight="1">
-      <c r="D147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="D147" s="9"/>
+      <c r="G147" s="9"/>
     </row>
     <row r="148" ht="42.0" customHeight="1">
-      <c r="D148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="D148" s="9"/>
+      <c r="G148" s="9"/>
     </row>
     <row r="149" ht="42.0" customHeight="1">
-      <c r="D149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="D149" s="9"/>
+      <c r="G149" s="9"/>
     </row>
     <row r="150" ht="42.0" customHeight="1">
-      <c r="D150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="D150" s="9"/>
+      <c r="G150" s="9"/>
     </row>
     <row r="151" ht="42.0" customHeight="1">
-      <c r="D151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="D151" s="9"/>
+      <c r="G151" s="9"/>
     </row>
     <row r="152" ht="42.0" customHeight="1">
-      <c r="D152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="D152" s="9"/>
+      <c r="G152" s="9"/>
     </row>
     <row r="153" ht="42.0" customHeight="1">
-      <c r="D153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="D153" s="9"/>
+      <c r="G153" s="9"/>
     </row>
     <row r="154" ht="42.0" customHeight="1">
-      <c r="D154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="D154" s="9"/>
+      <c r="G154" s="9"/>
     </row>
     <row r="155" ht="42.0" customHeight="1">
-      <c r="D155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="D155" s="9"/>
+      <c r="G155" s="9"/>
     </row>
     <row r="156" ht="42.0" customHeight="1">
-      <c r="D156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="D156" s="9"/>
+      <c r="G156" s="9"/>
     </row>
     <row r="157" ht="42.0" customHeight="1">
-      <c r="D157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="D157" s="9"/>
+      <c r="G157" s="9"/>
     </row>
     <row r="158" ht="42.0" customHeight="1">
-      <c r="D158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="D158" s="9"/>
+      <c r="G158" s="9"/>
     </row>
     <row r="159" ht="42.0" customHeight="1">
-      <c r="D159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="D159" s="9"/>
+      <c r="G159" s="9"/>
     </row>
     <row r="160" ht="42.0" customHeight="1">
-      <c r="D160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="D160" s="9"/>
+      <c r="G160" s="9"/>
     </row>
     <row r="161" ht="42.0" customHeight="1">
-      <c r="D161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="D161" s="9"/>
+      <c r="G161" s="9"/>
     </row>
     <row r="162" ht="42.0" customHeight="1">
-      <c r="D162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="D162" s="9"/>
+      <c r="G162" s="9"/>
     </row>
     <row r="163" ht="42.0" customHeight="1">
-      <c r="D163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="D163" s="9"/>
+      <c r="G163" s="9"/>
     </row>
     <row r="164" ht="42.0" customHeight="1">
-      <c r="D164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="D164" s="9"/>
+      <c r="G164" s="9"/>
     </row>
     <row r="165" ht="42.0" customHeight="1">
-      <c r="D165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="D165" s="9"/>
+      <c r="G165" s="9"/>
     </row>
     <row r="166" ht="42.0" customHeight="1">
-      <c r="D166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="D166" s="9"/>
+      <c r="G166" s="9"/>
     </row>
     <row r="167" ht="42.0" customHeight="1">
-      <c r="D167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="D167" s="9"/>
+      <c r="G167" s="9"/>
     </row>
     <row r="168" ht="42.0" customHeight="1">
-      <c r="D168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="D168" s="9"/>
+      <c r="G168" s="9"/>
     </row>
     <row r="169" ht="42.0" customHeight="1">
-      <c r="D169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="D169" s="9"/>
+      <c r="G169" s="9"/>
     </row>
     <row r="170" ht="42.0" customHeight="1">
-      <c r="D170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="D170" s="9"/>
+      <c r="G170" s="9"/>
     </row>
     <row r="171" ht="42.0" customHeight="1">
-      <c r="D171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="D171" s="9"/>
+      <c r="G171" s="9"/>
     </row>
     <row r="172" ht="42.0" customHeight="1">
-      <c r="D172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="D172" s="9"/>
+      <c r="G172" s="9"/>
     </row>
     <row r="173" ht="42.0" customHeight="1">
-      <c r="D173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="D173" s="9"/>
+      <c r="G173" s="9"/>
     </row>
     <row r="174" ht="42.0" customHeight="1">
-      <c r="D174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="D174" s="9"/>
+      <c r="G174" s="9"/>
     </row>
     <row r="175" ht="42.0" customHeight="1">
-      <c r="D175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="D175" s="9"/>
+      <c r="G175" s="9"/>
     </row>
     <row r="176" ht="42.0" customHeight="1">
-      <c r="D176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="D176" s="9"/>
+      <c r="G176" s="9"/>
     </row>
     <row r="177" ht="42.0" customHeight="1">
-      <c r="D177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="D177" s="9"/>
+      <c r="G177" s="9"/>
     </row>
     <row r="178" ht="42.0" customHeight="1">
-      <c r="D178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="D178" s="9"/>
+      <c r="G178" s="9"/>
     </row>
     <row r="179" ht="42.0" customHeight="1">
-      <c r="D179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="D179" s="9"/>
+      <c r="G179" s="9"/>
     </row>
     <row r="180" ht="42.0" customHeight="1">
-      <c r="D180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="D180" s="9"/>
+      <c r="G180" s="9"/>
     </row>
     <row r="181" ht="42.0" customHeight="1">
-      <c r="D181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="D181" s="9"/>
+      <c r="G181" s="9"/>
     </row>
     <row r="182" ht="42.0" customHeight="1">
-      <c r="D182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="D182" s="9"/>
+      <c r="G182" s="9"/>
     </row>
     <row r="183" ht="42.0" customHeight="1">
-      <c r="D183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="D183" s="9"/>
+      <c r="G183" s="9"/>
     </row>
     <row r="184" ht="42.0" customHeight="1">
-      <c r="D184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="D184" s="9"/>
+      <c r="G184" s="9"/>
     </row>
     <row r="185" ht="42.0" customHeight="1">
-      <c r="D185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="D185" s="9"/>
+      <c r="G185" s="9"/>
     </row>
     <row r="186" ht="42.0" customHeight="1">
-      <c r="D186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="D186" s="9"/>
+      <c r="G186" s="9"/>
     </row>
     <row r="187" ht="42.0" customHeight="1">
-      <c r="D187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="D187" s="9"/>
+      <c r="G187" s="9"/>
     </row>
     <row r="188" ht="42.0" customHeight="1">
-      <c r="D188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="D188" s="9"/>
+      <c r="G188" s="9"/>
     </row>
     <row r="189" ht="42.0" customHeight="1">
-      <c r="D189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="D189" s="9"/>
+      <c r="G189" s="9"/>
     </row>
     <row r="190" ht="42.0" customHeight="1">
-      <c r="D190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="D190" s="9"/>
+      <c r="G190" s="9"/>
     </row>
     <row r="191" ht="42.0" customHeight="1">
-      <c r="D191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="D191" s="9"/>
+      <c r="G191" s="9"/>
     </row>
     <row r="192" ht="42.0" customHeight="1">
-      <c r="D192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="D192" s="9"/>
+      <c r="G192" s="9"/>
     </row>
     <row r="193" ht="42.0" customHeight="1">
-      <c r="D193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="D193" s="9"/>
+      <c r="G193" s="9"/>
     </row>
     <row r="194" ht="42.0" customHeight="1">
-      <c r="D194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="D194" s="9"/>
+      <c r="G194" s="9"/>
     </row>
     <row r="195" ht="42.0" customHeight="1">
-      <c r="D195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="D195" s="9"/>
+      <c r="G195" s="9"/>
     </row>
     <row r="196" ht="42.0" customHeight="1">
-      <c r="D196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="D196" s="9"/>
+      <c r="G196" s="9"/>
     </row>
     <row r="197" ht="42.0" customHeight="1">
-      <c r="D197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="D197" s="9"/>
+      <c r="G197" s="9"/>
     </row>
     <row r="198" ht="42.0" customHeight="1">
-      <c r="D198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="D198" s="9"/>
+      <c r="G198" s="9"/>
     </row>
     <row r="199" ht="42.0" customHeight="1">
-      <c r="D199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="D199" s="9"/>
+      <c r="G199" s="9"/>
     </row>
     <row r="200" ht="42.0" customHeight="1">
-      <c r="D200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="D200" s="9"/>
+      <c r="G200" s="9"/>
     </row>
     <row r="201" ht="42.0" customHeight="1">
-      <c r="D201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="D201" s="9"/>
+      <c r="G201" s="9"/>
     </row>
     <row r="202" ht="42.0" customHeight="1">
-      <c r="D202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="D202" s="9"/>
+      <c r="G202" s="9"/>
     </row>
     <row r="203" ht="42.0" customHeight="1">
-      <c r="D203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="D203" s="9"/>
+      <c r="G203" s="9"/>
     </row>
     <row r="204" ht="42.0" customHeight="1">
-      <c r="D204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="D204" s="9"/>
+      <c r="G204" s="9"/>
     </row>
     <row r="205" ht="42.0" customHeight="1">
-      <c r="D205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="D205" s="9"/>
+      <c r="G205" s="9"/>
     </row>
     <row r="206" ht="42.0" customHeight="1">
-      <c r="D206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="D206" s="9"/>
+      <c r="G206" s="9"/>
     </row>
     <row r="207" ht="42.0" customHeight="1">
-      <c r="D207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="D207" s="9"/>
+      <c r="G207" s="9"/>
     </row>
     <row r="208" ht="42.0" customHeight="1">
-      <c r="D208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="D208" s="9"/>
+      <c r="G208" s="9"/>
     </row>
     <row r="209" ht="42.0" customHeight="1">
-      <c r="D209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="D209" s="9"/>
+      <c r="G209" s="9"/>
     </row>
     <row r="210" ht="42.0" customHeight="1">
-      <c r="D210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="D210" s="9"/>
+      <c r="G210" s="9"/>
     </row>
     <row r="211" ht="42.0" customHeight="1">
-      <c r="D211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="D211" s="9"/>
+      <c r="G211" s="9"/>
     </row>
     <row r="212" ht="42.0" customHeight="1">
-      <c r="D212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="D212" s="9"/>
+      <c r="G212" s="9"/>
     </row>
     <row r="213" ht="42.0" customHeight="1">
-      <c r="D213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="D213" s="9"/>
+      <c r="G213" s="9"/>
     </row>
     <row r="214" ht="42.0" customHeight="1">
-      <c r="D214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="D214" s="9"/>
+      <c r="G214" s="9"/>
     </row>
     <row r="215" ht="42.0" customHeight="1">
-      <c r="D215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="D215" s="9"/>
+      <c r="G215" s="9"/>
     </row>
     <row r="216" ht="42.0" customHeight="1">
-      <c r="D216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="D216" s="9"/>
+      <c r="G216" s="9"/>
     </row>
     <row r="217" ht="42.0" customHeight="1">
-      <c r="D217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="D217" s="9"/>
+      <c r="G217" s="9"/>
     </row>
     <row r="218" ht="42.0" customHeight="1">
-      <c r="D218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="D218" s="9"/>
+      <c r="G218" s="9"/>
     </row>
     <row r="219" ht="42.0" customHeight="1">
-      <c r="D219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="D219" s="9"/>
+      <c r="G219" s="9"/>
     </row>
     <row r="220" ht="42.0" customHeight="1">
-      <c r="D220" s="10"/>
-      <c r="G220" s="10"/>
+      <c r="D220" s="9"/>
+      <c r="G220" s="9"/>
     </row>
     <row r="221" ht="42.0" customHeight="1">
-      <c r="D221" s="10"/>
-      <c r="G221" s="10"/>
+      <c r="D221" s="9"/>
+      <c r="G221" s="9"/>
     </row>
     <row r="222" ht="42.0" customHeight="1">
-      <c r="D222" s="10"/>
-      <c r="G222" s="10"/>
+      <c r="D222" s="9"/>
+      <c r="G222" s="9"/>
     </row>
     <row r="223" ht="42.0" customHeight="1">
-      <c r="D223" s="10"/>
-      <c r="G223" s="10"/>
+      <c r="D223" s="9"/>
+      <c r="G223" s="9"/>
     </row>
     <row r="224" ht="42.0" customHeight="1">
-      <c r="D224" s="10"/>
-      <c r="G224" s="10"/>
+      <c r="D224" s="9"/>
+      <c r="G224" s="9"/>
     </row>
     <row r="225" ht="42.0" customHeight="1">
-      <c r="D225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="D225" s="9"/>
+      <c r="G225" s="9"/>
     </row>
     <row r="226" ht="42.0" customHeight="1">
-      <c r="D226" s="10"/>
-      <c r="G226" s="10"/>
+      <c r="D226" s="9"/>
+      <c r="G226" s="9"/>
     </row>
     <row r="227" ht="42.0" customHeight="1">
-      <c r="D227" s="10"/>
-      <c r="G227" s="10"/>
+      <c r="D227" s="9"/>
+      <c r="G227" s="9"/>
     </row>
     <row r="228" ht="42.0" customHeight="1">
-      <c r="D228" s="10"/>
-      <c r="G228" s="10"/>
+      <c r="D228" s="9"/>
+      <c r="G228" s="9"/>
     </row>
     <row r="229" ht="42.0" customHeight="1">
-      <c r="D229" s="10"/>
-      <c r="G229" s="10"/>
+      <c r="D229" s="9"/>
+      <c r="G229" s="9"/>
     </row>
     <row r="230" ht="42.0" customHeight="1">
-      <c r="D230" s="10"/>
-      <c r="G230" s="10"/>
+      <c r="D230" s="9"/>
+      <c r="G230" s="9"/>
     </row>
     <row r="231" ht="42.0" customHeight="1">
-      <c r="D231" s="10"/>
-      <c r="G231" s="10"/>
+      <c r="D231" s="9"/>
+      <c r="G231" s="9"/>
     </row>
     <row r="232" ht="42.0" customHeight="1">
-      <c r="D232" s="10"/>
-      <c r="G232" s="10"/>
+      <c r="D232" s="9"/>
+      <c r="G232" s="9"/>
     </row>
     <row r="233" ht="42.0" customHeight="1">
-      <c r="D233" s="10"/>
-      <c r="G233" s="10"/>
+      <c r="D233" s="9"/>
+      <c r="G233" s="9"/>
     </row>
     <row r="234" ht="42.0" customHeight="1">
-      <c r="D234" s="10"/>
-      <c r="G234" s="10"/>
+      <c r="D234" s="9"/>
+      <c r="G234" s="9"/>
     </row>
     <row r="235" ht="42.0" customHeight="1">
-      <c r="D235" s="10"/>
-      <c r="G235" s="10"/>
+      <c r="D235" s="9"/>
+      <c r="G235" s="9"/>
     </row>
     <row r="236" ht="42.0" customHeight="1">
-      <c r="D236" s="10"/>
-      <c r="G236" s="10"/>
+      <c r="D236" s="9"/>
+      <c r="G236" s="9"/>
     </row>
     <row r="237" ht="42.0" customHeight="1">
-      <c r="D237" s="10"/>
-      <c r="G237" s="10"/>
+      <c r="D237" s="9"/>
+      <c r="G237" s="9"/>
     </row>
     <row r="238" ht="42.0" customHeight="1">
-      <c r="D238" s="10"/>
-      <c r="G238" s="10"/>
+      <c r="D238" s="9"/>
+      <c r="G238" s="9"/>
     </row>
     <row r="239" ht="42.0" customHeight="1">
-      <c r="D239" s="10"/>
-      <c r="G239" s="10"/>
+      <c r="D239" s="9"/>
+      <c r="G239" s="9"/>
     </row>
     <row r="240" ht="42.0" customHeight="1">
-      <c r="D240" s="10"/>
-      <c r="G240" s="10"/>
+      <c r="D240" s="9"/>
+      <c r="G240" s="9"/>
     </row>
     <row r="241" ht="42.0" customHeight="1">
-      <c r="D241" s="10"/>
-      <c r="G241" s="10"/>
+      <c r="D241" s="9"/>
+      <c r="G241" s="9"/>
     </row>
     <row r="242" ht="42.0" customHeight="1">
-      <c r="D242" s="10"/>
-      <c r="G242" s="10"/>
+      <c r="D242" s="9"/>
+      <c r="G242" s="9"/>
     </row>
     <row r="243" ht="42.0" customHeight="1">
-      <c r="D243" s="10"/>
-      <c r="G243" s="10"/>
+      <c r="D243" s="9"/>
+      <c r="G243" s="9"/>
     </row>
     <row r="244" ht="42.0" customHeight="1">
-      <c r="D244" s="10"/>
-      <c r="G244" s="10"/>
+      <c r="D244" s="9"/>
+      <c r="G244" s="9"/>
     </row>
     <row r="245" ht="42.0" customHeight="1">
-      <c r="D245" s="10"/>
-      <c r="G245" s="10"/>
+      <c r="D245" s="9"/>
+      <c r="G245" s="9"/>
     </row>
     <row r="246" ht="42.0" customHeight="1">
-      <c r="D246" s="10"/>
-      <c r="G246" s="10"/>
+      <c r="D246" s="9"/>
+      <c r="G246" s="9"/>
     </row>
     <row r="247" ht="42.0" customHeight="1">
-      <c r="D247" s="10"/>
-      <c r="G247" s="10"/>
+      <c r="D247" s="9"/>
+      <c r="G247" s="9"/>
     </row>
     <row r="248" ht="42.0" customHeight="1">
-      <c r="D248" s="10"/>
-      <c r="G248" s="10"/>
+      <c r="D248" s="9"/>
+      <c r="G248" s="9"/>
     </row>
     <row r="249" ht="42.0" customHeight="1">
-      <c r="D249" s="10"/>
-      <c r="G249" s="10"/>
+      <c r="D249" s="9"/>
+      <c r="G249" s="9"/>
     </row>
     <row r="250" ht="42.0" customHeight="1">
-      <c r="D250" s="10"/>
-      <c r="G250" s="10"/>
+      <c r="D250" s="9"/>
+      <c r="G250" s="9"/>
     </row>
     <row r="251" ht="42.0" customHeight="1">
-      <c r="D251" s="10"/>
-      <c r="G251" s="10"/>
+      <c r="D251" s="9"/>
+      <c r="G251" s="9"/>
     </row>
     <row r="252" ht="42.0" customHeight="1">
-      <c r="D252" s="10"/>
-      <c r="G252" s="10"/>
+      <c r="D252" s="9"/>
+      <c r="G252" s="9"/>
     </row>
     <row r="253" ht="42.0" customHeight="1">
-      <c r="D253" s="10"/>
-      <c r="G253" s="10"/>
+      <c r="D253" s="9"/>
+      <c r="G253" s="9"/>
     </row>
     <row r="254" ht="42.0" customHeight="1">
-      <c r="D254" s="10"/>
-      <c r="G254" s="10"/>
+      <c r="D254" s="9"/>
+      <c r="G254" s="9"/>
     </row>
     <row r="255" ht="42.0" customHeight="1">
-      <c r="D255" s="10"/>
-      <c r="G255" s="10"/>
+      <c r="D255" s="9"/>
+      <c r="G255" s="9"/>
     </row>
     <row r="256" ht="42.0" customHeight="1">
-      <c r="D256" s="10"/>
-      <c r="G256" s="10"/>
+      <c r="D256" s="9"/>
+      <c r="G256" s="9"/>
     </row>
     <row r="257" ht="42.0" customHeight="1">
-      <c r="D257" s="10"/>
-      <c r="G257" s="10"/>
+      <c r="D257" s="9"/>
+      <c r="G257" s="9"/>
     </row>
     <row r="258" ht="42.0" customHeight="1">
-      <c r="D258" s="10"/>
-      <c r="G258" s="10"/>
+      <c r="D258" s="9"/>
+      <c r="G258" s="9"/>
     </row>
     <row r="259" ht="42.0" customHeight="1">
-      <c r="D259" s="10"/>
-      <c r="G259" s="10"/>
+      <c r="D259" s="9"/>
+      <c r="G259" s="9"/>
     </row>
     <row r="260" ht="42.0" customHeight="1">
-      <c r="D260" s="10"/>
-      <c r="G260" s="10"/>
+      <c r="D260" s="9"/>
+      <c r="G260" s="9"/>
     </row>
     <row r="261" ht="42.0" customHeight="1">
-      <c r="D261" s="10"/>
-      <c r="G261" s="10"/>
+      <c r="D261" s="9"/>
+      <c r="G261" s="9"/>
     </row>
     <row r="262" ht="42.0" customHeight="1">
-      <c r="D262" s="10"/>
-      <c r="G262" s="10"/>
+      <c r="D262" s="9"/>
+      <c r="G262" s="9"/>
     </row>
     <row r="263" ht="42.0" customHeight="1">
-      <c r="D263" s="10"/>
-      <c r="G263" s="10"/>
+      <c r="D263" s="9"/>
+      <c r="G263" s="9"/>
     </row>
     <row r="264" ht="42.0" customHeight="1">
-      <c r="D264" s="10"/>
-      <c r="G264" s="10"/>
+      <c r="D264" s="9"/>
+      <c r="G264" s="9"/>
     </row>
     <row r="265" ht="42.0" customHeight="1">
-      <c r="D265" s="10"/>
-      <c r="G265" s="10"/>
+      <c r="D265" s="9"/>
+      <c r="G265" s="9"/>
     </row>
     <row r="266" ht="42.0" customHeight="1">
-      <c r="D266" s="10"/>
-      <c r="G266" s="10"/>
+      <c r="D266" s="9"/>
+      <c r="G266" s="9"/>
     </row>
     <row r="267" ht="42.0" customHeight="1">
-      <c r="D267" s="10"/>
-      <c r="G267" s="10"/>
+      <c r="D267" s="9"/>
+      <c r="G267" s="9"/>
     </row>
     <row r="268" ht="42.0" customHeight="1">
-      <c r="D268" s="10"/>
-      <c r="G268" s="10"/>
+      <c r="D268" s="9"/>
+      <c r="G268" s="9"/>
     </row>
     <row r="269" ht="42.0" customHeight="1">
-      <c r="D269" s="10"/>
-      <c r="G269" s="10"/>
+      <c r="D269" s="9"/>
+      <c r="G269" s="9"/>
     </row>
     <row r="270" ht="42.0" customHeight="1">
-      <c r="D270" s="10"/>
-      <c r="G270" s="10"/>
+      <c r="D270" s="9"/>
+      <c r="G270" s="9"/>
     </row>
     <row r="271" ht="42.0" customHeight="1">
-      <c r="D271" s="10"/>
-      <c r="G271" s="10"/>
+      <c r="D271" s="9"/>
+      <c r="G271" s="9"/>
     </row>
     <row r="272" ht="42.0" customHeight="1">
-      <c r="D272" s="10"/>
-      <c r="G272" s="10"/>
+      <c r="D272" s="9"/>
+      <c r="G272" s="9"/>
     </row>
     <row r="273" ht="42.0" customHeight="1">
-      <c r="D273" s="10"/>
-      <c r="G273" s="10"/>
+      <c r="D273" s="9"/>
+      <c r="G273" s="9"/>
     </row>
     <row r="274" ht="42.0" customHeight="1">
-      <c r="D274" s="10"/>
-      <c r="G274" s="10"/>
+      <c r="D274" s="9"/>
+      <c r="G274" s="9"/>
     </row>
     <row r="275" ht="42.0" customHeight="1">
-      <c r="D275" s="10"/>
-      <c r="G275" s="10"/>
+      <c r="D275" s="9"/>
+      <c r="G275" s="9"/>
     </row>
     <row r="276" ht="42.0" customHeight="1">
-      <c r="D276" s="10"/>
-      <c r="G276" s="10"/>
+      <c r="D276" s="9"/>
+      <c r="G276" s="9"/>
     </row>
     <row r="277" ht="42.0" customHeight="1">
-      <c r="D277" s="10"/>
-      <c r="G277" s="10"/>
+      <c r="D277" s="9"/>
+      <c r="G277" s="9"/>
     </row>
     <row r="278" ht="42.0" customHeight="1">
-      <c r="D278" s="10"/>
-      <c r="G278" s="10"/>
+      <c r="D278" s="9"/>
+      <c r="G278" s="9"/>
     </row>
     <row r="279" ht="42.0" customHeight="1">
-      <c r="D279" s="10"/>
-      <c r="G279" s="10"/>
+      <c r="D279" s="9"/>
+      <c r="G279" s="9"/>
     </row>
     <row r="280" ht="42.0" customHeight="1">
-      <c r="D280" s="10"/>
-      <c r="G280" s="10"/>
+      <c r="D280" s="9"/>
+      <c r="G280" s="9"/>
     </row>
     <row r="281" ht="42.0" customHeight="1">
-      <c r="D281" s="10"/>
-      <c r="G281" s="10"/>
+      <c r="D281" s="9"/>
+      <c r="G281" s="9"/>
     </row>
     <row r="282" ht="42.0" customHeight="1">
-      <c r="D282" s="10"/>
-      <c r="G282" s="10"/>
+      <c r="D282" s="9"/>
+      <c r="G282" s="9"/>
     </row>
     <row r="283" ht="42.0" customHeight="1">
-      <c r="D283" s="10"/>
-      <c r="G283" s="10"/>
+      <c r="D283" s="9"/>
+      <c r="G283" s="9"/>
     </row>
     <row r="284" ht="42.0" customHeight="1">
-      <c r="D284" s="10"/>
-      <c r="G284" s="10"/>
+      <c r="D284" s="9"/>
+      <c r="G284" s="9"/>
     </row>
     <row r="285" ht="42.0" customHeight="1">
-      <c r="D285" s="10"/>
-      <c r="G285" s="10"/>
+      <c r="D285" s="9"/>
+      <c r="G285" s="9"/>
     </row>
     <row r="286" ht="42.0" customHeight="1">
-      <c r="D286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="D286" s="9"/>
+      <c r="G286" s="9"/>
     </row>
     <row r="287" ht="42.0" customHeight="1">
-      <c r="D287" s="10"/>
-      <c r="G287" s="10"/>
+      <c r="D287" s="9"/>
+      <c r="G287" s="9"/>
     </row>
     <row r="288" ht="42.0" customHeight="1">
-      <c r="D288" s="10"/>
-      <c r="G288" s="10"/>
+      <c r="D288" s="9"/>
+      <c r="G288" s="9"/>
     </row>
     <row r="289" ht="42.0" customHeight="1">
-      <c r="D289" s="10"/>
-      <c r="G289" s="10"/>
+      <c r="D289" s="9"/>
+      <c r="G289" s="9"/>
     </row>
     <row r="290" ht="42.0" customHeight="1">
-      <c r="D290" s="10"/>
-      <c r="G290" s="10"/>
+      <c r="D290" s="9"/>
+      <c r="G290" s="9"/>
     </row>
     <row r="291" ht="42.0" customHeight="1">
-      <c r="D291" s="10"/>
-      <c r="G291" s="10"/>
+      <c r="D291" s="9"/>
+      <c r="G291" s="9"/>
     </row>
     <row r="292" ht="42.0" customHeight="1">
-      <c r="D292" s="10"/>
-      <c r="G292" s="10"/>
+      <c r="D292" s="9"/>
+      <c r="G292" s="9"/>
     </row>
     <row r="293" ht="42.0" customHeight="1">
-      <c r="D293" s="10"/>
-      <c r="G293" s="10"/>
+      <c r="D293" s="9"/>
+      <c r="G293" s="9"/>
     </row>
     <row r="294" ht="42.0" customHeight="1">
-      <c r="D294" s="10"/>
-      <c r="G294" s="10"/>
+      <c r="D294" s="9"/>
+      <c r="G294" s="9"/>
     </row>
     <row r="295" ht="42.0" customHeight="1">
-      <c r="D295" s="10"/>
-      <c r="G295" s="10"/>
+      <c r="D295" s="9"/>
+      <c r="G295" s="9"/>
     </row>
     <row r="296" ht="42.0" customHeight="1">
-      <c r="D296" s="10"/>
-      <c r="G296" s="10"/>
+      <c r="D296" s="9"/>
+      <c r="G296" s="9"/>
     </row>
     <row r="297" ht="42.0" customHeight="1">
-      <c r="D297" s="10"/>
-      <c r="G297" s="10"/>
+      <c r="D297" s="9"/>
+      <c r="G297" s="9"/>
     </row>
     <row r="298" ht="42.0" customHeight="1">
-      <c r="D298" s="10"/>
-      <c r="G298" s="10"/>
+      <c r="D298" s="9"/>
+      <c r="G298" s="9"/>
     </row>
     <row r="299" ht="42.0" customHeight="1">
-      <c r="D299" s="10"/>
-      <c r="G299" s="10"/>
+      <c r="D299" s="9"/>
+      <c r="G299" s="9"/>
     </row>
     <row r="300" ht="42.0" customHeight="1">
-      <c r="D300" s="10"/>
-      <c r="G300" s="10"/>
+      <c r="D300" s="9"/>
+      <c r="G300" s="9"/>
     </row>
     <row r="301" ht="42.0" customHeight="1">
-      <c r="D301" s="10"/>
-      <c r="G301" s="10"/>
+      <c r="D301" s="9"/>
+      <c r="G301" s="9"/>
     </row>
     <row r="302" ht="42.0" customHeight="1">
-      <c r="D302" s="10"/>
-      <c r="G302" s="10"/>
+      <c r="D302" s="9"/>
+      <c r="G302" s="9"/>
     </row>
     <row r="303" ht="42.0" customHeight="1">
-      <c r="D303" s="10"/>
-      <c r="G303" s="10"/>
+      <c r="D303" s="9"/>
+      <c r="G303" s="9"/>
     </row>
     <row r="304" ht="42.0" customHeight="1">
-      <c r="D304" s="10"/>
-      <c r="G304" s="10"/>
+      <c r="D304" s="9"/>
+      <c r="G304" s="9"/>
     </row>
     <row r="305" ht="42.0" customHeight="1">
-      <c r="D305" s="10"/>
-      <c r="G305" s="10"/>
+      <c r="D305" s="9"/>
+      <c r="G305" s="9"/>
     </row>
     <row r="306" ht="42.0" customHeight="1">
-      <c r="D306" s="10"/>
-      <c r="G306" s="10"/>
+      <c r="D306" s="9"/>
+      <c r="G306" s="9"/>
     </row>
     <row r="307" ht="42.0" customHeight="1">
-      <c r="D307" s="10"/>
-      <c r="G307" s="10"/>
+      <c r="D307" s="9"/>
+      <c r="G307" s="9"/>
     </row>
     <row r="308" ht="42.0" customHeight="1">
-      <c r="D308" s="10"/>
-      <c r="G308" s="10"/>
+      <c r="D308" s="9"/>
+      <c r="G308" s="9"/>
     </row>
     <row r="309" ht="42.0" customHeight="1">
-      <c r="D309" s="10"/>
-      <c r="G309" s="10"/>
+      <c r="D309" s="9"/>
+      <c r="G309" s="9"/>
     </row>
     <row r="310" ht="42.0" customHeight="1">
-      <c r="D310" s="10"/>
-      <c r="G310" s="10"/>
+      <c r="D310" s="9"/>
+      <c r="G310" s="9"/>
     </row>
     <row r="311" ht="42.0" customHeight="1">
-      <c r="D311" s="10"/>
-      <c r="G311" s="10"/>
+      <c r="D311" s="9"/>
+      <c r="G311" s="9"/>
     </row>
     <row r="312" ht="42.0" customHeight="1">
-      <c r="D312" s="10"/>
-      <c r="G312" s="10"/>
+      <c r="D312" s="9"/>
+      <c r="G312" s="9"/>
     </row>
     <row r="313" ht="42.0" customHeight="1">
-      <c r="D313" s="10"/>
-      <c r="G313" s="10"/>
+      <c r="D313" s="9"/>
+      <c r="G313" s="9"/>
     </row>
     <row r="314" ht="42.0" customHeight="1">
-      <c r="D314" s="10"/>
-      <c r="G314" s="10"/>
+      <c r="D314" s="9"/>
+      <c r="G314" s="9"/>
     </row>
     <row r="315" ht="42.0" customHeight="1">
-      <c r="D315" s="10"/>
-      <c r="G315" s="10"/>
+      <c r="D315" s="9"/>
+      <c r="G315" s="9"/>
     </row>
     <row r="316" ht="42.0" customHeight="1">
-      <c r="D316" s="10"/>
-      <c r="G316" s="10"/>
+      <c r="D316" s="9"/>
+      <c r="G316" s="9"/>
     </row>
     <row r="317" ht="42.0" customHeight="1">
-      <c r="D317" s="10"/>
-      <c r="G317" s="10"/>
+      <c r="D317" s="9"/>
+      <c r="G317" s="9"/>
     </row>
     <row r="318" ht="42.0" customHeight="1">
-      <c r="D318" s="10"/>
-      <c r="G318" s="10"/>
+      <c r="D318" s="9"/>
+      <c r="G318" s="9"/>
     </row>
     <row r="319" ht="42.0" customHeight="1">
-      <c r="D319" s="10"/>
-      <c r="G319" s="10"/>
+      <c r="D319" s="9"/>
+      <c r="G319" s="9"/>
     </row>
     <row r="320" ht="42.0" customHeight="1">
-      <c r="D320" s="10"/>
-      <c r="G320" s="10"/>
+      <c r="D320" s="9"/>
+      <c r="G320" s="9"/>
     </row>
     <row r="321" ht="42.0" customHeight="1">
-      <c r="D321" s="10"/>
-      <c r="G321" s="10"/>
+      <c r="D321" s="9"/>
+      <c r="G321" s="9"/>
     </row>
     <row r="322" ht="42.0" customHeight="1">
-      <c r="D322" s="10"/>
-      <c r="G322" s="10"/>
+      <c r="D322" s="9"/>
+      <c r="G322" s="9"/>
     </row>
     <row r="323" ht="42.0" customHeight="1">
-      <c r="D323" s="10"/>
-      <c r="G323" s="10"/>
+      <c r="D323" s="9"/>
+      <c r="G323" s="9"/>
     </row>
     <row r="324" ht="42.0" customHeight="1">
-      <c r="D324" s="10"/>
-      <c r="G324" s="10"/>
+      <c r="D324" s="9"/>
+      <c r="G324" s="9"/>
     </row>
     <row r="325" ht="42.0" customHeight="1">
-      <c r="D325" s="10"/>
-      <c r="G325" s="10"/>
+      <c r="D325" s="9"/>
+      <c r="G325" s="9"/>
     </row>
     <row r="326" ht="42.0" customHeight="1">
-      <c r="D326" s="10"/>
-      <c r="G326" s="10"/>
+      <c r="D326" s="9"/>
+      <c r="G326" s="9"/>
     </row>
     <row r="327" ht="42.0" customHeight="1">
-      <c r="D327" s="10"/>
-      <c r="G327" s="10"/>
+      <c r="D327" s="9"/>
+      <c r="G327" s="9"/>
     </row>
     <row r="328" ht="42.0" customHeight="1">
-      <c r="D328" s="10"/>
-      <c r="G328" s="10"/>
+      <c r="D328" s="9"/>
+      <c r="G328" s="9"/>
     </row>
     <row r="329" ht="42.0" customHeight="1">
-      <c r="D329" s="10"/>
-      <c r="G329" s="10"/>
+      <c r="D329" s="9"/>
+      <c r="G329" s="9"/>
     </row>
     <row r="330" ht="42.0" customHeight="1">
-      <c r="D330" s="10"/>
-      <c r="G330" s="10"/>
+      <c r="D330" s="9"/>
+      <c r="G330" s="9"/>
     </row>
     <row r="331" ht="42.0" customHeight="1">
-      <c r="D331" s="10"/>
-      <c r="G331" s="10"/>
+      <c r="D331" s="9"/>
+      <c r="G331" s="9"/>
     </row>
     <row r="332" ht="42.0" customHeight="1">
-      <c r="D332" s="10"/>
-      <c r="G332" s="10"/>
+      <c r="D332" s="9"/>
+      <c r="G332" s="9"/>
     </row>
     <row r="333" ht="42.0" customHeight="1">
-      <c r="D333" s="10"/>
-      <c r="G333" s="10"/>
+      <c r="D333" s="9"/>
+      <c r="G333" s="9"/>
     </row>
     <row r="334" ht="42.0" customHeight="1">
-      <c r="D334" s="10"/>
-      <c r="G334" s="10"/>
+      <c r="D334" s="9"/>
+      <c r="G334" s="9"/>
     </row>
     <row r="335" ht="42.0" customHeight="1">
-      <c r="D335" s="10"/>
-      <c r="G335" s="10"/>
+      <c r="D335" s="9"/>
+      <c r="G335" s="9"/>
     </row>
     <row r="336" ht="42.0" customHeight="1">
-      <c r="D336" s="10"/>
-      <c r="G336" s="10"/>
+      <c r="D336" s="9"/>
+      <c r="G336" s="9"/>
     </row>
     <row r="337" ht="42.0" customHeight="1">
-      <c r="D337" s="10"/>
-      <c r="G337" s="10"/>
+      <c r="D337" s="9"/>
+      <c r="G337" s="9"/>
     </row>
     <row r="338" ht="42.0" customHeight="1">
-      <c r="D338" s="10"/>
-      <c r="G338" s="10"/>
+      <c r="D338" s="9"/>
+      <c r="G338" s="9"/>
     </row>
     <row r="339" ht="42.0" customHeight="1">
-      <c r="D339" s="10"/>
-      <c r="G339" s="10"/>
+      <c r="D339" s="9"/>
+      <c r="G339" s="9"/>
     </row>
     <row r="340" ht="42.0" customHeight="1">
-      <c r="D340" s="10"/>
-      <c r="G340" s="10"/>
+      <c r="D340" s="9"/>
+      <c r="G340" s="9"/>
     </row>
     <row r="341" ht="42.0" customHeight="1">
-      <c r="D341" s="10"/>
-      <c r="G341" s="10"/>
+      <c r="D341" s="9"/>
+      <c r="G341" s="9"/>
     </row>
     <row r="342" ht="42.0" customHeight="1">
-      <c r="D342" s="10"/>
-      <c r="G342" s="10"/>
+      <c r="D342" s="9"/>
+      <c r="G342" s="9"/>
     </row>
     <row r="343" ht="42.0" customHeight="1">
-      <c r="D343" s="10"/>
-      <c r="G343" s="10"/>
+      <c r="D343" s="9"/>
+      <c r="G343" s="9"/>
     </row>
     <row r="344" ht="42.0" customHeight="1">
-      <c r="D344" s="10"/>
-      <c r="G344" s="10"/>
+      <c r="D344" s="9"/>
+      <c r="G344" s="9"/>
     </row>
     <row r="345" ht="42.0" customHeight="1">
-      <c r="D345" s="10"/>
-      <c r="G345" s="10"/>
+      <c r="D345" s="9"/>
+      <c r="G345" s="9"/>
     </row>
     <row r="346" ht="42.0" customHeight="1">
-      <c r="D346" s="10"/>
-      <c r="G346" s="10"/>
+      <c r="D346" s="9"/>
+      <c r="G346" s="9"/>
     </row>
     <row r="347" ht="42.0" customHeight="1">
-      <c r="D347" s="10"/>
-      <c r="G347" s="10"/>
+      <c r="D347" s="9"/>
+      <c r="G347" s="9"/>
     </row>
     <row r="348" ht="42.0" customHeight="1">
-      <c r="D348" s="10"/>
-      <c r="G348" s="10"/>
+      <c r="D348" s="9"/>
+      <c r="G348" s="9"/>
     </row>
     <row r="349" ht="42.0" customHeight="1">
-      <c r="D349" s="10"/>
-      <c r="G349" s="10"/>
+      <c r="D349" s="9"/>
+      <c r="G349" s="9"/>
     </row>
     <row r="350" ht="42.0" customHeight="1">
-      <c r="D350" s="10"/>
-      <c r="G350" s="10"/>
+      <c r="D350" s="9"/>
+      <c r="G350" s="9"/>
     </row>
     <row r="351" ht="42.0" customHeight="1">
-      <c r="D351" s="10"/>
-      <c r="G351" s="10"/>
+      <c r="D351" s="9"/>
+      <c r="G351" s="9"/>
     </row>
     <row r="352" ht="42.0" customHeight="1">
-      <c r="D352" s="10"/>
-      <c r="G352" s="10"/>
+      <c r="D352" s="9"/>
+      <c r="G352" s="9"/>
     </row>
     <row r="353" ht="42.0" customHeight="1">
-      <c r="D353" s="10"/>
-      <c r="G353" s="10"/>
+      <c r="D353" s="9"/>
+      <c r="G353" s="9"/>
     </row>
     <row r="354" ht="42.0" customHeight="1">
-      <c r="D354" s="10"/>
-      <c r="G354" s="10"/>
+      <c r="D354" s="9"/>
+      <c r="G354" s="9"/>
     </row>
     <row r="355" ht="42.0" customHeight="1">
-      <c r="D355" s="10"/>
-      <c r="G355" s="10"/>
+      <c r="D355" s="9"/>
+      <c r="G355" s="9"/>
     </row>
     <row r="356" ht="42.0" customHeight="1">
-      <c r="D356" s="10"/>
-      <c r="G356" s="10"/>
+      <c r="D356" s="9"/>
+      <c r="G356" s="9"/>
     </row>
     <row r="357" ht="42.0" customHeight="1">
-      <c r="D357" s="10"/>
-      <c r="G357" s="10"/>
+      <c r="D357" s="9"/>
+      <c r="G357" s="9"/>
     </row>
     <row r="358" ht="42.0" customHeight="1">
-      <c r="D358" s="10"/>
-      <c r="G358" s="10"/>
+      <c r="D358" s="9"/>
+      <c r="G358" s="9"/>
     </row>
     <row r="359" ht="42.0" customHeight="1">
-      <c r="D359" s="10"/>
-      <c r="G359" s="10"/>
+      <c r="D359" s="9"/>
+      <c r="G359" s="9"/>
     </row>
     <row r="360" ht="42.0" customHeight="1">
-      <c r="D360" s="10"/>
-      <c r="G360" s="10"/>
+      <c r="D360" s="9"/>
+      <c r="G360" s="9"/>
     </row>
     <row r="361" ht="42.0" customHeight="1">
-      <c r="D361" s="10"/>
-      <c r="G361" s="10"/>
+      <c r="D361" s="9"/>
+      <c r="G361" s="9"/>
     </row>
     <row r="362" ht="42.0" customHeight="1">
-      <c r="D362" s="10"/>
-      <c r="G362" s="10"/>
+      <c r="D362" s="9"/>
+      <c r="G362" s="9"/>
     </row>
     <row r="363" ht="42.0" customHeight="1">
-      <c r="D363" s="10"/>
-      <c r="G363" s="10"/>
+      <c r="D363" s="9"/>
+      <c r="G363" s="9"/>
     </row>
     <row r="364" ht="42.0" customHeight="1">
-      <c r="D364" s="10"/>
-      <c r="G364" s="10"/>
+      <c r="D364" s="9"/>
+      <c r="G364" s="9"/>
     </row>
     <row r="365" ht="42.0" customHeight="1">
-      <c r="D365" s="10"/>
-      <c r="G365" s="10"/>
+      <c r="D365" s="9"/>
+      <c r="G365" s="9"/>
     </row>
     <row r="366" ht="42.0" customHeight="1">
-      <c r="D366" s="10"/>
-      <c r="G366" s="10"/>
+      <c r="D366" s="9"/>
+      <c r="G366" s="9"/>
     </row>
     <row r="367" ht="42.0" customHeight="1">
-      <c r="D367" s="10"/>
-      <c r="G367" s="10"/>
+      <c r="D367" s="9"/>
+      <c r="G367" s="9"/>
     </row>
     <row r="368" ht="42.0" customHeight="1">
-      <c r="D368" s="10"/>
-      <c r="G368" s="10"/>
+      <c r="D368" s="9"/>
+      <c r="G368" s="9"/>
     </row>
     <row r="369" ht="42.0" customHeight="1">
-      <c r="D369" s="10"/>
-      <c r="G369" s="10"/>
+      <c r="D369" s="9"/>
+      <c r="G369" s="9"/>
     </row>
     <row r="370" ht="42.0" customHeight="1">
-      <c r="D370" s="10"/>
-      <c r="G370" s="10"/>
+      <c r="D370" s="9"/>
+      <c r="G370" s="9"/>
     </row>
     <row r="371" ht="42.0" customHeight="1">
-      <c r="D371" s="10"/>
-      <c r="G371" s="10"/>
+      <c r="D371" s="9"/>
+      <c r="G371" s="9"/>
     </row>
     <row r="372" ht="42.0" customHeight="1">
-      <c r="D372" s="10"/>
-      <c r="G372" s="10"/>
+      <c r="D372" s="9"/>
+      <c r="G372" s="9"/>
     </row>
     <row r="373" ht="42.0" customHeight="1">
-      <c r="D373" s="10"/>
-      <c r="G373" s="10"/>
+      <c r="D373" s="9"/>
+      <c r="G373" s="9"/>
     </row>
     <row r="374" ht="42.0" customHeight="1">
-      <c r="D374" s="10"/>
-      <c r="G374" s="10"/>
+      <c r="D374" s="9"/>
+      <c r="G374" s="9"/>
     </row>
     <row r="375" ht="42.0" customHeight="1">
-      <c r="D375" s="10"/>
-      <c r="G375" s="10"/>
+      <c r="D375" s="9"/>
+      <c r="G375" s="9"/>
     </row>
     <row r="376" ht="42.0" customHeight="1">
-      <c r="D376" s="10"/>
-      <c r="G376" s="10"/>
+      <c r="D376" s="9"/>
+      <c r="G376" s="9"/>
     </row>
     <row r="377" ht="42.0" customHeight="1">
-      <c r="D377" s="10"/>
-      <c r="G377" s="10"/>
+      <c r="D377" s="9"/>
+      <c r="G377" s="9"/>
     </row>
     <row r="378" ht="42.0" customHeight="1">
-      <c r="D378" s="10"/>
-      <c r="G378" s="10"/>
+      <c r="D378" s="9"/>
+      <c r="G378" s="9"/>
     </row>
     <row r="379" ht="42.0" customHeight="1">
-      <c r="D379" s="10"/>
-      <c r="G379" s="10"/>
+      <c r="D379" s="9"/>
+      <c r="G379" s="9"/>
     </row>
     <row r="380" ht="42.0" customHeight="1">
-      <c r="D380" s="10"/>
-      <c r="G380" s="10"/>
+      <c r="D380" s="9"/>
+      <c r="G380" s="9"/>
     </row>
     <row r="381" ht="42.0" customHeight="1">
-      <c r="D381" s="10"/>
-      <c r="G381" s="10"/>
+      <c r="D381" s="9"/>
+      <c r="G381" s="9"/>
     </row>
     <row r="382" ht="42.0" customHeight="1">
-      <c r="D382" s="10"/>
-      <c r="G382" s="10"/>
+      <c r="D382" s="9"/>
+      <c r="G382" s="9"/>
     </row>
     <row r="383" ht="42.0" customHeight="1">
-      <c r="D383" s="10"/>
-      <c r="G383" s="10"/>
+      <c r="D383" s="9"/>
+      <c r="G383" s="9"/>
     </row>
     <row r="384" ht="42.0" customHeight="1">
-      <c r="D384" s="10"/>
-      <c r="G384" s="10"/>
+      <c r="D384" s="9"/>
+      <c r="G384" s="9"/>
     </row>
     <row r="385" ht="42.0" customHeight="1">
-      <c r="D385" s="10"/>
-      <c r="G385" s="10"/>
+      <c r="D385" s="9"/>
+      <c r="G385" s="9"/>
     </row>
     <row r="386" ht="42.0" customHeight="1">
-      <c r="D386" s="10"/>
-      <c r="G386" s="10"/>
+      <c r="D386" s="9"/>
+      <c r="G386" s="9"/>
     </row>
     <row r="387" ht="42.0" customHeight="1">
-      <c r="D387" s="10"/>
-      <c r="G387" s="10"/>
+      <c r="D387" s="9"/>
+      <c r="G387" s="9"/>
     </row>
     <row r="388" ht="42.0" customHeight="1">
-      <c r="D388" s="10"/>
-      <c r="G388" s="10"/>
+      <c r="D388" s="9"/>
+      <c r="G388" s="9"/>
     </row>
     <row r="389" ht="42.0" customHeight="1">
-      <c r="D389" s="10"/>
-      <c r="G389" s="10"/>
+      <c r="D389" s="9"/>
+      <c r="G389" s="9"/>
     </row>
     <row r="390" ht="42.0" customHeight="1">
-      <c r="D390" s="10"/>
-      <c r="G390" s="10"/>
+      <c r="D390" s="9"/>
+      <c r="G390" s="9"/>
     </row>
     <row r="391" ht="42.0" customHeight="1">
-      <c r="D391" s="10"/>
-      <c r="G391" s="10"/>
+      <c r="D391" s="9"/>
+      <c r="G391" s="9"/>
     </row>
     <row r="392" ht="42.0" customHeight="1">
-      <c r="D392" s="10"/>
-      <c r="G392" s="10"/>
+      <c r="D392" s="9"/>
+      <c r="G392" s="9"/>
     </row>
     <row r="393" ht="42.0" customHeight="1">
-      <c r="D393" s="10"/>
-      <c r="G393" s="10"/>
+      <c r="D393" s="9"/>
+      <c r="G393" s="9"/>
     </row>
     <row r="394" ht="42.0" customHeight="1">
-      <c r="D394" s="10"/>
-      <c r="G394" s="10"/>
+      <c r="D394" s="9"/>
+      <c r="G394" s="9"/>
     </row>
     <row r="395" ht="42.0" customHeight="1">
-      <c r="D395" s="10"/>
-      <c r="G395" s="10"/>
+      <c r="D395" s="9"/>
+      <c r="G395" s="9"/>
     </row>
     <row r="396" ht="42.0" customHeight="1">
-      <c r="D396" s="10"/>
-      <c r="G396" s="10"/>
+      <c r="D396" s="9"/>
+      <c r="G396" s="9"/>
     </row>
     <row r="397" ht="42.0" customHeight="1">
-      <c r="D397" s="10"/>
-      <c r="G397" s="10"/>
+      <c r="D397" s="9"/>
+      <c r="G397" s="9"/>
     </row>
     <row r="398" ht="42.0" customHeight="1">
-      <c r="D398" s="10"/>
-      <c r="G398" s="10"/>
+      <c r="D398" s="9"/>
+      <c r="G398" s="9"/>
     </row>
     <row r="399" ht="42.0" customHeight="1">
-      <c r="D399" s="10"/>
-      <c r="G399" s="10"/>
+      <c r="D399" s="9"/>
+      <c r="G399" s="9"/>
     </row>
     <row r="400" ht="42.0" customHeight="1">
-      <c r="D400" s="10"/>
-      <c r="G400" s="10"/>
+      <c r="D400" s="9"/>
+      <c r="G400" s="9"/>
     </row>
     <row r="401" ht="42.0" customHeight="1">
-      <c r="D401" s="10"/>
-      <c r="G401" s="10"/>
+      <c r="D401" s="9"/>
+      <c r="G401" s="9"/>
     </row>
     <row r="402" ht="42.0" customHeight="1">
-      <c r="D402" s="10"/>
-      <c r="G402" s="10"/>
+      <c r="D402" s="9"/>
+      <c r="G402" s="9"/>
     </row>
     <row r="403" ht="42.0" customHeight="1">
-      <c r="D403" s="10"/>
-      <c r="G403" s="10"/>
+      <c r="D403" s="9"/>
+      <c r="G403" s="9"/>
     </row>
     <row r="404" ht="42.0" customHeight="1">
-      <c r="D404" s="10"/>
-      <c r="G404" s="10"/>
+      <c r="D404" s="9"/>
+      <c r="G404" s="9"/>
     </row>
     <row r="405" ht="42.0" customHeight="1">
-      <c r="D405" s="10"/>
-      <c r="G405" s="10"/>
+      <c r="D405" s="9"/>
+      <c r="G405" s="9"/>
     </row>
     <row r="406" ht="42.0" customHeight="1">
-      <c r="D406" s="10"/>
-      <c r="G406" s="10"/>
+      <c r="D406" s="9"/>
+      <c r="G406" s="9"/>
     </row>
     <row r="407" ht="42.0" customHeight="1">
-      <c r="D407" s="10"/>
-      <c r="G407" s="10"/>
+      <c r="D407" s="9"/>
+      <c r="G407" s="9"/>
     </row>
     <row r="408" ht="42.0" customHeight="1">
-      <c r="D408" s="10"/>
-      <c r="G408" s="10"/>
+      <c r="D408" s="9"/>
+      <c r="G408" s="9"/>
     </row>
     <row r="409" ht="42.0" customHeight="1">
-      <c r="D409" s="10"/>
-      <c r="G409" s="10"/>
+      <c r="D409" s="9"/>
+      <c r="G409" s="9"/>
     </row>
     <row r="410" ht="42.0" customHeight="1">
-      <c r="D410" s="10"/>
-      <c r="G410" s="10"/>
+      <c r="D410" s="9"/>
+      <c r="G410" s="9"/>
     </row>
     <row r="411" ht="42.0" customHeight="1">
-      <c r="D411" s="10"/>
-      <c r="G411" s="10"/>
+      <c r="D411" s="9"/>
+      <c r="G411" s="9"/>
     </row>
     <row r="412" ht="42.0" customHeight="1">
-      <c r="D412" s="10"/>
-      <c r="G412" s="10"/>
+      <c r="D412" s="9"/>
+      <c r="G412" s="9"/>
     </row>
     <row r="413" ht="42.0" customHeight="1">
-      <c r="D413" s="10"/>
-      <c r="G413" s="10"/>
+      <c r="D413" s="9"/>
+      <c r="G413" s="9"/>
     </row>
     <row r="414" ht="42.0" customHeight="1">
-      <c r="D414" s="10"/>
-      <c r="G414" s="10"/>
+      <c r="D414" s="9"/>
+      <c r="G414" s="9"/>
     </row>
     <row r="415" ht="42.0" customHeight="1">
-      <c r="D415" s="10"/>
-      <c r="G415" s="10"/>
+      <c r="D415" s="9"/>
+      <c r="G415" s="9"/>
     </row>
     <row r="416" ht="42.0" customHeight="1">
-      <c r="D416" s="10"/>
-      <c r="G416" s="10"/>
+      <c r="D416" s="9"/>
+      <c r="G416" s="9"/>
     </row>
     <row r="417" ht="42.0" customHeight="1">
-      <c r="D417" s="10"/>
-      <c r="G417" s="10"/>
+      <c r="D417" s="9"/>
+      <c r="G417" s="9"/>
     </row>
     <row r="418" ht="42.0" customHeight="1">
-      <c r="D418" s="10"/>
-      <c r="G418" s="10"/>
+      <c r="D418" s="9"/>
+      <c r="G418" s="9"/>
     </row>
     <row r="419" ht="42.0" customHeight="1">
-      <c r="D419" s="10"/>
-      <c r="G419" s="10"/>
+      <c r="D419" s="9"/>
+      <c r="G419" s="9"/>
     </row>
     <row r="420" ht="42.0" customHeight="1">
-      <c r="D420" s="10"/>
-      <c r="G420" s="10"/>
+      <c r="D420" s="9"/>
+      <c r="G420" s="9"/>
     </row>
     <row r="421" ht="42.0" customHeight="1">
-      <c r="D421" s="10"/>
-      <c r="G421" s="10"/>
+      <c r="D421" s="9"/>
+      <c r="G421" s="9"/>
     </row>
     <row r="422" ht="42.0" customHeight="1">
-      <c r="D422" s="10"/>
-      <c r="G422" s="10"/>
+      <c r="D422" s="9"/>
+      <c r="G422" s="9"/>
     </row>
     <row r="423" ht="42.0" customHeight="1">
-      <c r="D423" s="10"/>
-      <c r="G423" s="10"/>
+      <c r="D423" s="9"/>
+      <c r="G423" s="9"/>
     </row>
     <row r="424" ht="42.0" customHeight="1">
-      <c r="D424" s="10"/>
-      <c r="G424" s="10"/>
+      <c r="D424" s="9"/>
+      <c r="G424" s="9"/>
     </row>
     <row r="425" ht="42.0" customHeight="1">
-      <c r="D425" s="10"/>
-      <c r="G425" s="10"/>
+      <c r="D425" s="9"/>
+      <c r="G425" s="9"/>
     </row>
     <row r="426" ht="42.0" customHeight="1">
-      <c r="D426" s="10"/>
-      <c r="G426" s="10"/>
+      <c r="D426" s="9"/>
+      <c r="G426" s="9"/>
     </row>
     <row r="427" ht="42.0" customHeight="1">
-      <c r="D427" s="10"/>
-      <c r="G427" s="10"/>
+      <c r="D427" s="9"/>
+      <c r="G427" s="9"/>
     </row>
     <row r="428" ht="42.0" customHeight="1">
-      <c r="D428" s="10"/>
-      <c r="G428" s="10"/>
+      <c r="D428" s="9"/>
+      <c r="G428" s="9"/>
     </row>
     <row r="429" ht="42.0" customHeight="1">
-      <c r="D429" s="10"/>
-      <c r="G429" s="10"/>
+      <c r="D429" s="9"/>
+      <c r="G429" s="9"/>
     </row>
     <row r="430" ht="42.0" customHeight="1">
-      <c r="D430" s="10"/>
-      <c r="G430" s="10"/>
+      <c r="D430" s="9"/>
+      <c r="G430" s="9"/>
     </row>
     <row r="431" ht="42.0" customHeight="1">
-      <c r="D431" s="10"/>
-      <c r="G431" s="10"/>
+      <c r="D431" s="9"/>
+      <c r="G431" s="9"/>
     </row>
     <row r="432" ht="42.0" customHeight="1">
-      <c r="D432" s="10"/>
-      <c r="G432" s="10"/>
+      <c r="D432" s="9"/>
+      <c r="G432" s="9"/>
     </row>
     <row r="433" ht="42.0" customHeight="1">
-      <c r="D433" s="10"/>
-      <c r="G433" s="10"/>
+      <c r="D433" s="9"/>
+      <c r="G433" s="9"/>
     </row>
     <row r="434" ht="42.0" customHeight="1">
-      <c r="D434" s="10"/>
-      <c r="G434" s="10"/>
+      <c r="D434" s="9"/>
+      <c r="G434" s="9"/>
     </row>
     <row r="435" ht="42.0" customHeight="1">
-      <c r="D435" s="10"/>
-      <c r="G435" s="10"/>
+      <c r="D435" s="9"/>
+      <c r="G435" s="9"/>
     </row>
     <row r="436" ht="42.0" customHeight="1">
-      <c r="D436" s="10"/>
-      <c r="G436" s="10"/>
+      <c r="D436" s="9"/>
+      <c r="G436" s="9"/>
     </row>
     <row r="437" ht="42.0" customHeight="1">
-      <c r="D437" s="10"/>
-      <c r="G437" s="10"/>
+      <c r="D437" s="9"/>
+      <c r="G437" s="9"/>
     </row>
     <row r="438" ht="42.0" customHeight="1">
-      <c r="D438" s="10"/>
-      <c r="G438" s="10"/>
+      <c r="D438" s="9"/>
+      <c r="G438" s="9"/>
     </row>
     <row r="439" ht="42.0" customHeight="1">
-      <c r="D439" s="10"/>
-      <c r="G439" s="10"/>
+      <c r="D439" s="9"/>
+      <c r="G439" s="9"/>
     </row>
     <row r="440" ht="42.0" customHeight="1">
-      <c r="D440" s="10"/>
-      <c r="G440" s="10"/>
+      <c r="D440" s="9"/>
+      <c r="G440" s="9"/>
     </row>
     <row r="441" ht="42.0" customHeight="1">
-      <c r="D441" s="10"/>
-      <c r="G441" s="10"/>
+      <c r="D441" s="9"/>
+      <c r="G441" s="9"/>
     </row>
     <row r="442" ht="42.0" customHeight="1">
-      <c r="D442" s="10"/>
-      <c r="G442" s="10"/>
+      <c r="D442" s="9"/>
+      <c r="G442" s="9"/>
     </row>
     <row r="443" ht="42.0" customHeight="1">
-      <c r="D443" s="10"/>
-      <c r="G443" s="10"/>
+      <c r="D443" s="9"/>
+      <c r="G443" s="9"/>
     </row>
     <row r="444" ht="42.0" customHeight="1">
-      <c r="D444" s="10"/>
-      <c r="G444" s="10"/>
+      <c r="D444" s="9"/>
+      <c r="G444" s="9"/>
     </row>
     <row r="445" ht="42.0" customHeight="1">
-      <c r="D445" s="10"/>
-      <c r="G445" s="10"/>
+      <c r="D445" s="9"/>
+      <c r="G445" s="9"/>
     </row>
     <row r="446" ht="42.0" customHeight="1">
-      <c r="D446" s="10"/>
-      <c r="G446" s="10"/>
+      <c r="D446" s="9"/>
+      <c r="G446" s="9"/>
     </row>
     <row r="447" ht="42.0" customHeight="1">
-      <c r="D447" s="10"/>
-      <c r="G447" s="10"/>
+      <c r="D447" s="9"/>
+      <c r="G447" s="9"/>
     </row>
     <row r="448" ht="42.0" customHeight="1">
-      <c r="D448" s="10"/>
-      <c r="G448" s="10"/>
+      <c r="D448" s="9"/>
+      <c r="G448" s="9"/>
     </row>
     <row r="449" ht="42.0" customHeight="1">
-      <c r="D449" s="10"/>
-      <c r="G449" s="10"/>
+      <c r="D449" s="9"/>
+      <c r="G449" s="9"/>
     </row>
     <row r="450" ht="42.0" customHeight="1">
-      <c r="D450" s="10"/>
-      <c r="G450" s="10"/>
+      <c r="D450" s="9"/>
+      <c r="G450" s="9"/>
     </row>
     <row r="451" ht="42.0" customHeight="1">
-      <c r="D451" s="10"/>
-      <c r="G451" s="10"/>
+      <c r="D451" s="9"/>
+      <c r="G451" s="9"/>
     </row>
     <row r="452" ht="42.0" customHeight="1">
-      <c r="D452" s="10"/>
-      <c r="G452" s="10"/>
+      <c r="D452" s="9"/>
+      <c r="G452" s="9"/>
     </row>
     <row r="453" ht="42.0" customHeight="1">
-      <c r="D453" s="10"/>
-      <c r="G453" s="10"/>
+      <c r="D453" s="9"/>
+      <c r="G453" s="9"/>
     </row>
     <row r="454" ht="42.0" customHeight="1">
-      <c r="D454" s="10"/>
-      <c r="G454" s="10"/>
+      <c r="D454" s="9"/>
+      <c r="G454" s="9"/>
     </row>
     <row r="455" ht="42.0" customHeight="1">
-      <c r="D455" s="10"/>
-      <c r="G455" s="10"/>
+      <c r="D455" s="9"/>
+      <c r="G455" s="9"/>
     </row>
     <row r="456" ht="42.0" customHeight="1">
-      <c r="D456" s="10"/>
-      <c r="G456" s="10"/>
+      <c r="D456" s="9"/>
+      <c r="G456" s="9"/>
     </row>
     <row r="457" ht="42.0" customHeight="1">
-      <c r="D457" s="10"/>
-      <c r="G457" s="10"/>
+      <c r="D457" s="9"/>
+      <c r="G457" s="9"/>
     </row>
     <row r="458" ht="42.0" customHeight="1">
-      <c r="D458" s="10"/>
-      <c r="G458" s="10"/>
+      <c r="D458" s="9"/>
+      <c r="G458" s="9"/>
     </row>
     <row r="459" ht="42.0" customHeight="1">
-      <c r="D459" s="10"/>
-      <c r="G459" s="10"/>
+      <c r="D459" s="9"/>
+      <c r="G459" s="9"/>
     </row>
     <row r="460" ht="42.0" customHeight="1">
-      <c r="D460" s="10"/>
-      <c r="G460" s="10"/>
+      <c r="D460" s="9"/>
+      <c r="G460" s="9"/>
     </row>
     <row r="461" ht="42.0" customHeight="1">
-      <c r="D461" s="10"/>
-      <c r="G461" s="10"/>
+      <c r="D461" s="9"/>
+      <c r="G461" s="9"/>
     </row>
     <row r="462" ht="42.0" customHeight="1">
-      <c r="D462" s="10"/>
-      <c r="G462" s="10"/>
+      <c r="D462" s="9"/>
+      <c r="G462" s="9"/>
     </row>
     <row r="463" ht="42.0" customHeight="1">
-      <c r="D463" s="10"/>
-      <c r="G463" s="10"/>
+      <c r="D463" s="9"/>
+      <c r="G463" s="9"/>
     </row>
     <row r="464" ht="42.0" customHeight="1">
-      <c r="D464" s="10"/>
-      <c r="G464" s="10"/>
+      <c r="D464" s="9"/>
+      <c r="G464" s="9"/>
     </row>
     <row r="465" ht="42.0" customHeight="1">
-      <c r="D465" s="10"/>
-      <c r="G465" s="10"/>
+      <c r="D465" s="9"/>
+      <c r="G465" s="9"/>
     </row>
     <row r="466" ht="42.0" customHeight="1">
-      <c r="D466" s="10"/>
-      <c r="G466" s="10"/>
+      <c r="D466" s="9"/>
+      <c r="G466" s="9"/>
     </row>
     <row r="467" ht="42.0" customHeight="1">
-      <c r="D467" s="10"/>
-      <c r="G467" s="10"/>
+      <c r="D467" s="9"/>
+      <c r="G467" s="9"/>
     </row>
     <row r="468" ht="42.0" customHeight="1">
-      <c r="D468" s="10"/>
-      <c r="G468" s="10"/>
+      <c r="D468" s="9"/>
+      <c r="G468" s="9"/>
     </row>
     <row r="469" ht="42.0" customHeight="1">
-      <c r="D469" s="10"/>
-      <c r="G469" s="10"/>
+      <c r="D469" s="9"/>
+      <c r="G469" s="9"/>
     </row>
     <row r="470" ht="42.0" customHeight="1">
-      <c r="D470" s="10"/>
-      <c r="G470" s="10"/>
+      <c r="D470" s="9"/>
+      <c r="G470" s="9"/>
     </row>
     <row r="471" ht="42.0" customHeight="1">
-      <c r="D471" s="10"/>
-      <c r="G471" s="10"/>
+      <c r="D471" s="9"/>
+      <c r="G471" s="9"/>
     </row>
     <row r="472" ht="42.0" customHeight="1">
-      <c r="D472" s="10"/>
-      <c r="G472" s="10"/>
+      <c r="D472" s="9"/>
+      <c r="G472" s="9"/>
     </row>
     <row r="473" ht="42.0" customHeight="1">
-      <c r="D473" s="10"/>
-      <c r="G473" s="10"/>
+      <c r="D473" s="9"/>
+      <c r="G473" s="9"/>
     </row>
     <row r="474" ht="42.0" customHeight="1">
-      <c r="D474" s="10"/>
-      <c r="G474" s="10"/>
+      <c r="D474" s="9"/>
+      <c r="G474" s="9"/>
     </row>
     <row r="475" ht="42.0" customHeight="1">
-      <c r="D475" s="10"/>
-      <c r="G475" s="10"/>
+      <c r="D475" s="9"/>
+      <c r="G475" s="9"/>
     </row>
     <row r="476" ht="42.0" customHeight="1">
-      <c r="D476" s="10"/>
-      <c r="G476" s="10"/>
+      <c r="D476" s="9"/>
+      <c r="G476" s="9"/>
     </row>
     <row r="477" ht="42.0" customHeight="1">
-      <c r="D477" s="10"/>
-      <c r="G477" s="10"/>
+      <c r="D477" s="9"/>
+      <c r="G477" s="9"/>
     </row>
     <row r="478" ht="42.0" customHeight="1">
-      <c r="D478" s="10"/>
-      <c r="G478" s="10"/>
+      <c r="D478" s="9"/>
+      <c r="G478" s="9"/>
     </row>
     <row r="479" ht="42.0" customHeight="1">
-      <c r="D479" s="10"/>
-      <c r="G479" s="10"/>
+      <c r="D479" s="9"/>
+      <c r="G479" s="9"/>
     </row>
     <row r="480" ht="42.0" customHeight="1">
-      <c r="D480" s="10"/>
-      <c r="G480" s="10"/>
+      <c r="D480" s="9"/>
+      <c r="G480" s="9"/>
     </row>
     <row r="481" ht="42.0" customHeight="1">
-      <c r="D481" s="10"/>
-      <c r="G481" s="10"/>
+      <c r="D481" s="9"/>
+      <c r="G481" s="9"/>
     </row>
     <row r="482" ht="42.0" customHeight="1">
-      <c r="D482" s="10"/>
-      <c r="G482" s="10"/>
+      <c r="D482" s="9"/>
+      <c r="G482" s="9"/>
     </row>
     <row r="483" ht="42.0" customHeight="1">
-      <c r="D483" s="10"/>
-      <c r="G483" s="10"/>
+      <c r="D483" s="9"/>
+      <c r="G483" s="9"/>
     </row>
     <row r="484" ht="42.0" customHeight="1">
-      <c r="D484" s="10"/>
-      <c r="G484" s="10"/>
+      <c r="D484" s="9"/>
+      <c r="G484" s="9"/>
     </row>
     <row r="485" ht="42.0" customHeight="1">
-      <c r="D485" s="10"/>
-      <c r="G485" s="10"/>
+      <c r="D485" s="9"/>
+      <c r="G485" s="9"/>
     </row>
     <row r="486" ht="42.0" customHeight="1">
-      <c r="D486" s="10"/>
-      <c r="G486" s="10"/>
+      <c r="D486" s="9"/>
+      <c r="G486" s="9"/>
     </row>
     <row r="487" ht="42.0" customHeight="1">
-      <c r="D487" s="10"/>
-      <c r="G487" s="10"/>
+      <c r="D487" s="9"/>
+      <c r="G487" s="9"/>
     </row>
     <row r="488" ht="42.0" customHeight="1">
-      <c r="D488" s="10"/>
-      <c r="G488" s="10"/>
+      <c r="D488" s="9"/>
+      <c r="G488" s="9"/>
     </row>
     <row r="489" ht="42.0" customHeight="1">
-      <c r="D489" s="10"/>
-      <c r="G489" s="10"/>
+      <c r="D489" s="9"/>
+      <c r="G489" s="9"/>
     </row>
     <row r="490" ht="42.0" customHeight="1">
-      <c r="D490" s="10"/>
-      <c r="G490" s="10"/>
+      <c r="D490" s="9"/>
+      <c r="G490" s="9"/>
     </row>
     <row r="491" ht="42.0" customHeight="1">
-      <c r="D491" s="10"/>
-      <c r="G491" s="10"/>
+      <c r="D491" s="9"/>
+      <c r="G491" s="9"/>
     </row>
     <row r="492" ht="42.0" customHeight="1">
-      <c r="D492" s="10"/>
-      <c r="G492" s="10"/>
+      <c r="D492" s="9"/>
+      <c r="G492" s="9"/>
     </row>
     <row r="493" ht="42.0" customHeight="1">
-      <c r="D493" s="10"/>
-      <c r="G493" s="10"/>
+      <c r="D493" s="9"/>
+      <c r="G493" s="9"/>
     </row>
     <row r="494" ht="42.0" customHeight="1">
-      <c r="D494" s="10"/>
-      <c r="G494" s="10"/>
+      <c r="D494" s="9"/>
+      <c r="G494" s="9"/>
     </row>
     <row r="495" ht="42.0" customHeight="1">
-      <c r="D495" s="10"/>
-      <c r="G495" s="10"/>
+      <c r="D495" s="9"/>
+      <c r="G495" s="9"/>
     </row>
     <row r="496" ht="42.0" customHeight="1">
-      <c r="D496" s="10"/>
-      <c r="G496" s="10"/>
+      <c r="D496" s="9"/>
+      <c r="G496" s="9"/>
     </row>
     <row r="497" ht="42.0" customHeight="1">
-      <c r="D497" s="10"/>
-      <c r="G497" s="10"/>
+      <c r="D497" s="9"/>
+      <c r="G497" s="9"/>
     </row>
     <row r="498" ht="42.0" customHeight="1">
-      <c r="D498" s="10"/>
-      <c r="G498" s="10"/>
+      <c r="D498" s="9"/>
+      <c r="G498" s="9"/>
     </row>
     <row r="499" ht="42.0" customHeight="1">
-      <c r="D499" s="10"/>
-      <c r="G499" s="10"/>
+      <c r="D499" s="9"/>
+      <c r="G499" s="9"/>
     </row>
     <row r="500" ht="42.0" customHeight="1">
-      <c r="D500" s="10"/>
-      <c r="G500" s="10"/>
+      <c r="D500" s="9"/>
+      <c r="G500" s="9"/>
     </row>
     <row r="501" ht="42.0" customHeight="1">
-      <c r="D501" s="10"/>
-      <c r="G501" s="10"/>
+      <c r="D501" s="9"/>
+      <c r="G501" s="9"/>
     </row>
     <row r="502" ht="42.0" customHeight="1">
-      <c r="D502" s="10"/>
-      <c r="G502" s="10"/>
+      <c r="D502" s="9"/>
+      <c r="G502" s="9"/>
     </row>
     <row r="503" ht="42.0" customHeight="1">
-      <c r="D503" s="10"/>
-      <c r="G503" s="10"/>
+      <c r="D503" s="9"/>
+      <c r="G503" s="9"/>
     </row>
     <row r="504" ht="42.0" customHeight="1">
-      <c r="D504" s="10"/>
-      <c r="G504" s="10"/>
+      <c r="D504" s="9"/>
+      <c r="G504" s="9"/>
     </row>
     <row r="505" ht="42.0" customHeight="1">
-      <c r="D505" s="10"/>
-      <c r="G505" s="10"/>
+      <c r="D505" s="9"/>
+      <c r="G505" s="9"/>
     </row>
     <row r="506" ht="42.0" customHeight="1">
-      <c r="D506" s="10"/>
-      <c r="G506" s="10"/>
+      <c r="D506" s="9"/>
+      <c r="G506" s="9"/>
     </row>
     <row r="507" ht="42.0" customHeight="1">
-      <c r="D507" s="10"/>
-      <c r="G507" s="10"/>
+      <c r="D507" s="9"/>
+      <c r="G507" s="9"/>
     </row>
     <row r="508" ht="42.0" customHeight="1">
-      <c r="D508" s="10"/>
-      <c r="G508" s="10"/>
+      <c r="D508" s="9"/>
+      <c r="G508" s="9"/>
     </row>
     <row r="509" ht="42.0" customHeight="1">
-      <c r="D509" s="10"/>
-      <c r="G509" s="10"/>
+      <c r="D509" s="9"/>
+      <c r="G509" s="9"/>
     </row>
     <row r="510" ht="42.0" customHeight="1">
-      <c r="D510" s="10"/>
-      <c r="G510" s="10"/>
+      <c r="D510" s="9"/>
+      <c r="G510" s="9"/>
     </row>
     <row r="511" ht="42.0" customHeight="1">
-      <c r="D511" s="10"/>
-      <c r="G511" s="10"/>
+      <c r="D511" s="9"/>
+      <c r="G511" s="9"/>
     </row>
     <row r="512" ht="42.0" customHeight="1">
-      <c r="D512" s="10"/>
-      <c r="G512" s="10"/>
+      <c r="D512" s="9"/>
+      <c r="G512" s="9"/>
     </row>
     <row r="513" ht="42.0" customHeight="1">
-      <c r="D513" s="10"/>
-      <c r="G513" s="10"/>
+      <c r="D513" s="9"/>
+      <c r="G513" s="9"/>
     </row>
     <row r="514" ht="42.0" customHeight="1">
-      <c r="D514" s="10"/>
-      <c r="G514" s="10"/>
+      <c r="D514" s="9"/>
+      <c r="G514" s="9"/>
     </row>
     <row r="515" ht="42.0" customHeight="1">
-      <c r="D515" s="10"/>
-      <c r="G515" s="10"/>
+      <c r="D515" s="9"/>
+      <c r="G515" s="9"/>
     </row>
     <row r="516" ht="42.0" customHeight="1">
-      <c r="D516" s="10"/>
-      <c r="G516" s="10"/>
+      <c r="D516" s="9"/>
+      <c r="G516" s="9"/>
     </row>
     <row r="517" ht="42.0" customHeight="1">
-      <c r="D517" s="10"/>
-      <c r="G517" s="10"/>
+      <c r="D517" s="9"/>
+      <c r="G517" s="9"/>
     </row>
     <row r="518" ht="42.0" customHeight="1">
-      <c r="D518" s="10"/>
-      <c r="G518" s="10"/>
+      <c r="D518" s="9"/>
+      <c r="G518" s="9"/>
     </row>
     <row r="519" ht="42.0" customHeight="1">
-      <c r="D519" s="10"/>
-      <c r="G519" s="10"/>
+      <c r="D519" s="9"/>
+      <c r="G519" s="9"/>
     </row>
     <row r="520" ht="42.0" customHeight="1">
-      <c r="D520" s="10"/>
-      <c r="G520" s="10"/>
+      <c r="D520" s="9"/>
+      <c r="G520" s="9"/>
     </row>
     <row r="521" ht="42.0" customHeight="1">
-      <c r="D521" s="10"/>
-      <c r="G521" s="10"/>
+      <c r="D521" s="9"/>
+      <c r="G521" s="9"/>
     </row>
     <row r="522" ht="42.0" customHeight="1">
-      <c r="D522" s="10"/>
-      <c r="G522" s="10"/>
+      <c r="D522" s="9"/>
+      <c r="G522" s="9"/>
     </row>
     <row r="523" ht="42.0" customHeight="1">
-      <c r="D523" s="10"/>
-      <c r="G523" s="10"/>
+      <c r="D523" s="9"/>
+      <c r="G523" s="9"/>
     </row>
     <row r="524" ht="42.0" customHeight="1">
-      <c r="D524" s="10"/>
-      <c r="G524" s="10"/>
+      <c r="D524" s="9"/>
+      <c r="G524" s="9"/>
     </row>
     <row r="525" ht="42.0" customHeight="1">
-      <c r="D525" s="10"/>
-      <c r="G525" s="10"/>
+      <c r="D525" s="9"/>
+      <c r="G525" s="9"/>
     </row>
     <row r="526" ht="42.0" customHeight="1">
-      <c r="D526" s="10"/>
-      <c r="G526" s="10"/>
+      <c r="D526" s="9"/>
+      <c r="G526" s="9"/>
     </row>
     <row r="527" ht="42.0" customHeight="1">
-      <c r="D527" s="10"/>
-      <c r="G527" s="10"/>
+      <c r="D527" s="9"/>
+      <c r="G527" s="9"/>
     </row>
     <row r="528" ht="42.0" customHeight="1">
-      <c r="D528" s="10"/>
-      <c r="G528" s="10"/>
+      <c r="D528" s="9"/>
+      <c r="G528" s="9"/>
     </row>
     <row r="529" ht="42.0" customHeight="1">
-      <c r="D529" s="10"/>
-      <c r="G529" s="10"/>
+      <c r="D529" s="9"/>
+      <c r="G529" s="9"/>
     </row>
     <row r="530" ht="42.0" customHeight="1">
-      <c r="D530" s="10"/>
-      <c r="G530" s="10"/>
+      <c r="D530" s="9"/>
+      <c r="G530" s="9"/>
     </row>
     <row r="531" ht="42.0" customHeight="1">
-      <c r="D531" s="10"/>
-      <c r="G531" s="10"/>
+      <c r="D531" s="9"/>
+      <c r="G531" s="9"/>
     </row>
     <row r="532" ht="42.0" customHeight="1">
-      <c r="D532" s="10"/>
-      <c r="G532" s="10"/>
+      <c r="D532" s="9"/>
+      <c r="G532" s="9"/>
     </row>
     <row r="533" ht="42.0" customHeight="1">
-      <c r="D533" s="10"/>
-      <c r="G533" s="10"/>
+      <c r="D533" s="9"/>
+      <c r="G533" s="9"/>
     </row>
     <row r="534" ht="42.0" customHeight="1">
-      <c r="D534" s="10"/>
-      <c r="G534" s="10"/>
+      <c r="D534" s="9"/>
+      <c r="G534" s="9"/>
     </row>
     <row r="535" ht="42.0" customHeight="1">
-      <c r="D535" s="10"/>
-      <c r="G535" s="10"/>
+      <c r="D535" s="9"/>
+      <c r="G535" s="9"/>
     </row>
     <row r="536" ht="42.0" customHeight="1">
-      <c r="D536" s="10"/>
-      <c r="G536" s="10"/>
+      <c r="D536" s="9"/>
+      <c r="G536" s="9"/>
     </row>
     <row r="537" ht="42.0" customHeight="1">
-      <c r="D537" s="10"/>
-      <c r="G537" s="10"/>
+      <c r="D537" s="9"/>
+      <c r="G537" s="9"/>
     </row>
     <row r="538" ht="42.0" customHeight="1">
-      <c r="D538" s="10"/>
-      <c r="G538" s="10"/>
+      <c r="D538" s="9"/>
+      <c r="G538" s="9"/>
     </row>
     <row r="539" ht="42.0" customHeight="1">
-      <c r="D539" s="10"/>
-      <c r="G539" s="10"/>
+      <c r="D539" s="9"/>
+      <c r="G539" s="9"/>
     </row>
     <row r="540" ht="42.0" customHeight="1">
-      <c r="D540" s="10"/>
-      <c r="G540" s="10"/>
+      <c r="D540" s="9"/>
+      <c r="G540" s="9"/>
     </row>
     <row r="541" ht="42.0" customHeight="1">
-      <c r="D541" s="10"/>
-      <c r="G541" s="10"/>
+      <c r="D541" s="9"/>
+      <c r="G541" s="9"/>
     </row>
     <row r="542" ht="42.0" customHeight="1">
-      <c r="D542" s="10"/>
-      <c r="G542" s="10"/>
+      <c r="D542" s="9"/>
+      <c r="G542" s="9"/>
     </row>
     <row r="543" ht="42.0" customHeight="1">
-      <c r="D543" s="10"/>
-      <c r="G543" s="10"/>
+      <c r="D543" s="9"/>
+      <c r="G543" s="9"/>
     </row>
     <row r="544" ht="42.0" customHeight="1">
-      <c r="D544" s="10"/>
-      <c r="G544" s="10"/>
+      <c r="D544" s="9"/>
+      <c r="G544" s="9"/>
     </row>
     <row r="545" ht="42.0" customHeight="1">
-      <c r="D545" s="10"/>
-      <c r="G545" s="10"/>
+      <c r="D545" s="9"/>
+      <c r="G545" s="9"/>
     </row>
     <row r="546" ht="42.0" customHeight="1">
-      <c r="D546" s="10"/>
-      <c r="G546" s="10"/>
+      <c r="D546" s="9"/>
+      <c r="G546" s="9"/>
     </row>
     <row r="547" ht="42.0" customHeight="1">
-      <c r="D547" s="10"/>
-      <c r="G547" s="10"/>
+      <c r="D547" s="9"/>
+      <c r="G547" s="9"/>
     </row>
     <row r="548" ht="42.0" customHeight="1">
-      <c r="D548" s="10"/>
-      <c r="G548" s="10"/>
+      <c r="D548" s="9"/>
+      <c r="G548" s="9"/>
     </row>
     <row r="549" ht="42.0" customHeight="1">
-      <c r="D549" s="10"/>
-      <c r="G549" s="10"/>
+      <c r="D549" s="9"/>
+      <c r="G549" s="9"/>
     </row>
     <row r="550" ht="42.0" customHeight="1">
-      <c r="D550" s="10"/>
-      <c r="G550" s="10"/>
+      <c r="D550" s="9"/>
+      <c r="G550" s="9"/>
     </row>
     <row r="551" ht="42.0" customHeight="1">
-      <c r="D551" s="10"/>
-      <c r="G551" s="10"/>
+      <c r="D551" s="9"/>
+      <c r="G551" s="9"/>
     </row>
     <row r="552" ht="42.0" customHeight="1">
-      <c r="D552" s="10"/>
-      <c r="G552" s="10"/>
+      <c r="D552" s="9"/>
+      <c r="G552" s="9"/>
     </row>
     <row r="553" ht="42.0" customHeight="1">
-      <c r="D553" s="10"/>
-      <c r="G553" s="10"/>
+      <c r="D553" s="9"/>
+      <c r="G553" s="9"/>
     </row>
     <row r="554" ht="42.0" customHeight="1">
-      <c r="D554" s="10"/>
-      <c r="G554" s="10"/>
+      <c r="D554" s="9"/>
+      <c r="G554" s="9"/>
     </row>
     <row r="555" ht="42.0" customHeight="1">
-      <c r="D555" s="10"/>
-      <c r="G555" s="10"/>
+      <c r="D555" s="9"/>
+      <c r="G555" s="9"/>
     </row>
     <row r="556" ht="42.0" customHeight="1">
-      <c r="D556" s="10"/>
-      <c r="G556" s="10"/>
+      <c r="D556" s="9"/>
+      <c r="G556" s="9"/>
     </row>
     <row r="557" ht="42.0" customHeight="1">
-      <c r="D557" s="10"/>
-      <c r="G557" s="10"/>
+      <c r="D557" s="9"/>
+      <c r="G557" s="9"/>
     </row>
     <row r="558" ht="42.0" customHeight="1">
-      <c r="D558" s="10"/>
-      <c r="G558" s="10"/>
+      <c r="D558" s="9"/>
+      <c r="G558" s="9"/>
     </row>
     <row r="559" ht="42.0" customHeight="1">
-      <c r="D559" s="10"/>
-      <c r="G559" s="10"/>
+      <c r="D559" s="9"/>
+      <c r="G559" s="9"/>
     </row>
     <row r="560" ht="42.0" customHeight="1">
-      <c r="D560" s="10"/>
-      <c r="G560" s="10"/>
+      <c r="D560" s="9"/>
+      <c r="G560" s="9"/>
     </row>
     <row r="561" ht="42.0" customHeight="1">
-      <c r="D561" s="10"/>
-      <c r="G561" s="10"/>
+      <c r="D561" s="9"/>
+      <c r="G561" s="9"/>
     </row>
     <row r="562" ht="42.0" customHeight="1">
-      <c r="D562" s="10"/>
-      <c r="G562" s="10"/>
+      <c r="D562" s="9"/>
+      <c r="G562" s="9"/>
     </row>
     <row r="563" ht="42.0" customHeight="1">
-      <c r="D563" s="10"/>
-      <c r="G563" s="10"/>
+      <c r="D563" s="9"/>
+      <c r="G563" s="9"/>
     </row>
     <row r="564" ht="42.0" customHeight="1">
-      <c r="D564" s="10"/>
-      <c r="G564" s="10"/>
+      <c r="D564" s="9"/>
+      <c r="G564" s="9"/>
     </row>
     <row r="565" ht="42.0" customHeight="1">
-      <c r="D565" s="10"/>
-      <c r="G565" s="10"/>
+      <c r="D565" s="9"/>
+      <c r="G565" s="9"/>
     </row>
     <row r="566" ht="42.0" customHeight="1">
-      <c r="D566" s="10"/>
-      <c r="G566" s="10"/>
+      <c r="D566" s="9"/>
+      <c r="G566" s="9"/>
     </row>
     <row r="567" ht="42.0" customHeight="1">
-      <c r="D567" s="10"/>
-      <c r="G567" s="10"/>
+      <c r="D567" s="9"/>
+      <c r="G567" s="9"/>
     </row>
     <row r="568" ht="42.0" customHeight="1">
-      <c r="D568" s="10"/>
-      <c r="G568" s="10"/>
+      <c r="D568" s="9"/>
+      <c r="G568" s="9"/>
     </row>
     <row r="569" ht="42.0" customHeight="1">
-      <c r="D569" s="10"/>
-      <c r="G569" s="10"/>
+      <c r="D569" s="9"/>
+      <c r="G569" s="9"/>
     </row>
     <row r="570" ht="42.0" customHeight="1">
-      <c r="D570" s="10"/>
-      <c r="G570" s="10"/>
+      <c r="D570" s="9"/>
+      <c r="G570" s="9"/>
     </row>
     <row r="571" ht="42.0" customHeight="1">
-      <c r="D571" s="10"/>
-      <c r="G571" s="10"/>
+      <c r="D571" s="9"/>
+      <c r="G571" s="9"/>
     </row>
     <row r="572" ht="42.0" customHeight="1">
-      <c r="D572" s="10"/>
-      <c r="G572" s="10"/>
+      <c r="D572" s="9"/>
+      <c r="G572" s="9"/>
     </row>
     <row r="573" ht="42.0" customHeight="1">
-      <c r="D573" s="10"/>
-      <c r="G573" s="10"/>
+      <c r="D573" s="9"/>
+      <c r="G573" s="9"/>
     </row>
     <row r="574" ht="42.0" customHeight="1">
-      <c r="D574" s="10"/>
-      <c r="G574" s="10"/>
+      <c r="D574" s="9"/>
+      <c r="G574" s="9"/>
     </row>
     <row r="575" ht="42.0" customHeight="1">
-      <c r="D575" s="10"/>
-      <c r="G575" s="10"/>
+      <c r="D575" s="9"/>
+      <c r="G575" s="9"/>
     </row>
     <row r="576" ht="42.0" customHeight="1">
-      <c r="D576" s="10"/>
-      <c r="G576" s="10"/>
+      <c r="D576" s="9"/>
+      <c r="G576" s="9"/>
     </row>
     <row r="577" ht="42.0" customHeight="1">
-      <c r="D577" s="10"/>
-      <c r="G577" s="10"/>
+      <c r="D577" s="9"/>
+      <c r="G577" s="9"/>
     </row>
     <row r="578" ht="42.0" customHeight="1">
-      <c r="D578" s="10"/>
-      <c r="G578" s="10"/>
+      <c r="D578" s="9"/>
+      <c r="G578" s="9"/>
     </row>
     <row r="579" ht="42.0" customHeight="1">
-      <c r="D579" s="10"/>
-      <c r="G579" s="10"/>
+      <c r="D579" s="9"/>
+      <c r="G579" s="9"/>
     </row>
     <row r="580" ht="42.0" customHeight="1">
-      <c r="D580" s="10"/>
-      <c r="G580" s="10"/>
+      <c r="D580" s="9"/>
+      <c r="G580" s="9"/>
     </row>
     <row r="581" ht="42.0" customHeight="1">
-      <c r="D581" s="10"/>
-      <c r="G581" s="10"/>
+      <c r="D581" s="9"/>
+      <c r="G581" s="9"/>
     </row>
     <row r="582" ht="42.0" customHeight="1">
-      <c r="D582" s="10"/>
-      <c r="G582" s="10"/>
+      <c r="D582" s="9"/>
+      <c r="G582" s="9"/>
     </row>
     <row r="583" ht="42.0" customHeight="1">
-      <c r="D583" s="10"/>
-      <c r="G583" s="10"/>
+      <c r="D583" s="9"/>
+      <c r="G583" s="9"/>
     </row>
     <row r="584" ht="42.0" customHeight="1">
-      <c r="D584" s="10"/>
-      <c r="G584" s="10"/>
+      <c r="D584" s="9"/>
+      <c r="G584" s="9"/>
     </row>
     <row r="585" ht="42.0" customHeight="1">
-      <c r="D585" s="10"/>
-      <c r="G585" s="10"/>
+      <c r="D585" s="9"/>
+      <c r="G585" s="9"/>
     </row>
     <row r="586" ht="42.0" customHeight="1">
-      <c r="D586" s="10"/>
-      <c r="G586" s="10"/>
+      <c r="D586" s="9"/>
+      <c r="G586" s="9"/>
     </row>
     <row r="587" ht="42.0" customHeight="1">
-      <c r="D587" s="10"/>
-      <c r="G587" s="10"/>
+      <c r="D587" s="9"/>
+      <c r="G587" s="9"/>
     </row>
     <row r="588" ht="42.0" customHeight="1">
-      <c r="D588" s="10"/>
-      <c r="G588" s="10"/>
+      <c r="D588" s="9"/>
+      <c r="G588" s="9"/>
     </row>
     <row r="589" ht="42.0" customHeight="1">
-      <c r="D589" s="10"/>
-      <c r="G589" s="10"/>
+      <c r="D589" s="9"/>
+      <c r="G589" s="9"/>
     </row>
     <row r="590" ht="42.0" customHeight="1">
-      <c r="D590" s="10"/>
-      <c r="G590" s="10"/>
+      <c r="D590" s="9"/>
+      <c r="G590" s="9"/>
     </row>
     <row r="591" ht="42.0" customHeight="1">
-      <c r="D591" s="10"/>
-      <c r="G591" s="10"/>
+      <c r="D591" s="9"/>
+      <c r="G591" s="9"/>
     </row>
     <row r="592" ht="42.0" customHeight="1">
-      <c r="D592" s="10"/>
-      <c r="G592" s="10"/>
+      <c r="D592" s="9"/>
+      <c r="G592" s="9"/>
     </row>
     <row r="593" ht="42.0" customHeight="1">
-      <c r="D593" s="10"/>
-      <c r="G593" s="10"/>
+      <c r="D593" s="9"/>
+      <c r="G593" s="9"/>
     </row>
     <row r="594" ht="42.0" customHeight="1">
-      <c r="D594" s="10"/>
-      <c r="G594" s="10"/>
+      <c r="D594" s="9"/>
+      <c r="G594" s="9"/>
     </row>
     <row r="595" ht="42.0" customHeight="1">
-      <c r="D595" s="10"/>
-      <c r="G595" s="10"/>
+      <c r="D595" s="9"/>
+      <c r="G595" s="9"/>
     </row>
     <row r="596" ht="42.0" customHeight="1">
-      <c r="D596" s="10"/>
-      <c r="G596" s="10"/>
+      <c r="D596" s="9"/>
+      <c r="G596" s="9"/>
     </row>
     <row r="597" ht="42.0" customHeight="1">
-      <c r="D597" s="10"/>
-      <c r="G597" s="10"/>
+      <c r="D597" s="9"/>
+      <c r="G597" s="9"/>
     </row>
     <row r="598" ht="42.0" customHeight="1">
-      <c r="D598" s="10"/>
-      <c r="G598" s="10"/>
+      <c r="D598" s="9"/>
+      <c r="G598" s="9"/>
     </row>
     <row r="599" ht="42.0" customHeight="1">
-      <c r="D599" s="10"/>
-      <c r="G599" s="10"/>
+      <c r="D599" s="9"/>
+      <c r="G599" s="9"/>
     </row>
     <row r="600" ht="42.0" customHeight="1">
-      <c r="D600" s="10"/>
-      <c r="G600" s="10"/>
+      <c r="D600" s="9"/>
+      <c r="G600" s="9"/>
     </row>
     <row r="601" ht="42.0" customHeight="1">
-      <c r="D601" s="10"/>
-      <c r="G601" s="10"/>
+      <c r="D601" s="9"/>
+      <c r="G601" s="9"/>
     </row>
     <row r="602" ht="42.0" customHeight="1">
-      <c r="D602" s="10"/>
-      <c r="G602" s="10"/>
+      <c r="D602" s="9"/>
+      <c r="G602" s="9"/>
     </row>
     <row r="603" ht="42.0" customHeight="1">
-      <c r="D603" s="10"/>
-      <c r="G603" s="10"/>
+      <c r="D603" s="9"/>
+      <c r="G603" s="9"/>
     </row>
     <row r="604" ht="42.0" customHeight="1">
-      <c r="D604" s="10"/>
-      <c r="G604" s="10"/>
+      <c r="D604" s="9"/>
+      <c r="G604" s="9"/>
     </row>
     <row r="605" ht="42.0" customHeight="1">
-      <c r="D605" s="10"/>
-      <c r="G605" s="10"/>
+      <c r="D605" s="9"/>
+      <c r="G605" s="9"/>
     </row>
     <row r="606" ht="42.0" customHeight="1">
-      <c r="D606" s="10"/>
-      <c r="G606" s="10"/>
+      <c r="D606" s="9"/>
+      <c r="G606" s="9"/>
     </row>
     <row r="607" ht="42.0" customHeight="1">
-      <c r="D607" s="10"/>
-      <c r="G607" s="10"/>
+      <c r="D607" s="9"/>
+      <c r="G607" s="9"/>
     </row>
     <row r="608" ht="42.0" customHeight="1">
-      <c r="D608" s="10"/>
-      <c r="G608" s="10"/>
+      <c r="D608" s="9"/>
+      <c r="G608" s="9"/>
     </row>
     <row r="609" ht="42.0" customHeight="1">
-      <c r="D609" s="10"/>
-      <c r="G609" s="10"/>
+      <c r="D609" s="9"/>
+      <c r="G609" s="9"/>
     </row>
     <row r="610" ht="42.0" customHeight="1">
-      <c r="D610" s="10"/>
-      <c r="G610" s="10"/>
+      <c r="D610" s="9"/>
+      <c r="G610" s="9"/>
     </row>
     <row r="611" ht="42.0" customHeight="1">
-      <c r="D611" s="10"/>
-      <c r="G611" s="10"/>
+      <c r="D611" s="9"/>
+      <c r="G611" s="9"/>
     </row>
     <row r="612" ht="42.0" customHeight="1">
-      <c r="D612" s="10"/>
-      <c r="G612" s="10"/>
+      <c r="D612" s="9"/>
+      <c r="G612" s="9"/>
     </row>
     <row r="613" ht="42.0" customHeight="1">
-      <c r="D613" s="10"/>
-      <c r="G613" s="10"/>
+      <c r="D613" s="9"/>
+      <c r="G613" s="9"/>
     </row>
     <row r="614" ht="42.0" customHeight="1">
-      <c r="D614" s="10"/>
-      <c r="G614" s="10"/>
+      <c r="D614" s="9"/>
+      <c r="G614" s="9"/>
     </row>
     <row r="615" ht="42.0" customHeight="1">
-      <c r="D615" s="10"/>
-      <c r="G615" s="10"/>
+      <c r="D615" s="9"/>
+      <c r="G615" s="9"/>
     </row>
     <row r="616" ht="42.0" customHeight="1">
-      <c r="D616" s="10"/>
-      <c r="G616" s="10"/>
+      <c r="D616" s="9"/>
+      <c r="G616" s="9"/>
     </row>
     <row r="617" ht="42.0" customHeight="1">
-      <c r="D617" s="10"/>
-      <c r="G617" s="10"/>
+      <c r="D617" s="9"/>
+      <c r="G617" s="9"/>
     </row>
     <row r="618" ht="42.0" customHeight="1">
-      <c r="D618" s="10"/>
-      <c r="G618" s="10"/>
+      <c r="D618" s="9"/>
+      <c r="G618" s="9"/>
     </row>
     <row r="619" ht="42.0" customHeight="1">
-      <c r="D619" s="10"/>
-      <c r="G619" s="10"/>
+      <c r="D619" s="9"/>
+      <c r="G619" s="9"/>
     </row>
     <row r="620" ht="42.0" customHeight="1">
-      <c r="D620" s="10"/>
-      <c r="G620" s="10"/>
+      <c r="D620" s="9"/>
+      <c r="G620" s="9"/>
     </row>
     <row r="621" ht="42.0" customHeight="1">
-      <c r="D621" s="10"/>
-      <c r="G621" s="10"/>
+      <c r="D621" s="9"/>
+      <c r="G621" s="9"/>
     </row>
     <row r="622" ht="42.0" customHeight="1">
-      <c r="D622" s="10"/>
-      <c r="G622" s="10"/>
+      <c r="D622" s="9"/>
+      <c r="G622" s="9"/>
     </row>
     <row r="623" ht="42.0" customHeight="1">
-      <c r="D623" s="10"/>
-      <c r="G623" s="10"/>
+      <c r="D623" s="9"/>
+      <c r="G623" s="9"/>
     </row>
     <row r="624" ht="42.0" customHeight="1">
-      <c r="D624" s="10"/>
-      <c r="G624" s="10"/>
+      <c r="D624" s="9"/>
+      <c r="G624" s="9"/>
     </row>
     <row r="625" ht="42.0" customHeight="1">
-      <c r="D625" s="10"/>
-      <c r="G625" s="10"/>
+      <c r="D625" s="9"/>
+      <c r="G625" s="9"/>
     </row>
     <row r="626" ht="42.0" customHeight="1">
-      <c r="D626" s="10"/>
-      <c r="G626" s="10"/>
+      <c r="D626" s="9"/>
+      <c r="G626" s="9"/>
     </row>
     <row r="627" ht="42.0" customHeight="1">
-      <c r="D627" s="10"/>
-      <c r="G627" s="10"/>
+      <c r="D627" s="9"/>
+      <c r="G627" s="9"/>
     </row>
     <row r="628" ht="42.0" customHeight="1">
-      <c r="D628" s="10"/>
-      <c r="G628" s="10"/>
+      <c r="D628" s="9"/>
+      <c r="G628" s="9"/>
     </row>
     <row r="629" ht="42.0" customHeight="1">
-      <c r="D629" s="10"/>
-      <c r="G629" s="10"/>
+      <c r="D629" s="9"/>
+      <c r="G629" s="9"/>
     </row>
     <row r="630" ht="42.0" customHeight="1">
-      <c r="D630" s="10"/>
-      <c r="G630" s="10"/>
+      <c r="D630" s="9"/>
+      <c r="G630" s="9"/>
     </row>
     <row r="631" ht="42.0" customHeight="1">
-      <c r="D631" s="10"/>
-      <c r="G631" s="10"/>
+      <c r="D631" s="9"/>
+      <c r="G631" s="9"/>
     </row>
     <row r="632" ht="42.0" customHeight="1">
-      <c r="D632" s="10"/>
-      <c r="G632" s="10"/>
+      <c r="D632" s="9"/>
+      <c r="G632" s="9"/>
     </row>
     <row r="633" ht="42.0" customHeight="1">
-      <c r="D633" s="10"/>
-      <c r="G633" s="10"/>
+      <c r="D633" s="9"/>
+      <c r="G633" s="9"/>
     </row>
     <row r="634" ht="42.0" customHeight="1">
-      <c r="D634" s="10"/>
-      <c r="G634" s="10"/>
+      <c r="D634" s="9"/>
+      <c r="G634" s="9"/>
     </row>
     <row r="635" ht="42.0" customHeight="1">
-      <c r="D635" s="10"/>
-      <c r="G635" s="10"/>
+      <c r="D635" s="9"/>
+      <c r="G635" s="9"/>
     </row>
     <row r="636" ht="42.0" customHeight="1">
-      <c r="D636" s="10"/>
-      <c r="G636" s="10"/>
+      <c r="D636" s="9"/>
+      <c r="G636" s="9"/>
     </row>
     <row r="637" ht="42.0" customHeight="1">
-      <c r="D637" s="10"/>
-      <c r="G637" s="10"/>
+      <c r="D637" s="9"/>
+      <c r="G637" s="9"/>
     </row>
     <row r="638" ht="42.0" customHeight="1">
-      <c r="D638" s="10"/>
-      <c r="G638" s="10"/>
+      <c r="D638" s="9"/>
+      <c r="G638" s="9"/>
     </row>
     <row r="639" ht="42.0" customHeight="1">
-      <c r="D639" s="10"/>
-      <c r="G639" s="10"/>
+      <c r="D639" s="9"/>
+      <c r="G639" s="9"/>
     </row>
     <row r="640" ht="42.0" customHeight="1">
-      <c r="D640" s="10"/>
-      <c r="G640" s="10"/>
+      <c r="D640" s="9"/>
+      <c r="G640" s="9"/>
     </row>
     <row r="641" ht="42.0" customHeight="1">
-      <c r="D641" s="10"/>
-      <c r="G641" s="10"/>
+      <c r="D641" s="9"/>
+      <c r="G641" s="9"/>
     </row>
     <row r="642" ht="42.0" customHeight="1">
-      <c r="D642" s="10"/>
-      <c r="G642" s="10"/>
+      <c r="D642" s="9"/>
+      <c r="G642" s="9"/>
     </row>
     <row r="643" ht="42.0" customHeight="1">
-      <c r="D643" s="10"/>
-      <c r="G643" s="10"/>
+      <c r="D643" s="9"/>
+      <c r="G643" s="9"/>
     </row>
     <row r="644" ht="42.0" customHeight="1">
-      <c r="D644" s="10"/>
-      <c r="G644" s="10"/>
+      <c r="D644" s="9"/>
+      <c r="G644" s="9"/>
     </row>
     <row r="645" ht="42.0" customHeight="1">
-      <c r="D645" s="10"/>
-      <c r="G645" s="10"/>
+      <c r="D645" s="9"/>
+      <c r="G645" s="9"/>
     </row>
     <row r="646" ht="42.0" customHeight="1">
-      <c r="D646" s="10"/>
-      <c r="G646" s="10"/>
+      <c r="D646" s="9"/>
+      <c r="G646" s="9"/>
     </row>
     <row r="647" ht="42.0" customHeight="1">
-      <c r="D647" s="10"/>
-      <c r="G647" s="10"/>
+      <c r="D647" s="9"/>
+      <c r="G647" s="9"/>
     </row>
     <row r="648" ht="42.0" customHeight="1">
-      <c r="D648" s="10"/>
-      <c r="G648" s="10"/>
+      <c r="D648" s="9"/>
+      <c r="G648" s="9"/>
     </row>
     <row r="649" ht="42.0" customHeight="1">
-      <c r="D649" s="10"/>
-      <c r="G649" s="10"/>
+      <c r="D649" s="9"/>
+      <c r="G649" s="9"/>
     </row>
     <row r="650" ht="42.0" customHeight="1">
-      <c r="D650" s="10"/>
-      <c r="G650" s="10"/>
+      <c r="D650" s="9"/>
+      <c r="G650" s="9"/>
     </row>
     <row r="651" ht="42.0" customHeight="1">
-      <c r="D651" s="10"/>
-      <c r="G651" s="10"/>
+      <c r="D651" s="9"/>
+      <c r="G651" s="9"/>
     </row>
     <row r="652" ht="42.0" customHeight="1">
-      <c r="D652" s="10"/>
-      <c r="G652" s="10"/>
+      <c r="D652" s="9"/>
+      <c r="G652" s="9"/>
     </row>
     <row r="653" ht="42.0" customHeight="1">
-      <c r="D653" s="10"/>
-      <c r="G653" s="10"/>
+      <c r="D653" s="9"/>
+      <c r="G653" s="9"/>
     </row>
     <row r="654" ht="42.0" customHeight="1">
-      <c r="D654" s="10"/>
-      <c r="G654" s="10"/>
+      <c r="D654" s="9"/>
+      <c r="G654" s="9"/>
     </row>
     <row r="655" ht="42.0" customHeight="1">
-      <c r="D655" s="10"/>
-      <c r="G655" s="10"/>
+      <c r="D655" s="9"/>
+      <c r="G655" s="9"/>
     </row>
     <row r="656" ht="42.0" customHeight="1">
-      <c r="D656" s="10"/>
-      <c r="G656" s="10"/>
+      <c r="D656" s="9"/>
+      <c r="G656" s="9"/>
     </row>
     <row r="657" ht="42.0" customHeight="1">
-      <c r="D657" s="10"/>
-      <c r="G657" s="10"/>
+      <c r="D657" s="9"/>
+      <c r="G657" s="9"/>
     </row>
     <row r="658" ht="42.0" customHeight="1">
-      <c r="D658" s="10"/>
-      <c r="G658" s="10"/>
+      <c r="D658" s="9"/>
+      <c r="G658" s="9"/>
     </row>
     <row r="659" ht="42.0" customHeight="1">
-      <c r="D659" s="10"/>
-      <c r="G659" s="10"/>
+      <c r="D659" s="9"/>
+      <c r="G659" s="9"/>
     </row>
     <row r="660" ht="42.0" customHeight="1">
-      <c r="D660" s="10"/>
-      <c r="G660" s="10"/>
+      <c r="D660" s="9"/>
+      <c r="G660" s="9"/>
     </row>
     <row r="661" ht="42.0" customHeight="1">
-      <c r="D661" s="10"/>
-      <c r="G661" s="10"/>
+      <c r="D661" s="9"/>
+      <c r="G661" s="9"/>
     </row>
     <row r="662" ht="42.0" customHeight="1">
-      <c r="D662" s="10"/>
-      <c r="G662" s="10"/>
+      <c r="D662" s="9"/>
+      <c r="G662" s="9"/>
     </row>
     <row r="663" ht="42.0" customHeight="1">
-      <c r="D663" s="10"/>
-      <c r="G663" s="10"/>
+      <c r="D663" s="9"/>
+      <c r="G663" s="9"/>
     </row>
     <row r="664" ht="42.0" customHeight="1">
-      <c r="D664" s="10"/>
-      <c r="G664" s="10"/>
+      <c r="D664" s="9"/>
+      <c r="G664" s="9"/>
     </row>
     <row r="665" ht="42.0" customHeight="1">
-      <c r="D665" s="10"/>
-      <c r="G665" s="10"/>
+      <c r="D665" s="9"/>
+      <c r="G665" s="9"/>
     </row>
     <row r="666" ht="42.0" customHeight="1">
-      <c r="D666" s="10"/>
-      <c r="G666" s="10"/>
+      <c r="D666" s="9"/>
+      <c r="G666" s="9"/>
     </row>
     <row r="667" ht="42.0" customHeight="1">
-      <c r="D667" s="10"/>
-      <c r="G667" s="10"/>
+      <c r="D667" s="9"/>
+      <c r="G667" s="9"/>
     </row>
     <row r="668" ht="42.0" customHeight="1">
-      <c r="D668" s="10"/>
-      <c r="G668" s="10"/>
+      <c r="D668" s="9"/>
+      <c r="G668" s="9"/>
     </row>
     <row r="669" ht="42.0" customHeight="1">
-      <c r="D669" s="10"/>
-      <c r="G669" s="10"/>
+      <c r="D669" s="9"/>
+      <c r="G669" s="9"/>
     </row>
     <row r="670" ht="42.0" customHeight="1">
-      <c r="D670" s="10"/>
-      <c r="G670" s="10"/>
+      <c r="D670" s="9"/>
+      <c r="G670" s="9"/>
     </row>
     <row r="671" ht="42.0" customHeight="1">
-      <c r="D671" s="10"/>
-      <c r="G671" s="10"/>
+      <c r="D671" s="9"/>
+      <c r="G671" s="9"/>
     </row>
     <row r="672" ht="42.0" customHeight="1">
-      <c r="D672" s="10"/>
-      <c r="G672" s="10"/>
+      <c r="D672" s="9"/>
+      <c r="G672" s="9"/>
     </row>
     <row r="673" ht="42.0" customHeight="1">
-      <c r="D673" s="10"/>
-      <c r="G673" s="10"/>
+      <c r="D673" s="9"/>
+      <c r="G673" s="9"/>
     </row>
     <row r="674" ht="42.0" customHeight="1">
-      <c r="D674" s="10"/>
-      <c r="G674" s="10"/>
+      <c r="D674" s="9"/>
+      <c r="G674" s="9"/>
     </row>
     <row r="675" ht="42.0" customHeight="1">
-      <c r="D675" s="10"/>
-      <c r="G675" s="10"/>
+      <c r="D675" s="9"/>
+      <c r="G675" s="9"/>
     </row>
     <row r="676" ht="42.0" customHeight="1">
-      <c r="D676" s="10"/>
-      <c r="G676" s="10"/>
+      <c r="D676" s="9"/>
+      <c r="G676" s="9"/>
     </row>
     <row r="677" ht="42.0" customHeight="1">
-      <c r="D677" s="10"/>
-      <c r="G677" s="10"/>
+      <c r="D677" s="9"/>
+      <c r="G677" s="9"/>
     </row>
     <row r="678" ht="42.0" customHeight="1">
-      <c r="D678" s="10"/>
-      <c r="G678" s="10"/>
+      <c r="D678" s="9"/>
+      <c r="G678" s="9"/>
     </row>
     <row r="679" ht="42.0" customHeight="1">
-      <c r="D679" s="10"/>
-      <c r="G679" s="10"/>
+      <c r="D679" s="9"/>
+      <c r="G679" s="9"/>
     </row>
     <row r="680" ht="42.0" customHeight="1">
-      <c r="D680" s="10"/>
-      <c r="G680" s="10"/>
+      <c r="D680" s="9"/>
+      <c r="G680" s="9"/>
     </row>
     <row r="681" ht="42.0" customHeight="1">
-      <c r="D681" s="10"/>
-      <c r="G681" s="10"/>
+      <c r="D681" s="9"/>
+      <c r="G681" s="9"/>
     </row>
     <row r="682" ht="42.0" customHeight="1">
-      <c r="D682" s="10"/>
-      <c r="G682" s="10"/>
+      <c r="D682" s="9"/>
+      <c r="G682" s="9"/>
     </row>
     <row r="683" ht="42.0" customHeight="1">
-      <c r="D683" s="10"/>
-      <c r="G683" s="10"/>
+      <c r="D683" s="9"/>
+      <c r="G683" s="9"/>
     </row>
     <row r="684" ht="42.0" customHeight="1">
-      <c r="D684" s="10"/>
-      <c r="G684" s="10"/>
+      <c r="D684" s="9"/>
+      <c r="G684" s="9"/>
     </row>
     <row r="685" ht="42.0" customHeight="1">
-      <c r="D685" s="10"/>
-      <c r="G685" s="10"/>
+      <c r="D685" s="9"/>
+      <c r="G685" s="9"/>
     </row>
     <row r="686" ht="42.0" customHeight="1">
-      <c r="D686" s="10"/>
-      <c r="G686" s="10"/>
+      <c r="D686" s="9"/>
+      <c r="G686" s="9"/>
     </row>
     <row r="687" ht="42.0" customHeight="1">
-      <c r="D687" s="10"/>
-      <c r="G687" s="10"/>
+      <c r="D687" s="9"/>
+      <c r="G687" s="9"/>
     </row>
     <row r="688" ht="42.0" customHeight="1">
-      <c r="D688" s="10"/>
-      <c r="G688" s="10"/>
+      <c r="D688" s="9"/>
+      <c r="G688" s="9"/>
     </row>
     <row r="689" ht="42.0" customHeight="1">
-      <c r="D689" s="10"/>
-      <c r="G689" s="10"/>
+      <c r="D689" s="9"/>
+      <c r="G689" s="9"/>
     </row>
     <row r="690" ht="42.0" customHeight="1">
-      <c r="D690" s="10"/>
-      <c r="G690" s="10"/>
+      <c r="D690" s="9"/>
+      <c r="G690" s="9"/>
     </row>
     <row r="691" ht="42.0" customHeight="1">
-      <c r="D691" s="10"/>
-      <c r="G691" s="10"/>
+      <c r="D691" s="9"/>
+      <c r="G691" s="9"/>
     </row>
     <row r="692" ht="42.0" customHeight="1">
-      <c r="D692" s="10"/>
-      <c r="G692" s="10"/>
+      <c r="D692" s="9"/>
+      <c r="G692" s="9"/>
     </row>
     <row r="693" ht="42.0" customHeight="1">
-      <c r="D693" s="10"/>
-      <c r="G693" s="10"/>
+      <c r="D693" s="9"/>
+      <c r="G693" s="9"/>
     </row>
     <row r="694" ht="42.0" customHeight="1">
-      <c r="D694" s="10"/>
-      <c r="G694" s="10"/>
+      <c r="D694" s="9"/>
+      <c r="G694" s="9"/>
     </row>
     <row r="695" ht="42.0" customHeight="1">
-      <c r="D695" s="10"/>
-      <c r="G695" s="10"/>
+      <c r="D695" s="9"/>
+      <c r="G695" s="9"/>
     </row>
     <row r="696" ht="42.0" customHeight="1">
-      <c r="D696" s="10"/>
-      <c r="G696" s="10"/>
+      <c r="D696" s="9"/>
+      <c r="G696" s="9"/>
     </row>
     <row r="697" ht="42.0" customHeight="1">
-      <c r="D697" s="10"/>
-      <c r="G697" s="10"/>
+      <c r="D697" s="9"/>
+      <c r="G697" s="9"/>
     </row>
     <row r="698" ht="42.0" customHeight="1">
-      <c r="D698" s="10"/>
-      <c r="G698" s="10"/>
+      <c r="D698" s="9"/>
+      <c r="G698" s="9"/>
     </row>
     <row r="699" ht="42.0" customHeight="1">
-      <c r="D699" s="10"/>
-      <c r="G699" s="10"/>
+      <c r="D699" s="9"/>
+      <c r="G699" s="9"/>
     </row>
     <row r="700" ht="42.0" customHeight="1">
-      <c r="D700" s="10"/>
-      <c r="G700" s="10"/>
+      <c r="D700" s="9"/>
+      <c r="G700" s="9"/>
     </row>
     <row r="701" ht="42.0" customHeight="1">
-      <c r="D701" s="10"/>
-      <c r="G701" s="10"/>
+      <c r="D701" s="9"/>
+      <c r="G701" s="9"/>
     </row>
     <row r="702" ht="42.0" customHeight="1">
-      <c r="D702" s="10"/>
-      <c r="G702" s="10"/>
+      <c r="D702" s="9"/>
+      <c r="G702" s="9"/>
     </row>
     <row r="703" ht="42.0" customHeight="1">
-      <c r="D703" s="10"/>
-      <c r="G703" s="10"/>
+      <c r="D703" s="9"/>
+      <c r="G703" s="9"/>
     </row>
     <row r="704" ht="42.0" customHeight="1">
-      <c r="D704" s="10"/>
-      <c r="G704" s="10"/>
+      <c r="D704" s="9"/>
+      <c r="G704" s="9"/>
     </row>
     <row r="705" ht="42.0" customHeight="1">
-      <c r="D705" s="10"/>
-      <c r="G705" s="10"/>
+      <c r="D705" s="9"/>
+      <c r="G705" s="9"/>
     </row>
     <row r="706" ht="42.0" customHeight="1">
-      <c r="D706" s="10"/>
-      <c r="G706" s="10"/>
+      <c r="D706" s="9"/>
+      <c r="G706" s="9"/>
     </row>
     <row r="707" ht="42.0" customHeight="1">
-      <c r="D707" s="10"/>
-      <c r="G707" s="10"/>
+      <c r="D707" s="9"/>
+      <c r="G707" s="9"/>
     </row>
     <row r="708" ht="42.0" customHeight="1">
-      <c r="D708" s="10"/>
-      <c r="G708" s="10"/>
+      <c r="D708" s="9"/>
+      <c r="G708" s="9"/>
     </row>
     <row r="709" ht="42.0" customHeight="1">
-      <c r="D709" s="10"/>
-      <c r="G709" s="10"/>
+      <c r="D709" s="9"/>
+      <c r="G709" s="9"/>
     </row>
     <row r="710" ht="42.0" customHeight="1">
-      <c r="D710" s="10"/>
-      <c r="G710" s="10"/>
+      <c r="D710" s="9"/>
+      <c r="G710" s="9"/>
     </row>
     <row r="711" ht="42.0" customHeight="1">
-      <c r="D711" s="10"/>
-      <c r="G711" s="10"/>
+      <c r="D711" s="9"/>
+      <c r="G711" s="9"/>
     </row>
     <row r="712" ht="42.0" customHeight="1">
-      <c r="D712" s="10"/>
-      <c r="G712" s="10"/>
+      <c r="D712" s="9"/>
+      <c r="G712" s="9"/>
     </row>
     <row r="713" ht="42.0" customHeight="1">
-      <c r="D713" s="10"/>
-      <c r="G713" s="10"/>
+      <c r="D713" s="9"/>
+      <c r="G713" s="9"/>
     </row>
     <row r="714" ht="42.0" customHeight="1">
-      <c r="D714" s="10"/>
-      <c r="G714" s="10"/>
+      <c r="D714" s="9"/>
+      <c r="G714" s="9"/>
     </row>
     <row r="715" ht="42.0" customHeight="1">
-      <c r="D715" s="10"/>
-      <c r="G715" s="10"/>
+      <c r="D715" s="9"/>
+      <c r="G715" s="9"/>
     </row>
     <row r="716" ht="42.0" customHeight="1">
-      <c r="D716" s="10"/>
-      <c r="G716" s="10"/>
+      <c r="D716" s="9"/>
+      <c r="G716" s="9"/>
     </row>
     <row r="717" ht="42.0" customHeight="1">
-      <c r="D717" s="10"/>
-      <c r="G717" s="10"/>
+      <c r="D717" s="9"/>
+      <c r="G717" s="9"/>
     </row>
     <row r="718" ht="42.0" customHeight="1">
-      <c r="D718" s="10"/>
-      <c r="G718" s="10"/>
+      <c r="D718" s="9"/>
+      <c r="G718" s="9"/>
     </row>
     <row r="719" ht="42.0" customHeight="1">
-      <c r="D719" s="10"/>
-      <c r="G719" s="10"/>
+      <c r="D719" s="9"/>
+      <c r="G719" s="9"/>
     </row>
     <row r="720" ht="42.0" customHeight="1">
-      <c r="D720" s="10"/>
-      <c r="G720" s="10"/>
+      <c r="D720" s="9"/>
+      <c r="G720" s="9"/>
     </row>
     <row r="721" ht="42.0" customHeight="1">
-      <c r="D721" s="10"/>
-      <c r="G721" s="10"/>
+      <c r="D721" s="9"/>
+      <c r="G721" s="9"/>
     </row>
     <row r="722" ht="42.0" customHeight="1">
-      <c r="D722" s="10"/>
-      <c r="G722" s="10"/>
+      <c r="D722" s="9"/>
+      <c r="G722" s="9"/>
     </row>
     <row r="723" ht="42.0" customHeight="1">
-      <c r="D723" s="10"/>
-      <c r="G723" s="10"/>
+      <c r="D723" s="9"/>
+      <c r="G723" s="9"/>
     </row>
     <row r="724" ht="42.0" customHeight="1">
-      <c r="D724" s="10"/>
-      <c r="G724" s="10"/>
+      <c r="D724" s="9"/>
+      <c r="G724" s="9"/>
     </row>
     <row r="725" ht="42.0" customHeight="1">
-      <c r="D725" s="10"/>
-      <c r="G725" s="10"/>
+      <c r="D725" s="9"/>
+      <c r="G725" s="9"/>
     </row>
     <row r="726" ht="42.0" customHeight="1">
-      <c r="D726" s="10"/>
-      <c r="G726" s="10"/>
+      <c r="D726" s="9"/>
+      <c r="G726" s="9"/>
     </row>
     <row r="727" ht="42.0" customHeight="1">
-      <c r="D727" s="10"/>
-      <c r="G727" s="10"/>
+      <c r="D727" s="9"/>
+      <c r="G727" s="9"/>
     </row>
     <row r="728" ht="42.0" customHeight="1">
-      <c r="D728" s="10"/>
-      <c r="G728" s="10"/>
+      <c r="D728" s="9"/>
+      <c r="G728" s="9"/>
     </row>
     <row r="729" ht="42.0" customHeight="1">
-      <c r="D729" s="10"/>
-      <c r="G729" s="10"/>
+      <c r="D729" s="9"/>
+      <c r="G729" s="9"/>
     </row>
     <row r="730" ht="42.0" customHeight="1">
-      <c r="D730" s="10"/>
-      <c r="G730" s="10"/>
+      <c r="D730" s="9"/>
+      <c r="G730" s="9"/>
     </row>
     <row r="731" ht="42.0" customHeight="1">
-      <c r="D731" s="10"/>
-      <c r="G731" s="10"/>
+      <c r="D731" s="9"/>
+      <c r="G731" s="9"/>
     </row>
     <row r="732" ht="42.0" customHeight="1">
-      <c r="D732" s="10"/>
-      <c r="G732" s="10"/>
+      <c r="D732" s="9"/>
+      <c r="G732" s="9"/>
     </row>
     <row r="733" ht="42.0" customHeight="1">
-      <c r="D733" s="10"/>
-      <c r="G733" s="10"/>
+      <c r="D733" s="9"/>
+      <c r="G733" s="9"/>
     </row>
     <row r="734" ht="42.0" customHeight="1">
-      <c r="D734" s="10"/>
-      <c r="G734" s="10"/>
+      <c r="D734" s="9"/>
+      <c r="G734" s="9"/>
     </row>
     <row r="735" ht="42.0" customHeight="1">
-      <c r="D735" s="10"/>
-      <c r="G735" s="10"/>
+      <c r="D735" s="9"/>
+      <c r="G735" s="9"/>
     </row>
     <row r="736" ht="42.0" customHeight="1">
-      <c r="D736" s="10"/>
-      <c r="G736" s="10"/>
+      <c r="D736" s="9"/>
+      <c r="G736" s="9"/>
     </row>
     <row r="737" ht="42.0" customHeight="1">
-      <c r="D737" s="10"/>
-      <c r="G737" s="10"/>
+      <c r="D737" s="9"/>
+      <c r="G737" s="9"/>
     </row>
     <row r="738" ht="42.0" customHeight="1">
-      <c r="D738" s="10"/>
-      <c r="G738" s="10"/>
+      <c r="D738" s="9"/>
+      <c r="G738" s="9"/>
     </row>
     <row r="739" ht="42.0" customHeight="1">
-      <c r="D739" s="10"/>
-      <c r="G739" s="10"/>
+      <c r="D739" s="9"/>
+      <c r="G739" s="9"/>
     </row>
     <row r="740" ht="42.0" customHeight="1">
-      <c r="D740" s="10"/>
-      <c r="G740" s="10"/>
+      <c r="D740" s="9"/>
+      <c r="G740" s="9"/>
     </row>
     <row r="741" ht="42.0" customHeight="1">
-      <c r="D741" s="10"/>
-      <c r="G741" s="10"/>
+      <c r="D741" s="9"/>
+      <c r="G741" s="9"/>
     </row>
     <row r="742" ht="42.0" customHeight="1">
-      <c r="D742" s="10"/>
-      <c r="G742" s="10"/>
+      <c r="D742" s="9"/>
+      <c r="G742" s="9"/>
     </row>
     <row r="743" ht="42.0" customHeight="1">
-      <c r="D743" s="10"/>
-      <c r="G743" s="10"/>
+      <c r="D743" s="9"/>
+      <c r="G743" s="9"/>
     </row>
     <row r="744" ht="42.0" customHeight="1">
-      <c r="D744" s="10"/>
-      <c r="G744" s="10"/>
+      <c r="D744" s="9"/>
+      <c r="G744" s="9"/>
     </row>
     <row r="745" ht="42.0" customHeight="1">
-      <c r="D745" s="10"/>
-      <c r="G745" s="10"/>
+      <c r="D745" s="9"/>
+      <c r="G745" s="9"/>
     </row>
     <row r="746" ht="42.0" customHeight="1">
-      <c r="D746" s="10"/>
-      <c r="G746" s="10"/>
+      <c r="D746" s="9"/>
+      <c r="G746" s="9"/>
     </row>
     <row r="747" ht="42.0" customHeight="1">
-      <c r="D747" s="10"/>
-      <c r="G747" s="10"/>
+      <c r="D747" s="9"/>
+      <c r="G747" s="9"/>
     </row>
     <row r="748" ht="42.0" customHeight="1">
-      <c r="D748" s="10"/>
-      <c r="G748" s="10"/>
+      <c r="D748" s="9"/>
+      <c r="G748" s="9"/>
     </row>
     <row r="749" ht="42.0" customHeight="1">
-      <c r="D749" s="10"/>
-      <c r="G749" s="10"/>
+      <c r="D749" s="9"/>
+      <c r="G749" s="9"/>
     </row>
     <row r="750" ht="42.0" customHeight="1">
-      <c r="D750" s="10"/>
-      <c r="G750" s="10"/>
+      <c r="D750" s="9"/>
+      <c r="G750" s="9"/>
     </row>
     <row r="751" ht="42.0" customHeight="1">
-      <c r="D751" s="10"/>
-      <c r="G751" s="10"/>
+      <c r="D751" s="9"/>
+      <c r="G751" s="9"/>
     </row>
     <row r="752" ht="42.0" customHeight="1">
-      <c r="D752" s="10"/>
-      <c r="G752" s="10"/>
+      <c r="D752" s="9"/>
+      <c r="G752" s="9"/>
     </row>
     <row r="753" ht="42.0" customHeight="1">
-      <c r="D753" s="10"/>
-      <c r="G753" s="10"/>
+      <c r="D753" s="9"/>
+      <c r="G753" s="9"/>
     </row>
     <row r="754" ht="42.0" customHeight="1">
-      <c r="D754" s="10"/>
-      <c r="G754" s="10"/>
+      <c r="D754" s="9"/>
+      <c r="G754" s="9"/>
     </row>
     <row r="755" ht="42.0" customHeight="1">
-      <c r="D755" s="10"/>
-      <c r="G755" s="10"/>
+      <c r="D755" s="9"/>
+      <c r="G755" s="9"/>
     </row>
     <row r="756" ht="42.0" customHeight="1">
-      <c r="D756" s="10"/>
-      <c r="G756" s="10"/>
+      <c r="D756" s="9"/>
+      <c r="G756" s="9"/>
     </row>
     <row r="757" ht="42.0" customHeight="1">
-      <c r="D757" s="10"/>
-      <c r="G757" s="10"/>
+      <c r="D757" s="9"/>
+      <c r="G757" s="9"/>
     </row>
     <row r="758" ht="42.0" customHeight="1">
-      <c r="D758" s="10"/>
-      <c r="G758" s="10"/>
+      <c r="D758" s="9"/>
+      <c r="G758" s="9"/>
     </row>
     <row r="759" ht="42.0" customHeight="1">
-      <c r="D759" s="10"/>
-      <c r="G759" s="10"/>
+      <c r="D759" s="9"/>
+      <c r="G759" s="9"/>
     </row>
     <row r="760" ht="42.0" customHeight="1">
-      <c r="D760" s="10"/>
-      <c r="G760" s="10"/>
+      <c r="D760" s="9"/>
+      <c r="G760" s="9"/>
     </row>
     <row r="761" ht="42.0" customHeight="1">
-      <c r="D761" s="10"/>
-      <c r="G761" s="10"/>
+      <c r="D761" s="9"/>
+      <c r="G761" s="9"/>
     </row>
     <row r="762" ht="42.0" customHeight="1">
-      <c r="D762" s="10"/>
-      <c r="G762" s="10"/>
+      <c r="D762" s="9"/>
+      <c r="G762" s="9"/>
     </row>
     <row r="763" ht="42.0" customHeight="1">
-      <c r="D763" s="10"/>
-      <c r="G763" s="10"/>
+      <c r="D763" s="9"/>
+      <c r="G763" s="9"/>
     </row>
     <row r="764" ht="42.0" customHeight="1">
-      <c r="D764" s="10"/>
-      <c r="G764" s="10"/>
+      <c r="D764" s="9"/>
+      <c r="G764" s="9"/>
     </row>
     <row r="765" ht="42.0" customHeight="1">
-      <c r="D765" s="10"/>
-      <c r="G765" s="10"/>
+      <c r="D765" s="9"/>
+      <c r="G765" s="9"/>
     </row>
     <row r="766" ht="42.0" customHeight="1">
-      <c r="D766" s="10"/>
-      <c r="G766" s="10"/>
+      <c r="D766" s="9"/>
+      <c r="G766" s="9"/>
     </row>
     <row r="767" ht="42.0" customHeight="1">
-      <c r="D767" s="10"/>
-      <c r="G767" s="10"/>
+      <c r="D767" s="9"/>
+      <c r="G767" s="9"/>
     </row>
     <row r="768" ht="42.0" customHeight="1">
-      <c r="D768" s="10"/>
-      <c r="G768" s="10"/>
+      <c r="D768" s="9"/>
+      <c r="G768" s="9"/>
     </row>
     <row r="769" ht="42.0" customHeight="1">
-      <c r="D769" s="10"/>
-      <c r="G769" s="10"/>
+      <c r="D769" s="9"/>
+      <c r="G769" s="9"/>
     </row>
     <row r="770" ht="42.0" customHeight="1">
-      <c r="D770" s="10"/>
-      <c r="G770" s="10"/>
+      <c r="D770" s="9"/>
+      <c r="G770" s="9"/>
     </row>
     <row r="771" ht="42.0" customHeight="1">
-      <c r="D771" s="10"/>
-      <c r="G771" s="10"/>
+      <c r="D771" s="9"/>
+      <c r="G771" s="9"/>
     </row>
     <row r="772" ht="42.0" customHeight="1">
-      <c r="D772" s="10"/>
-      <c r="G772" s="10"/>
+      <c r="D772" s="9"/>
+      <c r="G772" s="9"/>
     </row>
     <row r="773" ht="42.0" customHeight="1">
-      <c r="D773" s="10"/>
-      <c r="G773" s="10"/>
+      <c r="D773" s="9"/>
+      <c r="G773" s="9"/>
     </row>
     <row r="774" ht="42.0" customHeight="1">
-      <c r="D774" s="10"/>
-      <c r="G774" s="10"/>
+      <c r="D774" s="9"/>
+      <c r="G774" s="9"/>
     </row>
     <row r="775" ht="42.0" customHeight="1">
-      <c r="D775" s="10"/>
-      <c r="G775" s="10"/>
+      <c r="D775" s="9"/>
+      <c r="G775" s="9"/>
     </row>
     <row r="776" ht="42.0" customHeight="1">
-      <c r="D776" s="10"/>
-      <c r="G776" s="10"/>
+      <c r="D776" s="9"/>
+      <c r="G776" s="9"/>
     </row>
     <row r="777" ht="42.0" customHeight="1">
-      <c r="D777" s="10"/>
-      <c r="G777" s="10"/>
+      <c r="D777" s="9"/>
+      <c r="G777" s="9"/>
     </row>
     <row r="778" ht="42.0" customHeight="1">
-      <c r="D778" s="10"/>
-      <c r="G778" s="10"/>
+      <c r="D778" s="9"/>
+      <c r="G778" s="9"/>
     </row>
     <row r="779" ht="42.0" customHeight="1">
-      <c r="D779" s="10"/>
-      <c r="G779" s="10"/>
+      <c r="D779" s="9"/>
+      <c r="G779" s="9"/>
     </row>
     <row r="780" ht="42.0" customHeight="1">
-      <c r="D780" s="10"/>
-      <c r="G780" s="10"/>
+      <c r="D780" s="9"/>
+      <c r="G780" s="9"/>
     </row>
     <row r="781" ht="42.0" customHeight="1">
-      <c r="D781" s="10"/>
-      <c r="G781" s="10"/>
+      <c r="D781" s="9"/>
+      <c r="G781" s="9"/>
     </row>
     <row r="782" ht="42.0" customHeight="1">
-      <c r="D782" s="10"/>
-      <c r="G782" s="10"/>
+      <c r="D782" s="9"/>
+      <c r="G782" s="9"/>
     </row>
     <row r="783" ht="42.0" customHeight="1">
-      <c r="D783" s="10"/>
-      <c r="G783" s="10"/>
+      <c r="D783" s="9"/>
+      <c r="G783" s="9"/>
     </row>
     <row r="784" ht="42.0" customHeight="1">
-      <c r="D784" s="10"/>
-      <c r="G784" s="10"/>
+      <c r="D784" s="9"/>
+      <c r="G784" s="9"/>
     </row>
     <row r="785" ht="42.0" customHeight="1">
-      <c r="D785" s="10"/>
-      <c r="G785" s="10"/>
+      <c r="D785" s="9"/>
+      <c r="G785" s="9"/>
     </row>
     <row r="786" ht="42.0" customHeight="1">
-      <c r="D786" s="10"/>
-      <c r="G786" s="10"/>
+      <c r="D786" s="9"/>
+      <c r="G786" s="9"/>
     </row>
     <row r="787" ht="42.0" customHeight="1">
-      <c r="D787" s="10"/>
-      <c r="G787" s="10"/>
+      <c r="D787" s="9"/>
+      <c r="G787" s="9"/>
     </row>
     <row r="788" ht="42.0" customHeight="1">
-      <c r="D788" s="10"/>
-      <c r="G788" s="10"/>
+      <c r="D788" s="9"/>
+      <c r="G788" s="9"/>
     </row>
     <row r="789" ht="42.0" customHeight="1">
-      <c r="D789" s="10"/>
-      <c r="G789" s="10"/>
+      <c r="D789" s="9"/>
+      <c r="G789" s="9"/>
     </row>
     <row r="790" ht="42.0" customHeight="1">
-      <c r="D790" s="10"/>
-      <c r="G790" s="10"/>
+      <c r="D790" s="9"/>
+      <c r="G790" s="9"/>
     </row>
     <row r="791" ht="42.0" customHeight="1">
-      <c r="D791" s="10"/>
-      <c r="G791" s="10"/>
+      <c r="D791" s="9"/>
+      <c r="G791" s="9"/>
     </row>
     <row r="792" ht="42.0" customHeight="1">
-      <c r="D792" s="10"/>
-      <c r="G792" s="10"/>
+      <c r="D792" s="9"/>
+      <c r="G792" s="9"/>
     </row>
     <row r="793" ht="42.0" customHeight="1">
-      <c r="D793" s="10"/>
-      <c r="G793" s="10"/>
+      <c r="D793" s="9"/>
+      <c r="G793" s="9"/>
     </row>
     <row r="794" ht="42.0" customHeight="1">
-      <c r="D794" s="10"/>
-      <c r="G794" s="10"/>
+      <c r="D794" s="9"/>
+      <c r="G794" s="9"/>
     </row>
     <row r="795" ht="42.0" customHeight="1">
-      <c r="D795" s="10"/>
-      <c r="G795" s="10"/>
+      <c r="D795" s="9"/>
+      <c r="G795" s="9"/>
     </row>
     <row r="796" ht="42.0" customHeight="1">
-      <c r="D796" s="10"/>
-      <c r="G796" s="10"/>
+      <c r="D796" s="9"/>
+      <c r="G796" s="9"/>
     </row>
     <row r="797" ht="42.0" customHeight="1">
-      <c r="D797" s="10"/>
-      <c r="G797" s="10"/>
+      <c r="D797" s="9"/>
+      <c r="G797" s="9"/>
     </row>
     <row r="798" ht="42.0" customHeight="1">
-      <c r="D798" s="10"/>
-      <c r="G798" s="10"/>
+      <c r="D798" s="9"/>
+      <c r="G798" s="9"/>
     </row>
     <row r="799" ht="42.0" customHeight="1">
-      <c r="D799" s="10"/>
-      <c r="G799" s="10"/>
+      <c r="D799" s="9"/>
+      <c r="G799" s="9"/>
     </row>
     <row r="800" ht="42.0" customHeight="1">
-      <c r="D800" s="10"/>
-      <c r="G800" s="10"/>
+      <c r="D800" s="9"/>
+      <c r="G800" s="9"/>
     </row>
     <row r="801" ht="42.0" customHeight="1">
-      <c r="D801" s="10"/>
-      <c r="G801" s="10"/>
+      <c r="D801" s="9"/>
+      <c r="G801" s="9"/>
     </row>
     <row r="802" ht="42.0" customHeight="1">
-      <c r="D802" s="10"/>
-      <c r="G802" s="10"/>
+      <c r="D802" s="9"/>
+      <c r="G802" s="9"/>
     </row>
     <row r="803" ht="42.0" customHeight="1">
-      <c r="D803" s="10"/>
-      <c r="G803" s="10"/>
+      <c r="D803" s="9"/>
+      <c r="G803" s="9"/>
     </row>
     <row r="804" ht="42.0" customHeight="1">
-      <c r="D804" s="10"/>
-      <c r="G804" s="10"/>
+      <c r="D804" s="9"/>
+      <c r="G804" s="9"/>
     </row>
     <row r="805" ht="42.0" customHeight="1">
-      <c r="D805" s="10"/>
-      <c r="G805" s="10"/>
+      <c r="D805" s="9"/>
+      <c r="G805" s="9"/>
     </row>
     <row r="806" ht="42.0" customHeight="1">
-      <c r="D806" s="10"/>
-      <c r="G806" s="10"/>
+      <c r="D806" s="9"/>
+      <c r="G806" s="9"/>
     </row>
     <row r="807" ht="42.0" customHeight="1">
-      <c r="D807" s="10"/>
-      <c r="G807" s="10"/>
+      <c r="D807" s="9"/>
+      <c r="G807" s="9"/>
     </row>
     <row r="808" ht="42.0" customHeight="1">
-      <c r="D808" s="10"/>
-      <c r="G808" s="10"/>
+      <c r="D808" s="9"/>
+      <c r="G808" s="9"/>
     </row>
     <row r="809" ht="42.0" customHeight="1">
-      <c r="D809" s="10"/>
-      <c r="G809" s="10"/>
+      <c r="D809" s="9"/>
+      <c r="G809" s="9"/>
     </row>
     <row r="810" ht="42.0" customHeight="1">
-      <c r="D810" s="10"/>
-      <c r="G810" s="10"/>
+      <c r="D810" s="9"/>
+      <c r="G810" s="9"/>
     </row>
     <row r="811" ht="42.0" customHeight="1">
-      <c r="D811" s="10"/>
-      <c r="G811" s="10"/>
+      <c r="D811" s="9"/>
+      <c r="G811" s="9"/>
     </row>
     <row r="812" ht="42.0" customHeight="1">
-      <c r="D812" s="10"/>
-      <c r="G812" s="10"/>
+      <c r="D812" s="9"/>
+      <c r="G812" s="9"/>
     </row>
     <row r="813" ht="42.0" customHeight="1">
-      <c r="D813" s="10"/>
-      <c r="G813" s="10"/>
+      <c r="D813" s="9"/>
+      <c r="G813" s="9"/>
     </row>
     <row r="814" ht="42.0" customHeight="1">
-      <c r="D814" s="10"/>
-      <c r="G814" s="10"/>
+      <c r="D814" s="9"/>
+      <c r="G814" s="9"/>
     </row>
     <row r="815" ht="42.0" customHeight="1">
-      <c r="D815" s="10"/>
-      <c r="G815" s="10"/>
+      <c r="D815" s="9"/>
+      <c r="G815" s="9"/>
     </row>
     <row r="816" ht="42.0" customHeight="1">
-      <c r="D816" s="10"/>
-      <c r="G816" s="10"/>
+      <c r="D816" s="9"/>
+      <c r="G816" s="9"/>
     </row>
     <row r="817" ht="42.0" customHeight="1">
-      <c r="D817" s="10"/>
-      <c r="G817" s="10"/>
+      <c r="D817" s="9"/>
+      <c r="G817" s="9"/>
     </row>
     <row r="818" ht="42.0" customHeight="1">
-      <c r="D818" s="10"/>
-      <c r="G818" s="10"/>
+      <c r="D818" s="9"/>
+      <c r="G818" s="9"/>
     </row>
     <row r="819" ht="42.0" customHeight="1">
-      <c r="D819" s="10"/>
-      <c r="G819" s="10"/>
+      <c r="D819" s="9"/>
+      <c r="G819" s="9"/>
     </row>
     <row r="820" ht="42.0" customHeight="1">
-      <c r="D820" s="10"/>
-      <c r="G820" s="10"/>
+      <c r="D820" s="9"/>
+      <c r="G820" s="9"/>
     </row>
     <row r="821" ht="42.0" customHeight="1">
-      <c r="D821" s="10"/>
-      <c r="G821" s="10"/>
+      <c r="D821" s="9"/>
+      <c r="G821" s="9"/>
     </row>
     <row r="822" ht="42.0" customHeight="1">
-      <c r="D822" s="10"/>
-      <c r="G822" s="10"/>
+      <c r="D822" s="9"/>
+      <c r="G822" s="9"/>
     </row>
     <row r="823" ht="42.0" customHeight="1">
-      <c r="D823" s="10"/>
-      <c r="G823" s="10"/>
+      <c r="D823" s="9"/>
+      <c r="G823" s="9"/>
     </row>
     <row r="824" ht="42.0" customHeight="1">
-      <c r="D824" s="10"/>
-      <c r="G824" s="10"/>
+      <c r="D824" s="9"/>
+      <c r="G824" s="9"/>
     </row>
     <row r="825" ht="42.0" customHeight="1">
-      <c r="D825" s="10"/>
-      <c r="G825" s="10"/>
+      <c r="D825" s="9"/>
+      <c r="G825" s="9"/>
     </row>
     <row r="826" ht="42.0" customHeight="1">
-      <c r="D826" s="10"/>
-      <c r="G826" s="10"/>
+      <c r="D826" s="9"/>
+      <c r="G826" s="9"/>
     </row>
     <row r="827" ht="42.0" customHeight="1">
-      <c r="D827" s="10"/>
-      <c r="G827" s="10"/>
+      <c r="D827" s="9"/>
+      <c r="G827" s="9"/>
     </row>
     <row r="828" ht="42.0" customHeight="1">
-      <c r="D828" s="10"/>
-      <c r="G828" s="10"/>
+      <c r="D828" s="9"/>
+      <c r="G828" s="9"/>
     </row>
     <row r="829" ht="42.0" customHeight="1">
-      <c r="D829" s="10"/>
-      <c r="G829" s="10"/>
+      <c r="D829" s="9"/>
+      <c r="G829" s="9"/>
     </row>
     <row r="830" ht="42.0" customHeight="1">
-      <c r="D830" s="10"/>
-      <c r="G830" s="10"/>
+      <c r="D830" s="9"/>
+      <c r="G830" s="9"/>
     </row>
     <row r="831" ht="42.0" customHeight="1">
-      <c r="D831" s="10"/>
-      <c r="G831" s="10"/>
+      <c r="D831" s="9"/>
+      <c r="G831" s="9"/>
     </row>
     <row r="832" ht="42.0" customHeight="1">
-      <c r="D832" s="10"/>
-      <c r="G832" s="10"/>
+      <c r="D832" s="9"/>
+      <c r="G832" s="9"/>
     </row>
     <row r="833" ht="42.0" customHeight="1">
-      <c r="D833" s="10"/>
-      <c r="G833" s="10"/>
+      <c r="D833" s="9"/>
+      <c r="G833" s="9"/>
     </row>
     <row r="834" ht="42.0" customHeight="1">
-      <c r="D834" s="10"/>
-      <c r="G834" s="10"/>
+      <c r="D834" s="9"/>
+      <c r="G834" s="9"/>
     </row>
     <row r="835" ht="42.0" customHeight="1">
-      <c r="D835" s="10"/>
-      <c r="G835" s="10"/>
+      <c r="D835" s="9"/>
+      <c r="G835" s="9"/>
     </row>
     <row r="836" ht="42.0" customHeight="1">
-      <c r="D836" s="10"/>
-      <c r="G836" s="10"/>
+      <c r="D836" s="9"/>
+      <c r="G836" s="9"/>
     </row>
     <row r="837" ht="42.0" customHeight="1">
-      <c r="D837" s="10"/>
-      <c r="G837" s="10"/>
+      <c r="D837" s="9"/>
+      <c r="G837" s="9"/>
     </row>
     <row r="838" ht="42.0" customHeight="1">
-      <c r="D838" s="10"/>
-      <c r="G838" s="10"/>
+      <c r="D838" s="9"/>
+      <c r="G838" s="9"/>
     </row>
     <row r="839" ht="42.0" customHeight="1">
-      <c r="D839" s="10"/>
-      <c r="G839" s="10"/>
+      <c r="D839" s="9"/>
+      <c r="G839" s="9"/>
     </row>
     <row r="840" ht="42.0" customHeight="1">
-      <c r="D840" s="10"/>
-      <c r="G840" s="10"/>
+      <c r="D840" s="9"/>
+      <c r="G840" s="9"/>
     </row>
     <row r="841" ht="42.0" customHeight="1">
-      <c r="D841" s="10"/>
-      <c r="G841" s="10"/>
+      <c r="D841" s="9"/>
+      <c r="G841" s="9"/>
     </row>
     <row r="842" ht="42.0" customHeight="1">
-      <c r="D842" s="10"/>
-      <c r="G842" s="10"/>
+      <c r="D842" s="9"/>
+      <c r="G842" s="9"/>
     </row>
     <row r="843" ht="42.0" customHeight="1">
-      <c r="D843" s="10"/>
-      <c r="G843" s="10"/>
+      <c r="D843" s="9"/>
+      <c r="G843" s="9"/>
     </row>
     <row r="844" ht="42.0" customHeight="1">
-      <c r="D844" s="10"/>
-      <c r="G844" s="10"/>
+      <c r="D844" s="9"/>
+      <c r="G844" s="9"/>
     </row>
     <row r="845" ht="42.0" customHeight="1">
-      <c r="D845" s="10"/>
-      <c r="G845" s="10"/>
+      <c r="D845" s="9"/>
+      <c r="G845" s="9"/>
     </row>
     <row r="846" ht="42.0" customHeight="1">
-      <c r="D846" s="10"/>
-      <c r="G846" s="10"/>
+      <c r="D846" s="9"/>
+      <c r="G846" s="9"/>
     </row>
     <row r="847" ht="42.0" customHeight="1">
-      <c r="D847" s="10"/>
-      <c r="G847" s="10"/>
+      <c r="D847" s="9"/>
+      <c r="G847" s="9"/>
     </row>
     <row r="848" ht="42.0" customHeight="1">
-      <c r="D848" s="10"/>
-      <c r="G848" s="10"/>
+      <c r="D848" s="9"/>
+      <c r="G848" s="9"/>
     </row>
     <row r="849" ht="42.0" customHeight="1">
-      <c r="D849" s="10"/>
-      <c r="G849" s="10"/>
+      <c r="D849" s="9"/>
+      <c r="G849" s="9"/>
     </row>
     <row r="850" ht="42.0" customHeight="1">
-      <c r="D850" s="10"/>
-      <c r="G850" s="10"/>
+      <c r="D850" s="9"/>
+      <c r="G850" s="9"/>
     </row>
     <row r="851" ht="42.0" customHeight="1">
-      <c r="D851" s="10"/>
-      <c r="G851" s="10"/>
+      <c r="D851" s="9"/>
+      <c r="G851" s="9"/>
     </row>
     <row r="852" ht="42.0" customHeight="1">
-      <c r="D852" s="10"/>
-      <c r="G852" s="10"/>
+      <c r="D852" s="9"/>
+      <c r="G852" s="9"/>
     </row>
     <row r="853" ht="42.0" customHeight="1">
-      <c r="D853" s="10"/>
-      <c r="G853" s="10"/>
+      <c r="D853" s="9"/>
+      <c r="G853" s="9"/>
     </row>
     <row r="854" ht="42.0" customHeight="1">
-      <c r="D854" s="10"/>
-      <c r="G854" s="10"/>
+      <c r="D854" s="9"/>
+      <c r="G854" s="9"/>
     </row>
     <row r="855" ht="42.0" customHeight="1">
-      <c r="D855" s="10"/>
-      <c r="G855" s="10"/>
+      <c r="D855" s="9"/>
+      <c r="G855" s="9"/>
     </row>
     <row r="856" ht="42.0" customHeight="1">
-      <c r="D856" s="10"/>
-      <c r="G856" s="10"/>
+      <c r="D856" s="9"/>
+      <c r="G856" s="9"/>
     </row>
     <row r="857" ht="42.0" customHeight="1">
-      <c r="D857" s="10"/>
-      <c r="G857" s="10"/>
+      <c r="D857" s="9"/>
+      <c r="G857" s="9"/>
     </row>
     <row r="858" ht="42.0" customHeight="1">
-      <c r="D858" s="10"/>
-      <c r="G858" s="10"/>
+      <c r="D858" s="9"/>
+      <c r="G858" s="9"/>
     </row>
     <row r="859" ht="42.0" customHeight="1">
-      <c r="D859" s="10"/>
-      <c r="G859" s="10"/>
+      <c r="D859" s="9"/>
+      <c r="G859" s="9"/>
     </row>
     <row r="860" ht="42.0" customHeight="1">
-      <c r="D860" s="10"/>
-      <c r="G860" s="10"/>
+      <c r="D860" s="9"/>
+      <c r="G860" s="9"/>
     </row>
     <row r="861" ht="42.0" customHeight="1">
-      <c r="D861" s="10"/>
-      <c r="G861" s="10"/>
+      <c r="D861" s="9"/>
+      <c r="G861" s="9"/>
     </row>
     <row r="862" ht="42.0" customHeight="1">
-      <c r="D862" s="10"/>
-      <c r="G862" s="10"/>
+      <c r="D862" s="9"/>
+      <c r="G862" s="9"/>
     </row>
     <row r="863" ht="42.0" customHeight="1">
-      <c r="D863" s="10"/>
-      <c r="G863" s="10"/>
+      <c r="D863" s="9"/>
+      <c r="G863" s="9"/>
     </row>
     <row r="864" ht="42.0" customHeight="1">
-      <c r="D864" s="10"/>
-      <c r="G864" s="10"/>
+      <c r="D864" s="9"/>
+      <c r="G864" s="9"/>
     </row>
     <row r="865" ht="42.0" customHeight="1">
-      <c r="D865" s="10"/>
-      <c r="G865" s="10"/>
+      <c r="D865" s="9"/>
+      <c r="G865" s="9"/>
     </row>
     <row r="866" ht="42.0" customHeight="1">
-      <c r="D866" s="10"/>
-      <c r="G866" s="10"/>
+      <c r="D866" s="9"/>
+      <c r="G866" s="9"/>
     </row>
     <row r="867" ht="42.0" customHeight="1">
-      <c r="D867" s="10"/>
-      <c r="G867" s="10"/>
+      <c r="D867" s="9"/>
+      <c r="G867" s="9"/>
     </row>
     <row r="868" ht="42.0" customHeight="1">
-      <c r="D868" s="10"/>
-      <c r="G868" s="10"/>
+      <c r="D868" s="9"/>
+      <c r="G868" s="9"/>
     </row>
     <row r="869" ht="42.0" customHeight="1">
-      <c r="D869" s="10"/>
-      <c r="G869" s="10"/>
+      <c r="D869" s="9"/>
+      <c r="G869" s="9"/>
     </row>
     <row r="870" ht="42.0" customHeight="1">
-      <c r="D870" s="10"/>
-      <c r="G870" s="10"/>
+      <c r="D870" s="9"/>
+      <c r="G870" s="9"/>
     </row>
     <row r="871" ht="42.0" customHeight="1">
-      <c r="D871" s="10"/>
-      <c r="G871" s="10"/>
+      <c r="D871" s="9"/>
+      <c r="G871" s="9"/>
     </row>
     <row r="872" ht="42.0" customHeight="1">
-      <c r="D872" s="10"/>
-      <c r="G872" s="10"/>
+      <c r="D872" s="9"/>
+      <c r="G872" s="9"/>
     </row>
     <row r="873" ht="42.0" customHeight="1">
-      <c r="D873" s="10"/>
-      <c r="G873" s="10"/>
+      <c r="D873" s="9"/>
+      <c r="G873" s="9"/>
     </row>
     <row r="874" ht="42.0" customHeight="1">
-      <c r="D874" s="10"/>
-      <c r="G874" s="10"/>
+      <c r="D874" s="9"/>
+      <c r="G874" s="9"/>
     </row>
     <row r="875" ht="42.0" customHeight="1">
-      <c r="D875" s="10"/>
-      <c r="G875" s="10"/>
+      <c r="D875" s="9"/>
+      <c r="G875" s="9"/>
     </row>
     <row r="876" ht="42.0" customHeight="1">
-      <c r="D876" s="10"/>
-      <c r="G876" s="10"/>
+      <c r="D876" s="9"/>
+      <c r="G876" s="9"/>
     </row>
     <row r="877" ht="42.0" customHeight="1">
-      <c r="D877" s="10"/>
-      <c r="G877" s="10"/>
+      <c r="D877" s="9"/>
+      <c r="G877" s="9"/>
     </row>
     <row r="878" ht="42.0" customHeight="1">
-      <c r="D878" s="10"/>
-      <c r="G878" s="10"/>
+      <c r="D878" s="9"/>
+      <c r="G878" s="9"/>
     </row>
     <row r="879" ht="42.0" customHeight="1">
-      <c r="D879" s="10"/>
-      <c r="G879" s="10"/>
+      <c r="D879" s="9"/>
+      <c r="G879" s="9"/>
     </row>
     <row r="880" ht="42.0" customHeight="1">
-      <c r="D880" s="10"/>
-      <c r="G880" s="10"/>
+      <c r="D880" s="9"/>
+      <c r="G880" s="9"/>
     </row>
     <row r="881" ht="42.0" customHeight="1">
-      <c r="D881" s="10"/>
-      <c r="G881" s="10"/>
+      <c r="D881" s="9"/>
+      <c r="G881" s="9"/>
     </row>
     <row r="882" ht="42.0" customHeight="1">
-      <c r="D882" s="10"/>
-      <c r="G882" s="10"/>
+      <c r="D882" s="9"/>
+      <c r="G882" s="9"/>
     </row>
     <row r="883" ht="42.0" customHeight="1">
-      <c r="D883" s="10"/>
-      <c r="G883" s="10"/>
+      <c r="D883" s="9"/>
+      <c r="G883" s="9"/>
     </row>
     <row r="884" ht="42.0" customHeight="1">
-      <c r="D884" s="10"/>
-      <c r="G884" s="10"/>
+      <c r="D884" s="9"/>
+      <c r="G884" s="9"/>
     </row>
     <row r="885" ht="42.0" customHeight="1">
-      <c r="D885" s="10"/>
-      <c r="G885" s="10"/>
+      <c r="D885" s="9"/>
+      <c r="G885" s="9"/>
     </row>
     <row r="886" ht="42.0" customHeight="1">
-      <c r="D886" s="10"/>
-      <c r="G886" s="10"/>
+      <c r="D886" s="9"/>
+      <c r="G886" s="9"/>
     </row>
     <row r="887" ht="42.0" customHeight="1">
-      <c r="D887" s="10"/>
-      <c r="G887" s="10"/>
+      <c r="D887" s="9"/>
+      <c r="G887" s="9"/>
     </row>
     <row r="888" ht="42.0" customHeight="1">
-      <c r="D888" s="10"/>
-      <c r="G888" s="10"/>
+      <c r="D888" s="9"/>
+      <c r="G888" s="9"/>
     </row>
     <row r="889" ht="42.0" customHeight="1">
-      <c r="D889" s="10"/>
-      <c r="G889" s="10"/>
+      <c r="D889" s="9"/>
+      <c r="G889" s="9"/>
     </row>
     <row r="890" ht="42.0" customHeight="1">
-      <c r="D890" s="10"/>
-      <c r="G890" s="10"/>
+      <c r="D890" s="9"/>
+      <c r="G890" s="9"/>
     </row>
     <row r="891" ht="42.0" customHeight="1">
-      <c r="D891" s="10"/>
-      <c r="G891" s="10"/>
+      <c r="D891" s="9"/>
+      <c r="G891" s="9"/>
     </row>
     <row r="892" ht="42.0" customHeight="1">
-      <c r="D892" s="10"/>
-      <c r="G892" s="10"/>
+      <c r="D892" s="9"/>
+      <c r="G892" s="9"/>
     </row>
     <row r="893" ht="42.0" customHeight="1">
-      <c r="D893" s="10"/>
-      <c r="G893" s="10"/>
+      <c r="D893" s="9"/>
+      <c r="G893" s="9"/>
     </row>
     <row r="894" ht="42.0" customHeight="1">
-      <c r="D894" s="10"/>
-      <c r="G894" s="10"/>
+      <c r="D894" s="9"/>
+      <c r="G894" s="9"/>
     </row>
     <row r="895" ht="42.0" customHeight="1">
-      <c r="D895" s="10"/>
-      <c r="G895" s="10"/>
+      <c r="D895" s="9"/>
+      <c r="G895" s="9"/>
     </row>
     <row r="896" ht="42.0" customHeight="1">
-      <c r="D896" s="10"/>
-      <c r="G896" s="10"/>
+      <c r="D896" s="9"/>
+      <c r="G896" s="9"/>
     </row>
     <row r="897" ht="42.0" customHeight="1">
-      <c r="D897" s="10"/>
-      <c r="G897" s="10"/>
+      <c r="D897" s="9"/>
+      <c r="G897" s="9"/>
     </row>
     <row r="898" ht="42.0" customHeight="1">
-      <c r="D898" s="10"/>
-      <c r="G898" s="10"/>
+      <c r="D898" s="9"/>
+      <c r="G898" s="9"/>
     </row>
     <row r="899" ht="42.0" customHeight="1">
-      <c r="D899" s="10"/>
-      <c r="G899" s="10"/>
+      <c r="D899" s="9"/>
+      <c r="G899" s="9"/>
     </row>
     <row r="900" ht="42.0" customHeight="1">
-      <c r="D900" s="10"/>
-      <c r="G900" s="10"/>
+      <c r="D900" s="9"/>
+      <c r="G900" s="9"/>
     </row>
     <row r="901" ht="42.0" customHeight="1">
-      <c r="D901" s="10"/>
-      <c r="G901" s="10"/>
+      <c r="D901" s="9"/>
+      <c r="G901" s="9"/>
     </row>
     <row r="902" ht="42.0" customHeight="1">
-      <c r="D902" s="10"/>
-      <c r="G902" s="10"/>
+      <c r="D902" s="9"/>
+      <c r="G902" s="9"/>
     </row>
     <row r="903" ht="42.0" customHeight="1">
-      <c r="D903" s="10"/>
-      <c r="G903" s="10"/>
+      <c r="D903" s="9"/>
+      <c r="G903" s="9"/>
     </row>
     <row r="904" ht="42.0" customHeight="1">
-      <c r="D904" s="10"/>
-      <c r="G904" s="10"/>
+      <c r="D904" s="9"/>
+      <c r="G904" s="9"/>
     </row>
     <row r="905" ht="42.0" customHeight="1">
-      <c r="D905" s="10"/>
-      <c r="G905" s="10"/>
+      <c r="D905" s="9"/>
+      <c r="G905" s="9"/>
     </row>
     <row r="906" ht="42.0" customHeight="1">
-      <c r="D906" s="10"/>
-      <c r="G906" s="10"/>
+      <c r="D906" s="9"/>
+      <c r="G906" s="9"/>
     </row>
     <row r="907" ht="42.0" customHeight="1">
-      <c r="D907" s="10"/>
-      <c r="G907" s="10"/>
+      <c r="D907" s="9"/>
+      <c r="G907" s="9"/>
     </row>
     <row r="908" ht="42.0" customHeight="1">
-      <c r="D908" s="10"/>
-      <c r="G908" s="10"/>
+      <c r="D908" s="9"/>
+      <c r="G908" s="9"/>
     </row>
     <row r="909" ht="42.0" customHeight="1">
-      <c r="D909" s="10"/>
-      <c r="G909" s="10"/>
+      <c r="D909" s="9"/>
+      <c r="G909" s="9"/>
     </row>
     <row r="910" ht="42.0" customHeight="1">
-      <c r="D910" s="10"/>
-      <c r="G910" s="10"/>
+      <c r="D910" s="9"/>
+      <c r="G910" s="9"/>
     </row>
     <row r="911" ht="42.0" customHeight="1">
-      <c r="D911" s="10"/>
-      <c r="G911" s="10"/>
+      <c r="D911" s="9"/>
+      <c r="G911" s="9"/>
     </row>
     <row r="912" ht="42.0" customHeight="1">
-      <c r="D912" s="10"/>
-      <c r="G912" s="10"/>
+      <c r="D912" s="9"/>
+      <c r="G912" s="9"/>
     </row>
     <row r="913" ht="42.0" customHeight="1">
-      <c r="D913" s="10"/>
-      <c r="G913" s="10"/>
+      <c r="D913" s="9"/>
+      <c r="G913" s="9"/>
     </row>
     <row r="914" ht="42.0" customHeight="1">
-      <c r="D914" s="10"/>
-      <c r="G914" s="10"/>
+      <c r="D914" s="9"/>
+      <c r="G914" s="9"/>
     </row>
     <row r="915" ht="42.0" customHeight="1">
-      <c r="D915" s="10"/>
-      <c r="G915" s="10"/>
+      <c r="D915" s="9"/>
+      <c r="G915" s="9"/>
     </row>
     <row r="916" ht="42.0" customHeight="1">
-      <c r="D916" s="10"/>
-      <c r="G916" s="10"/>
+      <c r="D916" s="9"/>
+      <c r="G916" s="9"/>
     </row>
     <row r="917" ht="42.0" customHeight="1">
-      <c r="D917" s="10"/>
-      <c r="G917" s="10"/>
+      <c r="D917" s="9"/>
+      <c r="G917" s="9"/>
     </row>
     <row r="918" ht="42.0" customHeight="1">
-      <c r="D918" s="10"/>
-      <c r="G918" s="10"/>
+      <c r="D918" s="9"/>
+      <c r="G918" s="9"/>
     </row>
     <row r="919" ht="42.0" customHeight="1">
-      <c r="D919" s="10"/>
-      <c r="G919" s="10"/>
+      <c r="D919" s="9"/>
+      <c r="G919" s="9"/>
     </row>
     <row r="920" ht="42.0" customHeight="1">
-      <c r="D920" s="10"/>
-      <c r="G920" s="10"/>
+      <c r="D920" s="9"/>
+      <c r="G920" s="9"/>
     </row>
     <row r="921" ht="42.0" customHeight="1">
-      <c r="D921" s="10"/>
-      <c r="G921" s="10"/>
+      <c r="D921" s="9"/>
+      <c r="G921" s="9"/>
     </row>
     <row r="922" ht="42.0" customHeight="1">
-      <c r="D922" s="10"/>
-      <c r="G922" s="10"/>
+      <c r="D922" s="9"/>
+      <c r="G922" s="9"/>
     </row>
     <row r="923" ht="42.0" customHeight="1">
-      <c r="D923" s="10"/>
-      <c r="G923" s="10"/>
+      <c r="D923" s="9"/>
+      <c r="G923" s="9"/>
     </row>
     <row r="924" ht="42.0" customHeight="1">
-      <c r="D924" s="10"/>
-      <c r="G924" s="10"/>
+      <c r="D924" s="9"/>
+      <c r="G924" s="9"/>
     </row>
     <row r="925" ht="42.0" customHeight="1">
-      <c r="D925" s="10"/>
-      <c r="G925" s="10"/>
+      <c r="D925" s="9"/>
+      <c r="G925" s="9"/>
     </row>
     <row r="926" ht="42.0" customHeight="1">
-      <c r="D926" s="10"/>
-      <c r="G926" s="10"/>
+      <c r="D926" s="9"/>
+      <c r="G926" s="9"/>
     </row>
     <row r="927" ht="42.0" customHeight="1">
-      <c r="D927" s="10"/>
-      <c r="G927" s="10"/>
+      <c r="D927" s="9"/>
+      <c r="G927" s="9"/>
     </row>
     <row r="928" ht="42.0" customHeight="1">
-      <c r="D928" s="10"/>
-      <c r="G928" s="10"/>
+      <c r="D928" s="9"/>
+      <c r="G928" s="9"/>
     </row>
     <row r="929" ht="42.0" customHeight="1">
-      <c r="D929" s="10"/>
-      <c r="G929" s="10"/>
+      <c r="D929" s="9"/>
+      <c r="G929" s="9"/>
     </row>
     <row r="930" ht="42.0" customHeight="1">
-      <c r="D930" s="10"/>
-      <c r="G930" s="10"/>
+      <c r="D930" s="9"/>
+      <c r="G930" s="9"/>
     </row>
     <row r="931" ht="42.0" customHeight="1">
-      <c r="D931" s="10"/>
-      <c r="G931" s="10"/>
+      <c r="D931" s="9"/>
+      <c r="G931" s="9"/>
     </row>
     <row r="932" ht="42.0" customHeight="1">
-      <c r="D932" s="10"/>
-      <c r="G932" s="10"/>
+      <c r="D932" s="9"/>
+      <c r="G932" s="9"/>
     </row>
     <row r="933" ht="42.0" customHeight="1">
-      <c r="D933" s="10"/>
-      <c r="G933" s="10"/>
+      <c r="D933" s="9"/>
+      <c r="G933" s="9"/>
     </row>
     <row r="934" ht="42.0" customHeight="1">
-      <c r="D934" s="10"/>
-      <c r="G934" s="10"/>
+      <c r="D934" s="9"/>
+      <c r="G934" s="9"/>
     </row>
     <row r="935" ht="42.0" customHeight="1">
-      <c r="D935" s="10"/>
-      <c r="G935" s="10"/>
+      <c r="D935" s="9"/>
+      <c r="G935" s="9"/>
     </row>
     <row r="936" ht="42.0" customHeight="1">
-      <c r="D936" s="10"/>
-      <c r="G936" s="10"/>
+      <c r="D936" s="9"/>
+      <c r="G936" s="9"/>
     </row>
     <row r="937" ht="42.0" customHeight="1">
-      <c r="D937" s="10"/>
-      <c r="G937" s="10"/>
+      <c r="D937" s="9"/>
+      <c r="G937" s="9"/>
     </row>
     <row r="938" ht="42.0" customHeight="1">
-      <c r="D938" s="10"/>
-      <c r="G938" s="10"/>
+      <c r="D938" s="9"/>
+      <c r="G938" s="9"/>
     </row>
     <row r="939" ht="42.0" customHeight="1">
-      <c r="D939" s="10"/>
-      <c r="G939" s="10"/>
+      <c r="D939" s="9"/>
+      <c r="G939" s="9"/>
     </row>
     <row r="940" ht="42.0" customHeight="1">
-      <c r="D940" s="10"/>
-      <c r="G940" s="10"/>
+      <c r="D940" s="9"/>
+      <c r="G940" s="9"/>
     </row>
     <row r="941" ht="42.0" customHeight="1">
-      <c r="D941" s="10"/>
-      <c r="G941" s="10"/>
+      <c r="D941" s="9"/>
+      <c r="G941" s="9"/>
     </row>
     <row r="942" ht="42.0" customHeight="1">
-      <c r="D942" s="10"/>
-      <c r="G942" s="10"/>
+      <c r="D942" s="9"/>
+      <c r="G942" s="9"/>
     </row>
     <row r="943" ht="42.0" customHeight="1">
-      <c r="D943" s="10"/>
-      <c r="G943" s="10"/>
+      <c r="D943" s="9"/>
+      <c r="G943" s="9"/>
     </row>
     <row r="944" ht="42.0" customHeight="1">
-      <c r="D944" s="10"/>
-      <c r="G944" s="10"/>
+      <c r="D944" s="9"/>
+      <c r="G944" s="9"/>
     </row>
     <row r="945" ht="42.0" customHeight="1">
-      <c r="D945" s="10"/>
-      <c r="G945" s="10"/>
+      <c r="D945" s="9"/>
+      <c r="G945" s="9"/>
     </row>
     <row r="946" ht="42.0" customHeight="1">
-      <c r="D946" s="10"/>
-      <c r="G946" s="10"/>
+      <c r="D946" s="9"/>
+      <c r="G946" s="9"/>
     </row>
     <row r="947" ht="42.0" customHeight="1">
-      <c r="D947" s="10"/>
-      <c r="G947" s="10"/>
+      <c r="D947" s="9"/>
+      <c r="G947" s="9"/>
     </row>
     <row r="948" ht="42.0" customHeight="1">
-      <c r="D948" s="10"/>
-      <c r="G948" s="10"/>
+      <c r="D948" s="9"/>
+      <c r="G948" s="9"/>
     </row>
     <row r="949" ht="42.0" customHeight="1">
-      <c r="D949" s="10"/>
-      <c r="G949" s="10"/>
+      <c r="D949" s="9"/>
+      <c r="G949" s="9"/>
     </row>
     <row r="950" ht="42.0" customHeight="1">
-      <c r="D950" s="10"/>
-      <c r="G950" s="10"/>
+      <c r="D950" s="9"/>
+      <c r="G950" s="9"/>
     </row>
     <row r="951" ht="42.0" customHeight="1">
-      <c r="D951" s="10"/>
-      <c r="G951" s="10"/>
+      <c r="D951" s="9"/>
+      <c r="G951" s="9"/>
     </row>
     <row r="952" ht="42.0" customHeight="1">
-      <c r="D952" s="10"/>
-      <c r="G952" s="10"/>
+      <c r="D952" s="9"/>
+      <c r="G952" s="9"/>
     </row>
     <row r="953" ht="42.0" customHeight="1">
-      <c r="D953" s="10"/>
-      <c r="G953" s="10"/>
+      <c r="D953" s="9"/>
+      <c r="G953" s="9"/>
     </row>
     <row r="954" ht="42.0" customHeight="1">
-      <c r="D954" s="10"/>
-      <c r="G954" s="10"/>
+      <c r="D954" s="9"/>
+      <c r="G954" s="9"/>
     </row>
     <row r="955" ht="42.0" customHeight="1">
-      <c r="D955" s="10"/>
-      <c r="G955" s="10"/>
+      <c r="D955" s="9"/>
+      <c r="G955" s="9"/>
     </row>
     <row r="956" ht="42.0" customHeight="1">
-      <c r="D956" s="10"/>
-      <c r="G956" s="10"/>
+      <c r="D956" s="9"/>
+      <c r="G956" s="9"/>
     </row>
     <row r="957" ht="42.0" customHeight="1">
-      <c r="D957" s="10"/>
-      <c r="G957" s="10"/>
+      <c r="D957" s="9"/>
+      <c r="G957" s="9"/>
     </row>
     <row r="958" ht="42.0" customHeight="1">
-      <c r="D958" s="10"/>
-      <c r="G958" s="10"/>
+      <c r="D958" s="9"/>
+      <c r="G958" s="9"/>
     </row>
     <row r="959" ht="42.0" customHeight="1">
-      <c r="D959" s="10"/>
-      <c r="G959" s="10"/>
+      <c r="D959" s="9"/>
+      <c r="G959" s="9"/>
     </row>
     <row r="960" ht="42.0" customHeight="1">
-      <c r="D960" s="10"/>
-      <c r="G960" s="10"/>
+      <c r="D960" s="9"/>
+      <c r="G960" s="9"/>
     </row>
     <row r="961" ht="42.0" customHeight="1">
-      <c r="D961" s="10"/>
-      <c r="G961" s="10"/>
+      <c r="D961" s="9"/>
+      <c r="G961" s="9"/>
     </row>
     <row r="962" ht="42.0" customHeight="1">
-      <c r="D962" s="10"/>
-      <c r="G962" s="10"/>
+      <c r="D962" s="9"/>
+      <c r="G962" s="9"/>
     </row>
     <row r="963" ht="42.0" customHeight="1">
-      <c r="D963" s="10"/>
-      <c r="G963" s="10"/>
+      <c r="D963" s="9"/>
+      <c r="G963" s="9"/>
     </row>
     <row r="964" ht="42.0" customHeight="1">
-      <c r="D964" s="10"/>
-      <c r="G964" s="10"/>
+      <c r="D964" s="9"/>
+      <c r="G964" s="9"/>
     </row>
     <row r="965" ht="42.0" customHeight="1">
-      <c r="D965" s="10"/>
-      <c r="G965" s="10"/>
+      <c r="D965" s="9"/>
+      <c r="G965" s="9"/>
     </row>
     <row r="966" ht="42.0" customHeight="1">
-      <c r="D966" s="10"/>
-      <c r="G966" s="10"/>
+      <c r="D966" s="9"/>
+      <c r="G966" s="9"/>
     </row>
     <row r="967" ht="42.0" customHeight="1">
-      <c r="D967" s="10"/>
-      <c r="G967" s="10"/>
+      <c r="D967" s="9"/>
+      <c r="G967" s="9"/>
     </row>
     <row r="968" ht="42.0" customHeight="1">
-      <c r="D968" s="10"/>
-      <c r="G968" s="10"/>
+      <c r="D968" s="9"/>
+      <c r="G968" s="9"/>
     </row>
     <row r="969" ht="42.0" customHeight="1">
-      <c r="D969" s="10"/>
-      <c r="G969" s="10"/>
+      <c r="D969" s="9"/>
+      <c r="G969" s="9"/>
     </row>
     <row r="970" ht="42.0" customHeight="1">
-      <c r="D970" s="10"/>
-      <c r="G970" s="10"/>
+      <c r="D970" s="9"/>
+      <c r="G970" s="9"/>
     </row>
     <row r="971" ht="42.0" customHeight="1">
-      <c r="D971" s="10"/>
-      <c r="G971" s="10"/>
+      <c r="D971" s="9"/>
+      <c r="G971" s="9"/>
     </row>
     <row r="972" ht="42.0" customHeight="1">
-      <c r="D972" s="10"/>
-      <c r="G972" s="10"/>
+      <c r="D972" s="9"/>
+      <c r="G972" s="9"/>
     </row>
     <row r="973" ht="42.0" customHeight="1">
-      <c r="D973" s="10"/>
-      <c r="G973" s="10"/>
+      <c r="D973" s="9"/>
+      <c r="G973" s="9"/>
     </row>
     <row r="974" ht="42.0" customHeight="1">
-      <c r="D974" s="10"/>
-      <c r="G974" s="10"/>
+      <c r="D974" s="9"/>
+      <c r="G974" s="9"/>
     </row>
     <row r="975" ht="42.0" customHeight="1">
-      <c r="D975" s="10"/>
-      <c r="G975" s="10"/>
+      <c r="D975" s="9"/>
+      <c r="G975" s="9"/>
     </row>
     <row r="976" ht="42.0" customHeight="1">
-      <c r="D976" s="10"/>
-      <c r="G976" s="10"/>
+      <c r="D976" s="9"/>
+      <c r="G976" s="9"/>
     </row>
     <row r="977" ht="42.0" customHeight="1">
-      <c r="D977" s="10"/>
-      <c r="G977" s="10"/>
+      <c r="D977" s="9"/>
+      <c r="G977" s="9"/>
     </row>
     <row r="978" ht="42.0" customHeight="1">
-      <c r="D978" s="10"/>
-      <c r="G978" s="10"/>
+      <c r="D978" s="9"/>
+      <c r="G978" s="9"/>
     </row>
     <row r="979" ht="42.0" customHeight="1">
-      <c r="D979" s="10"/>
-      <c r="G979" s="10"/>
+      <c r="D979" s="9"/>
+      <c r="G979" s="9"/>
     </row>
     <row r="980" ht="42.0" customHeight="1">
-      <c r="D980" s="10"/>
-      <c r="G980" s="10"/>
+      <c r="D980" s="9"/>
+      <c r="G980" s="9"/>
     </row>
     <row r="981" ht="42.0" customHeight="1">
-      <c r="D981" s="10"/>
-      <c r="G981" s="10"/>
+      <c r="D981" s="9"/>
+      <c r="G981" s="9"/>
     </row>
     <row r="982" ht="42.0" customHeight="1">
-      <c r="D982" s="10"/>
-      <c r="G982" s="10"/>
+      <c r="D982" s="9"/>
+      <c r="G982" s="9"/>
     </row>
     <row r="983" ht="42.0" customHeight="1">
-      <c r="D983" s="10"/>
-      <c r="G983" s="10"/>
+      <c r="D983" s="9"/>
+      <c r="G983" s="9"/>
     </row>
     <row r="984" ht="42.0" customHeight="1">
-      <c r="D984" s="10"/>
-      <c r="G984" s="10"/>
+      <c r="D984" s="9"/>
+      <c r="G984" s="9"/>
     </row>
     <row r="985" ht="42.0" customHeight="1">
-      <c r="D985" s="10"/>
-      <c r="G985" s="10"/>
+      <c r="D985" s="9"/>
+      <c r="G985" s="9"/>
     </row>
     <row r="986" ht="42.0" customHeight="1">
-      <c r="D986" s="10"/>
-      <c r="G986" s="10"/>
+      <c r="D986" s="9"/>
+      <c r="G986" s="9"/>
     </row>
     <row r="987" ht="42.0" customHeight="1">
-      <c r="D987" s="10"/>
-      <c r="G987" s="10"/>
+      <c r="D987" s="9"/>
+      <c r="G987" s="9"/>
     </row>
     <row r="988" ht="42.0" customHeight="1">
-      <c r="D988" s="10"/>
-      <c r="G988" s="10"/>
+      <c r="D988" s="9"/>
+      <c r="G988" s="9"/>
     </row>
     <row r="989" ht="42.0" customHeight="1">
-      <c r="D989" s="10"/>
-      <c r="G989" s="10"/>
+      <c r="D989" s="9"/>
+      <c r="G989" s="9"/>
     </row>
     <row r="990" ht="42.0" customHeight="1">
-      <c r="D990" s="10"/>
-      <c r="G990" s="10"/>
+      <c r="D990" s="9"/>
+      <c r="G990" s="9"/>
     </row>
     <row r="991" ht="42.0" customHeight="1">
-      <c r="D991" s="10"/>
-      <c r="G991" s="10"/>
+      <c r="D991" s="9"/>
+      <c r="G991" s="9"/>
     </row>
     <row r="992" ht="42.0" customHeight="1">
-      <c r="D992" s="10"/>
-      <c r="G992" s="10"/>
+      <c r="D992" s="9"/>
+      <c r="G992" s="9"/>
     </row>
     <row r="993" ht="42.0" customHeight="1">
-      <c r="D993" s="10"/>
-      <c r="G993" s="10"/>
-    </row>
-    <row r="994" ht="42.0" customHeight="1">
-      <c r="D994" s="10"/>
-      <c r="G994" s="10"/>
-    </row>
-    <row r="995" ht="42.0" customHeight="1">
-      <c r="D995" s="10"/>
-      <c r="G995" s="10"/>
+      <c r="D993" s="9"/>
+      <c r="G993" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6763,30 +6721,29 @@
     <hyperlink r:id="rId34" ref="O18"/>
     <hyperlink r:id="rId35" ref="M19"/>
     <hyperlink r:id="rId36" ref="O19"/>
-    <hyperlink r:id="rId37" ref="O20"/>
-    <hyperlink r:id="rId38" ref="M21"/>
-    <hyperlink r:id="rId39" ref="O21"/>
-    <hyperlink r:id="rId40" ref="M22"/>
-    <hyperlink r:id="rId41" ref="O22"/>
-    <hyperlink r:id="rId42" ref="M23"/>
-    <hyperlink r:id="rId43" ref="O23"/>
-    <hyperlink r:id="rId44" ref="M24"/>
-    <hyperlink r:id="rId45" ref="O24"/>
-    <hyperlink r:id="rId46" ref="M25"/>
-    <hyperlink r:id="rId47" ref="O25"/>
-    <hyperlink r:id="rId48" ref="M26"/>
-    <hyperlink r:id="rId49" ref="O26"/>
-    <hyperlink r:id="rId50" ref="M27"/>
-    <hyperlink r:id="rId51" ref="O27"/>
-    <hyperlink r:id="rId52" ref="M28"/>
-    <hyperlink r:id="rId53" ref="O28"/>
-    <hyperlink r:id="rId54" ref="M29"/>
-    <hyperlink r:id="rId55" ref="O29"/>
-    <hyperlink r:id="rId56" ref="M30"/>
-    <hyperlink r:id="rId57" ref="O30"/>
-    <hyperlink r:id="rId58" ref="M31"/>
-    <hyperlink r:id="rId59" ref="O31"/>
+    <hyperlink r:id="rId37" ref="M20"/>
+    <hyperlink r:id="rId38" ref="O20"/>
+    <hyperlink r:id="rId39" ref="M21"/>
+    <hyperlink r:id="rId40" ref="O21"/>
+    <hyperlink r:id="rId41" ref="M22"/>
+    <hyperlink r:id="rId42" ref="O22"/>
+    <hyperlink r:id="rId43" ref="M23"/>
+    <hyperlink r:id="rId44" ref="O23"/>
+    <hyperlink r:id="rId45" ref="M24"/>
+    <hyperlink r:id="rId46" ref="O24"/>
+    <hyperlink r:id="rId47" ref="M25"/>
+    <hyperlink r:id="rId48" ref="O25"/>
+    <hyperlink r:id="rId49" ref="M26"/>
+    <hyperlink r:id="rId50" ref="O26"/>
+    <hyperlink r:id="rId51" ref="M27"/>
+    <hyperlink r:id="rId52" ref="O27"/>
+    <hyperlink r:id="rId53" ref="M28"/>
+    <hyperlink r:id="rId54" ref="O28"/>
+    <hyperlink r:id="rId55" ref="M29"/>
+    <hyperlink r:id="rId56" ref="O29"/>
+    <hyperlink r:id="rId57" ref="M30"/>
+    <hyperlink r:id="rId58" ref="O30"/>
   </hyperlinks>
-  <drawing r:id="rId60"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>
--- a/backend/app/Dogs.xlsx
+++ b/backend/app/Dogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
   <si>
     <t>Naam</t>
   </si>
@@ -281,30 +281,6 @@
     <t>https://dierenasielgenk.be/honden/didi/</t>
   </si>
   <si>
-    <t>Henkie</t>
-  </si>
-  <si>
-    <t>Eerder klein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deze leuke en lieve Lhasa Apso is na een hobbelig verleden op zoek naar een liefdevol thuis.
-Henkie is door een inbeslagname bij ons binnengebracht samen met nog enkele andere hondjes. Ze werden gebruikt voor de fok, maar kregen niet de juiste verzorging. Henkies vacht was vervilt, hij had kale plekken op zijn lijf en zijn ogen waren er slecht aan toe.
-Toch kwam gelijk zijn vrolijke en vriendelijke karakter naar boven ondanks dat hij in een nieuwe omgeving terecht kwam en zijn zicht vrijwel volledig ontbrak. Hij onderzocht zijn nieuwe plekje en was blij met de aandacht die hij kreeg. Hij is ook erg speels en vindt alle speeltjes leuk
-Op dit moment zit Henkie in een gastgezin waar hij veel liefde krijgt, hondenvriendjes heeft en ook de nodige medische zorg ontvangt. Ondertussen is hij gecastreerd, is zijn rechteroogje weggenomen en is zijn huid en vacht onder handen genomen. Om zijn andere oog te behouden wordt hij dagelijks intensief gezalfd en in de nabije toekomst heeft hij nog een operatie aan zijn knie nodig. We zoeken baasjes die deze zorg verder willen opvolgen.
-Henkie is 6 jaar, hij is zachtaardig, vriendelijk, onderzoekend en een levensgenieter. Hij wordt uitsluitend geplaatst bij een andere hond, hij kan ook bij kinderen vanaf 10 jaar en hij heeft nood aan een omheinde tuin. 
-In een nieuw thuis heeft Henkie veel baat bij een ander hondje en zullen aspecten zoals zindelijkheid en wandelen aan de riem verder opgebouwd moeten worden. In het gastgezin heeft hij hier al veel stappen in gemaakt.
-</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/10/20221007_175756-1200x1814.jpg</t>
-  </si>
-  <si>
-    <t>Ik heb nog wat extra zorg en aandacht nodig, maar ik ben vrolijk, vriendelijk, speels en ik houd van aandacht!</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/henkie-3/</t>
-  </si>
-  <si>
     <t>Herman</t>
   </si>
   <si>
@@ -328,6 +304,9 @@
     <t>Imara</t>
   </si>
   <si>
+    <t>Eerder klein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imara werd samen met 14 andere Chihuahua’s en 8 katten in beslag genomen.
 Toen we onze eerste blik wierpen op Imara was het eigenlijk overduidelijk dat zij niet zomaar dik was, maar drachtig. Ze heeft hier in het asiel vier schattige pups ter wereld gebracht en deze liefdevol verzorgt, grootgebracht en uitgezwaaid. Nu is het aan deze lieve dame om ook haar eigen thuis te vinden.
 Ze is vriendelijk naar mensen en heel zachtaardig, maar kan mede door haar achtergrond met momenten onzeker zijn. Ook zal ze nog dingen moeten leren, zoals aan de riem wandelen.
@@ -342,25 +321,6 @@
   </si>
   <si>
     <t>https://dierenasielgenk.be/honden/imara/</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
-Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
-Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
-Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
-  </si>
-  <si>
-    <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/junior/</t>
   </si>
   <si>
     <t>Kita</t>
@@ -577,26 +537,6 @@
   </si>
   <si>
     <t>https://dierenasielgenk.be/honden/thor/</t>
-  </si>
-  <si>
-    <t>Tipsie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tipsie werd samen met Junior en de pups in beslag genomen. De honden zaten in een vuil huis.
-We hebben Tipsie leren kennen als een hele zachte, lieve dame. Ze vindt het fijn om te knuffelen en speelt graag samen met de mens. Het is een actieve dame die activiteit graag wil afwisselen met fysiek contact. Ze is lichtjes onzeker, maar wanneer ze de tijd en ruimte krijgt om te gaan verkennen, wint haar nieuwsgierigheid van haar onzekerheid.
-Ze kent zit en poot en wanneer er lekkere beloningen te krijgen zijn, zal ze meer commando’s willen leren.
-Voor Tipsie is het belangrijk om zachtaardige mensen te vinden. Stemverheffingen zijn voor haar absoluut not-done.
-Tipsie kan bij een andere hond worden geplaatst; grotere kinderen zijn ook een optie. We zoeken voor haar mensen die graag wandelen/mentale uitdagingen willen bieden, maar ook zeker een hond zoeken om fijn mee te knuffelen.</t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-28-1200x800.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik ben een hele zachte, lieve dame die ook wel houdt van wat mentale uitdagingen! Wordt jij mijn nieuwe maatje? </t>
-  </si>
-  <si>
-    <t>https://dierenasielgenk.be/honden/tipsie/</t>
   </si>
   <si>
     <t>Vicky</t>
@@ -1323,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>21</v>
@@ -1496,25 +1436,25 @@
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>22</v>
@@ -1523,42 +1463,42 @@
         <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" ht="42.0" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>22</v>
@@ -1572,7 +1512,7 @@
       <c r="L12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>83</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -1590,19 +1530,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>20</v>
@@ -1611,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
@@ -1619,7 +1559,7 @@
       <c r="L13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1634,10 +1574,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>54</v>
@@ -1658,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>19</v>
@@ -1681,13 +1621,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -1696,42 +1636,42 @@
         <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="N15" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="42.0" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>54</v>
@@ -1758,30 +1698,30 @@
         <v>19</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" ht="42.0" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -1790,31 +1730,31 @@
         <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" ht="42.0" customHeight="1">
@@ -1825,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>54</v>
@@ -1837,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>20</v>
@@ -1846,10 +1786,10 @@
         <v>21</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>109</v>
@@ -1872,28 +1812,28 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>19</v>
@@ -1901,7 +1841,7 @@
       <c r="L19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>115</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -1922,33 +1862,33 @@
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="7" t="s">
         <v>120</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -1966,25 +1906,25 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>22</v>
@@ -1995,7 +1935,7 @@
       <c r="L21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>125</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -2016,16 +1956,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>20</v>
@@ -2034,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>19</v>
@@ -2042,7 +1982,7 @@
       <c r="L22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -2057,7 +1997,7 @@
         <v>133</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -2066,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>31</v>
@@ -2078,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>22</v>
@@ -2125,13 +2065,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>139</v>
@@ -2151,19 +2091,19 @@
         <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>31</v>
@@ -2201,25 +2141,25 @@
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>32</v>
@@ -2245,19 +2185,19 @@
         <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2266,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>32</v>
@@ -2288,145 +2228,43 @@
       </c>
     </row>
     <row r="28" ht="42.0" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" ht="42.0" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" ht="42.0" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" ht="42.0" customHeight="1">
       <c r="A31" s="4"/>
@@ -2530,7 +2368,6 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
     </row>
     <row r="39" ht="42.0" customHeight="1">
       <c r="A39" s="4"/>
@@ -2543,7 +2380,6 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
     </row>
     <row r="40" ht="42.0" customHeight="1">
       <c r="A40" s="4"/>
@@ -2556,7 +2392,6 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
     </row>
     <row r="41" ht="42.0" customHeight="1">
       <c r="A41" s="4"/>
@@ -2667,7 +2502,6 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" ht="42.0" customHeight="1">
-      <c r="A50" s="4"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2679,7 +2513,6 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" ht="42.0" customHeight="1">
-      <c r="A51" s="4"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2691,7 +2524,6 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" ht="42.0" customHeight="1">
-      <c r="A52" s="4"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3011,37 +2843,16 @@
       <c r="J80" s="8"/>
     </row>
     <row r="81" ht="42.0" customHeight="1">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" ht="42.0" customHeight="1">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" ht="42.0" customHeight="1">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" ht="42.0" customHeight="1">
       <c r="D84" s="9"/>
@@ -6670,18 +6481,6 @@
     <row r="990" ht="42.0" customHeight="1">
       <c r="D990" s="9"/>
       <c r="G990" s="9"/>
-    </row>
-    <row r="991" ht="42.0" customHeight="1">
-      <c r="D991" s="9"/>
-      <c r="G991" s="9"/>
-    </row>
-    <row r="992" ht="42.0" customHeight="1">
-      <c r="D992" s="9"/>
-      <c r="G992" s="9"/>
-    </row>
-    <row r="993" ht="42.0" customHeight="1">
-      <c r="D993" s="9"/>
-      <c r="G993" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6737,13 +6536,7 @@
     <hyperlink r:id="rId50" ref="O26"/>
     <hyperlink r:id="rId51" ref="M27"/>
     <hyperlink r:id="rId52" ref="O27"/>
-    <hyperlink r:id="rId53" ref="M28"/>
-    <hyperlink r:id="rId54" ref="O28"/>
-    <hyperlink r:id="rId55" ref="M29"/>
-    <hyperlink r:id="rId56" ref="O29"/>
-    <hyperlink r:id="rId57" ref="M30"/>
-    <hyperlink r:id="rId58" ref="O30"/>
   </hyperlinks>
-  <drawing r:id="rId59"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>